--- a/Modèles.xlsx
+++ b/Modèles.xlsx
@@ -20,7 +20,8 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$N$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$N$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$A$1:$A$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="517">
   <si>
     <t>deviceId</t>
   </si>
@@ -430,15 +431,6 @@
     <t>006-B4374-00</t>
   </si>
   <si>
-    <t>fenix7system6preview</t>
-  </si>
-  <si>
-    <t>4.2.0</t>
-  </si>
-  <si>
-    <t>006-B9997-00</t>
-  </si>
-  <si>
     <t>fenix7x</t>
   </si>
   <si>
@@ -874,12 +866,6 @@
     <t>006-B3704-00</t>
   </si>
   <si>
-    <t>venu2system6preview</t>
-  </si>
-  <si>
-    <t>006-B9998-00</t>
-  </si>
-  <si>
     <t>venu3</t>
   </si>
   <si>
@@ -1312,9 +1298,6 @@
     <t>fÄ“nixÂ® 7S Pro</t>
   </si>
   <si>
-    <t>fÄ“nixÂ® 7 System 6 Preview</t>
-  </si>
-  <si>
     <t>fÄ“nixÂ® 7X / tactixÂ® 7 / quatixÂ® 7X Solar / Enduroâ„¢ 2</t>
   </si>
   <si>
@@ -1517,9 +1500,6 @@
   </si>
   <si>
     <t>VenuÂ® 2S</t>
-  </si>
-  <si>
-    <t>VenuÂ® 2 System 6 Preview</t>
   </si>
   <si>
     <t>VenuÂ® 3</t>
@@ -2318,13 +2298,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,25 +2339,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -2387,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2414,7 +2393,7 @@
         <v>65536</v>
       </c>
       <c r="L2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M2" t="str">
         <f>IFERROR(VLOOKUP(A2,Feuil3!A:A,1,0),"")</f>
@@ -2425,12 +2404,12 @@
         <v>&lt;iq:product id="approachs50"/&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -2439,7 +2418,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -2460,7 +2439,7 @@
         <v>32768</v>
       </c>
       <c r="L3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M3" t="str">
         <f>IFERROR(VLOOKUP(A3,Feuil3!A:A,1,0),"")</f>
@@ -2471,12 +2450,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2506,7 +2485,7 @@
         <v>65536</v>
       </c>
       <c r="L4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M4" t="str">
         <f>IFERROR(VLOOKUP(A4,Feuil3!A:A,1,0),"")</f>
@@ -2522,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2552,7 +2531,7 @@
         <v>65536</v>
       </c>
       <c r="L5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M5" t="str">
         <f>IFERROR(VLOOKUP(A5,Feuil3!A:A,1,0),"")</f>
@@ -2568,7 +2547,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2598,7 +2577,7 @@
         <v>65536</v>
       </c>
       <c r="L6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(VLOOKUP(A6,Feuil3!A:A,1,0),"")</f>
@@ -2609,7 +2588,7 @@
         <v>&lt;iq:product id="approachs7047mm"/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2644,7 +2623,7 @@
         <v>32768</v>
       </c>
       <c r="L7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M7" t="str">
         <f>IFERROR(VLOOKUP(A7,Feuil3!A:A,1,0),"")</f>
@@ -2660,7 +2639,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2690,7 +2669,7 @@
         <v>65536</v>
       </c>
       <c r="L8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M8" t="str">
         <f>IFERROR(VLOOKUP(A8,Feuil3!A:A,1,0),"")</f>
@@ -2706,7 +2685,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2736,7 +2715,7 @@
         <v>65536</v>
       </c>
       <c r="L9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M9" t="str">
         <f>IFERROR(VLOOKUP(A9,Feuil3!A:A,1,0),"")</f>
@@ -2747,12 +2726,12 @@
         <v>&lt;iq:product id="d2airx10"/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -2782,7 +2761,7 @@
         <v>65536</v>
       </c>
       <c r="L10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M10" t="str">
         <f>IFERROR(VLOOKUP(A10,Feuil3!A:A,1,0),"")</f>
@@ -2793,12 +2772,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -2828,7 +2807,7 @@
         <v>65536</v>
       </c>
       <c r="L11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M11" t="str">
         <f>IFERROR(VLOOKUP(A11,Feuil3!A:A,1,0),"")</f>
@@ -2839,12 +2818,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2874,7 +2853,7 @@
         <v>32768</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M12" t="str">
         <f>IFERROR(VLOOKUP(A12,Feuil3!A:A,1,0),"")</f>
@@ -2890,7 +2869,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2920,7 +2899,7 @@
         <v>32768</v>
       </c>
       <c r="L13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M13" t="str">
         <f>IFERROR(VLOOKUP(A13,Feuil3!A:A,1,0),"")</f>
@@ -2936,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2966,7 +2945,7 @@
         <v>32768</v>
       </c>
       <c r="L14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M14" t="str">
         <f>IFERROR(VLOOKUP(A14,Feuil3!A:A,1,0),"")</f>
@@ -2982,7 +2961,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -3012,7 +2991,7 @@
         <v>32768</v>
       </c>
       <c r="L15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M15" t="str">
         <f>IFERROR(VLOOKUP(A15,Feuil3!A:A,1,0),"")</f>
@@ -3028,7 +3007,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -3037,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -3058,22 +3037,22 @@
         <v>65536</v>
       </c>
       <c r="L16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M16" t="str">
         <f>IFERROR(VLOOKUP(A16,Feuil3!A:A,1,0),"")</f>
         <v>d2mach1</v>
       </c>
       <c r="N16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -3103,7 +3082,7 @@
         <v>32768</v>
       </c>
       <c r="L17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M17" t="str">
         <f>IFERROR(VLOOKUP(A17,Feuil3!A:A,1,0),"")</f>
@@ -3119,7 +3098,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3149,22 +3128,22 @@
         <v>65536</v>
       </c>
       <c r="L18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M18" t="str">
         <f>IFERROR(VLOOKUP(A18,Feuil3!A:A,1,0),"")</f>
         <v>descentg2</v>
       </c>
       <c r="N18" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -3173,7 +3152,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
         <v>64</v>
@@ -3194,7 +3173,7 @@
         <v>32768</v>
       </c>
       <c r="L19" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M19" t="str">
         <f>IFERROR(VLOOKUP(A19,Feuil3!A:A,1,0),"")</f>
@@ -3210,7 +3189,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -3240,14 +3219,14 @@
         <v>32768</v>
       </c>
       <c r="L20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M20" t="str">
         <f>IFERROR(VLOOKUP(A20,Feuil3!A:A,1,0),"")</f>
         <v>descentmk2</v>
       </c>
       <c r="N20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3255,7 +3234,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -3285,14 +3264,14 @@
         <v>32768</v>
       </c>
       <c r="L21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M21" t="str">
         <f>IFERROR(VLOOKUP(A21,Feuil3!A:A,1,0),"")</f>
         <v>descentmk2s</v>
       </c>
       <c r="N21" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3300,7 +3279,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3330,14 +3309,14 @@
         <v>65536</v>
       </c>
       <c r="L22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M22" t="str">
         <f>IFERROR(VLOOKUP(A22,Feuil3!A:A,1,0),"")</f>
         <v>descentmk343mm</v>
       </c>
       <c r="N22" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3345,7 +3324,7 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3375,14 +3354,14 @@
         <v>65536</v>
       </c>
       <c r="L23" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M23" t="str">
         <f>IFERROR(VLOOKUP(A23,Feuil3!A:A,1,0),"")</f>
         <v>descentmk351mm</v>
       </c>
       <c r="N23" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3390,7 +3369,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -3420,14 +3399,14 @@
         <v>32768</v>
       </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M24" t="str">
         <f>IFERROR(VLOOKUP(A24,Feuil3!A:A,1,0),"")</f>
         <v>enduro</v>
       </c>
       <c r="N24" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3435,7 +3414,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -3444,7 +3423,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
         <v>80</v>
@@ -3465,22 +3444,22 @@
         <v>65536</v>
       </c>
       <c r="L25" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(VLOOKUP(A25,Feuil3!A:A,1,0),"")</f>
         <v>enduro3</v>
       </c>
       <c r="N25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
@@ -3510,7 +3489,7 @@
         <v>65536</v>
       </c>
       <c r="L26" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M26" t="str">
         <f>IFERROR(VLOOKUP(A26,Feuil3!A:A,1,0),"")</f>
@@ -3526,7 +3505,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -3535,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -3556,14 +3535,14 @@
         <v>65536</v>
       </c>
       <c r="L27" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M27" t="str">
         <f>IFERROR(VLOOKUP(A27,Feuil3!A:A,1,0),"")</f>
         <v>epix2</v>
       </c>
       <c r="N27" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3571,7 +3550,7 @@
         <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3580,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
@@ -3601,14 +3580,14 @@
         <v>65536</v>
       </c>
       <c r="L28" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M28" t="str">
         <f>IFERROR(VLOOKUP(A28,Feuil3!A:A,1,0),"")</f>
         <v>epix2pro42mm</v>
       </c>
       <c r="N28" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3616,7 +3595,7 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -3625,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F29" t="s">
         <v>90</v>
@@ -3646,14 +3625,14 @@
         <v>65536</v>
       </c>
       <c r="L29" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M29" t="str">
         <f>IFERROR(VLOOKUP(A29,Feuil3!A:A,1,0),"")</f>
         <v>epix2pro47mm</v>
       </c>
       <c r="N29" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3661,7 +3640,7 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -3670,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F30" t="s">
         <v>92</v>
@@ -3691,22 +3670,22 @@
         <v>65536</v>
       </c>
       <c r="L30" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M30" t="str">
         <f>IFERROR(VLOOKUP(A30,Feuil3!A:A,1,0),"")</f>
         <v>epix2pro51mm</v>
       </c>
       <c r="N30" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -3736,7 +3715,7 @@
         <v>65536</v>
       </c>
       <c r="L31" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M31" t="str">
         <f>IFERROR(VLOOKUP(A31,Feuil3!A:A,1,0),"")</f>
@@ -3747,12 +3726,12 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -3782,7 +3761,7 @@
         <v>65536</v>
       </c>
       <c r="L32" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M32" t="str">
         <f>IFERROR(VLOOKUP(A32,Feuil3!A:A,1,0),"")</f>
@@ -3798,7 +3777,7 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -3828,7 +3807,7 @@
         <v>32768</v>
       </c>
       <c r="L33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M33" t="str">
         <f>IFERROR(VLOOKUP(A33,Feuil3!A:A,1,0),"")</f>
@@ -3844,7 +3823,7 @@
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -3874,14 +3853,14 @@
         <v>32768</v>
       </c>
       <c r="L34" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M34" t="str">
         <f>IFERROR(VLOOKUP(A34,Feuil3!A:A,1,0),"")</f>
         <v>fenix5plus</v>
       </c>
       <c r="N34" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3889,7 +3868,7 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
@@ -3919,7 +3898,7 @@
         <v>32768</v>
       </c>
       <c r="L35" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M35" t="str">
         <f>IFERROR(VLOOKUP(A35,Feuil3!A:A,1,0),"")</f>
@@ -3935,7 +3914,7 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -3965,14 +3944,14 @@
         <v>32768</v>
       </c>
       <c r="L36" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M36" t="str">
         <f>IFERROR(VLOOKUP(A36,Feuil3!A:A,1,0),"")</f>
         <v>fenix5splus</v>
       </c>
       <c r="N36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3980,7 +3959,7 @@
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -4010,7 +3989,7 @@
         <v>32768</v>
       </c>
       <c r="L37" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M37" t="str">
         <f>IFERROR(VLOOKUP(A37,Feuil3!A:A,1,0),"")</f>
@@ -4026,7 +4005,7 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -4056,14 +4035,14 @@
         <v>32768</v>
       </c>
       <c r="L38" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M38" t="str">
         <f>IFERROR(VLOOKUP(A38,Feuil3!A:A,1,0),"")</f>
         <v>fenix5xplus</v>
       </c>
       <c r="N38" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4071,7 +4050,7 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
@@ -4101,14 +4080,14 @@
         <v>32768</v>
       </c>
       <c r="L39" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M39" t="str">
         <f>IFERROR(VLOOKUP(A39,Feuil3!A:A,1,0),"")</f>
         <v>fenix6</v>
       </c>
       <c r="N39" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4116,7 +4095,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -4146,14 +4125,14 @@
         <v>32768</v>
       </c>
       <c r="L40" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M40" t="str">
         <f>IFERROR(VLOOKUP(A40,Feuil3!A:A,1,0),"")</f>
         <v>fenix6pro</v>
       </c>
       <c r="N40" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4161,7 +4140,7 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -4191,14 +4170,14 @@
         <v>32768</v>
       </c>
       <c r="L41" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M41" t="str">
         <f>IFERROR(VLOOKUP(A41,Feuil3!A:A,1,0),"")</f>
         <v>fenix6s</v>
       </c>
       <c r="N41" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4206,7 +4185,7 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -4236,14 +4215,14 @@
         <v>32768</v>
       </c>
       <c r="L42" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(VLOOKUP(A42,Feuil3!A:A,1,0),"")</f>
         <v>fenix6spro</v>
       </c>
       <c r="N42" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4251,7 +4230,7 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -4281,14 +4260,14 @@
         <v>32768</v>
       </c>
       <c r="L43" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M43" t="str">
         <f>IFERROR(VLOOKUP(A43,Feuil3!A:A,1,0),"")</f>
         <v>fenix6xpro</v>
       </c>
       <c r="N43" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4296,7 +4275,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -4305,7 +4284,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F44" t="s">
         <v>123</v>
@@ -4326,14 +4305,14 @@
         <v>65536</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M44" t="str">
         <f>IFERROR(VLOOKUP(A44,Feuil3!A:A,1,0),"")</f>
         <v>fenix7</v>
       </c>
       <c r="N44" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4341,7 +4320,7 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -4350,7 +4329,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F45" t="s">
         <v>125</v>
@@ -4371,14 +4350,14 @@
         <v>65536</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M45" t="str">
         <f>IFERROR(VLOOKUP(A45,Feuil3!A:A,1,0),"")</f>
         <v>fenix7pro</v>
       </c>
       <c r="N45" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4386,7 +4365,7 @@
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -4395,7 +4374,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F46" t="s">
         <v>127</v>
@@ -4416,14 +4395,14 @@
         <v>65536</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M46" t="str">
         <f>IFERROR(VLOOKUP(A46,Feuil3!A:A,1,0),"")</f>
         <v>fenix7pronowifi</v>
       </c>
       <c r="N46" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -4431,7 +4410,7 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -4440,7 +4419,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F47" t="s">
         <v>129</v>
@@ -4461,14 +4440,14 @@
         <v>65536</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M47" t="str">
         <f>IFERROR(VLOOKUP(A47,Feuil3!A:A,1,0),"")</f>
         <v>fenix7s</v>
       </c>
       <c r="N47" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4476,7 +4455,7 @@
         <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -4485,7 +4464,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F48" t="s">
         <v>131</v>
@@ -4506,14 +4485,14 @@
         <v>65536</v>
       </c>
       <c r="L48" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M48" t="str">
         <f>IFERROR(VLOOKUP(A48,Feuil3!A:A,1,0),"")</f>
         <v>fenix7spro</v>
       </c>
       <c r="N48" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4521,19 +4500,19 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" t="s">
         <v>133</v>
-      </c>
-      <c r="F49" t="s">
-        <v>134</v>
       </c>
       <c r="G49">
         <v>131072</v>
@@ -4551,22 +4530,22 @@
         <v>65536</v>
       </c>
       <c r="L49" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M49" t="str">
         <f>IFERROR(VLOOKUP(A49,Feuil3!A:A,1,0),"")</f>
-        <v>fenix7system6preview</v>
+        <v>fenix7x</v>
       </c>
       <c r="N49" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
@@ -4575,10 +4554,10 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G50">
         <v>131072</v>
@@ -4596,22 +4575,22 @@
         <v>65536</v>
       </c>
       <c r="L50" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M50" t="str">
         <f>IFERROR(VLOOKUP(A50,Feuil3!A:A,1,0),"")</f>
-        <v>fenix7x</v>
+        <v>fenix7xpro</v>
       </c>
       <c r="N50" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -4620,10 +4599,10 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G51">
         <v>131072</v>
@@ -4641,34 +4620,34 @@
         <v>65536</v>
       </c>
       <c r="L51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M51" t="str">
         <f>IFERROR(VLOOKUP(A51,Feuil3!A:A,1,0),"")</f>
-        <v>fenix7xpro</v>
+        <v>fenix7xpronowifi</v>
       </c>
       <c r="N51" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>387</v>
+      </c>
+      <c r="F52" t="s">
         <v>139</v>
-      </c>
-      <c r="B52" t="s">
-        <v>429</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>392</v>
-      </c>
-      <c r="F52" t="s">
-        <v>140</v>
       </c>
       <c r="G52">
         <v>131072</v>
@@ -4680,40 +4659,40 @@
         <v>1048576</v>
       </c>
       <c r="J52">
-        <v>262144</v>
+        <v>131072</v>
       </c>
       <c r="K52">
         <v>65536</v>
       </c>
       <c r="L52" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M52" t="str">
         <f>IFERROR(VLOOKUP(A52,Feuil3!A:A,1,0),"")</f>
-        <v>fenix7xpronowifi</v>
+        <v>fenix843mm</v>
       </c>
       <c r="N52" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53">
         <v>131072</v>
@@ -4731,34 +4710,34 @@
         <v>65536</v>
       </c>
       <c r="L53" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M53" t="str">
         <f>IFERROR(VLOOKUP(A53,Feuil3!A:A,1,0),"")</f>
-        <v>fenix843mm</v>
+        <v>fenix847mm</v>
       </c>
       <c r="N53" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
+      </c>
+      <c r="F54" t="s">
         <v>143</v>
-      </c>
-      <c r="B54" t="s">
-        <v>431</v>
-      </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>392</v>
-      </c>
-      <c r="F54" t="s">
-        <v>144</v>
       </c>
       <c r="G54">
         <v>131072</v>
@@ -4776,34 +4755,34 @@
         <v>65536</v>
       </c>
       <c r="L54" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M54" t="str">
         <f>IFERROR(VLOOKUP(A54,Feuil3!A:A,1,0),"")</f>
-        <v>fenix847mm</v>
+        <v>fenix8solar47mm</v>
       </c>
       <c r="N54" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55">
         <v>131072</v>
@@ -4821,125 +4800,125 @@
         <v>65536</v>
       </c>
       <c r="L55" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M55" t="str">
         <f>IFERROR(VLOOKUP(A55,Feuil3!A:A,1,0),"")</f>
-        <v>fenix8solar47mm</v>
+        <v>fenix8solar51mm</v>
       </c>
       <c r="N55" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56">
-        <v>131072</v>
+        <v>98304</v>
       </c>
       <c r="H56">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I56">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="J56">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="K56">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L56" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M56" t="str">
         <f>IFERROR(VLOOKUP(A56,Feuil3!A:A,1,0),"")</f>
-        <v>fenix8solar51mm</v>
-      </c>
-      <c r="N56" t="s">
-        <v>523</v>
+        <v>fenixchronos</v>
+      </c>
+      <c r="N56" t="str">
+        <f>A56&amp;".excludeAnnotations=""noMenus"""</f>
+        <v>fenixchronos.excludeAnnotations="noMenus"</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
+        <v>429</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" t="s">
         <v>149</v>
       </c>
-      <c r="B57" t="s">
-        <v>434</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" t="s">
-        <v>150</v>
-      </c>
       <c r="G57">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="H57">
-        <v>131072</v>
+        <v>786432</v>
       </c>
       <c r="I57">
         <v>65536</v>
       </c>
       <c r="J57">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="K57">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L57" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M57" t="str">
         <f>IFERROR(VLOOKUP(A57,Feuil3!A:A,1,0),"")</f>
-        <v>fenixchronos</v>
-      </c>
-      <c r="N57" t="str">
-        <f>A57&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fenixchronos.excludeAnnotations="noMenus"</v>
+        <v>fenixe</v>
+      </c>
+      <c r="N57" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G58">
         <v>131072</v>
@@ -4951,28 +4930,28 @@
         <v>65536</v>
       </c>
       <c r="J58">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="K58">
         <v>65536</v>
       </c>
       <c r="L58" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M58" t="str">
         <f>IFERROR(VLOOKUP(A58,Feuil3!A:A,1,0),"")</f>
-        <v>fenixe</v>
+        <v>fr165</v>
       </c>
       <c r="N58" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -4981,10 +4960,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G59">
         <v>131072</v>
@@ -5002,70 +4981,71 @@
         <v>65536</v>
       </c>
       <c r="L59" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(VLOOKUP(A59,Feuil3!A:A,1,0),"")</f>
-        <v>fr165</v>
+        <v>fr165m</v>
       </c>
       <c r="N59" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>432</v>
+      </c>
+      <c r="C60" t="s">
         <v>155</v>
       </c>
-      <c r="B60" t="s">
-        <v>437</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
         <v>156</v>
       </c>
       <c r="G60">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="H60">
-        <v>786432</v>
+        <v>65536</v>
       </c>
       <c r="I60">
         <v>65536</v>
       </c>
       <c r="J60">
-        <v>262144</v>
+        <v>16384</v>
       </c>
       <c r="K60">
         <v>65536</v>
       </c>
       <c r="L60" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M60" t="str">
         <f>IFERROR(VLOOKUP(A60,Feuil3!A:A,1,0),"")</f>
-        <v>fr165m</v>
-      </c>
-      <c r="N60" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <f>IFERROR(VLOOKUP(B60,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -5074,7 +5054,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61">
         <v>65536</v>
@@ -5092,7 +5072,7 @@
         <v>65536</v>
       </c>
       <c r="L61" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M61" t="str">
         <f>IFERROR(VLOOKUP(A61,Feuil3!A:A,1,0),"")</f>
@@ -5103,50 +5083,49 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s">
         <v>161</v>
       </c>
       <c r="G62">
-        <v>65536</v>
+        <v>98304</v>
       </c>
       <c r="H62">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="I62">
         <v>65536</v>
       </c>
       <c r="J62">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="K62">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L62" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M62" t="str">
         <f>IFERROR(VLOOKUP(A62,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N62" t="str">
-        <f>IFERROR(VLOOKUP(B62,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <v>fr245</v>
+      </c>
+      <c r="N62" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -5154,7 +5133,7 @@
         <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -5163,88 +5142,88 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" t="s">
         <v>163</v>
-      </c>
-      <c r="F63" t="s">
-        <v>164</v>
       </c>
       <c r="G63">
         <v>98304</v>
       </c>
       <c r="H63">
-        <v>131072</v>
+        <v>1310720</v>
       </c>
       <c r="I63">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="J63">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="K63">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L63" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M63" t="str">
         <f>IFERROR(VLOOKUP(A63,Feuil3!A:A,1,0),"")</f>
-        <v>fr245</v>
+        <v>fr245m</v>
       </c>
       <c r="N63" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>387</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="H64">
-        <v>1310720</v>
+        <v>524288</v>
       </c>
       <c r="I64">
         <v>1048576</v>
       </c>
       <c r="J64">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="K64">
         <v>65536</v>
       </c>
       <c r="L64" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M64" t="str">
         <f>IFERROR(VLOOKUP(A64,Feuil3!A:A,1,0),"")</f>
-        <v>fr245m</v>
+        <v>fr255</v>
       </c>
       <c r="N64" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -5253,16 +5232,16 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G65">
         <v>131072</v>
       </c>
       <c r="H65">
-        <v>524288</v>
+        <v>786432</v>
       </c>
       <c r="I65">
         <v>1048576</v>
@@ -5274,40 +5253,40 @@
         <v>65536</v>
       </c>
       <c r="L65" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M65" t="str">
         <f>IFERROR(VLOOKUP(A65,Feuil3!A:A,1,0),"")</f>
-        <v>fr255</v>
+        <v>fr255m</v>
       </c>
       <c r="N65" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G66">
         <v>131072</v>
       </c>
       <c r="H66">
-        <v>786432</v>
+        <v>524288</v>
       </c>
       <c r="I66">
         <v>1048576</v>
@@ -5319,22 +5298,22 @@
         <v>65536</v>
       </c>
       <c r="L66" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(VLOOKUP(A66,Feuil3!A:A,1,0),"")</f>
-        <v>fr255m</v>
+        <v>fr255s</v>
       </c>
       <c r="N66" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C67" t="s">
         <v>40</v>
@@ -5343,16 +5322,16 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G67">
         <v>131072</v>
       </c>
       <c r="H67">
-        <v>524288</v>
+        <v>786432</v>
       </c>
       <c r="I67">
         <v>1048576</v>
@@ -5364,34 +5343,34 @@
         <v>65536</v>
       </c>
       <c r="L67" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M67" t="str">
         <f>IFERROR(VLOOKUP(A67,Feuil3!A:A,1,0),"")</f>
-        <v>fr255s</v>
+        <v>fr255sm</v>
       </c>
       <c r="N67" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>387</v>
+      </c>
+      <c r="F68" t="s">
         <v>173</v>
-      </c>
-      <c r="B68" t="s">
-        <v>445</v>
-      </c>
-      <c r="C68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>392</v>
-      </c>
-      <c r="F68" t="s">
-        <v>174</v>
       </c>
       <c r="G68">
         <v>131072</v>
@@ -5409,31 +5388,31 @@
         <v>65536</v>
       </c>
       <c r="L68" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M68" t="str">
         <f>IFERROR(VLOOKUP(A68,Feuil3!A:A,1,0),"")</f>
-        <v>fr255sm</v>
+        <v>fr265</v>
       </c>
       <c r="N68" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
-      </c>
-      <c r="B69" t="s">
-        <v>446</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F69" t="s">
         <v>176</v>
@@ -5454,14 +5433,14 @@
         <v>65536</v>
       </c>
       <c r="L69" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M69" t="str">
         <f>IFERROR(VLOOKUP(A69,Feuil3!A:A,1,0),"")</f>
-        <v>fr265</v>
+        <v>fr265s</v>
       </c>
       <c r="N69" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5469,22 +5448,22 @@
         <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C70" t="s">
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>392</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G70">
-        <v>131072</v>
+        <v>49152</v>
       </c>
       <c r="H70">
         <v>786432</v>
@@ -5499,52 +5478,53 @@
         <v>65536</v>
       </c>
       <c r="L70" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M70" t="str">
         <f>IFERROR(VLOOKUP(A70,Feuil3!A:A,1,0),"")</f>
-        <v>fr265s</v>
-      </c>
-      <c r="N70" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <f>IFERROR(VLOOKUP(B70,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
         <v>182</v>
       </c>
-      <c r="F71" t="s">
-        <v>183</v>
-      </c>
       <c r="G71">
-        <v>49152</v>
+        <v>98304</v>
       </c>
       <c r="H71">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I71">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="J71">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K71">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L71" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M71" t="str">
         <f>IFERROR(VLOOKUP(A71,Feuil3!A:A,1,0),"")</f>
@@ -5555,61 +5535,60 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
+        <v>444</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
         <v>184</v>
       </c>
-      <c r="B72" t="s">
-        <v>449</v>
-      </c>
-      <c r="C72" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" t="s">
-        <v>185</v>
-      </c>
       <c r="G72">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="H72">
-        <v>131072</v>
+        <v>786432</v>
       </c>
       <c r="I72">
         <v>65536</v>
       </c>
       <c r="J72">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="K72">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L72" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M72" t="str">
         <f>IFERROR(VLOOKUP(A72,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N72" t="str">
-        <f>IFERROR(VLOOKUP(B72,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <v>fr57042mm</v>
+      </c>
+      <c r="N72" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -5618,7 +5597,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G73">
         <v>131072</v>
@@ -5636,113 +5615,114 @@
         <v>65536</v>
       </c>
       <c r="L73" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M73" t="str">
         <f>IFERROR(VLOOKUP(A73,Feuil3!A:A,1,0),"")</f>
-        <v>fr57042mm</v>
+        <v>fr57047mm</v>
       </c>
       <c r="N73" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>446</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="B74" t="s">
-        <v>451</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" t="s">
-        <v>189</v>
-      </c>
       <c r="G74">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="H74">
-        <v>786432</v>
+        <v>65536</v>
       </c>
       <c r="I74">
         <v>65536</v>
       </c>
       <c r="J74">
-        <v>262144</v>
+        <v>16384</v>
       </c>
       <c r="K74">
         <v>65536</v>
       </c>
       <c r="L74" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M74" t="str">
         <f>IFERROR(VLOOKUP(A74,Feuil3!A:A,1,0),"")</f>
-        <v>fr57047mm</v>
-      </c>
-      <c r="N74" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <f>IFERROR(VLOOKUP(B74,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G75">
-        <v>65536</v>
+        <v>98304</v>
       </c>
       <c r="H75">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="I75">
         <v>65536</v>
       </c>
       <c r="J75">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="K75">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L75" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M75" t="str">
         <f>IFERROR(VLOOKUP(A75,Feuil3!A:A,1,0),"")</f>
-        <v/>
+        <v>fr645</v>
       </c>
       <c r="N75" t="str">
-        <f>IFERROR(VLOOKUP(B75,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <f>A75&amp;".excludeAnnotations=""noMenus"""</f>
+        <v>fr645.excludeAnnotations="noMenus"</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -5751,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="F76" t="s">
         <v>193</v>
@@ -5760,27 +5740,26 @@
         <v>98304</v>
       </c>
       <c r="H76">
-        <v>131072</v>
+        <v>1048576</v>
       </c>
       <c r="I76">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="J76">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="K76">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L76" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M76" t="str">
         <f>IFERROR(VLOOKUP(A76,Feuil3!A:A,1,0),"")</f>
-        <v>fr645</v>
-      </c>
-      <c r="N76" t="str">
-        <f>A76&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fr645.excludeAnnotations="noMenus"</v>
+        <v>fr645m</v>
+      </c>
+      <c r="N76" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5788,189 +5767,190 @@
         <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
         <v>195</v>
       </c>
-      <c r="F77" t="s">
-        <v>196</v>
-      </c>
       <c r="G77">
-        <v>98304</v>
+        <v>65536</v>
       </c>
       <c r="H77">
-        <v>1048576</v>
+        <v>131072</v>
       </c>
       <c r="I77">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J77">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="K77">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L77" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M77" t="str">
         <f>IFERROR(VLOOKUP(A77,Feuil3!A:A,1,0),"")</f>
-        <v>fr645m</v>
-      </c>
-      <c r="N77" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <f>IFERROR(VLOOKUP(B77,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G78">
-        <v>65536</v>
+        <v>98304</v>
       </c>
       <c r="H78">
-        <v>131072</v>
+        <v>1310720</v>
       </c>
       <c r="I78">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="J78">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="K78">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L78" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(VLOOKUP(A78,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N78" t="str">
-        <f>IFERROR(VLOOKUP(B78,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <v>fr745</v>
+      </c>
+      <c r="N78" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G79">
-        <v>98304</v>
+        <v>65536</v>
       </c>
       <c r="H79">
-        <v>1310720</v>
+        <v>65536</v>
       </c>
       <c r="I79">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="J79">
-        <v>131072</v>
+        <v>16384</v>
       </c>
       <c r="K79">
         <v>65536</v>
       </c>
       <c r="L79" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M79" t="str">
         <f>IFERROR(VLOOKUP(A79,Feuil3!A:A,1,0),"")</f>
-        <v>fr745</v>
-      </c>
-      <c r="N79" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N79" t="str">
+        <f>IFERROR(VLOOKUP(B79,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G80">
-        <v>65536</v>
+        <v>98304</v>
       </c>
       <c r="H80">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="I80">
         <v>65536</v>
       </c>
       <c r="J80">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="K80">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L80" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M80" t="str">
         <f>IFERROR(VLOOKUP(A80,Feuil3!A:A,1,0),"")</f>
-        <v/>
+        <v>fr935</v>
       </c>
       <c r="N80" t="str">
-        <f>IFERROR(VLOOKUP(B80,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <f>A80&amp;".excludeAnnotations=""noMenus"""</f>
+        <v>fr935.excludeAnnotations="noMenus"</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -5979,44 +5959,43 @@
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G81">
         <v>98304</v>
       </c>
       <c r="H81">
-        <v>131072</v>
+        <v>1310720</v>
       </c>
       <c r="I81">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="J81">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="K81">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L81" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M81" t="str">
         <f>IFERROR(VLOOKUP(A81,Feuil3!A:A,1,0),"")</f>
-        <v>fr935</v>
-      </c>
-      <c r="N81" t="str">
-        <f>A81&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fr935.excludeAnnotations="noMenus"</v>
+        <v>fr945</v>
+      </c>
+      <c r="N81" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -6025,7 +6004,7 @@
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="F82" t="s">
         <v>206</v>
@@ -6046,14 +6025,14 @@
         <v>65536</v>
       </c>
       <c r="L82" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M82" t="str">
         <f>IFERROR(VLOOKUP(A82,Feuil3!A:A,1,0),"")</f>
-        <v>fr945</v>
+        <v>fr945lte</v>
       </c>
       <c r="N82" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6061,64 +6040,64 @@
         <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
+        <v>387</v>
+      </c>
+      <c r="F83" t="s">
         <v>208</v>
       </c>
-      <c r="F83" t="s">
-        <v>209</v>
-      </c>
       <c r="G83">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="H83">
-        <v>1310720</v>
+        <v>786432</v>
       </c>
       <c r="I83">
         <v>1048576</v>
       </c>
       <c r="J83">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="K83">
         <v>65536</v>
       </c>
       <c r="L83" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M83" t="str">
         <f>IFERROR(VLOOKUP(A83,Feuil3!A:A,1,0),"")</f>
-        <v>fr945lte</v>
+        <v>fr955</v>
       </c>
       <c r="N83" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>456</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+      <c r="F84" t="s">
         <v>210</v>
-      </c>
-      <c r="B84" t="s">
-        <v>461</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F84" t="s">
-        <v>211</v>
       </c>
       <c r="G84">
         <v>131072</v>
@@ -6136,22 +6115,22 @@
         <v>65536</v>
       </c>
       <c r="L84" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M84" t="str">
         <f>IFERROR(VLOOKUP(A84,Feuil3!A:A,1,0),"")</f>
-        <v>fr955</v>
+        <v>fr965</v>
       </c>
       <c r="N84" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
@@ -6160,10 +6139,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G85">
         <v>131072</v>
@@ -6181,37 +6160,37 @@
         <v>65536</v>
       </c>
       <c r="L85" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M85" t="str">
         <f>IFERROR(VLOOKUP(A85,Feuil3!A:A,1,0),"")</f>
-        <v>fr965</v>
+        <v>fr970</v>
       </c>
       <c r="N85" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" t="s">
+        <v>458</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" t="s">
         <v>214</v>
       </c>
-      <c r="B86" t="s">
-        <v>463</v>
-      </c>
-      <c r="C86" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" t="s">
-        <v>215</v>
-      </c>
       <c r="G86">
-        <v>131072</v>
+        <v>49152</v>
       </c>
       <c r="H86">
         <v>786432</v>
@@ -6226,52 +6205,53 @@
         <v>65536</v>
       </c>
       <c r="L86" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M86" t="str">
         <f>IFERROR(VLOOKUP(A86,Feuil3!A:A,1,0),"")</f>
-        <v>fr970</v>
-      </c>
-      <c r="N86" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <f>IFERROR(VLOOKUP(B86,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G87">
-        <v>49152</v>
+        <v>65536</v>
       </c>
       <c r="H87">
-        <v>786432</v>
+        <v>98304</v>
       </c>
       <c r="I87">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="J87">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K87">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L87" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M87" t="str">
         <f>IFERROR(VLOOKUP(A87,Feuil3!A:A,1,0),"")</f>
@@ -6282,15 +6262,15 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" t="s">
+        <v>460</v>
+      </c>
+      <c r="C88" t="s">
         <v>218</v>
-      </c>
-      <c r="B88" t="s">
-        <v>465</v>
-      </c>
-      <c r="C88" t="s">
-        <v>58</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -6317,7 +6297,7 @@
         <v>32768</v>
       </c>
       <c r="L88" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M88" t="str">
         <f>IFERROR(VLOOKUP(A88,Feuil3!A:A,1,0),"")</f>
@@ -6328,24 +6308,24 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G89">
         <v>65536</v>
@@ -6363,7 +6343,7 @@
         <v>32768</v>
       </c>
       <c r="L89" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M89" t="str">
         <f>IFERROR(VLOOKUP(A89,Feuil3!A:A,1,0),"")</f>
@@ -6374,61 +6354,60 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" t="s">
+        <v>462</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" t="s">
         <v>223</v>
       </c>
-      <c r="B90" t="s">
-        <v>467</v>
-      </c>
-      <c r="C90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" t="s">
-        <v>208</v>
-      </c>
-      <c r="F90" t="s">
-        <v>224</v>
-      </c>
       <c r="G90">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="H90">
-        <v>98304</v>
+        <v>786432</v>
       </c>
       <c r="I90">
         <v>65536</v>
       </c>
       <c r="J90">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="K90">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L90" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M90" t="str">
         <f>IFERROR(VLOOKUP(A90,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N90" t="str">
-        <f>IFERROR(VLOOKUP(B90,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <v>instinct3amoled45mm</v>
+      </c>
+      <c r="N90" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B91" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -6437,7 +6416,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G91">
         <v>131072</v>
@@ -6455,79 +6434,80 @@
         <v>65536</v>
       </c>
       <c r="L91" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M91" t="str">
         <f>IFERROR(VLOOKUP(A91,Feuil3!A:A,1,0),"")</f>
-        <v>instinct3amoled45mm</v>
+        <v>instinct3amoled50mm</v>
       </c>
       <c r="N91" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" t="s">
+        <v>464</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
         <v>227</v>
       </c>
-      <c r="B92" t="s">
-        <v>469</v>
-      </c>
-      <c r="C92" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" t="s">
-        <v>228</v>
-      </c>
       <c r="G92">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="H92">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I92">
         <v>65536</v>
       </c>
       <c r="J92">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="K92">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L92" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M92" t="str">
         <f>IFERROR(VLOOKUP(A92,Feuil3!A:A,1,0),"")</f>
-        <v>instinct3amoled50mm</v>
-      </c>
-      <c r="N92" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N92" t="str">
+        <f>IFERROR(VLOOKUP(B92,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>229</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C93" t="s">
         <v>58</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G93">
         <v>65536</v>
@@ -6545,7 +6525,7 @@
         <v>32768</v>
       </c>
       <c r="L93" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M93" t="str">
         <f>IFERROR(VLOOKUP(A93,Feuil3!A:A,1,0),"")</f>
@@ -6556,30 +6536,30 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>471</v>
+        <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G94">
         <v>65536</v>
       </c>
       <c r="H94">
-        <v>131072</v>
+        <v>98304</v>
       </c>
       <c r="I94">
         <v>65536</v>
@@ -6591,7 +6571,7 @@
         <v>32768</v>
       </c>
       <c r="L94" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M94" t="str">
         <f>IFERROR(VLOOKUP(A94,Feuil3!A:A,1,0),"")</f>
@@ -6602,21 +6582,21 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>467</v>
+      </c>
+      <c r="C95" t="s">
         <v>231</v>
       </c>
-      <c r="B95" t="s">
-        <v>472</v>
-      </c>
-      <c r="C95" t="s">
-        <v>58</v>
-      </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F95" t="s">
         <v>232</v>
@@ -6625,7 +6605,7 @@
         <v>65536</v>
       </c>
       <c r="H95">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="I95">
         <v>65536</v>
@@ -6637,7 +6617,7 @@
         <v>32768</v>
       </c>
       <c r="L95" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M95" t="str">
         <f>IFERROR(VLOOKUP(A95,Feuil3!A:A,1,0),"")</f>
@@ -6648,15 +6628,15 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>233</v>
       </c>
       <c r="B96" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
@@ -6665,7 +6645,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G96">
         <v>65536</v>
@@ -6683,61 +6663,60 @@
         <v>32768</v>
       </c>
       <c r="L96" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M96" t="str">
         <f>IFERROR(VLOOKUP(A96,Feuil3!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N96" t="str">
-        <f>IFERROR(VLOOKUP(B96,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N96" si="3">"&lt;iq:product id="""&amp;A96&amp;"""/&gt;"</f>
+        <v>&lt;iq:product id="instincte45mm"/&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>235</v>
+      </c>
+      <c r="B97" t="s">
         <v>236</v>
       </c>
-      <c r="B97" t="s">
-        <v>474</v>
-      </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="F97" t="s">
         <v>237</v>
       </c>
       <c r="G97">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="H97">
-        <v>131072</v>
+        <v>1048576</v>
       </c>
       <c r="I97">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="J97">
         <v>32768</v>
       </c>
       <c r="K97">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L97" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M97" t="str">
         <f>IFERROR(VLOOKUP(A97,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N97" t="str">
-        <f t="shared" ref="N97" si="3">"&lt;iq:product id="""&amp;A97&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="instincte45mm"/&gt;</v>
+        <v>legacyherocaptainmarvel</v>
+      </c>
+      <c r="N97" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -6748,13 +6727,13 @@
         <v>239</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F98" t="s">
         <v>240</v>
@@ -6775,14 +6754,14 @@
         <v>65536</v>
       </c>
       <c r="L98" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M98" t="str">
         <f>IFERROR(VLOOKUP(A98,Feuil3!A:A,1,0),"")</f>
-        <v>legacyherocaptainmarvel</v>
+        <v>legacyherofirstavenger</v>
       </c>
       <c r="N98" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -6790,7 +6769,7 @@
         <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>469</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -6799,10 +6778,10 @@
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G99">
         <v>524288</v>
@@ -6820,34 +6799,34 @@
         <v>65536</v>
       </c>
       <c r="L99" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M99" t="str">
         <f>IFERROR(VLOOKUP(A99,Feuil3!A:A,1,0),"")</f>
-        <v>legacyherofirstavenger</v>
+        <v>legacysagadarthvader</v>
       </c>
       <c r="N99" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B100" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G100">
         <v>524288</v>
@@ -6865,113 +6844,113 @@
         <v>65536</v>
       </c>
       <c r="L100" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M100" t="str">
         <f>IFERROR(VLOOKUP(A100,Feuil3!A:A,1,0),"")</f>
-        <v>legacysagadarthvader</v>
+        <v>legacysagarey</v>
       </c>
       <c r="N100" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" t="s">
+        <v>471</v>
+      </c>
+      <c r="C101" t="s">
         <v>246</v>
-      </c>
-      <c r="B101" t="s">
-        <v>476</v>
-      </c>
-      <c r="C101" t="s">
-        <v>40</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="F101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G101">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="H101">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="I101">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J101">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="K101">
         <v>65536</v>
       </c>
       <c r="L101" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M101" t="str">
         <f>IFERROR(VLOOKUP(A101,Feuil3!A:A,1,0),"")</f>
-        <v>legacysagarey</v>
-      </c>
-      <c r="N101" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" ref="N101:N112" si="4">"&lt;iq:product id="""&amp;A101&amp;"""/&gt;"</f>
+        <v>&lt;iq:product id="lily2"/&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B102" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" t="s">
         <v>250</v>
       </c>
-      <c r="F102" t="s">
-        <v>251</v>
-      </c>
       <c r="G102">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="H102">
-        <v>65536</v>
+        <v>786432</v>
       </c>
       <c r="I102">
         <v>65536</v>
       </c>
       <c r="J102">
-        <v>16384</v>
+        <v>262144</v>
       </c>
       <c r="K102">
         <v>65536</v>
       </c>
       <c r="L102" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M102" t="str">
         <f>IFERROR(VLOOKUP(A102,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N102" t="str">
-        <f t="shared" ref="N102:N113" si="4">"&lt;iq:product id="""&amp;A102&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="lily2"/&gt;</v>
+        <v>marq2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B103" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -6980,10 +6959,10 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G103">
         <v>131072</v>
@@ -7001,67 +6980,67 @@
         <v>65536</v>
       </c>
       <c r="L103" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M103" t="str">
         <f>IFERROR(VLOOKUP(A103,Feuil3!A:A,1,0),"")</f>
-        <v>marq2</v>
+        <v>marq2aviator</v>
       </c>
       <c r="N103" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" t="s">
+        <v>474</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>112</v>
+      </c>
+      <c r="F104" t="s">
         <v>254</v>
       </c>
-      <c r="B104" t="s">
-        <v>479</v>
-      </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>392</v>
-      </c>
-      <c r="F104" t="s">
-        <v>255</v>
-      </c>
       <c r="G104">
-        <v>131072</v>
+        <v>98304</v>
       </c>
       <c r="H104">
-        <v>786432</v>
+        <v>1310720</v>
       </c>
       <c r="I104">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="J104">
-        <v>262144</v>
+        <v>131072</v>
       </c>
       <c r="K104">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L104" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M104" t="str">
         <f>IFERROR(VLOOKUP(A104,Feuil3!A:A,1,0),"")</f>
-        <v>marq2aviator</v>
+        <v>marqadventurer</v>
       </c>
       <c r="N104" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -7073,7 +7052,7 @@
         <v>112</v>
       </c>
       <c r="F105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G105">
         <v>98304</v>
@@ -7091,22 +7070,22 @@
         <v>32768</v>
       </c>
       <c r="L105" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M105" t="str">
         <f>IFERROR(VLOOKUP(A105,Feuil3!A:A,1,0),"")</f>
-        <v>marqadventurer</v>
+        <v>marqathlete</v>
       </c>
       <c r="N105" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -7118,7 +7097,7 @@
         <v>112</v>
       </c>
       <c r="F106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G106">
         <v>98304</v>
@@ -7136,22 +7115,22 @@
         <v>32768</v>
       </c>
       <c r="L106" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M106" t="str">
         <f>IFERROR(VLOOKUP(A106,Feuil3!A:A,1,0),"")</f>
-        <v>marqathlete</v>
+        <v>marqaviator</v>
       </c>
       <c r="N106" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -7163,7 +7142,7 @@
         <v>112</v>
       </c>
       <c r="F107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G107">
         <v>98304</v>
@@ -7181,22 +7160,22 @@
         <v>32768</v>
       </c>
       <c r="L107" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M107" t="str">
         <f>IFERROR(VLOOKUP(A107,Feuil3!A:A,1,0),"")</f>
-        <v>marqaviator</v>
+        <v>marqcaptain</v>
       </c>
       <c r="N107" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -7208,7 +7187,7 @@
         <v>112</v>
       </c>
       <c r="F108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G108">
         <v>98304</v>
@@ -7226,22 +7205,22 @@
         <v>32768</v>
       </c>
       <c r="L108" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M108" t="str">
         <f>IFERROR(VLOOKUP(A108,Feuil3!A:A,1,0),"")</f>
-        <v>marqcaptain</v>
+        <v>marqcommander</v>
       </c>
       <c r="N108" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -7253,7 +7232,7 @@
         <v>112</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G109">
         <v>98304</v>
@@ -7271,22 +7250,22 @@
         <v>32768</v>
       </c>
       <c r="L109" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M109" t="str">
         <f>IFERROR(VLOOKUP(A109,Feuil3!A:A,1,0),"")</f>
-        <v>marqcommander</v>
+        <v>marqdriver</v>
       </c>
       <c r="N109" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -7298,7 +7277,7 @@
         <v>112</v>
       </c>
       <c r="F110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G110">
         <v>98304</v>
@@ -7316,22 +7295,22 @@
         <v>32768</v>
       </c>
       <c r="L110" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M110" t="str">
         <f>IFERROR(VLOOKUP(A110,Feuil3!A:A,1,0),"")</f>
-        <v>marqdriver</v>
+        <v>marqexpedition</v>
       </c>
       <c r="N110" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -7343,7 +7322,7 @@
         <v>112</v>
       </c>
       <c r="F111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G111">
         <v>98304</v>
@@ -7361,40 +7340,40 @@
         <v>32768</v>
       </c>
       <c r="L111" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M111" t="str">
         <f>IFERROR(VLOOKUP(A111,Feuil3!A:A,1,0),"")</f>
-        <v>marqexpedition</v>
+        <v>marqgolfer</v>
       </c>
       <c r="N111" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>270</v>
+        <v>482</v>
       </c>
       <c r="B112" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>387</v>
       </c>
       <c r="F112" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="G112">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="H112">
-        <v>1310720</v>
+        <v>786432</v>
       </c>
       <c r="I112">
         <v>1048576</v>
@@ -7403,116 +7382,116 @@
         <v>131072</v>
       </c>
       <c r="K112">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L112" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="M112" t="str">
         <f>IFERROR(VLOOKUP(A112,Feuil3!A:A,1,0),"")</f>
-        <v>marqgolfer</v>
-      </c>
-      <c r="N112" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;iq:product id="system8preview"/&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>488</v>
+        <v>269</v>
       </c>
       <c r="B113" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>392</v>
+        <v>160</v>
       </c>
       <c r="F113" t="s">
-        <v>490</v>
+        <v>270</v>
       </c>
       <c r="G113">
-        <v>131072</v>
+        <v>524288</v>
       </c>
       <c r="H113">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="I113">
-        <v>1048576</v>
+        <v>524288</v>
       </c>
       <c r="J113">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="K113">
         <v>65536</v>
       </c>
       <c r="L113" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M113" t="str">
         <f>IFERROR(VLOOKUP(A113,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N113" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;iq:product id="system8preview"/&gt;</v>
+        <v>venu</v>
+      </c>
+      <c r="N113" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G114">
-        <v>524288</v>
+        <v>131072</v>
       </c>
       <c r="H114">
-        <v>1048576</v>
+        <v>786432</v>
       </c>
       <c r="I114">
         <v>524288</v>
       </c>
       <c r="J114">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="K114">
         <v>65536</v>
       </c>
       <c r="L114" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M114" t="str">
         <f>IFERROR(VLOOKUP(A114,Feuil3!A:A,1,0),"")</f>
-        <v>venu</v>
+        <v>venu2</v>
       </c>
       <c r="N114" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
@@ -7524,7 +7503,7 @@
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G115">
         <v>131072</v>
@@ -7542,25 +7521,25 @@
         <v>65536</v>
       </c>
       <c r="L115" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M115" t="str">
         <f>IFERROR(VLOOKUP(A115,Feuil3!A:A,1,0),"")</f>
-        <v>venu2</v>
+        <v>venu2plus</v>
       </c>
       <c r="N115" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
@@ -7569,7 +7548,7 @@
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G116">
         <v>131072</v>
@@ -7587,34 +7566,34 @@
         <v>65536</v>
       </c>
       <c r="L116" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M116" t="str">
         <f>IFERROR(VLOOKUP(A116,Feuil3!A:A,1,0),"")</f>
-        <v>venu2plus</v>
+        <v>venu2s</v>
       </c>
       <c r="N116" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="F117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G117">
         <v>131072</v>
@@ -7632,34 +7611,34 @@
         <v>65536</v>
       </c>
       <c r="L117" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M117" t="str">
         <f>IFERROR(VLOOKUP(A117,Feuil3!A:A,1,0),"")</f>
-        <v>venu2s</v>
+        <v>venu3</v>
       </c>
       <c r="N117" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="F118" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G118">
         <v>131072</v>
@@ -7677,34 +7656,34 @@
         <v>65536</v>
       </c>
       <c r="L118" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M118" t="str">
         <f>IFERROR(VLOOKUP(A118,Feuil3!A:A,1,0),"")</f>
-        <v>venu2system6preview</v>
+        <v>venu3s</v>
       </c>
       <c r="N118" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G119">
         <v>131072</v>
@@ -7722,34 +7701,34 @@
         <v>65536</v>
       </c>
       <c r="L119" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M119" t="str">
         <f>IFERROR(VLOOKUP(A119,Feuil3!A:A,1,0),"")</f>
-        <v>venu3</v>
+        <v>venu441mm</v>
       </c>
       <c r="N119" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G120">
         <v>131072</v>
@@ -7767,22 +7746,22 @@
         <v>65536</v>
       </c>
       <c r="L120" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M120" t="str">
         <f>IFERROR(VLOOKUP(A120,Feuil3!A:A,1,0),"")</f>
-        <v>venu3s</v>
+        <v>venu445mm</v>
       </c>
       <c r="N120" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -7791,35 +7770,35 @@
         <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
         <v>287</v>
       </c>
       <c r="G121">
-        <v>131072</v>
+        <v>524288</v>
       </c>
       <c r="H121">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="I121">
         <v>524288</v>
       </c>
       <c r="J121">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K121">
         <v>65536</v>
       </c>
       <c r="L121" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M121" t="str">
         <f>IFERROR(VLOOKUP(A121,Feuil3!A:A,1,0),"")</f>
-        <v>venu441mm</v>
+        <v>venud</v>
       </c>
       <c r="N121" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -7827,44 +7806,45 @@
         <v>288</v>
       </c>
       <c r="B122" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>495</v>
       </c>
       <c r="F122" t="s">
         <v>289</v>
       </c>
       <c r="G122">
-        <v>131072</v>
+        <v>98304</v>
       </c>
       <c r="H122">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I122">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J122">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K122">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L122" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M122" t="str">
         <f>IFERROR(VLOOKUP(A122,Feuil3!A:A,1,0),"")</f>
-        <v>venu445mm</v>
-      </c>
-      <c r="N122" t="s">
-        <v>523</v>
+        <v/>
+      </c>
+      <c r="N122" t="str">
+        <f>IFERROR(VLOOKUP(B122,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -7872,82 +7852,83 @@
         <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
         <v>292</v>
       </c>
       <c r="G123">
-        <v>524288</v>
+        <v>131072</v>
       </c>
       <c r="H123">
-        <v>1048576</v>
+        <v>786432</v>
       </c>
       <c r="I123">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J123">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="K123">
         <v>65536</v>
       </c>
       <c r="L123" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M123" t="str">
         <f>IFERROR(VLOOKUP(A123,Feuil3!A:A,1,0),"")</f>
-        <v>venud</v>
-      </c>
-      <c r="N123" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N123" t="str">
+        <f>IFERROR(VLOOKUP(B123,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
         <v>294</v>
       </c>
       <c r="G124">
-        <v>98304</v>
+        <v>131072</v>
       </c>
       <c r="H124">
-        <v>131072</v>
+        <v>786432</v>
       </c>
       <c r="I124">
         <v>65536</v>
       </c>
       <c r="J124">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="K124">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L124" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M124" t="str">
         <f>IFERROR(VLOOKUP(A124,Feuil3!A:A,1,0),"")</f>
@@ -7958,42 +7939,42 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" t="s">
+        <v>495</v>
+      </c>
+      <c r="F125" t="s">
         <v>296</v>
       </c>
-      <c r="D125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" t="s">
-        <v>297</v>
-      </c>
       <c r="G125">
-        <v>131072</v>
+        <v>524288</v>
       </c>
       <c r="H125">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="I125">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="J125">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K125">
         <v>65536</v>
       </c>
       <c r="L125" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M125" t="str">
         <f>IFERROR(VLOOKUP(A125,Feuil3!A:A,1,0),"")</f>
@@ -8004,15 +7985,15 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" t="s">
+        <v>499</v>
+      </c>
+      <c r="C126" t="s">
         <v>298</v>
-      </c>
-      <c r="B126" t="s">
-        <v>504</v>
-      </c>
-      <c r="C126" t="s">
-        <v>296</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -8030,7 +8011,7 @@
         <v>786432</v>
       </c>
       <c r="I126">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="J126">
         <v>262144</v>
@@ -8039,53 +8020,53 @@
         <v>65536</v>
       </c>
       <c r="L126" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M126" t="str">
         <f>IFERROR(VLOOKUP(A126,Feuil3!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N126" t="str">
-        <f>IFERROR(VLOOKUP(B126,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f>"&lt;iq:product id="""&amp;A126&amp;"""/&gt;"</f>
+        <v>&lt;iq:product id="venux1"/&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>502</v>
+        <v>301</v>
       </c>
       <c r="F127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G127">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="H127">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="I127">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J127">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="K127">
         <v>65536</v>
       </c>
       <c r="L127" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M127" t="str">
         <f>IFERROR(VLOOKUP(A127,Feuil3!A:A,1,0),"")</f>
@@ -8096,104 +8077,104 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C128" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F128" t="s">
         <v>304</v>
       </c>
       <c r="G128">
-        <v>131072</v>
+        <v>98304</v>
       </c>
       <c r="H128">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I128">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J128">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K128">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L128" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M128" t="str">
         <f>IFERROR(VLOOKUP(A128,Feuil3!A:A,1,0),"")</f>
-        <v/>
+        <v>vivoactive3</v>
       </c>
       <c r="N128" t="str">
-        <f>"&lt;iq:product id="""&amp;A128&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="venux1"/&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f>A128&amp;".excludeAnnotations=""noMenus"""</f>
+        <v>vivoactive3.excludeAnnotations="noMenus"</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C129" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" t="s">
         <v>306</v>
       </c>
-      <c r="F129" t="s">
-        <v>307</v>
-      </c>
       <c r="G129">
-        <v>65536</v>
+        <v>98304</v>
       </c>
       <c r="H129">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="I129">
         <v>65536</v>
       </c>
       <c r="J129">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="K129">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L129" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M129" t="str">
         <f>IFERROR(VLOOKUP(A129,Feuil3!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N129" t="str">
-        <f>IFERROR(VLOOKUP(B129,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
+        <f t="shared" ref="N129" si="5">"&lt;iq:product id="""&amp;A129&amp;"""/&gt;"</f>
+        <v>&lt;iq:product id="vivoactive3d"/&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -8202,44 +8183,43 @@
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G130">
         <v>98304</v>
       </c>
       <c r="H130">
-        <v>131072</v>
+        <v>1048576</v>
       </c>
       <c r="I130">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="J130">
         <v>32768</v>
       </c>
       <c r="K130">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L130" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M130" t="str">
         <f>IFERROR(VLOOKUP(A130,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive3</v>
-      </c>
-      <c r="N130" t="str">
-        <f>A130&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>vivoactive3.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>vivoactive3m</v>
+      </c>
+      <c r="N130" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B131" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -8248,59 +8228,59 @@
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G131">
         <v>98304</v>
       </c>
       <c r="H131">
-        <v>131072</v>
+        <v>1048576</v>
       </c>
       <c r="I131">
-        <v>65536</v>
+        <v>524288</v>
       </c>
       <c r="J131">
         <v>32768</v>
       </c>
       <c r="K131">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="L131" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M131" t="str">
         <f>IFERROR(VLOOKUP(A131,Feuil3!A:A,1,0),"")</f>
-        <v/>
+        <v>vivoactive3mlte</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" ref="N131" si="5">"&lt;iq:product id="""&amp;A131&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="vivoactive3d"/&gt;</v>
+        <f>A131&amp;".excludeAnnotations=""noMenus"""</f>
+        <v>vivoactive3mlte.excludeAnnotations="noMenus"</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B132" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="F132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G132">
-        <v>98304</v>
+        <v>524288</v>
       </c>
       <c r="H132">
         <v>1048576</v>
@@ -8315,37 +8295,37 @@
         <v>65536</v>
       </c>
       <c r="L132" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M132" t="str">
         <f>IFERROR(VLOOKUP(A132,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive3m</v>
+        <v>vivoactive4</v>
       </c>
       <c r="N132" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G133">
-        <v>98304</v>
+        <v>524288</v>
       </c>
       <c r="H133">
         <v>1048576</v>
@@ -8360,150 +8340,150 @@
         <v>65536</v>
       </c>
       <c r="L133" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M133" t="str">
         <f>IFERROR(VLOOKUP(A133,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive3mlte</v>
-      </c>
-      <c r="N133" t="str">
-        <f>A133&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>vivoactive3mlte.excludeAnnotations="noMenus"</v>
+        <v>vivoactive4s</v>
+      </c>
+      <c r="N133" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" t="s">
+        <v>507</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>387</v>
+      </c>
+      <c r="F134" t="s">
         <v>316</v>
       </c>
-      <c r="B134" t="s">
-        <v>512</v>
-      </c>
-      <c r="C134" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" t="s">
-        <v>163</v>
-      </c>
-      <c r="F134" t="s">
-        <v>317</v>
-      </c>
       <c r="G134">
-        <v>524288</v>
+        <v>131072</v>
       </c>
       <c r="H134">
-        <v>1048576</v>
+        <v>786432</v>
       </c>
       <c r="I134">
         <v>524288</v>
       </c>
       <c r="J134">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="K134">
         <v>65536</v>
       </c>
       <c r="L134" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M134" t="str">
         <f>IFERROR(VLOOKUP(A134,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive4</v>
+        <v>vivoactive5</v>
       </c>
       <c r="N134" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" t="s">
+        <v>508</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" t="s">
+        <v>509</v>
+      </c>
+      <c r="F135" t="s">
         <v>318</v>
       </c>
-      <c r="B135" t="s">
-        <v>513</v>
-      </c>
-      <c r="C135" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" t="s">
-        <v>319</v>
-      </c>
       <c r="G135">
-        <v>524288</v>
+        <v>131072</v>
       </c>
       <c r="H135">
-        <v>1048576</v>
+        <v>786432</v>
       </c>
       <c r="I135">
         <v>524288</v>
       </c>
       <c r="J135">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="K135">
         <v>65536</v>
       </c>
       <c r="L135" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M135" t="str">
         <f>IFERROR(VLOOKUP(A135,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive4s</v>
+        <v>vivoactive6</v>
       </c>
       <c r="N135" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" t="s">
+        <v>510</v>
+      </c>
+      <c r="C136" t="s">
         <v>320</v>
       </c>
-      <c r="B136" t="s">
-        <v>514</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>392</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
         <v>321</v>
       </c>
       <c r="G136">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="H136">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I136">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J136">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K136">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L136" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M136" t="str">
         <f>IFERROR(VLOOKUP(A136,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive5</v>
-      </c>
-      <c r="N136" t="s">
-        <v>523</v>
+        <v/>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" ref="N136:N137" si="6">"&lt;iq:product id="""&amp;A136&amp;"""/&gt;"</f>
+        <v>&lt;iq:product id="vivoactive_hr"/&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -8511,67 +8491,68 @@
         <v>322</v>
       </c>
       <c r="B137" t="s">
-        <v>515</v>
+        <v>323</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>516</v>
+        <v>324</v>
       </c>
       <c r="F137" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G137">
-        <v>131072</v>
+        <v>98304</v>
       </c>
       <c r="H137">
-        <v>786432</v>
+        <v>131072</v>
       </c>
       <c r="I137">
-        <v>524288</v>
+        <v>65536</v>
       </c>
       <c r="J137">
-        <v>262144</v>
+        <v>32768</v>
       </c>
       <c r="K137">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="L137" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M137" t="str">
         <f>IFERROR(VLOOKUP(A137,Feuil3!A:A,1,0),"")</f>
-        <v>vivoactive6</v>
-      </c>
-      <c r="N137" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;iq:product id="vivolife"/&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C138" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="F138" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G138">
-        <v>65536</v>
+        <v>98304</v>
       </c>
       <c r="H138">
         <v>131072</v>
@@ -8586,155 +8567,57 @@
         <v>32768</v>
       </c>
       <c r="L138" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M138" t="str">
         <f>IFERROR(VLOOKUP(A138,Feuil3!A:A,1,0),"")</f>
         <v/>
       </c>
-      <c r="N138" t="str">
-        <f t="shared" ref="N138:N139" si="6">"&lt;iq:product id="""&amp;A138&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="vivoactive_hr"/&gt;</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>328</v>
+        <v>512</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G139">
-        <v>98304</v>
+        <v>65536</v>
       </c>
       <c r="H139">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="I139">
         <v>65536</v>
       </c>
       <c r="J139">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="K139">
         <v>32768</v>
       </c>
       <c r="L139" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M139" t="str">
         <f>IFERROR(VLOOKUP(A139,Feuil3!A:A,1,0),"")</f>
         <v/>
       </c>
-      <c r="N139" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;iq:product id="vivolife"/&gt;</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>331</v>
-      </c>
-      <c r="B140" t="s">
-        <v>518</v>
-      </c>
-      <c r="C140" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" t="s">
-        <v>332</v>
-      </c>
-      <c r="F140" t="s">
-        <v>333</v>
-      </c>
-      <c r="G140">
-        <v>98304</v>
-      </c>
-      <c r="H140">
-        <v>131072</v>
-      </c>
-      <c r="I140">
-        <v>65536</v>
-      </c>
-      <c r="J140">
-        <v>32768</v>
-      </c>
-      <c r="K140">
-        <v>32768</v>
-      </c>
-      <c r="L140" t="s">
-        <v>376</v>
-      </c>
-      <c r="M140" t="str">
-        <f>IFERROR(VLOOKUP(A140,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>334</v>
-      </c>
-      <c r="B141" t="s">
-        <v>519</v>
-      </c>
-      <c r="C141" t="s">
-        <v>335</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" t="s">
-        <v>250</v>
-      </c>
-      <c r="F141" t="s">
-        <v>336</v>
-      </c>
-      <c r="G141">
-        <v>65536</v>
-      </c>
-      <c r="H141">
-        <v>65536</v>
-      </c>
-      <c r="I141">
-        <v>65536</v>
-      </c>
-      <c r="J141">
-        <v>16384</v>
-      </c>
-      <c r="K141">
-        <v>32768</v>
-      </c>
-      <c r="L141" t="s">
-        <v>385</v>
-      </c>
-      <c r="M141" t="str">
-        <f>IFERROR(VLOOKUP(A141,Feuil3!A:A,1,0),"")</f>
-        <v/>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N141">
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N139"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8760,16 +8643,16 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H1" s="6">
         <v>218</v>
@@ -8822,7 +8705,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B2" s="4">
         <v>0.5</v>
@@ -8831,10 +8714,10 @@
         <v>0.127</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:O14" si="0">$B2*H$1</f>
@@ -8903,7 +8786,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
@@ -8912,10 +8795,10 @@
         <v>0.315</v>
       </c>
       <c r="D3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
@@ -8984,7 +8867,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B4" s="4">
         <v>0.12</v>
@@ -8993,10 +8876,10 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
@@ -9065,7 +8948,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B5" s="4">
         <v>0.75</v>
@@ -9074,10 +8957,10 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
@@ -9147,7 +9030,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B6" s="4">
         <v>0.24</v>
@@ -9156,10 +9039,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
@@ -9228,7 +9111,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B7" s="4">
         <v>0.96</v>
@@ -9237,10 +9120,10 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
@@ -9309,7 +9192,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B8" s="4">
         <v>0.02</v>
@@ -9318,10 +9201,10 @@
         <v>0.49</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
@@ -9388,7 +9271,7 @@
         <v>222.46</v>
       </c>
       <c r="AA8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -9417,7 +9300,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B9" s="4">
         <v>0.96</v>
@@ -9426,10 +9309,10 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
@@ -9496,7 +9379,7 @@
         <v>161.624</v>
       </c>
       <c r="AA9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -9525,7 +9408,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B10" s="4">
         <v>0.25</v>
@@ -9534,10 +9417,10 @@
         <v>0.49</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
@@ -9604,7 +9487,7 @@
         <v>222.46</v>
       </c>
       <c r="AA10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AB10">
         <v>1</v>
@@ -9633,7 +9516,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B11" s="4">
         <v>0.17</v>
@@ -9642,10 +9525,10 @@
         <v>0.78</v>
       </c>
       <c r="D11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
@@ -9738,7 +9621,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B12" s="4">
         <v>0.83</v>
@@ -9747,10 +9630,10 @@
         <v>0.78</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
@@ -9819,7 +9702,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B13" s="4">
         <v>0.5</v>
@@ -9828,10 +9711,10 @@
         <v>0.92</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
@@ -9900,7 +9783,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B14" s="4">
         <v>0.93</v>
@@ -9909,10 +9792,10 @@
         <v>0.66</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
@@ -10026,7 +9909,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AA18">
         <f>AA17-AA16</f>
@@ -10045,7 +9928,7 @@
         <v>"heure"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="F20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -10123,12 +10006,12 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -10211,12 +10094,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -10299,12 +10182,12 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -10387,7 +10270,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -10398,21 +10281,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C101"/>
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C1">
         <f>COUNTA(A:A)-1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10420,7 +10303,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(A2,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A2,Feuil1!$A$1:$M$140,13,0)</f>
         <v>approachs50</v>
       </c>
       <c r="D2" s="3"/>
@@ -10430,7 +10313,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(A3,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A3,Feuil1!$A$1:$M$140,13,0)</f>
         <v>approachs7042mm</v>
       </c>
       <c r="D3" s="3"/>
@@ -10440,7 +10323,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(A4,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A4,Feuil1!$A$1:$M$140,13,0)</f>
         <v>approachs7047mm</v>
       </c>
       <c r="D4" s="3"/>
@@ -10450,7 +10333,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(A5,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A5,Feuil1!$A$1:$M$140,13,0)</f>
         <v>d2air</v>
       </c>
       <c r="D5" s="3"/>
@@ -10460,7 +10343,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(A6,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A6,Feuil1!$A$1:$M$140,13,0)</f>
         <v>d2airx10</v>
       </c>
       <c r="D6" s="3"/>
@@ -10470,7 +10353,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(A7,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A7,Feuil1!$A$1:$M$140,13,0)</f>
         <v>d2delta</v>
       </c>
       <c r="D7" s="3"/>
@@ -10480,7 +10363,7 @@
         <v>51</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(A8,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A8,Feuil1!$A$1:$M$140,13,0)</f>
         <v>d2deltapx</v>
       </c>
       <c r="D8" s="3"/>
@@ -10490,7 +10373,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(A9,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A9,Feuil1!$A$1:$M$140,13,0)</f>
         <v>d2deltas</v>
       </c>
       <c r="D9" s="3"/>
@@ -10500,7 +10383,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(A10,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A10,Feuil1!$A$1:$M$140,13,0)</f>
         <v>d2mach1</v>
       </c>
       <c r="D10" s="3"/>
@@ -10510,7 +10393,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(A11,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A11,Feuil1!$A$1:$M$140,13,0)</f>
         <v>descentg2</v>
       </c>
       <c r="D11" s="3"/>
@@ -10520,7 +10403,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(A12,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A12,Feuil1!$A$1:$M$140,13,0)</f>
         <v>descentmk2</v>
       </c>
       <c r="D12" s="3"/>
@@ -10530,7 +10413,7 @@
         <v>69</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(A13,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A13,Feuil1!$A$1:$M$140,13,0)</f>
         <v>descentmk2s</v>
       </c>
       <c r="D13" s="3"/>
@@ -10540,7 +10423,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(A14,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A14,Feuil1!$A$1:$M$140,13,0)</f>
         <v>descentmk343mm</v>
       </c>
       <c r="D14" s="3"/>
@@ -10550,7 +10433,7 @@
         <v>73</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(A15,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A15,Feuil1!$A$1:$M$140,13,0)</f>
         <v>descentmk351mm</v>
       </c>
       <c r="D15" s="3"/>
@@ -10560,7 +10443,7 @@
         <v>75</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(A16,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A16,Feuil1!$A$1:$M$140,13,0)</f>
         <v>enduro</v>
       </c>
       <c r="D16" s="3"/>
@@ -10570,7 +10453,7 @@
         <v>78</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(A17,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A17,Feuil1!$A$1:$M$140,13,0)</f>
         <v>enduro3</v>
       </c>
       <c r="D17" s="3"/>
@@ -10580,7 +10463,7 @@
         <v>85</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(A18,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A18,Feuil1!$A$1:$M$140,13,0)</f>
         <v>epix2</v>
       </c>
       <c r="D18" s="3"/>
@@ -10590,7 +10473,7 @@
         <v>87</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(A19,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A19,Feuil1!$A$1:$M$140,13,0)</f>
         <v>epix2pro42mm</v>
       </c>
       <c r="D19" s="3"/>
@@ -10600,7 +10483,7 @@
         <v>89</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(A20,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A20,Feuil1!$A$1:$M$140,13,0)</f>
         <v>epix2pro47mm</v>
       </c>
       <c r="D20" s="3"/>
@@ -10610,7 +10493,7 @@
         <v>91</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(A21,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A21,Feuil1!$A$1:$M$140,13,0)</f>
         <v>epix2pro51mm</v>
       </c>
       <c r="D21" s="3"/>
@@ -10620,7 +10503,7 @@
         <v>97</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(A22,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A22,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix5</v>
       </c>
       <c r="D22" s="3"/>
@@ -10630,7 +10513,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(A23,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A23,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix5plus</v>
       </c>
       <c r="D23" s="3"/>
@@ -10640,7 +10523,7 @@
         <v>103</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(A24,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A24,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix5s</v>
       </c>
       <c r="D24" s="3"/>
@@ -10650,7 +10533,7 @@
         <v>105</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(A25,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A25,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix5splus</v>
       </c>
       <c r="D25" s="3"/>
@@ -10660,7 +10543,7 @@
         <v>107</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(A26,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A26,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix5x</v>
       </c>
       <c r="D26" s="3"/>
@@ -10670,7 +10553,7 @@
         <v>109</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(A27,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A27,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix5xplus</v>
       </c>
       <c r="D27" s="3"/>
@@ -10680,7 +10563,7 @@
         <v>111</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(A28,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A28,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix6</v>
       </c>
       <c r="D28" s="3"/>
@@ -10690,7 +10573,7 @@
         <v>114</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(A29,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A29,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix6pro</v>
       </c>
       <c r="D29" s="3"/>
@@ -10700,7 +10583,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(A30,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A30,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix6s</v>
       </c>
       <c r="D30" s="3"/>
@@ -10710,7 +10593,7 @@
         <v>118</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(A31,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A31,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix6spro</v>
       </c>
       <c r="D31" s="3"/>
@@ -10720,7 +10603,7 @@
         <v>120</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(A32,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A32,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix6xpro</v>
       </c>
       <c r="D32" s="3"/>
@@ -10730,7 +10613,7 @@
         <v>122</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(A33,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A33,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix7</v>
       </c>
       <c r="D33" s="3"/>
@@ -10740,7 +10623,7 @@
         <v>124</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(A34,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A34,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix7pro</v>
       </c>
       <c r="D34" s="3"/>
@@ -10750,7 +10633,7 @@
         <v>126</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(A35,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A35,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix7pronowifi</v>
       </c>
       <c r="D35" s="3"/>
@@ -10760,7 +10643,7 @@
         <v>128</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(A36,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A36,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix7s</v>
       </c>
       <c r="D36" s="3"/>
@@ -10770,7 +10653,7 @@
         <v>130</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(A37,Feuil1!$A$1:$M$142,13,0)</f>
+        <f>VLOOKUP(A37,Feuil1!$A$1:$M$140,13,0)</f>
         <v>fenix7spro</v>
       </c>
       <c r="D37" s="3"/>
@@ -10780,118 +10663,118 @@
         <v>132</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(A38,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix7system6preview</v>
+        <f>VLOOKUP(A38,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix7x</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(A39,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix7x</v>
+        <f>VLOOKUP(A39,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix7xpro</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(A40,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix7xpro</v>
+        <f>VLOOKUP(A40,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix7xpronowifi</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(A41,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix7xpronowifi</v>
+        <f>VLOOKUP(A41,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix843mm</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(A42,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix843mm</v>
+        <f>VLOOKUP(A42,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix847mm</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(A43,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix847mm</v>
+        <f>VLOOKUP(A43,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix8solar47mm</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(A44,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix8solar47mm</v>
+        <f>VLOOKUP(A44,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenix8solar51mm</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(A45,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenix8solar51mm</v>
+        <f>VLOOKUP(A45,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenixchronos</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(A46,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenixchronos</v>
+        <f>VLOOKUP(A46,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fenixe</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(A47,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fenixe</v>
+        <f>VLOOKUP(A47,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr165</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(A48,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr165</v>
+        <f>VLOOKUP(A48,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr165m</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(A49,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr165m</v>
+        <f>VLOOKUP(A49,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr245</v>
       </c>
       <c r="D49" s="3"/>
     </row>
@@ -10900,148 +10783,148 @@
         <v>162</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(A50,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr245</v>
+        <f>VLOOKUP(A50,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr245m</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(A51,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr245m</v>
+        <f>VLOOKUP(A51,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr255</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(A52,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr255</v>
+        <f>VLOOKUP(A52,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr255m</v>
       </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(A53,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr255m</v>
+        <f>VLOOKUP(A53,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr255s</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" t="str">
-        <f>VLOOKUP(A54,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr255s</v>
+        <f>VLOOKUP(A54,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr255sm</v>
       </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" t="str">
-        <f>VLOOKUP(A55,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr255sm</v>
+        <f>VLOOKUP(A55,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr265</v>
       </c>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" t="str">
-        <f>VLOOKUP(A56,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr265</v>
+        <f>VLOOKUP(A56,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr265s</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C57" t="str">
-        <f>VLOOKUP(A57,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr265s</v>
+        <f>VLOOKUP(A57,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr57042mm</v>
       </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" t="str">
-        <f>VLOOKUP(A58,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr57042mm</v>
+        <f>VLOOKUP(A58,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr57047mm</v>
       </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C59" t="str">
-        <f>VLOOKUP(A59,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr57047mm</v>
+        <f>VLOOKUP(A59,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr645</v>
       </c>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C60" t="str">
-        <f>VLOOKUP(A60,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr645</v>
+        <f>VLOOKUP(A60,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr645m</v>
       </c>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C61" t="str">
-        <f>VLOOKUP(A61,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr645m</v>
+        <f>VLOOKUP(A61,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr745</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62" t="str">
-        <f>VLOOKUP(A62,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr745</v>
+        <f>VLOOKUP(A62,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr935</v>
       </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" t="str">
-        <f>VLOOKUP(A63,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr935</v>
+        <f>VLOOKUP(A63,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr945</v>
       </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" t="str">
-        <f>VLOOKUP(A64,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr945</v>
+        <f>VLOOKUP(A64,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr945lte</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -11050,58 +10933,58 @@
         <v>207</v>
       </c>
       <c r="C65" t="str">
-        <f>VLOOKUP(A65,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr945lte</v>
+        <f>VLOOKUP(A65,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr955</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" t="str">
-        <f>VLOOKUP(A66,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr955</v>
+        <f>VLOOKUP(A66,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr965</v>
       </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C67" t="str">
-        <f>VLOOKUP(A67,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr965</v>
+        <f>VLOOKUP(A67,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>fr970</v>
       </c>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C68" t="str">
-        <f>VLOOKUP(A68,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>fr970</v>
+        <f>VLOOKUP(A68,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>instinct3amoled45mm</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69" t="str">
-        <f>VLOOKUP(A69,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>instinct3amoled45mm</v>
+        <f>VLOOKUP(A69,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>instinct3amoled50mm</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C70" t="str">
-        <f>VLOOKUP(A70,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>instinct3amoled50mm</v>
+        <f>VLOOKUP(A70,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>legacyherocaptainmarvel</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -11110,8 +10993,8 @@
         <v>238</v>
       </c>
       <c r="C71" t="str">
-        <f>VLOOKUP(A71,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>legacyherocaptainmarvel</v>
+        <f>VLOOKUP(A71,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>legacyherofirstavenger</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -11120,305 +11003,286 @@
         <v>241</v>
       </c>
       <c r="C72" t="str">
-        <f>VLOOKUP(A72,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>legacyherofirstavenger</v>
+        <f>VLOOKUP(A72,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>legacysagadarthvader</v>
       </c>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C73" t="str">
-        <f>VLOOKUP(A73,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>legacysagadarthvader</v>
+        <f>VLOOKUP(A73,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>legacysagarey</v>
       </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C74" t="str">
-        <f>VLOOKUP(A74,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>legacysagarey</v>
+        <f>VLOOKUP(A74,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marq2</v>
       </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C75" t="str">
-        <f>VLOOKUP(A75,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marq2</v>
+        <f>VLOOKUP(A75,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marq2aviator</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" t="str">
-        <f>VLOOKUP(A76,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marq2aviator</v>
+        <f>VLOOKUP(A76,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqadventurer</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C77" t="str">
-        <f>VLOOKUP(A77,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqadventurer</v>
+        <f>VLOOKUP(A77,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqathlete</v>
       </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C78" t="str">
-        <f>VLOOKUP(A78,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqathlete</v>
+        <f>VLOOKUP(A78,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqaviator</v>
       </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C79" t="str">
-        <f>VLOOKUP(A79,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqaviator</v>
+        <f>VLOOKUP(A79,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqcaptain</v>
       </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" t="str">
-        <f>VLOOKUP(A80,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqcaptain</v>
+        <f>VLOOKUP(A80,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqcommander</v>
       </c>
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C81" t="str">
-        <f>VLOOKUP(A81,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqcommander</v>
+        <f>VLOOKUP(A81,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqdriver</v>
       </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" t="str">
-        <f>VLOOKUP(A82,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqdriver</v>
+        <f>VLOOKUP(A82,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqexpedition</v>
       </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C83" t="str">
-        <f>VLOOKUP(A83,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqexpedition</v>
+        <f>VLOOKUP(A83,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>marqgolfer</v>
       </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C84" t="str">
-        <f>VLOOKUP(A84,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>marqgolfer</v>
+        <f>VLOOKUP(A84,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu</v>
       </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C85" t="str">
-        <f>VLOOKUP(A85,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu</v>
+        <f>VLOOKUP(A85,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu2</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" t="str">
-        <f>VLOOKUP(A86,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu2</v>
+        <f>VLOOKUP(A86,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu2plus</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C87" t="str">
-        <f>VLOOKUP(A87,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu2plus</v>
+        <f>VLOOKUP(A87,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu2s</v>
       </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C88" t="str">
-        <f>VLOOKUP(A88,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu2s</v>
+        <f>VLOOKUP(A88,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu3</v>
       </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C89" t="str">
-        <f>VLOOKUP(A89,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu2system6preview</v>
+        <f>VLOOKUP(A89,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu3s</v>
       </c>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C90" t="str">
-        <f>VLOOKUP(A90,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu3</v>
+        <f>VLOOKUP(A90,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu441mm</v>
       </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C91" t="str">
-        <f>VLOOKUP(A91,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu3s</v>
+        <f>VLOOKUP(A91,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venu445mm</v>
       </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" t="str">
-        <f>VLOOKUP(A92,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu441mm</v>
+        <f>VLOOKUP(A92,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>venud</v>
       </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C93" t="str">
-        <f>VLOOKUP(A93,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venu445mm</v>
+        <f>VLOOKUP(A93,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive3</v>
       </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C94" t="str">
-        <f>VLOOKUP(A94,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>venud</v>
+        <f>VLOOKUP(A94,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive3m</v>
       </c>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C95" t="str">
-        <f>VLOOKUP(A95,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive3</v>
+        <f>VLOOKUP(A95,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive3mlte</v>
       </c>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C96" t="str">
-        <f>VLOOKUP(A96,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive3m</v>
+        <f>VLOOKUP(A96,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive4</v>
       </c>
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C97" t="str">
-        <f>VLOOKUP(A97,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive3mlte</v>
+        <f>VLOOKUP(A97,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive4s</v>
       </c>
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C98" t="str">
-        <f>VLOOKUP(A98,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive4</v>
+        <f>VLOOKUP(A98,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive5</v>
       </c>
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C99" t="str">
-        <f>VLOOKUP(A99,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive4s</v>
+        <f>VLOOKUP(A99,Feuil1!$A$1:$M$140,13,0)</f>
+        <v>vivoactive6</v>
       </c>
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" t="str">
-        <f>VLOOKUP(A100,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive5</v>
-      </c>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C101" t="str">
-        <f>VLOOKUP(A101,Feuil1!$A$1:$M$142,13,0)</f>
-        <v>vivoactive6</v>
-      </c>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A100" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A99"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Modèles.xlsx
+++ b/Modèles.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="modèles" sheetId="1" r:id="rId1"/>
+    <sheet name="écran" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId3"/>
+    <sheet name="manifest" sheetId="3" r:id="rId4"/>
+    <sheet name="calculs" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$N$139</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuil3!$A$1:$A$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">manifest!$A$1:$A$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modèles!$A$1:$N$139</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="571">
   <si>
     <t>deviceId</t>
   </si>
@@ -1091,9 +1093,6 @@
     <t>Gfx.TEXT_JUSTIFY_LEFT</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>x=</t>
   </si>
   <si>
@@ -1124,15 +1123,6 @@
     <t>justification</t>
   </si>
   <si>
-    <t>afficheMeteo)</t>
-  </si>
-  <si>
-    <t>OledModel</t>
-  </si>
-  <si>
-    <t>inLowPower</t>
-  </si>
-  <si>
     <t>watchApp</t>
   </si>
   <si>
@@ -1584,13 +1574,190 @@
   </si>
   <si>
     <t>OK menus</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>jours</t>
+  </si>
+  <si>
+    <t>date longue</t>
+  </si>
+  <si>
+    <t>hms</t>
+  </si>
+  <si>
+    <t>date courte</t>
+  </si>
+  <si>
+    <t>FONT_XTINY</t>
+  </si>
+  <si>
+    <t>API Level 1.0.0</t>
+  </si>
+  <si>
+    <t>Extra tiny Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_TINY</t>
+  </si>
+  <si>
+    <t>Tiny Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_SMALL</t>
+  </si>
+  <si>
+    <t>Small Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_MEDIUM</t>
+  </si>
+  <si>
+    <t>Medium Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_LARGE</t>
+  </si>
+  <si>
+    <t>Large Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_NUMBER_MILD</t>
+  </si>
+  <si>
+    <t>Normal size number only Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_NUMBER_MEDIUM</t>
+  </si>
+  <si>
+    <t>Medium size number only Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_NUMBER_HOT</t>
+  </si>
+  <si>
+    <t>Large size number only Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_NUMBER_THAI_HOT</t>
+  </si>
+  <si>
+    <t>Huge size number only Connect IQ font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_XTINY</t>
+  </si>
+  <si>
+    <t>API Level 1.3.0</t>
+  </si>
+  <si>
+    <t>Extra tiny system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_TINY</t>
+  </si>
+  <si>
+    <t>Tiny system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_SMALL</t>
+  </si>
+  <si>
+    <t>Small system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_MEDIUM</t>
+  </si>
+  <si>
+    <t>Medium system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_LARGE</t>
+  </si>
+  <si>
+    <t>Large system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_NUMBER_MILD</t>
+  </si>
+  <si>
+    <t>Normal size number only system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_NUMBER_MEDIUM</t>
+  </si>
+  <si>
+    <t>Medium size number only system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_NUMBER_HOT</t>
+  </si>
+  <si>
+    <t>Large size number only system font</t>
+  </si>
+  <si>
+    <t>FONT_SYSTEM_NUMBER_THAI_HOT</t>
+  </si>
+  <si>
+    <t>Huge size number only system font</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_TINY</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SMALL</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_NUMBER_MEDIUM</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_NUMBER_THAI_HOT</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_XTINY</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_TINY</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_SMALL</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_MEDIUM</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_LARGE</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_NUMBER_MILD</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_NUMBER_MEDIUM</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_NUMBER_HOT</t>
+  </si>
+  <si>
+    <t>Gfx.FONT_SYSTEM_NUMBER_THAI_HOT</t>
+  </si>
+  <si>
+    <t>pixel X</t>
+  </si>
+  <si>
+    <t>pixel Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,8 +1778,34 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3794FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,8 +1824,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1640,20 +1851,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,13 +2030,14 @@
       <sheetName val="Modèles"/>
       <sheetName val="has map"/>
       <sheetName val="Feuil1"/>
+      <sheetName val="écran"/>
       <sheetName val="strings"/>
       <sheetName val="drawables"/>
       <sheetName val="TEXTE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
@@ -2027,9 +2380,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2300,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
@@ -2339,25 +2693,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -2366,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2393,10 +2747,10 @@
         <v>65536</v>
       </c>
       <c r="L2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M2" t="str">
-        <f>IFERROR(VLOOKUP(A2,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A2,manifest!A:A,1,0),"")</f>
         <v>approachs50</v>
       </c>
       <c r="N2" t="str">
@@ -2409,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -2418,7 +2772,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -2439,10 +2793,10 @@
         <v>32768</v>
       </c>
       <c r="L3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M3" t="str">
-        <f>IFERROR(VLOOKUP(A3,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A3,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N3" t="str">
@@ -2455,7 +2809,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2485,10 +2839,10 @@
         <v>65536</v>
       </c>
       <c r="L4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M4" t="str">
-        <f>IFERROR(VLOOKUP(A4,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A4,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N4" t="str">
@@ -2501,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2531,10 +2885,10 @@
         <v>65536</v>
       </c>
       <c r="L5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M5" t="str">
-        <f>IFERROR(VLOOKUP(A5,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A5,manifest!A:A,1,0),"")</f>
         <v>approachs7042mm</v>
       </c>
       <c r="N5" t="str">
@@ -2547,7 +2901,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2577,10 +2931,10 @@
         <v>65536</v>
       </c>
       <c r="L6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M6" t="str">
-        <f>IFERROR(VLOOKUP(A6,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A6,manifest!A:A,1,0),"")</f>
         <v>approachs7047mm</v>
       </c>
       <c r="N6" t="str">
@@ -2623,10 +2977,10 @@
         <v>32768</v>
       </c>
       <c r="L7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M7" t="str">
-        <f>IFERROR(VLOOKUP(A7,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A7,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N7" t="str">
@@ -2639,7 +2993,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2669,10 +3023,10 @@
         <v>65536</v>
       </c>
       <c r="L8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M8" t="str">
-        <f>IFERROR(VLOOKUP(A8,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A8,manifest!A:A,1,0),"")</f>
         <v>d2air</v>
       </c>
       <c r="N8" t="str">
@@ -2685,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2715,10 +3069,10 @@
         <v>65536</v>
       </c>
       <c r="L9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M9" t="str">
-        <f>IFERROR(VLOOKUP(A9,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A9,manifest!A:A,1,0),"")</f>
         <v>d2airx10</v>
       </c>
       <c r="N9" t="str">
@@ -2731,7 +3085,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -2761,10 +3115,10 @@
         <v>65536</v>
       </c>
       <c r="L10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M10" t="str">
-        <f>IFERROR(VLOOKUP(A10,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A10,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N10" t="str">
@@ -2777,7 +3131,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -2807,10 +3161,10 @@
         <v>65536</v>
       </c>
       <c r="L11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M11" t="str">
-        <f>IFERROR(VLOOKUP(A11,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A11,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N11" t="str">
@@ -2823,7 +3177,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2853,10 +3207,10 @@
         <v>32768</v>
       </c>
       <c r="L12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M12" t="str">
-        <f>IFERROR(VLOOKUP(A12,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A12,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N12" t="str">
@@ -2869,7 +3223,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2899,10 +3253,10 @@
         <v>32768</v>
       </c>
       <c r="L13" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M13" t="str">
-        <f>IFERROR(VLOOKUP(A13,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A13,manifest!A:A,1,0),"")</f>
         <v>d2delta</v>
       </c>
       <c r="N13" t="str">
@@ -2915,7 +3269,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2945,10 +3299,10 @@
         <v>32768</v>
       </c>
       <c r="L14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M14" t="str">
-        <f>IFERROR(VLOOKUP(A14,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A14,manifest!A:A,1,0),"")</f>
         <v>d2deltapx</v>
       </c>
       <c r="N14" t="str">
@@ -2961,7 +3315,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -2991,10 +3345,10 @@
         <v>32768</v>
       </c>
       <c r="L15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M15" t="str">
-        <f>IFERROR(VLOOKUP(A15,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A15,manifest!A:A,1,0),"")</f>
         <v>d2deltas</v>
       </c>
       <c r="N15" t="str">
@@ -3007,7 +3361,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -3016,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -3037,14 +3391,14 @@
         <v>65536</v>
       </c>
       <c r="L16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M16" t="str">
-        <f>IFERROR(VLOOKUP(A16,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A16,manifest!A:A,1,0),"")</f>
         <v>d2mach1</v>
       </c>
       <c r="N16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3052,7 +3406,7 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -3082,10 +3436,10 @@
         <v>32768</v>
       </c>
       <c r="L17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M17" t="str">
-        <f>IFERROR(VLOOKUP(A17,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A17,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N17" t="str">
@@ -3098,7 +3452,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3128,14 +3482,14 @@
         <v>65536</v>
       </c>
       <c r="L18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M18" t="str">
-        <f>IFERROR(VLOOKUP(A18,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A18,manifest!A:A,1,0),"")</f>
         <v>descentg2</v>
       </c>
       <c r="N18" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3143,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -3152,7 +3506,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
         <v>64</v>
@@ -3173,10 +3527,10 @@
         <v>32768</v>
       </c>
       <c r="L19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M19" t="str">
-        <f>IFERROR(VLOOKUP(A19,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A19,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N19" t="str">
@@ -3189,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -3219,14 +3573,14 @@
         <v>32768</v>
       </c>
       <c r="L20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M20" t="str">
-        <f>IFERROR(VLOOKUP(A20,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A20,manifest!A:A,1,0),"")</f>
         <v>descentmk2</v>
       </c>
       <c r="N20" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3234,7 +3588,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -3264,14 +3618,14 @@
         <v>32768</v>
       </c>
       <c r="L21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M21" t="str">
-        <f>IFERROR(VLOOKUP(A21,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A21,manifest!A:A,1,0),"")</f>
         <v>descentmk2s</v>
       </c>
       <c r="N21" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3279,7 +3633,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3309,14 +3663,14 @@
         <v>65536</v>
       </c>
       <c r="L22" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M22" t="str">
-        <f>IFERROR(VLOOKUP(A22,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A22,manifest!A:A,1,0),"")</f>
         <v>descentmk343mm</v>
       </c>
       <c r="N22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3324,7 +3678,7 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3354,14 +3708,14 @@
         <v>65536</v>
       </c>
       <c r="L23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M23" t="str">
-        <f>IFERROR(VLOOKUP(A23,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A23,manifest!A:A,1,0),"")</f>
         <v>descentmk351mm</v>
       </c>
       <c r="N23" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3369,7 +3723,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -3399,14 +3753,14 @@
         <v>32768</v>
       </c>
       <c r="L24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M24" t="str">
-        <f>IFERROR(VLOOKUP(A24,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A24,manifest!A:A,1,0),"")</f>
         <v>enduro</v>
       </c>
       <c r="N24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3414,7 +3768,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -3423,7 +3777,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F25" t="s">
         <v>80</v>
@@ -3444,14 +3798,14 @@
         <v>65536</v>
       </c>
       <c r="L25" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M25" t="str">
-        <f>IFERROR(VLOOKUP(A25,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A25,manifest!A:A,1,0),"")</f>
         <v>enduro3</v>
       </c>
       <c r="N25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3459,7 +3813,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
@@ -3489,10 +3843,10 @@
         <v>65536</v>
       </c>
       <c r="L26" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M26" t="str">
-        <f>IFERROR(VLOOKUP(A26,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A26,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N26" t="str">
@@ -3505,7 +3859,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -3514,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -3535,14 +3889,14 @@
         <v>65536</v>
       </c>
       <c r="L27" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M27" t="str">
-        <f>IFERROR(VLOOKUP(A27,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A27,manifest!A:A,1,0),"")</f>
         <v>epix2</v>
       </c>
       <c r="N27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3550,7 +3904,7 @@
         <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3559,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
@@ -3580,14 +3934,14 @@
         <v>65536</v>
       </c>
       <c r="L28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M28" t="str">
-        <f>IFERROR(VLOOKUP(A28,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A28,manifest!A:A,1,0),"")</f>
         <v>epix2pro42mm</v>
       </c>
       <c r="N28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3595,7 +3949,7 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -3604,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F29" t="s">
         <v>90</v>
@@ -3625,14 +3979,14 @@
         <v>65536</v>
       </c>
       <c r="L29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M29" t="str">
-        <f>IFERROR(VLOOKUP(A29,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A29,manifest!A:A,1,0),"")</f>
         <v>epix2pro47mm</v>
       </c>
       <c r="N29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3640,7 +3994,7 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -3649,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F30" t="s">
         <v>92</v>
@@ -3670,14 +4024,14 @@
         <v>65536</v>
       </c>
       <c r="L30" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M30" t="str">
-        <f>IFERROR(VLOOKUP(A30,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A30,manifest!A:A,1,0),"")</f>
         <v>epix2pro51mm</v>
       </c>
       <c r="N30" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3685,7 +4039,7 @@
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -3715,10 +4069,10 @@
         <v>65536</v>
       </c>
       <c r="L31" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M31" t="str">
-        <f>IFERROR(VLOOKUP(A31,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A31,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N31" t="str">
@@ -3731,7 +4085,7 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -3761,10 +4115,10 @@
         <v>65536</v>
       </c>
       <c r="L32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M32" t="str">
-        <f>IFERROR(VLOOKUP(A32,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A32,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N32" t="str">
@@ -3777,7 +4131,7 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -3807,10 +4161,10 @@
         <v>32768</v>
       </c>
       <c r="L33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M33" t="str">
-        <f>IFERROR(VLOOKUP(A33,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A33,manifest!A:A,1,0),"")</f>
         <v>fenix5</v>
       </c>
       <c r="N33" t="str">
@@ -3823,7 +4177,7 @@
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -3853,14 +4207,14 @@
         <v>32768</v>
       </c>
       <c r="L34" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M34" t="str">
-        <f>IFERROR(VLOOKUP(A34,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A34,manifest!A:A,1,0),"")</f>
         <v>fenix5plus</v>
       </c>
       <c r="N34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3868,7 +4222,7 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
@@ -3898,10 +4252,10 @@
         <v>32768</v>
       </c>
       <c r="L35" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M35" t="str">
-        <f>IFERROR(VLOOKUP(A35,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A35,manifest!A:A,1,0),"")</f>
         <v>fenix5s</v>
       </c>
       <c r="N35" t="str">
@@ -3914,7 +4268,7 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -3944,14 +4298,14 @@
         <v>32768</v>
       </c>
       <c r="L36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M36" t="str">
-        <f>IFERROR(VLOOKUP(A36,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A36,manifest!A:A,1,0),"")</f>
         <v>fenix5splus</v>
       </c>
       <c r="N36" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3959,7 +4313,7 @@
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -3989,10 +4343,10 @@
         <v>32768</v>
       </c>
       <c r="L37" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M37" t="str">
-        <f>IFERROR(VLOOKUP(A37,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A37,manifest!A:A,1,0),"")</f>
         <v>fenix5x</v>
       </c>
       <c r="N37" t="str">
@@ -4005,7 +4359,7 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -4035,14 +4389,14 @@
         <v>32768</v>
       </c>
       <c r="L38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M38" t="str">
-        <f>IFERROR(VLOOKUP(A38,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A38,manifest!A:A,1,0),"")</f>
         <v>fenix5xplus</v>
       </c>
       <c r="N38" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4050,7 +4404,7 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
@@ -4080,14 +4434,14 @@
         <v>32768</v>
       </c>
       <c r="L39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M39" t="str">
-        <f>IFERROR(VLOOKUP(A39,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A39,manifest!A:A,1,0),"")</f>
         <v>fenix6</v>
       </c>
       <c r="N39" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4095,7 +4449,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -4125,14 +4479,14 @@
         <v>32768</v>
       </c>
       <c r="L40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M40" t="str">
-        <f>IFERROR(VLOOKUP(A40,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A40,manifest!A:A,1,0),"")</f>
         <v>fenix6pro</v>
       </c>
       <c r="N40" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4140,7 +4494,7 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -4170,14 +4524,14 @@
         <v>32768</v>
       </c>
       <c r="L41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M41" t="str">
-        <f>IFERROR(VLOOKUP(A41,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A41,manifest!A:A,1,0),"")</f>
         <v>fenix6s</v>
       </c>
       <c r="N41" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4185,7 +4539,7 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -4215,14 +4569,14 @@
         <v>32768</v>
       </c>
       <c r="L42" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M42" t="str">
-        <f>IFERROR(VLOOKUP(A42,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A42,manifest!A:A,1,0),"")</f>
         <v>fenix6spro</v>
       </c>
       <c r="N42" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4230,7 +4584,7 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -4260,14 +4614,14 @@
         <v>32768</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M43" t="str">
-        <f>IFERROR(VLOOKUP(A43,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A43,manifest!A:A,1,0),"")</f>
         <v>fenix6xpro</v>
       </c>
       <c r="N43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4275,7 +4629,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -4284,7 +4638,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F44" t="s">
         <v>123</v>
@@ -4305,14 +4659,14 @@
         <v>65536</v>
       </c>
       <c r="L44" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M44" t="str">
-        <f>IFERROR(VLOOKUP(A44,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A44,manifest!A:A,1,0),"")</f>
         <v>fenix7</v>
       </c>
       <c r="N44" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4320,7 +4674,7 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -4329,7 +4683,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F45" t="s">
         <v>125</v>
@@ -4350,14 +4704,14 @@
         <v>65536</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M45" t="str">
-        <f>IFERROR(VLOOKUP(A45,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A45,manifest!A:A,1,0),"")</f>
         <v>fenix7pro</v>
       </c>
       <c r="N45" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4365,7 +4719,7 @@
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -4374,7 +4728,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F46" t="s">
         <v>127</v>
@@ -4395,14 +4749,14 @@
         <v>65536</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M46" t="str">
-        <f>IFERROR(VLOOKUP(A46,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A46,manifest!A:A,1,0),"")</f>
         <v>fenix7pronowifi</v>
       </c>
       <c r="N46" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -4410,7 +4764,7 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -4419,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F47" t="s">
         <v>129</v>
@@ -4440,14 +4794,14 @@
         <v>65536</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M47" t="str">
-        <f>IFERROR(VLOOKUP(A47,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A47,manifest!A:A,1,0),"")</f>
         <v>fenix7s</v>
       </c>
       <c r="N47" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4455,7 +4809,7 @@
         <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -4464,7 +4818,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F48" t="s">
         <v>131</v>
@@ -4485,14 +4839,14 @@
         <v>65536</v>
       </c>
       <c r="L48" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M48" t="str">
-        <f>IFERROR(VLOOKUP(A48,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A48,manifest!A:A,1,0),"")</f>
         <v>fenix7spro</v>
       </c>
       <c r="N48" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4500,7 +4854,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -4509,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F49" t="s">
         <v>133</v>
@@ -4530,14 +4884,14 @@
         <v>65536</v>
       </c>
       <c r="L49" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M49" t="str">
-        <f>IFERROR(VLOOKUP(A49,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A49,manifest!A:A,1,0),"")</f>
         <v>fenix7x</v>
       </c>
       <c r="N49" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4545,7 +4899,7 @@
         <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
@@ -4554,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F50" t="s">
         <v>135</v>
@@ -4575,14 +4929,14 @@
         <v>65536</v>
       </c>
       <c r="L50" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M50" t="str">
-        <f>IFERROR(VLOOKUP(A50,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A50,manifest!A:A,1,0),"")</f>
         <v>fenix7xpro</v>
       </c>
       <c r="N50" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4590,7 +4944,7 @@
         <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -4599,7 +4953,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F51" t="s">
         <v>137</v>
@@ -4620,14 +4974,14 @@
         <v>65536</v>
       </c>
       <c r="L51" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M51" t="str">
-        <f>IFERROR(VLOOKUP(A51,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A51,manifest!A:A,1,0),"")</f>
         <v>fenix7xpronowifi</v>
       </c>
       <c r="N51" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4635,7 +4989,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -4644,7 +4998,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F52" t="s">
         <v>139</v>
@@ -4665,14 +5019,14 @@
         <v>65536</v>
       </c>
       <c r="L52" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M52" t="str">
-        <f>IFERROR(VLOOKUP(A52,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A52,manifest!A:A,1,0),"")</f>
         <v>fenix843mm</v>
       </c>
       <c r="N52" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4680,7 +5034,7 @@
         <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -4689,7 +5043,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
         <v>141</v>
@@ -4710,14 +5064,14 @@
         <v>65536</v>
       </c>
       <c r="L53" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M53" t="str">
-        <f>IFERROR(VLOOKUP(A53,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A53,manifest!A:A,1,0),"")</f>
         <v>fenix847mm</v>
       </c>
       <c r="N53" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4725,7 +5079,7 @@
         <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -4734,7 +5088,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F54" t="s">
         <v>143</v>
@@ -4755,14 +5109,14 @@
         <v>65536</v>
       </c>
       <c r="L54" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M54" t="str">
-        <f>IFERROR(VLOOKUP(A54,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A54,manifest!A:A,1,0),"")</f>
         <v>fenix8solar47mm</v>
       </c>
       <c r="N54" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4770,7 +5124,7 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
@@ -4779,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F55" t="s">
         <v>145</v>
@@ -4800,14 +5154,14 @@
         <v>65536</v>
       </c>
       <c r="L55" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M55" t="str">
-        <f>IFERROR(VLOOKUP(A55,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A55,manifest!A:A,1,0),"")</f>
         <v>fenix8solar51mm</v>
       </c>
       <c r="N55" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4815,7 +5169,7 @@
         <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
@@ -4845,10 +5199,10 @@
         <v>32768</v>
       </c>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M56" t="str">
-        <f>IFERROR(VLOOKUP(A56,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A56,manifest!A:A,1,0),"")</f>
         <v>fenixchronos</v>
       </c>
       <c r="N56" t="str">
@@ -4861,7 +5215,7 @@
         <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -4870,7 +5224,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F57" t="s">
         <v>149</v>
@@ -4891,14 +5245,14 @@
         <v>65536</v>
       </c>
       <c r="L57" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M57" t="str">
-        <f>IFERROR(VLOOKUP(A57,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A57,manifest!A:A,1,0),"")</f>
         <v>fenixe</v>
       </c>
       <c r="N57" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4906,7 +5260,7 @@
         <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -4915,7 +5269,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F58" t="s">
         <v>151</v>
@@ -4936,14 +5290,14 @@
         <v>65536</v>
       </c>
       <c r="L58" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M58" t="str">
-        <f>IFERROR(VLOOKUP(A58,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A58,manifest!A:A,1,0),"")</f>
         <v>fr165</v>
       </c>
       <c r="N58" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4951,7 +5305,7 @@
         <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -4960,7 +5314,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F59" t="s">
         <v>153</v>
@@ -4981,14 +5335,14 @@
         <v>65536</v>
       </c>
       <c r="L59" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M59" t="str">
-        <f>IFERROR(VLOOKUP(A59,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A59,manifest!A:A,1,0),"")</f>
         <v>fr165m</v>
       </c>
       <c r="N59" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4996,7 +5350,7 @@
         <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C60" t="s">
         <v>155</v>
@@ -5026,10 +5380,10 @@
         <v>65536</v>
       </c>
       <c r="L60" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M60" t="str">
-        <f>IFERROR(VLOOKUP(A60,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A60,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N60" t="str">
@@ -5042,7 +5396,7 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C61" t="s">
         <v>155</v>
@@ -5072,10 +5426,10 @@
         <v>65536</v>
       </c>
       <c r="L61" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M61" t="str">
-        <f>IFERROR(VLOOKUP(A61,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A61,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N61" t="str">
@@ -5088,7 +5442,7 @@
         <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -5118,14 +5472,14 @@
         <v>32768</v>
       </c>
       <c r="L62" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M62" t="str">
-        <f>IFERROR(VLOOKUP(A62,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A62,manifest!A:A,1,0),"")</f>
         <v>fr245</v>
       </c>
       <c r="N62" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -5133,7 +5487,7 @@
         <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -5163,14 +5517,14 @@
         <v>65536</v>
       </c>
       <c r="L63" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M63" t="str">
-        <f>IFERROR(VLOOKUP(A63,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A63,manifest!A:A,1,0),"")</f>
         <v>fr245m</v>
       </c>
       <c r="N63" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -5178,7 +5532,7 @@
         <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -5187,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F64" t="s">
         <v>165</v>
@@ -5208,14 +5562,14 @@
         <v>65536</v>
       </c>
       <c r="L64" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M64" t="str">
-        <f>IFERROR(VLOOKUP(A64,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A64,manifest!A:A,1,0),"")</f>
         <v>fr255</v>
       </c>
       <c r="N64" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5223,7 +5577,7 @@
         <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -5232,7 +5586,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F65" t="s">
         <v>167</v>
@@ -5253,14 +5607,14 @@
         <v>65536</v>
       </c>
       <c r="L65" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M65" t="str">
-        <f>IFERROR(VLOOKUP(A65,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A65,manifest!A:A,1,0),"")</f>
         <v>fr255m</v>
       </c>
       <c r="N65" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -5268,7 +5622,7 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C66" t="s">
         <v>40</v>
@@ -5277,7 +5631,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F66" t="s">
         <v>169</v>
@@ -5298,14 +5652,14 @@
         <v>65536</v>
       </c>
       <c r="L66" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M66" t="str">
-        <f>IFERROR(VLOOKUP(A66,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A66,manifest!A:A,1,0),"")</f>
         <v>fr255s</v>
       </c>
       <c r="N66" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -5313,7 +5667,7 @@
         <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C67" t="s">
         <v>40</v>
@@ -5322,7 +5676,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F67" t="s">
         <v>171</v>
@@ -5343,14 +5697,14 @@
         <v>65536</v>
       </c>
       <c r="L67" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M67" t="str">
-        <f>IFERROR(VLOOKUP(A67,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A67,manifest!A:A,1,0),"")</f>
         <v>fr255sm</v>
       </c>
       <c r="N67" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -5358,7 +5712,7 @@
         <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
@@ -5367,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F68" t="s">
         <v>173</v>
@@ -5388,14 +5742,14 @@
         <v>65536</v>
       </c>
       <c r="L68" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M68" t="str">
-        <f>IFERROR(VLOOKUP(A68,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A68,manifest!A:A,1,0),"")</f>
         <v>fr265</v>
       </c>
       <c r="N68" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -5403,7 +5757,7 @@
         <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C69" t="s">
         <v>175</v>
@@ -5412,7 +5766,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F69" t="s">
         <v>176</v>
@@ -5433,14 +5787,14 @@
         <v>65536</v>
       </c>
       <c r="L69" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M69" t="str">
-        <f>IFERROR(VLOOKUP(A69,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A69,manifest!A:A,1,0),"")</f>
         <v>fr265s</v>
       </c>
       <c r="N69" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5448,7 +5802,7 @@
         <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C70" t="s">
         <v>178</v>
@@ -5478,10 +5832,10 @@
         <v>65536</v>
       </c>
       <c r="L70" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M70" t="str">
-        <f>IFERROR(VLOOKUP(A70,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A70,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N70" t="str">
@@ -5494,7 +5848,7 @@
         <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C71" t="s">
         <v>178</v>
@@ -5524,10 +5878,10 @@
         <v>32768</v>
       </c>
       <c r="L71" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M71" t="str">
-        <f>IFERROR(VLOOKUP(A71,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A71,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N71" t="str">
@@ -5540,7 +5894,7 @@
         <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -5570,14 +5924,14 @@
         <v>65536</v>
       </c>
       <c r="L72" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M72" t="str">
-        <f>IFERROR(VLOOKUP(A72,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A72,manifest!A:A,1,0),"")</f>
         <v>fr57042mm</v>
       </c>
       <c r="N72" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5585,7 +5939,7 @@
         <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -5615,14 +5969,14 @@
         <v>65536</v>
       </c>
       <c r="L73" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M73" t="str">
-        <f>IFERROR(VLOOKUP(A73,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A73,manifest!A:A,1,0),"")</f>
         <v>fr57047mm</v>
       </c>
       <c r="N73" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5630,7 +5984,7 @@
         <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C74" t="s">
         <v>155</v>
@@ -5660,10 +6014,10 @@
         <v>65536</v>
       </c>
       <c r="L74" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M74" t="str">
-        <f>IFERROR(VLOOKUP(A74,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A74,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N74" t="str">
@@ -5676,7 +6030,7 @@
         <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -5706,10 +6060,10 @@
         <v>32768</v>
       </c>
       <c r="L75" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M75" t="str">
-        <f>IFERROR(VLOOKUP(A75,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A75,manifest!A:A,1,0),"")</f>
         <v>fr645</v>
       </c>
       <c r="N75" t="str">
@@ -5722,7 +6076,7 @@
         <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -5752,14 +6106,14 @@
         <v>65536</v>
       </c>
       <c r="L76" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M76" t="str">
-        <f>IFERROR(VLOOKUP(A76,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A76,manifest!A:A,1,0),"")</f>
         <v>fr645m</v>
       </c>
       <c r="N76" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5767,7 +6121,7 @@
         <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C77" t="s">
         <v>155</v>
@@ -5797,10 +6151,10 @@
         <v>32768</v>
       </c>
       <c r="L77" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M77" t="str">
-        <f>IFERROR(VLOOKUP(A77,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A77,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N77" t="str">
@@ -5813,7 +6167,7 @@
         <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -5843,14 +6197,14 @@
         <v>65536</v>
       </c>
       <c r="L78" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M78" t="str">
-        <f>IFERROR(VLOOKUP(A78,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A78,manifest!A:A,1,0),"")</f>
         <v>fr745</v>
       </c>
       <c r="N78" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5858,7 +6212,7 @@
         <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -5888,10 +6242,10 @@
         <v>65536</v>
       </c>
       <c r="L79" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M79" t="str">
-        <f>IFERROR(VLOOKUP(A79,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A79,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N79" t="str">
@@ -5904,7 +6258,7 @@
         <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -5934,10 +6288,10 @@
         <v>32768</v>
       </c>
       <c r="L80" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M80" t="str">
-        <f>IFERROR(VLOOKUP(A80,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A80,manifest!A:A,1,0),"")</f>
         <v>fr935</v>
       </c>
       <c r="N80" t="str">
@@ -5950,7 +6304,7 @@
         <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -5980,14 +6334,14 @@
         <v>65536</v>
       </c>
       <c r="L81" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M81" t="str">
-        <f>IFERROR(VLOOKUP(A81,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A81,manifest!A:A,1,0),"")</f>
         <v>fr945</v>
       </c>
       <c r="N81" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -5995,7 +6349,7 @@
         <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -6025,14 +6379,14 @@
         <v>65536</v>
       </c>
       <c r="L82" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M82" t="str">
-        <f>IFERROR(VLOOKUP(A82,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A82,manifest!A:A,1,0),"")</f>
         <v>fr945lte</v>
       </c>
       <c r="N82" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6040,7 +6394,7 @@
         <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -6049,7 +6403,7 @@
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
         <v>208</v>
@@ -6070,14 +6424,14 @@
         <v>65536</v>
       </c>
       <c r="L83" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M83" t="str">
-        <f>IFERROR(VLOOKUP(A83,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A83,manifest!A:A,1,0),"")</f>
         <v>fr955</v>
       </c>
       <c r="N83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -6085,7 +6439,7 @@
         <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
@@ -6094,7 +6448,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F84" t="s">
         <v>210</v>
@@ -6115,14 +6469,14 @@
         <v>65536</v>
       </c>
       <c r="L84" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M84" t="str">
-        <f>IFERROR(VLOOKUP(A84,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A84,manifest!A:A,1,0),"")</f>
         <v>fr965</v>
       </c>
       <c r="N84" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -6130,7 +6484,7 @@
         <v>211</v>
       </c>
       <c r="B85" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
@@ -6160,14 +6514,14 @@
         <v>65536</v>
       </c>
       <c r="L85" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M85" t="str">
-        <f>IFERROR(VLOOKUP(A85,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A85,manifest!A:A,1,0),"")</f>
         <v>fr970</v>
       </c>
       <c r="N85" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -6175,7 +6529,7 @@
         <v>213</v>
       </c>
       <c r="B86" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C86" t="s">
         <v>178</v>
@@ -6205,10 +6559,10 @@
         <v>65536</v>
       </c>
       <c r="L86" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M86" t="str">
-        <f>IFERROR(VLOOKUP(A86,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A86,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N86" t="str">
@@ -6221,7 +6575,7 @@
         <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C87" t="s">
         <v>58</v>
@@ -6251,10 +6605,10 @@
         <v>32768</v>
       </c>
       <c r="L87" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M87" t="str">
-        <f>IFERROR(VLOOKUP(A87,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A87,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N87" t="str">
@@ -6267,7 +6621,7 @@
         <v>217</v>
       </c>
       <c r="B88" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C88" t="s">
         <v>218</v>
@@ -6297,10 +6651,10 @@
         <v>32768</v>
       </c>
       <c r="L88" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M88" t="str">
-        <f>IFERROR(VLOOKUP(A88,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A88,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N88" t="str">
@@ -6313,7 +6667,7 @@
         <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
@@ -6343,10 +6697,10 @@
         <v>32768</v>
       </c>
       <c r="L89" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M89" t="str">
-        <f>IFERROR(VLOOKUP(A89,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A89,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N89" t="str">
@@ -6359,7 +6713,7 @@
         <v>222</v>
       </c>
       <c r="B90" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -6389,14 +6743,14 @@
         <v>65536</v>
       </c>
       <c r="L90" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M90" t="str">
-        <f>IFERROR(VLOOKUP(A90,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A90,manifest!A:A,1,0),"")</f>
         <v>instinct3amoled45mm</v>
       </c>
       <c r="N90" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -6404,7 +6758,7 @@
         <v>224</v>
       </c>
       <c r="B91" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C91" t="s">
         <v>37</v>
@@ -6434,14 +6788,14 @@
         <v>65536</v>
       </c>
       <c r="L91" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M91" t="str">
-        <f>IFERROR(VLOOKUP(A91,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A91,manifest!A:A,1,0),"")</f>
         <v>instinct3amoled50mm</v>
       </c>
       <c r="N91" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -6449,7 +6803,7 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C92" t="s">
         <v>58</v>
@@ -6479,10 +6833,10 @@
         <v>32768</v>
       </c>
       <c r="L92" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M92" t="str">
-        <f>IFERROR(VLOOKUP(A92,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A92,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N92" t="str">
@@ -6492,10 +6846,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C93" t="s">
         <v>58</v>
@@ -6525,10 +6879,10 @@
         <v>32768</v>
       </c>
       <c r="L93" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M93" t="str">
-        <f>IFERROR(VLOOKUP(A93,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A93,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N93" t="str">
@@ -6541,7 +6895,7 @@
         <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
@@ -6571,10 +6925,10 @@
         <v>32768</v>
       </c>
       <c r="L94" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M94" t="str">
-        <f>IFERROR(VLOOKUP(A94,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A94,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N94" t="str">
@@ -6587,7 +6941,7 @@
         <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C95" t="s">
         <v>231</v>
@@ -6617,10 +6971,10 @@
         <v>32768</v>
       </c>
       <c r="L95" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M95" t="str">
-        <f>IFERROR(VLOOKUP(A95,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A95,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N95" t="str">
@@ -6633,7 +6987,7 @@
         <v>233</v>
       </c>
       <c r="B96" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C96" t="s">
         <v>58</v>
@@ -6663,10 +7017,10 @@
         <v>32768</v>
       </c>
       <c r="L96" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M96" t="str">
-        <f>IFERROR(VLOOKUP(A96,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A96,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N96" t="str">
@@ -6709,14 +7063,14 @@
         <v>65536</v>
       </c>
       <c r="L97" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M97" t="str">
-        <f>IFERROR(VLOOKUP(A97,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A97,manifest!A:A,1,0),"")</f>
         <v>legacyherocaptainmarvel</v>
       </c>
       <c r="N97" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -6754,14 +7108,14 @@
         <v>65536</v>
       </c>
       <c r="L98" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M98" t="str">
-        <f>IFERROR(VLOOKUP(A98,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A98,manifest!A:A,1,0),"")</f>
         <v>legacyherofirstavenger</v>
       </c>
       <c r="N98" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -6769,7 +7123,7 @@
         <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -6799,14 +7153,14 @@
         <v>65536</v>
       </c>
       <c r="L99" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M99" t="str">
-        <f>IFERROR(VLOOKUP(A99,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A99,manifest!A:A,1,0),"")</f>
         <v>legacysagadarthvader</v>
       </c>
       <c r="N99" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,7 +7168,7 @@
         <v>243</v>
       </c>
       <c r="B100" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C100" t="s">
         <v>40</v>
@@ -6844,14 +7198,14 @@
         <v>65536</v>
       </c>
       <c r="L100" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M100" t="str">
-        <f>IFERROR(VLOOKUP(A100,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A100,manifest!A:A,1,0),"")</f>
         <v>legacysagarey</v>
       </c>
       <c r="N100" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -6859,7 +7213,7 @@
         <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C101" t="s">
         <v>246</v>
@@ -6889,10 +7243,10 @@
         <v>65536</v>
       </c>
       <c r="L101" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M101" t="str">
-        <f>IFERROR(VLOOKUP(A101,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A101,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N101" t="str">
@@ -6905,7 +7259,7 @@
         <v>249</v>
       </c>
       <c r="B102" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -6914,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F102" t="s">
         <v>250</v>
@@ -6935,14 +7289,14 @@
         <v>65536</v>
       </c>
       <c r="L102" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M102" t="str">
-        <f>IFERROR(VLOOKUP(A102,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A102,manifest!A:A,1,0),"")</f>
         <v>marq2</v>
       </c>
       <c r="N102" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -6950,7 +7304,7 @@
         <v>251</v>
       </c>
       <c r="B103" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -6959,7 +7313,7 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F103" t="s">
         <v>252</v>
@@ -6980,14 +7334,14 @@
         <v>65536</v>
       </c>
       <c r="L103" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M103" t="str">
-        <f>IFERROR(VLOOKUP(A103,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A103,manifest!A:A,1,0),"")</f>
         <v>marq2aviator</v>
       </c>
       <c r="N103" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -6995,7 +7349,7 @@
         <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -7025,14 +7379,14 @@
         <v>32768</v>
       </c>
       <c r="L104" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M104" t="str">
-        <f>IFERROR(VLOOKUP(A104,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A104,manifest!A:A,1,0),"")</f>
         <v>marqadventurer</v>
       </c>
       <c r="N104" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -7040,7 +7394,7 @@
         <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -7070,14 +7424,14 @@
         <v>32768</v>
       </c>
       <c r="L105" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M105" t="str">
-        <f>IFERROR(VLOOKUP(A105,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A105,manifest!A:A,1,0),"")</f>
         <v>marqathlete</v>
       </c>
       <c r="N105" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -7085,7 +7439,7 @@
         <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -7115,14 +7469,14 @@
         <v>32768</v>
       </c>
       <c r="L106" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M106" t="str">
-        <f>IFERROR(VLOOKUP(A106,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A106,manifest!A:A,1,0),"")</f>
         <v>marqaviator</v>
       </c>
       <c r="N106" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -7130,7 +7484,7 @@
         <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -7160,14 +7514,14 @@
         <v>32768</v>
       </c>
       <c r="L107" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M107" t="str">
-        <f>IFERROR(VLOOKUP(A107,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A107,manifest!A:A,1,0),"")</f>
         <v>marqcaptain</v>
       </c>
       <c r="N107" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -7175,7 +7529,7 @@
         <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -7205,14 +7559,14 @@
         <v>32768</v>
       </c>
       <c r="L108" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M108" t="str">
-        <f>IFERROR(VLOOKUP(A108,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A108,manifest!A:A,1,0),"")</f>
         <v>marqcommander</v>
       </c>
       <c r="N108" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -7220,7 +7574,7 @@
         <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -7250,14 +7604,14 @@
         <v>32768</v>
       </c>
       <c r="L109" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M109" t="str">
-        <f>IFERROR(VLOOKUP(A109,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A109,manifest!A:A,1,0),"")</f>
         <v>marqdriver</v>
       </c>
       <c r="N109" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -7265,7 +7619,7 @@
         <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -7295,14 +7649,14 @@
         <v>32768</v>
       </c>
       <c r="L110" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M110" t="str">
-        <f>IFERROR(VLOOKUP(A110,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A110,manifest!A:A,1,0),"")</f>
         <v>marqexpedition</v>
       </c>
       <c r="N110" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -7310,7 +7664,7 @@
         <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -7340,22 +7694,22 @@
         <v>32768</v>
       </c>
       <c r="L111" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M111" t="str">
-        <f>IFERROR(VLOOKUP(A111,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A111,manifest!A:A,1,0),"")</f>
         <v>marqgolfer</v>
       </c>
       <c r="N111" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B112" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C112" t="s">
         <v>25</v>
@@ -7364,10 +7718,10 @@
         <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F112" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G112">
         <v>131072</v>
@@ -7385,10 +7739,10 @@
         <v>65536</v>
       </c>
       <c r="L112" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M112" t="str">
-        <f>IFERROR(VLOOKUP(A112,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A112,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N112" t="str">
@@ -7401,7 +7755,7 @@
         <v>269</v>
       </c>
       <c r="B113" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -7431,14 +7785,14 @@
         <v>65536</v>
       </c>
       <c r="L113" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M113" t="str">
-        <f>IFERROR(VLOOKUP(A113,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A113,manifest!A:A,1,0),"")</f>
         <v>venu</v>
       </c>
       <c r="N113" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -7446,7 +7800,7 @@
         <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C114" t="s">
         <v>37</v>
@@ -7476,14 +7830,14 @@
         <v>65536</v>
       </c>
       <c r="L114" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M114" t="str">
-        <f>IFERROR(VLOOKUP(A114,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A114,manifest!A:A,1,0),"")</f>
         <v>venu2</v>
       </c>
       <c r="N114" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -7491,7 +7845,7 @@
         <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
@@ -7521,14 +7875,14 @@
         <v>65536</v>
       </c>
       <c r="L115" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M115" t="str">
-        <f>IFERROR(VLOOKUP(A115,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A115,manifest!A:A,1,0),"")</f>
         <v>venu2plus</v>
       </c>
       <c r="N115" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -7536,7 +7890,7 @@
         <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C116" t="s">
         <v>175</v>
@@ -7566,14 +7920,14 @@
         <v>65536</v>
       </c>
       <c r="L116" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M116" t="str">
-        <f>IFERROR(VLOOKUP(A116,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A116,manifest!A:A,1,0),"")</f>
         <v>venu2s</v>
       </c>
       <c r="N116" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -7581,7 +7935,7 @@
         <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C117" t="s">
         <v>25</v>
@@ -7590,7 +7944,7 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F117" t="s">
         <v>278</v>
@@ -7611,14 +7965,14 @@
         <v>65536</v>
       </c>
       <c r="L117" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M117" t="str">
-        <f>IFERROR(VLOOKUP(A117,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A117,manifest!A:A,1,0),"")</f>
         <v>venu3</v>
       </c>
       <c r="N117" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -7626,7 +7980,7 @@
         <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -7635,7 +7989,7 @@
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F118" t="s">
         <v>280</v>
@@ -7656,14 +8010,14 @@
         <v>65536</v>
       </c>
       <c r="L118" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M118" t="str">
-        <f>IFERROR(VLOOKUP(A118,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A118,manifest!A:A,1,0),"")</f>
         <v>venu3s</v>
       </c>
       <c r="N118" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -7671,7 +8025,7 @@
         <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -7701,14 +8055,14 @@
         <v>65536</v>
       </c>
       <c r="L119" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M119" t="str">
-        <f>IFERROR(VLOOKUP(A119,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A119,manifest!A:A,1,0),"")</f>
         <v>venu441mm</v>
       </c>
       <c r="N119" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -7716,7 +8070,7 @@
         <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C120" t="s">
         <v>25</v>
@@ -7746,14 +8100,14 @@
         <v>65536</v>
       </c>
       <c r="L120" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M120" t="str">
-        <f>IFERROR(VLOOKUP(A120,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A120,manifest!A:A,1,0),"")</f>
         <v>venu445mm</v>
       </c>
       <c r="N120" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -7761,7 +8115,7 @@
         <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -7791,14 +8145,14 @@
         <v>65536</v>
       </c>
       <c r="L121" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M121" t="str">
-        <f>IFERROR(VLOOKUP(A121,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A121,manifest!A:A,1,0),"")</f>
         <v>venud</v>
       </c>
       <c r="N121" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -7806,7 +8160,7 @@
         <v>288</v>
       </c>
       <c r="B122" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -7815,7 +8169,7 @@
         <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F122" t="s">
         <v>289</v>
@@ -7836,10 +8190,10 @@
         <v>32768</v>
       </c>
       <c r="L122" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M122" t="str">
-        <f>IFERROR(VLOOKUP(A122,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A122,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N122" t="str">
@@ -7852,7 +8206,7 @@
         <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C123" t="s">
         <v>291</v>
@@ -7882,10 +8236,10 @@
         <v>65536</v>
       </c>
       <c r="L123" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M123" t="str">
-        <f>IFERROR(VLOOKUP(A123,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A123,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N123" t="str">
@@ -7898,7 +8252,7 @@
         <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C124" t="s">
         <v>291</v>
@@ -7928,10 +8282,10 @@
         <v>65536</v>
       </c>
       <c r="L124" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M124" t="str">
-        <f>IFERROR(VLOOKUP(A124,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A124,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N124" t="str">
@@ -7944,7 +8298,7 @@
         <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -7953,7 +8307,7 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F125" t="s">
         <v>296</v>
@@ -7974,10 +8328,10 @@
         <v>65536</v>
       </c>
       <c r="L125" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M125" t="str">
-        <f>IFERROR(VLOOKUP(A125,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A125,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N125" t="str">
@@ -7990,7 +8344,7 @@
         <v>297</v>
       </c>
       <c r="B126" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C126" t="s">
         <v>298</v>
@@ -8020,10 +8374,10 @@
         <v>65536</v>
       </c>
       <c r="L126" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M126" t="str">
-        <f>IFERROR(VLOOKUP(A126,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A126,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N126" t="str">
@@ -8036,7 +8390,7 @@
         <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C127" t="s">
         <v>82</v>
@@ -8066,10 +8420,10 @@
         <v>65536</v>
       </c>
       <c r="L127" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M127" t="str">
-        <f>IFERROR(VLOOKUP(A127,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A127,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N127" t="str">
@@ -8082,7 +8436,7 @@
         <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -8112,10 +8466,10 @@
         <v>32768</v>
       </c>
       <c r="L128" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M128" t="str">
-        <f>IFERROR(VLOOKUP(A128,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A128,manifest!A:A,1,0),"")</f>
         <v>vivoactive3</v>
       </c>
       <c r="N128" t="str">
@@ -8128,7 +8482,7 @@
         <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -8158,10 +8512,10 @@
         <v>32768</v>
       </c>
       <c r="L129" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M129" t="str">
-        <f>IFERROR(VLOOKUP(A129,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A129,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N129" t="str">
@@ -8174,7 +8528,7 @@
         <v>307</v>
       </c>
       <c r="B130" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -8204,14 +8558,14 @@
         <v>65536</v>
       </c>
       <c r="L130" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M130" t="str">
-        <f>IFERROR(VLOOKUP(A130,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A130,manifest!A:A,1,0),"")</f>
         <v>vivoactive3m</v>
       </c>
       <c r="N130" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -8219,7 +8573,7 @@
         <v>309</v>
       </c>
       <c r="B131" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -8249,10 +8603,10 @@
         <v>65536</v>
       </c>
       <c r="L131" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M131" t="str">
-        <f>IFERROR(VLOOKUP(A131,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A131,manifest!A:A,1,0),"")</f>
         <v>vivoactive3mlte</v>
       </c>
       <c r="N131" t="str">
@@ -8265,7 +8619,7 @@
         <v>311</v>
       </c>
       <c r="B132" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -8295,14 +8649,14 @@
         <v>65536</v>
       </c>
       <c r="L132" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M132" t="str">
-        <f>IFERROR(VLOOKUP(A132,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A132,manifest!A:A,1,0),"")</f>
         <v>vivoactive4</v>
       </c>
       <c r="N132" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -8310,7 +8664,7 @@
         <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C133" t="s">
         <v>40</v>
@@ -8340,14 +8694,14 @@
         <v>65536</v>
       </c>
       <c r="L133" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M133" t="str">
-        <f>IFERROR(VLOOKUP(A133,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A133,manifest!A:A,1,0),"")</f>
         <v>vivoactive4s</v>
       </c>
       <c r="N133" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -8355,7 +8709,7 @@
         <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -8364,7 +8718,7 @@
         <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F134" t="s">
         <v>316</v>
@@ -8385,14 +8739,14 @@
         <v>65536</v>
       </c>
       <c r="L134" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M134" t="str">
-        <f>IFERROR(VLOOKUP(A134,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A134,manifest!A:A,1,0),"")</f>
         <v>vivoactive5</v>
       </c>
       <c r="N134" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -8400,7 +8754,7 @@
         <v>317</v>
       </c>
       <c r="B135" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -8409,7 +8763,7 @@
         <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F135" t="s">
         <v>318</v>
@@ -8430,14 +8784,14 @@
         <v>65536</v>
       </c>
       <c r="L135" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M135" t="str">
-        <f>IFERROR(VLOOKUP(A135,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A135,manifest!A:A,1,0),"")</f>
         <v>vivoactive6</v>
       </c>
       <c r="N135" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -8445,7 +8799,7 @@
         <v>319</v>
       </c>
       <c r="B136" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C136" t="s">
         <v>320</v>
@@ -8475,10 +8829,10 @@
         <v>32768</v>
       </c>
       <c r="L136" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M136" t="str">
-        <f>IFERROR(VLOOKUP(A136,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A136,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N136" t="str">
@@ -8521,10 +8875,10 @@
         <v>32768</v>
       </c>
       <c r="L137" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M137" t="str">
-        <f>IFERROR(VLOOKUP(A137,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A137,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
       <c r="N137" t="str">
@@ -8537,7 +8891,7 @@
         <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
@@ -8567,10 +8921,10 @@
         <v>32768</v>
       </c>
       <c r="L138" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M138" t="str">
-        <f>IFERROR(VLOOKUP(A138,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A138,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
     </row>
@@ -8579,7 +8933,7 @@
         <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C139" t="s">
         <v>330</v>
@@ -8609,10 +8963,10 @@
         <v>32768</v>
       </c>
       <c r="L139" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M139" t="str">
-        <f>IFERROR(VLOOKUP(A139,Feuil3!A:A,1,0),"")</f>
+        <f>IFERROR(VLOOKUP(A139,manifest!A:A,1,0),"")</f>
         <v/>
       </c>
     </row>
@@ -8625,1652 +8979,2226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI80"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="8" max="15" width="5.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="24" width="5.140625" customWidth="1"/>
-    <col min="28" max="38" width="4" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="26" width="5.140625" customWidth="1"/>
+    <col min="28" max="28" width="25" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" customWidth="1"/>
+    <col min="31" max="38" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26">
+        <v>416</v>
+      </c>
       <c r="B1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" t="s">
         <v>353</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="5">
+        <v>218</v>
+      </c>
+      <c r="J1" s="5">
+        <v>240</v>
+      </c>
+      <c r="K1" s="5">
+        <v>260</v>
+      </c>
+      <c r="L1" s="5">
+        <v>280</v>
+      </c>
+      <c r="M1" s="5">
+        <v>360</v>
+      </c>
+      <c r="N1" s="5">
+        <v>390</v>
+      </c>
+      <c r="O1" s="5">
+        <v>416</v>
+      </c>
+      <c r="P1" s="5">
+        <v>454</v>
+      </c>
+      <c r="R1" s="5">
+        <v>218</v>
+      </c>
+      <c r="S1" s="5">
+        <v>240</v>
+      </c>
+      <c r="T1" s="5">
+        <v>260</v>
+      </c>
+      <c r="U1" s="5">
+        <v>280</v>
+      </c>
+      <c r="V1" s="5">
+        <v>360</v>
+      </c>
+      <c r="W1" s="5">
+        <v>390</v>
+      </c>
+      <c r="X1" s="5">
+        <v>416</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>454</v>
+      </c>
+      <c r="Z1" s="5"/>
+      <c r="AB1" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="24">
+        <v>208</v>
+      </c>
+      <c r="C2" s="25">
+        <f>ROUND(B2/$A$1,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="24">
+        <v>52</v>
+      </c>
+      <c r="E2" s="25">
+        <f>ROUND(D2/$A$1,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="4">
+        <f>$C2*I$1</f>
+        <v>109</v>
+      </c>
+      <c r="J2" s="4">
+        <f>$C2*J$1</f>
+        <v>120</v>
+      </c>
+      <c r="K2" s="4">
+        <f>$C2*K$1</f>
+        <v>130</v>
+      </c>
+      <c r="L2" s="4">
+        <f>$C2*L$1</f>
+        <v>140</v>
+      </c>
+      <c r="M2" s="4">
+        <f>$C2*M$1</f>
+        <v>180</v>
+      </c>
+      <c r="N2" s="4">
+        <f>$C2*N$1</f>
+        <v>195</v>
+      </c>
+      <c r="O2" s="4">
+        <f>$C2*O$1</f>
+        <v>208</v>
+      </c>
+      <c r="P2" s="4">
+        <f>$C2*P$1</f>
+        <v>227</v>
+      </c>
+      <c r="R2" s="4">
+        <f>$E2*R$1</f>
+        <v>28.34</v>
+      </c>
+      <c r="S2" s="4">
+        <f>$E2*S$1</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="T2" s="4">
+        <f>$E2*T$1</f>
+        <v>33.800000000000004</v>
+      </c>
+      <c r="U2" s="4">
+        <f>$E2*U$1</f>
+        <v>36.4</v>
+      </c>
+      <c r="V2" s="4">
+        <f>$E2*V$1</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="W2" s="4">
+        <f>$E2*W$1</f>
+        <v>50.7</v>
+      </c>
+      <c r="X2" s="4">
+        <f>$E2*X$1</f>
+        <v>54.08</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>$E2*Y$1</f>
+        <v>59.02</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="24">
+        <v>208</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" ref="C3:E14" si="0">ROUND(B3/$A$1,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="24">
+        <v>131</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="4">
+        <f>$C3*I$1</f>
+        <v>109</v>
+      </c>
+      <c r="J3" s="4">
+        <f>$C3*J$1</f>
+        <v>120</v>
+      </c>
+      <c r="K3" s="4">
+        <f>$C3*K$1</f>
+        <v>130</v>
+      </c>
+      <c r="L3" s="4">
+        <f>$C3*L$1</f>
+        <v>140</v>
+      </c>
+      <c r="M3" s="4">
+        <f>$C3*M$1</f>
+        <v>180</v>
+      </c>
+      <c r="N3" s="4">
+        <f>$C3*N$1</f>
+        <v>195</v>
+      </c>
+      <c r="O3" s="4">
+        <f>$C3*O$1</f>
+        <v>208</v>
+      </c>
+      <c r="P3" s="4">
+        <f>$C3*P$1</f>
+        <v>227</v>
+      </c>
+      <c r="R3" s="4">
+        <f>$E3*R$1</f>
+        <v>67.58</v>
+      </c>
+      <c r="S3" s="4">
+        <f>$E3*S$1</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="T3" s="4">
+        <f>$E3*T$1</f>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="U3" s="4">
+        <f>$E3*U$1</f>
+        <v>86.8</v>
+      </c>
+      <c r="V3" s="4">
+        <f>$E3*V$1</f>
+        <v>111.6</v>
+      </c>
+      <c r="W3" s="4">
+        <f>$E3*W$1</f>
+        <v>120.9</v>
+      </c>
+      <c r="X3" s="4">
+        <f>$E3*X$1</f>
+        <v>128.96</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>$E3*Y$1</f>
+        <v>140.74</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="24">
+        <v>50</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="24">
+        <v>163</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" s="4">
+        <f>$C4*I$1</f>
+        <v>26.16</v>
+      </c>
+      <c r="J4" s="4">
+        <f>$C4*J$1</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="K4" s="4">
+        <f>$C4*K$1</f>
+        <v>31.2</v>
+      </c>
+      <c r="L4" s="4">
+        <f>$C4*L$1</f>
+        <v>33.6</v>
+      </c>
+      <c r="M4" s="4">
+        <f>$C4*M$1</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="N4" s="4">
+        <f>$C4*N$1</f>
+        <v>46.8</v>
+      </c>
+      <c r="O4" s="4">
+        <f>$C4*O$1</f>
+        <v>49.92</v>
+      </c>
+      <c r="P4" s="4">
+        <f>$C4*P$1</f>
+        <v>54.48</v>
+      </c>
+      <c r="R4" s="4">
+        <f>$E4*R$1</f>
+        <v>85.02</v>
+      </c>
+      <c r="S4" s="4">
+        <f>$E4*S$1</f>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="T4" s="4">
+        <f>$E4*T$1</f>
+        <v>101.4</v>
+      </c>
+      <c r="U4" s="4">
+        <f>$E4*U$1</f>
+        <v>109.2</v>
+      </c>
+      <c r="V4" s="4">
+        <f>$E4*V$1</f>
+        <v>140.4</v>
+      </c>
+      <c r="W4" s="4">
+        <f>$E4*W$1</f>
+        <v>152.1</v>
+      </c>
+      <c r="X4" s="4">
+        <f>$E4*X$1</f>
+        <v>162.24</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>$E4*Y$1</f>
+        <v>177.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="24">
+        <v>312</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="24">
+        <v>242</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="4">
+        <f>$C5*I$1</f>
+        <v>163.5</v>
+      </c>
+      <c r="J5" s="4">
+        <f>$C5*J$1</f>
+        <v>180</v>
+      </c>
+      <c r="K5" s="4">
+        <f>$C5*K$1</f>
+        <v>195</v>
+      </c>
+      <c r="L5" s="4">
+        <f>$C5*L$1</f>
+        <v>210</v>
+      </c>
+      <c r="M5" s="4">
+        <f>$C5*M$1</f>
+        <v>270</v>
+      </c>
+      <c r="N5" s="4">
+        <f>$C5*N$1</f>
+        <v>292.5</v>
+      </c>
+      <c r="O5" s="4">
+        <f>$C5*O$1</f>
+        <v>312</v>
+      </c>
+      <c r="P5" s="4">
+        <f>$C5*P$1</f>
+        <v>340.5</v>
+      </c>
+      <c r="R5" s="4">
+        <f>$E5*R$1</f>
+        <v>126.44</v>
+      </c>
+      <c r="S5" s="4">
+        <f>$E5*S$1</f>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <f>$E5*T$1</f>
+        <v>150.79999999999998</v>
+      </c>
+      <c r="U5" s="4">
+        <f>$E5*U$1</f>
+        <v>162.39999999999998</v>
+      </c>
+      <c r="V5" s="4">
+        <f>$E5*V$1</f>
+        <v>208.79999999999998</v>
+      </c>
+      <c r="W5" s="4">
+        <f>$E5*W$1</f>
+        <v>226.2</v>
+      </c>
+      <c r="X5" s="4">
+        <f>$E5*X$1</f>
+        <v>241.27999999999997</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>$E5*Y$1</f>
+        <v>263.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="24">
+        <v>100</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="24">
+        <v>249</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" s="4">
+        <f>$C6*I$1</f>
+        <v>52.32</v>
+      </c>
+      <c r="J6" s="4">
+        <f>$C6*J$1</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="K6" s="4">
+        <f>$C6*K$1</f>
+        <v>62.4</v>
+      </c>
+      <c r="L6" s="4">
+        <f>$C6*L$1</f>
+        <v>67.2</v>
+      </c>
+      <c r="M6" s="4">
+        <f>$C6*M$1</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="N6" s="4">
+        <f>$C6*N$1</f>
+        <v>93.6</v>
+      </c>
+      <c r="O6" s="4">
+        <f>$C6*O$1</f>
+        <v>99.84</v>
+      </c>
+      <c r="P6" s="4">
+        <f>$C6*P$1</f>
+        <v>108.96</v>
+      </c>
+      <c r="R6" s="4">
+        <f>$E6*R$1</f>
+        <v>130.79999999999998</v>
+      </c>
+      <c r="S6" s="4">
+        <f>$E6*S$1</f>
+        <v>144</v>
+      </c>
+      <c r="T6" s="4">
+        <f>$E6*T$1</f>
+        <v>156</v>
+      </c>
+      <c r="U6" s="4">
+        <f>$E6*U$1</f>
+        <v>168</v>
+      </c>
+      <c r="V6" s="4">
+        <f>$E6*V$1</f>
+        <v>216</v>
+      </c>
+      <c r="W6" s="4">
+        <f>$E6*W$1</f>
+        <v>234</v>
+      </c>
+      <c r="X6" s="4">
+        <f>$E6*X$1</f>
+        <v>249.6</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>$E6*Y$1</f>
+        <v>272.39999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="24">
+        <v>400</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="24">
+        <v>227</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="4">
+        <f>$C7*I$1</f>
+        <v>209.28</v>
+      </c>
+      <c r="J7" s="4">
+        <f>$C7*J$1</f>
+        <v>230.39999999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <f>$C7*K$1</f>
+        <v>249.6</v>
+      </c>
+      <c r="L7" s="4">
+        <f>$C7*L$1</f>
+        <v>268.8</v>
+      </c>
+      <c r="M7" s="4">
+        <f>$C7*M$1</f>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="N7" s="4">
+        <f>$C7*N$1</f>
+        <v>374.4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>$C7*O$1</f>
+        <v>399.36</v>
+      </c>
+      <c r="P7" s="4">
+        <f>$C7*P$1</f>
+        <v>435.84</v>
+      </c>
+      <c r="R7" s="4">
+        <f>$E7*R$1</f>
+        <v>119.9</v>
+      </c>
+      <c r="S7" s="4">
+        <f>$E7*S$1</f>
+        <v>132</v>
+      </c>
+      <c r="T7" s="4">
+        <f>$E7*T$1</f>
+        <v>143</v>
+      </c>
+      <c r="U7" s="4">
+        <f>$E7*U$1</f>
+        <v>154</v>
+      </c>
+      <c r="V7" s="4">
+        <f>$E7*V$1</f>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="W7" s="4">
+        <f>$E7*W$1</f>
+        <v>214.50000000000003</v>
+      </c>
+      <c r="X7" s="4">
+        <f>$E7*X$1</f>
+        <v>228.8</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>$E7*Y$1</f>
+        <v>249.70000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="24">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="24">
+        <v>203</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="4">
+        <f>$C8*I$1</f>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J8" s="4">
+        <f>$C8*J$1</f>
+        <v>4.8</v>
+      </c>
+      <c r="K8" s="4">
+        <f>$C8*K$1</f>
+        <v>5.2</v>
+      </c>
+      <c r="L8" s="4">
+        <f>$C8*L$1</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="M8" s="4">
+        <f>$C8*M$1</f>
+        <v>7.2</v>
+      </c>
+      <c r="N8" s="4">
+        <f>$C8*N$1</f>
+        <v>7.8</v>
+      </c>
+      <c r="O8" s="4">
+        <f>$C8*O$1</f>
+        <v>8.32</v>
+      </c>
+      <c r="P8" s="4">
+        <f>$C8*P$1</f>
+        <v>9.08</v>
+      </c>
+      <c r="R8" s="4">
+        <f>$E8*R$1</f>
+        <v>106.82</v>
+      </c>
+      <c r="S8" s="4">
+        <f>$E8*S$1</f>
+        <v>117.6</v>
+      </c>
+      <c r="T8" s="4">
+        <f>$E8*T$1</f>
+        <v>127.39999999999999</v>
+      </c>
+      <c r="U8" s="4">
+        <f>$E8*U$1</f>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="V8" s="4">
+        <f>$E8*V$1</f>
+        <v>176.4</v>
+      </c>
+      <c r="W8" s="4">
+        <f>$E8*W$1</f>
+        <v>191.1</v>
+      </c>
+      <c r="X8" s="4">
+        <f>$E8*X$1</f>
+        <v>203.84</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>$E8*Y$1</f>
+        <v>222.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="24">
+        <v>400</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="D9" s="24">
+        <v>148</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="4">
+        <f>$C9*I$1</f>
+        <v>209.28</v>
+      </c>
+      <c r="J9" s="4">
+        <f>$C9*J$1</f>
+        <v>230.39999999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <f>$C9*K$1</f>
+        <v>249.6</v>
+      </c>
+      <c r="L9" s="4">
+        <f>$C9*L$1</f>
+        <v>268.8</v>
+      </c>
+      <c r="M9" s="4">
+        <f>$C9*M$1</f>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="N9" s="4">
+        <f>$C9*N$1</f>
+        <v>374.4</v>
+      </c>
+      <c r="O9" s="4">
+        <f>$C9*O$1</f>
+        <v>399.36</v>
+      </c>
+      <c r="P9" s="4">
+        <f>$C9*P$1</f>
+        <v>435.84</v>
+      </c>
+      <c r="R9" s="4">
+        <f>$E9*R$1</f>
+        <v>78.48</v>
+      </c>
+      <c r="S9" s="4">
+        <f>$E9*S$1</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="T9" s="4">
+        <f>$E9*T$1</f>
+        <v>93.6</v>
+      </c>
+      <c r="U9" s="4">
+        <f>$E9*U$1</f>
+        <v>100.8</v>
+      </c>
+      <c r="V9" s="4">
+        <f>$E9*V$1</f>
+        <v>129.6</v>
+      </c>
+      <c r="W9" s="4">
+        <f>$E9*W$1</f>
+        <v>140.4</v>
+      </c>
+      <c r="X9" s="4">
+        <f>$E9*X$1</f>
+        <v>149.76</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>$E9*Y$1</f>
+        <v>163.44</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="24">
+        <v>104</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="24">
+        <v>203</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="4">
+        <f>$C10*I$1</f>
+        <v>54.5</v>
+      </c>
+      <c r="J10" s="4">
+        <f>$C10*J$1</f>
+        <v>60</v>
+      </c>
+      <c r="K10" s="4">
+        <f>$C10*K$1</f>
+        <v>65</v>
+      </c>
+      <c r="L10" s="4">
+        <f>$C10*L$1</f>
+        <v>70</v>
+      </c>
+      <c r="M10" s="4">
+        <f>$C10*M$1</f>
+        <v>90</v>
+      </c>
+      <c r="N10" s="4">
+        <f>$C10*N$1</f>
+        <v>97.5</v>
+      </c>
+      <c r="O10" s="4">
+        <f>$C10*O$1</f>
+        <v>104</v>
+      </c>
+      <c r="P10" s="4">
+        <f>$C10*P$1</f>
+        <v>113.5</v>
+      </c>
+      <c r="R10" s="4">
+        <f>$E10*R$1</f>
+        <v>106.82</v>
+      </c>
+      <c r="S10" s="4">
+        <f>$E10*S$1</f>
+        <v>117.6</v>
+      </c>
+      <c r="T10" s="4">
+        <f>$E10*T$1</f>
+        <v>127.39999999999999</v>
+      </c>
+      <c r="U10" s="4">
+        <f>$E10*U$1</f>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="V10" s="4">
+        <f>$E10*V$1</f>
+        <v>176.4</v>
+      </c>
+      <c r="W10" s="4">
+        <f>$E10*W$1</f>
+        <v>191.1</v>
+      </c>
+      <c r="X10" s="4">
+        <f>$E10*X$1</f>
+        <v>203.84</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>$E10*Y$1</f>
+        <v>222.46</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="24">
+        <v>73</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="24">
+        <v>324</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11" s="4">
+        <f>$C11*I$1</f>
+        <v>39.24</v>
+      </c>
+      <c r="J11" s="4">
+        <f>$C11*J$1</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="K11" s="4">
+        <f>$C11*K$1</f>
+        <v>46.8</v>
+      </c>
+      <c r="L11" s="4">
+        <f>$C11*L$1</f>
+        <v>50.4</v>
+      </c>
+      <c r="M11" s="4">
+        <f>$C11*M$1</f>
+        <v>64.8</v>
+      </c>
+      <c r="N11" s="4">
+        <f>$C11*N$1</f>
+        <v>70.2</v>
+      </c>
+      <c r="O11" s="4">
+        <f>$C11*O$1</f>
+        <v>74.88</v>
+      </c>
+      <c r="P11" s="4">
+        <f>$C11*P$1</f>
+        <v>81.72</v>
+      </c>
+      <c r="R11" s="4">
+        <f>$E11*R$1</f>
+        <v>170.04</v>
+      </c>
+      <c r="S11" s="4">
+        <f>$E11*S$1</f>
+        <v>187.20000000000002</v>
+      </c>
+      <c r="T11" s="4">
+        <f>$E11*T$1</f>
+        <v>202.8</v>
+      </c>
+      <c r="U11" s="4">
+        <f>$E11*U$1</f>
+        <v>218.4</v>
+      </c>
+      <c r="V11" s="4">
+        <f>$E11*V$1</f>
+        <v>280.8</v>
+      </c>
+      <c r="W11" s="4">
+        <f>$E11*W$1</f>
+        <v>304.2</v>
+      </c>
+      <c r="X11" s="4">
+        <f>$E11*X$1</f>
+        <v>324.48</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>$E11*Y$1</f>
+        <v>354.12</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="24">
+        <v>345</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="D12" s="24">
+        <v>324</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" s="4">
+        <f>$C12*I$1</f>
+        <v>180.94</v>
+      </c>
+      <c r="J12" s="4">
+        <f>$C12*J$1</f>
+        <v>199.2</v>
+      </c>
+      <c r="K12" s="4">
+        <f>$C12*K$1</f>
+        <v>215.79999999999998</v>
+      </c>
+      <c r="L12" s="4">
+        <f>$C12*L$1</f>
+        <v>232.39999999999998</v>
+      </c>
+      <c r="M12" s="4">
+        <f>$C12*M$1</f>
+        <v>298.8</v>
+      </c>
+      <c r="N12" s="4">
+        <f>$C12*N$1</f>
+        <v>323.7</v>
+      </c>
+      <c r="O12" s="4">
+        <f>$C12*O$1</f>
+        <v>345.28</v>
+      </c>
+      <c r="P12" s="4">
+        <f>$C12*P$1</f>
+        <v>376.82</v>
+      </c>
+      <c r="R12" s="4">
+        <f>$E12*R$1</f>
+        <v>170.04</v>
+      </c>
+      <c r="S12" s="4">
+        <f>$E12*S$1</f>
+        <v>187.20000000000002</v>
+      </c>
+      <c r="T12" s="4">
+        <f>$E12*T$1</f>
+        <v>202.8</v>
+      </c>
+      <c r="U12" s="4">
+        <f>$E12*U$1</f>
+        <v>218.4</v>
+      </c>
+      <c r="V12" s="4">
+        <f>$E12*V$1</f>
+        <v>280.8</v>
+      </c>
+      <c r="W12" s="4">
+        <f>$E12*W$1</f>
+        <v>304.2</v>
+      </c>
+      <c r="X12" s="4">
+        <f>$E12*X$1</f>
+        <v>324.48</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>$E12*Y$1</f>
+        <v>354.12</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="24">
+        <v>208</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="24">
+        <v>382</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="4">
+        <f>$C13*I$1</f>
+        <v>109</v>
+      </c>
+      <c r="J13" s="4">
+        <f>$C13*J$1</f>
+        <v>120</v>
+      </c>
+      <c r="K13" s="4">
+        <f>$C13*K$1</f>
+        <v>130</v>
+      </c>
+      <c r="L13" s="4">
+        <f>$C13*L$1</f>
+        <v>140</v>
+      </c>
+      <c r="M13" s="4">
+        <f>$C13*M$1</f>
+        <v>180</v>
+      </c>
+      <c r="N13" s="4">
+        <f>$C13*N$1</f>
+        <v>195</v>
+      </c>
+      <c r="O13" s="4">
+        <f>$C13*O$1</f>
+        <v>208</v>
+      </c>
+      <c r="P13" s="4">
+        <f>$C13*P$1</f>
+        <v>227</v>
+      </c>
+      <c r="R13" s="4">
+        <f>$E13*R$1</f>
+        <v>200.56</v>
+      </c>
+      <c r="S13" s="4">
+        <f>$E13*S$1</f>
+        <v>220.8</v>
+      </c>
+      <c r="T13" s="4">
+        <f>$E13*T$1</f>
+        <v>239.20000000000002</v>
+      </c>
+      <c r="U13" s="4">
+        <f>$E13*U$1</f>
+        <v>257.60000000000002</v>
+      </c>
+      <c r="V13" s="4">
+        <f>$E13*V$1</f>
+        <v>331.2</v>
+      </c>
+      <c r="W13" s="4">
+        <f>$E13*W$1</f>
+        <v>358.8</v>
+      </c>
+      <c r="X13" s="4">
+        <f>$E13*X$1</f>
+        <v>382.72</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>$E13*Y$1</f>
+        <v>417.68</v>
+      </c>
+      <c r="AB13" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="24">
+        <v>386</v>
+      </c>
+      <c r="C14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+      <c r="D14" s="24">
+        <v>274</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" s="4">
+        <f>$C14*I$1</f>
+        <v>202.74</v>
+      </c>
+      <c r="J14" s="4">
+        <f>$C14*J$1</f>
+        <v>223.20000000000002</v>
+      </c>
+      <c r="K14" s="4">
+        <f>$C14*K$1</f>
+        <v>241.8</v>
+      </c>
+      <c r="L14" s="4">
+        <f>$C14*L$1</f>
+        <v>260.40000000000003</v>
+      </c>
+      <c r="M14" s="4">
+        <f>$C14*M$1</f>
+        <v>334.8</v>
+      </c>
+      <c r="N14" s="4">
+        <f>$C14*N$1</f>
+        <v>362.70000000000005</v>
+      </c>
+      <c r="O14" s="4">
+        <f>$C14*O$1</f>
+        <v>386.88</v>
+      </c>
+      <c r="P14" s="4">
+        <f>$C14*P$1</f>
+        <v>422.22</v>
+      </c>
+      <c r="R14" s="4">
+        <f>$E14*R$1</f>
+        <v>143.88</v>
+      </c>
+      <c r="S14" s="4">
+        <f>$E14*S$1</f>
+        <v>158.4</v>
+      </c>
+      <c r="T14" s="4">
+        <f>$E14*T$1</f>
+        <v>171.6</v>
+      </c>
+      <c r="U14" s="4">
+        <f>$E14*U$1</f>
+        <v>184.8</v>
+      </c>
+      <c r="V14" s="4">
+        <f>$E14*V$1</f>
+        <v>237.60000000000002</v>
+      </c>
+      <c r="W14" s="4">
+        <f>$E14*W$1</f>
+        <v>257.40000000000003</v>
+      </c>
+      <c r="X14" s="4">
+        <f>$E14*X$1</f>
+        <v>274.56</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>$E14*Y$1</f>
+        <v>299.64</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB15" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB16" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB17" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="D1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H1" s="6">
-        <v>218</v>
-      </c>
-      <c r="I1" s="6">
-        <v>240</v>
-      </c>
-      <c r="J1" s="6">
-        <v>260</v>
-      </c>
-      <c r="K1" s="6">
-        <v>280</v>
-      </c>
-      <c r="L1" s="6">
-        <v>360</v>
-      </c>
-      <c r="M1" s="6">
-        <v>390</v>
-      </c>
-      <c r="N1" s="6">
-        <v>416</v>
-      </c>
-      <c r="O1" s="6">
-        <v>454</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>218</v>
-      </c>
-      <c r="R1" s="6">
-        <v>240</v>
-      </c>
-      <c r="S1" s="6">
-        <v>260</v>
-      </c>
-      <c r="T1" s="6">
-        <v>280</v>
-      </c>
-      <c r="U1" s="6">
-        <v>360</v>
-      </c>
-      <c r="V1" s="6">
-        <v>390</v>
-      </c>
-      <c r="W1" s="6">
-        <v>416</v>
-      </c>
-      <c r="X1" s="6">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:O14" si="0">$B2*H$1</f>
-        <v>109</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="Q2" s="5">
-        <f t="shared" ref="Q2:X14" si="1">$C2*Q$1</f>
-        <v>27.686</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="B18" s="22"/>
+      <c r="AB18" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="str">
+        <f t="shared" ref="A19:A31" si="1">""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
+        <v>"date"=&gt;(0.5 * largeurEcran),</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="AB19" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>30.48</v>
-      </c>
-      <c r="S2" s="5">
+        <v>"heure"=&gt;(0.5 * largeurEcran),</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="AB20" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>33.020000000000003</v>
-      </c>
-      <c r="T2" s="5">
+        <v>"notif"=&gt;(0.12 * largeurEcran),</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="AB21" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>35.56</v>
-      </c>
-      <c r="U2" s="5">
+        <v>"BG"=&gt;(0.75 * largeurEcran),</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="AB22" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>45.72</v>
-      </c>
-      <c r="V2" s="5">
+        <v>"Delta"=&gt;(0.24 * largeurEcran),</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="AB23" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>49.53</v>
-      </c>
-      <c r="W2" s="5">
+        <v>"Elapsed"=&gt;(0.96 * largeurEcran),</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="AB24" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>52.832000000000001</v>
-      </c>
-      <c r="X2" s="5">
+        <v>"ProvenanceBG"=&gt;(0.02 * largeurEcran),</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="AB25" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF25" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>57.658000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="Q3" s="5">
+        <v>"Secondes"=&gt;(0.96 * largeurEcran),</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="AB26" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC26" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF26" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>68.67</v>
-      </c>
-      <c r="R3" s="5">
+        <v>"NextCall"=&gt;(0.25 * largeurEcran),</v>
+      </c>
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="S3" s="5">
+        <v>"Temperature"=&gt;(0.18 * largeurEcran),</v>
+      </c>
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>81.900000000000006</v>
-      </c>
-      <c r="T3" s="5">
+        <v>"Wind"=&gt;(0.83 * largeurEcran),</v>
+      </c>
+      <c r="B29" s="22"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>88.2</v>
-      </c>
-      <c r="U3" s="5">
+        <v>"Batterie"=&gt;(0.5 * largeurEcran),</v>
+      </c>
+      <c r="B30" s="22"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>113.4</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="1"/>
-        <v>122.85</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" si="1"/>
-        <v>131.04</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" si="1"/>
-        <v>143.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>26.16</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>31.2</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>33.6</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="0"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="0"/>
-        <v>46.8</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="0"/>
-        <v>49.92</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="0"/>
-        <v>54.48</v>
-      </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="1"/>
-        <v>85.456000000000003</v>
-      </c>
-      <c r="R4" s="5">
-        <f t="shared" si="1"/>
-        <v>94.08</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" si="1"/>
-        <v>101.92</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="1"/>
-        <v>109.76</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" si="1"/>
-        <v>141.12</v>
-      </c>
-      <c r="V4" s="5">
-        <f t="shared" si="1"/>
-        <v>152.88</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" si="1"/>
-        <v>163.072</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" si="1"/>
-        <v>177.96800000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="D5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>163.5</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>292.5</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>312</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>340.5</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="1"/>
-        <v>126.87599999999999</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" si="1"/>
-        <v>139.67999999999998</v>
-      </c>
-      <c r="S5" s="5">
-        <f t="shared" si="1"/>
-        <v>151.32</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="1"/>
-        <v>162.95999999999998</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="1"/>
-        <v>209.51999999999998</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="1"/>
-        <v>226.98</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="1"/>
-        <v>242.11199999999999</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="1"/>
-        <v>264.22800000000001</v>
-      </c>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>52.32</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>57.599999999999994</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>62.4</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>67.2</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="0"/>
-        <v>93.6</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="0"/>
-        <v>99.84</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="0"/>
-        <v>108.96</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="1"/>
-        <v>130.79999999999998</v>
-      </c>
-      <c r="R6" s="5">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="S6" s="5">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="1"/>
-        <v>216</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" si="1"/>
-        <v>234</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="1"/>
-        <v>249.6</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="1"/>
-        <v>272.39999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="D7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>209.28</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>230.39999999999998</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>249.6</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>268.8</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>345.59999999999997</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="0"/>
-        <v>374.4</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="0"/>
-        <v>399.36</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="0"/>
-        <v>435.84</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="1"/>
-        <v>118.81</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" si="1"/>
-        <v>130.80000000000001</v>
-      </c>
-      <c r="S7" s="5">
-        <f t="shared" si="1"/>
-        <v>141.70000000000002</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="1"/>
-        <v>152.60000000000002</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="1"/>
-        <v>196.20000000000002</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="1"/>
-        <v>212.55</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="1"/>
-        <v>226.72000000000003</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="1"/>
-        <v>247.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" t="s">
-        <v>351</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="0"/>
-        <v>8.32</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="0"/>
-        <v>9.08</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="1"/>
-        <v>106.82</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" si="1"/>
-        <v>117.6</v>
-      </c>
-      <c r="S8" s="5">
-        <f t="shared" si="1"/>
-        <v>127.39999999999999</v>
-      </c>
-      <c r="T8" s="5">
-        <f t="shared" si="1"/>
-        <v>137.19999999999999</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" si="1"/>
-        <v>176.4</v>
-      </c>
-      <c r="V8" s="5">
-        <f t="shared" si="1"/>
-        <v>191.1</v>
-      </c>
-      <c r="W8" s="5">
-        <f t="shared" si="1"/>
-        <v>203.84</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" si="1"/>
-        <v>222.46</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB8">
+        <v>"labelMin"=&gt;(0.93 * largeurEcran),</v>
+      </c>
+      <c r="B31" s="22"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="22"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="str">
+        <f>""""&amp;A2&amp;"""=&gt;("&amp;E2&amp;" * hauteurEcran),"</f>
+        <v>"date"=&gt;(0.13 * hauteurEcran),</v>
+      </c>
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="str">
+        <f t="shared" ref="A36:A47" si="2">""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
+        <v>"heure"=&gt;0.31 * hauteurEcran,</v>
+      </c>
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"notif"=&gt;0.39 * hauteurEcran,</v>
+      </c>
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"BG"=&gt;0.58 * hauteurEcran,</v>
+      </c>
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Delta"=&gt;0.6 * hauteurEcran,</v>
+      </c>
+      <c r="B39" s="22"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Elapsed"=&gt;0.55 * hauteurEcran,</v>
+      </c>
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"ProvenanceBG"=&gt;0.49 * hauteurEcran,</v>
+      </c>
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Secondes"=&gt;0.36 * hauteurEcran,</v>
+      </c>
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"NextCall"=&gt;0.49 * hauteurEcran,</v>
+      </c>
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Temperature"=&gt;0.78 * hauteurEcran,</v>
+      </c>
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Wind"=&gt;0.78 * hauteurEcran,</v>
+      </c>
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"Batterie"=&gt;0.92 * hauteurEcran,</v>
+      </c>
+      <c r="B46" s="22"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>"labelMin"=&gt;0.66 * hauteurEcran,</v>
+      </c>
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="str">
+        <f t="shared" ref="A51:A63" si="3">""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
+        <v>"date"=&gt;Gfx.FONT_LARGE,</v>
+      </c>
+      <c r="B51" s="22"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"heure"=&gt;Gfx.FONT_NUMBER_HOT,</v>
+      </c>
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"notif"=&gt;Gfx.FONT_MEDIUM,</v>
+      </c>
+      <c r="B53" s="22"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"BG"=&gt;Gfx.FONT_NUMBER_HOT,</v>
+      </c>
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Delta"=&gt;Gfx.FONT_NUMBER_MILD,</v>
+      </c>
+      <c r="B55" s="22"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Elapsed"=&gt;Gfx.FONT_NUMBER_MILD,</v>
+      </c>
+      <c r="B56" s="22"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"ProvenanceBG"=&gt;Gfx.FONT_XTINY,</v>
+      </c>
+      <c r="B57" s="22"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Secondes"=&gt;Gfx.FONT_NUMBER_MILD,</v>
+      </c>
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"NextCall"=&gt;Gfx.FONT_XTINY,</v>
+      </c>
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Temperature"=&gt;Gfx.FONT_LARGE,</v>
+      </c>
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Wind"=&gt;Gfx.FONT_LARGE,</v>
+      </c>
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Batterie"=&gt;Gfx.FONT_LARGE,</v>
+      </c>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>"labelMin"=&gt;Gfx.FONT_XTINY,</v>
+      </c>
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" s="23"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="str">
+        <f>""""&amp;A2&amp;"""=&gt;"&amp;G2&amp;","</f>
+        <v>"date"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+      </c>
+      <c r="B67" s="22"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="str">
+        <f t="shared" ref="A68:A79" si="4">""""&amp;A3&amp;"""=&gt;"&amp;G3&amp;","</f>
+        <v>"heure"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+      </c>
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"notif"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+      </c>
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"BG"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B70" s="22"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Delta"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B71" s="22"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Elapsed"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B72" s="22"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"ProvenanceBG"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
+      </c>
+      <c r="B73" s="22"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Secondes"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B74" s="22"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"NextCall"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B75" s="22"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Temperature"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
+      </c>
+      <c r="B76" s="22"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Wind"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B77" s="22"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Batterie"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+      </c>
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>"labelMin"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
+      </c>
+      <c r="B79" s="22"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" s="22"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
+      <formula1>$AB$1:$AB$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14">
+      <formula1>$AG$9:$AG$26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$I$1:$P$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>209.28</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>230.39999999999998</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>249.6</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>268.8</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>345.59999999999997</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>374.4</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>399.36</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="0"/>
-        <v>435.84</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="1"/>
-        <v>77.60799999999999</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="1"/>
-        <v>85.44</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="1"/>
-        <v>92.56</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="1"/>
-        <v>99.679999999999993</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="1"/>
-        <v>128.16</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="1"/>
-        <v>138.84</v>
-      </c>
-      <c r="W9" s="5">
-        <f t="shared" si="1"/>
-        <v>148.096</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="1"/>
-        <v>161.624</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>54.5</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>97.5</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="0"/>
-        <v>113.5</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>106.82</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="1"/>
-        <v>117.6</v>
-      </c>
-      <c r="S10" s="5">
-        <f t="shared" si="1"/>
-        <v>127.39999999999999</v>
-      </c>
-      <c r="T10" s="5">
-        <f t="shared" si="1"/>
-        <v>137.19999999999999</v>
-      </c>
-      <c r="U10" s="5">
-        <f t="shared" si="1"/>
-        <v>176.4</v>
-      </c>
-      <c r="V10" s="5">
-        <f t="shared" si="1"/>
-        <v>191.1</v>
-      </c>
-      <c r="W10" s="5">
-        <f t="shared" si="1"/>
-        <v>203.84</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="1"/>
-        <v>222.46</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" t="s">
-        <v>351</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>37.06</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
-        <v>44.2</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="0"/>
-        <v>47.6</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="0"/>
-        <v>61.2</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
-        <v>66.300000000000011</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
-        <v>70.72</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="0"/>
-        <v>77.180000000000007</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="1"/>
-        <v>170.04</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" si="1"/>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="S11" s="5">
-        <f t="shared" si="1"/>
-        <v>202.8</v>
-      </c>
-      <c r="T11" s="5">
-        <f t="shared" si="1"/>
-        <v>218.4</v>
-      </c>
-      <c r="U11" s="5">
-        <f t="shared" si="1"/>
-        <v>280.8</v>
-      </c>
-      <c r="V11" s="5">
-        <f t="shared" si="1"/>
-        <v>304.2</v>
-      </c>
-      <c r="W11" s="5">
-        <f t="shared" si="1"/>
-        <v>324.48</v>
-      </c>
-      <c r="X11" s="5">
-        <f t="shared" si="1"/>
-        <v>354.12</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E12" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>180.94</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>199.2</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>215.79999999999998</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>232.39999999999998</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="0"/>
-        <v>298.8</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
-        <v>323.7</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>345.28</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="0"/>
-        <v>376.82</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="1"/>
-        <v>170.04</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" si="1"/>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="S12" s="5">
-        <f t="shared" si="1"/>
-        <v>202.8</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" si="1"/>
-        <v>218.4</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" si="1"/>
-        <v>280.8</v>
-      </c>
-      <c r="V12" s="5">
-        <f t="shared" si="1"/>
-        <v>304.2</v>
-      </c>
-      <c r="W12" s="5">
-        <f t="shared" si="1"/>
-        <v>324.48</v>
-      </c>
-      <c r="X12" s="5">
-        <f t="shared" si="1"/>
-        <v>354.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E13" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="1"/>
-        <v>200.56</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" si="1"/>
-        <v>220.8</v>
-      </c>
-      <c r="S13" s="5">
-        <f t="shared" si="1"/>
-        <v>239.20000000000002</v>
-      </c>
-      <c r="T13" s="5">
-        <f t="shared" si="1"/>
-        <v>257.60000000000002</v>
-      </c>
-      <c r="U13" s="5">
-        <f t="shared" si="1"/>
-        <v>331.2</v>
-      </c>
-      <c r="V13" s="5">
-        <f t="shared" si="1"/>
-        <v>358.8</v>
-      </c>
-      <c r="W13" s="5">
-        <f t="shared" si="1"/>
-        <v>382.72</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="1"/>
-        <v>417.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" t="s">
-        <v>351</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>202.74</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>223.20000000000002</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>241.8</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="0"/>
-        <v>260.40000000000003</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>334.8</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="0"/>
-        <v>362.70000000000005</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="0"/>
-        <v>386.88</v>
-      </c>
-      <c r="O14" s="5">
-        <f t="shared" si="0"/>
-        <v>422.22</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="1"/>
-        <v>143.88</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" si="1"/>
-        <v>158.4</v>
-      </c>
-      <c r="S14" s="5">
-        <f t="shared" si="1"/>
-        <v>171.6</v>
-      </c>
-      <c r="T14" s="5">
-        <f t="shared" si="1"/>
-        <v>184.8</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="1"/>
-        <v>237.60000000000002</v>
-      </c>
-      <c r="V14" s="5">
-        <f t="shared" si="1"/>
-        <v>257.40000000000003</v>
-      </c>
-      <c r="W14" s="5">
-        <f t="shared" si="1"/>
-        <v>274.56</v>
-      </c>
-      <c r="X14" s="5">
-        <f t="shared" si="1"/>
-        <v>299.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="P16" s="2">
-        <v>140</v>
-      </c>
-      <c r="Q16" s="5">
-        <f>$P16*Q1/$W$1</f>
-        <v>73.365384615384613</v>
-      </c>
-      <c r="R16" s="5">
-        <f t="shared" ref="R16:X16" si="2">$P16*R1/$W$1</f>
-        <v>80.769230769230774</v>
-      </c>
-      <c r="S16" s="5">
-        <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" si="2"/>
-        <v>94.230769230769226</v>
-      </c>
-      <c r="U16" s="5">
-        <f t="shared" si="2"/>
-        <v>121.15384615384616</v>
-      </c>
-      <c r="V16" s="5">
-        <f t="shared" si="2"/>
-        <v>131.25</v>
-      </c>
-      <c r="W16" s="5">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="X16" s="5">
-        <f t="shared" si="2"/>
-        <v>152.78846153846155</v>
-      </c>
-      <c r="AA16">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="AA17">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA18">
-        <f>AA17-AA16</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" ref="A19:A31" si="3">""""&amp;A2&amp;"""=&gt;("&amp;B2&amp;" * largeurEcran),"</f>
-        <v>"date"=&gt;(0.5 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="3"/>
-        <v>"heure"=&gt;(0.5 * largeurEcran),</v>
-      </c>
-      <c r="F20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="3"/>
-        <v>"notif"=&gt;(0.12 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="3"/>
-        <v>"BG"=&gt;(0.75 * largeurEcran),</v>
-      </c>
-      <c r="E22" s="2">
-        <v>274</v>
-      </c>
-      <c r="F22">
-        <f>E22/416</f>
-        <v>0.65865384615384615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="3"/>
-        <v>"Delta"=&gt;(0.24 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="3"/>
-        <v>"Elapsed"=&gt;(0.96 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="3"/>
-        <v>"ProvenanceBG"=&gt;(0.02 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="3"/>
-        <v>"Secondes"=&gt;(0.96 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="3"/>
-        <v>"NextCall"=&gt;(0.25 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="3"/>
-        <v>"Temperature"=&gt;(0.17 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="3"/>
-        <v>"Wind"=&gt;(0.83 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="3"/>
-        <v>"Batterie"=&gt;(0.5 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="3"/>
-        <v>"labelMin"=&gt;(0.93 * largeurEcran),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * hauteurEcran),"</f>
-        <v>"date"=&gt;(0.127 * hauteurEcran),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" ref="A36:A47" si="4">""""&amp;A3&amp;"""=&gt;"&amp;C3&amp;" * hauteurEcran,"</f>
-        <v>"heure"=&gt;0.315 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="4"/>
-        <v>"notif"=&gt;0.392 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="4"/>
-        <v>"BG"=&gt;0.582 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="4"/>
-        <v>"Delta"=&gt;0.6 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="4"/>
-        <v>"Elapsed"=&gt;0.545 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="4"/>
-        <v>"ProvenanceBG"=&gt;0.49 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="4"/>
-        <v>"Secondes"=&gt;0.356 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="4"/>
-        <v>"NextCall"=&gt;0.49 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="4"/>
-        <v>"Temperature"=&gt;0.78 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="4"/>
-        <v>"Wind"=&gt;0.78 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="4"/>
-        <v>"Batterie"=&gt;0.92 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" si="4"/>
-        <v>"labelMin"=&gt;0.66 * hauteurEcran,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" ref="A51:A63" si="5">""""&amp;A2&amp;"""=&gt;"&amp;D2&amp;","</f>
-        <v>"date"=&gt;Gfx.FONT_LARGE,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f t="shared" si="5"/>
-        <v>"heure"=&gt;Gfx.FONT_NUMBER_HOT,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f t="shared" si="5"/>
-        <v>"notif"=&gt;Gfx.FONT_MEDIUM,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f t="shared" si="5"/>
-        <v>"BG"=&gt;Gfx.FONT_NUMBER_HOT,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f t="shared" si="5"/>
-        <v>"Delta"=&gt;Gfx.FONT_NUMBER_MILD,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f t="shared" si="5"/>
-        <v>"Elapsed"=&gt;Gfx.FONT_NUMBER_MILD,</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f t="shared" si="5"/>
-        <v>"ProvenanceBG"=&gt;Gfx.FONT_XTINY,</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f t="shared" si="5"/>
-        <v>"Secondes"=&gt;Gfx.FONT_NUMBER_MILD,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" si="5"/>
-        <v>"NextCall"=&gt;Gfx.FONT_XTINY,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f t="shared" si="5"/>
-        <v>"Temperature"=&gt;Gfx.FONT_LARGE,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f t="shared" si="5"/>
-        <v>"Wind"=&gt;Gfx.FONT_LARGE,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" si="5"/>
-        <v>"Batterie"=&gt;Gfx.FONT_LARGE,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f t="shared" si="5"/>
-        <v>"labelMin"=&gt;Gfx.FONT_XTINY,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;"&amp;E2&amp;","</f>
-        <v>"date"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f t="shared" ref="A68:A79" si="6">""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;","</f>
-        <v>"heure"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f t="shared" si="6"/>
-        <v>"notif"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f t="shared" si="6"/>
-        <v>"BG"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f t="shared" si="6"/>
-        <v>"Delta"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f t="shared" si="6"/>
-        <v>"Elapsed"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f t="shared" si="6"/>
-        <v>"ProvenanceBG"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f t="shared" si="6"/>
-        <v>"Secondes"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f t="shared" si="6"/>
-        <v>"NextCall"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f t="shared" si="6"/>
-        <v>"Temperature"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
-        <f t="shared" si="6"/>
-        <v>"Wind"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f t="shared" si="6"/>
-        <v>"Batterie"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f t="shared" si="6"/>
-        <v>"labelMin"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>357</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E13" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E15" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E16" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="E17" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E18" s="19">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10279,7 +11207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -10291,7 +11219,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C1">
         <f>COUNTA(A:A)-1</f>
@@ -10303,7 +11231,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(A2,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A2,modèles!$A$1:$M$140,13,0)</f>
         <v>approachs50</v>
       </c>
       <c r="D2" s="3"/>
@@ -10313,7 +11241,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(A3,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A3,modèles!$A$1:$M$140,13,0)</f>
         <v>approachs7042mm</v>
       </c>
       <c r="D3" s="3"/>
@@ -10323,7 +11251,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(A4,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A4,modèles!$A$1:$M$140,13,0)</f>
         <v>approachs7047mm</v>
       </c>
       <c r="D4" s="3"/>
@@ -10333,7 +11261,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(A5,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A5,modèles!$A$1:$M$140,13,0)</f>
         <v>d2air</v>
       </c>
       <c r="D5" s="3"/>
@@ -10343,7 +11271,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(A6,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A6,modèles!$A$1:$M$140,13,0)</f>
         <v>d2airx10</v>
       </c>
       <c r="D6" s="3"/>
@@ -10353,7 +11281,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(A7,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A7,modèles!$A$1:$M$140,13,0)</f>
         <v>d2delta</v>
       </c>
       <c r="D7" s="3"/>
@@ -10363,7 +11291,7 @@
         <v>51</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(A8,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A8,modèles!$A$1:$M$140,13,0)</f>
         <v>d2deltapx</v>
       </c>
       <c r="D8" s="3"/>
@@ -10373,7 +11301,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(A9,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A9,modèles!$A$1:$M$140,13,0)</f>
         <v>d2deltas</v>
       </c>
       <c r="D9" s="3"/>
@@ -10383,7 +11311,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(A10,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A10,modèles!$A$1:$M$140,13,0)</f>
         <v>d2mach1</v>
       </c>
       <c r="D10" s="3"/>
@@ -10393,7 +11321,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(A11,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A11,modèles!$A$1:$M$140,13,0)</f>
         <v>descentg2</v>
       </c>
       <c r="D11" s="3"/>
@@ -10403,7 +11331,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(A12,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A12,modèles!$A$1:$M$140,13,0)</f>
         <v>descentmk2</v>
       </c>
       <c r="D12" s="3"/>
@@ -10413,7 +11341,7 @@
         <v>69</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(A13,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A13,modèles!$A$1:$M$140,13,0)</f>
         <v>descentmk2s</v>
       </c>
       <c r="D13" s="3"/>
@@ -10423,7 +11351,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(A14,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A14,modèles!$A$1:$M$140,13,0)</f>
         <v>descentmk343mm</v>
       </c>
       <c r="D14" s="3"/>
@@ -10433,7 +11361,7 @@
         <v>73</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(A15,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A15,modèles!$A$1:$M$140,13,0)</f>
         <v>descentmk351mm</v>
       </c>
       <c r="D15" s="3"/>
@@ -10443,7 +11371,7 @@
         <v>75</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(A16,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A16,modèles!$A$1:$M$140,13,0)</f>
         <v>enduro</v>
       </c>
       <c r="D16" s="3"/>
@@ -10453,7 +11381,7 @@
         <v>78</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(A17,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A17,modèles!$A$1:$M$140,13,0)</f>
         <v>enduro3</v>
       </c>
       <c r="D17" s="3"/>
@@ -10463,7 +11391,7 @@
         <v>85</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(A18,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A18,modèles!$A$1:$M$140,13,0)</f>
         <v>epix2</v>
       </c>
       <c r="D18" s="3"/>
@@ -10473,7 +11401,7 @@
         <v>87</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(A19,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A19,modèles!$A$1:$M$140,13,0)</f>
         <v>epix2pro42mm</v>
       </c>
       <c r="D19" s="3"/>
@@ -10483,7 +11411,7 @@
         <v>89</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(A20,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A20,modèles!$A$1:$M$140,13,0)</f>
         <v>epix2pro47mm</v>
       </c>
       <c r="D20" s="3"/>
@@ -10493,7 +11421,7 @@
         <v>91</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(A21,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A21,modèles!$A$1:$M$140,13,0)</f>
         <v>epix2pro51mm</v>
       </c>
       <c r="D21" s="3"/>
@@ -10503,7 +11431,7 @@
         <v>97</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(A22,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A22,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix5</v>
       </c>
       <c r="D22" s="3"/>
@@ -10513,7 +11441,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(A23,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A23,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix5plus</v>
       </c>
       <c r="D23" s="3"/>
@@ -10523,7 +11451,7 @@
         <v>103</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(A24,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A24,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix5s</v>
       </c>
       <c r="D24" s="3"/>
@@ -10533,7 +11461,7 @@
         <v>105</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(A25,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A25,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix5splus</v>
       </c>
       <c r="D25" s="3"/>
@@ -10543,7 +11471,7 @@
         <v>107</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(A26,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A26,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix5x</v>
       </c>
       <c r="D26" s="3"/>
@@ -10553,7 +11481,7 @@
         <v>109</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(A27,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A27,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix5xplus</v>
       </c>
       <c r="D27" s="3"/>
@@ -10563,7 +11491,7 @@
         <v>111</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(A28,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A28,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix6</v>
       </c>
       <c r="D28" s="3"/>
@@ -10573,7 +11501,7 @@
         <v>114</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(A29,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A29,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix6pro</v>
       </c>
       <c r="D29" s="3"/>
@@ -10583,7 +11511,7 @@
         <v>116</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(A30,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A30,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix6s</v>
       </c>
       <c r="D30" s="3"/>
@@ -10593,7 +11521,7 @@
         <v>118</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(A31,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A31,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix6spro</v>
       </c>
       <c r="D31" s="3"/>
@@ -10603,7 +11531,7 @@
         <v>120</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(A32,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A32,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix6xpro</v>
       </c>
       <c r="D32" s="3"/>
@@ -10613,7 +11541,7 @@
         <v>122</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(A33,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A33,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7</v>
       </c>
       <c r="D33" s="3"/>
@@ -10623,7 +11551,7 @@
         <v>124</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(A34,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A34,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7pro</v>
       </c>
       <c r="D34" s="3"/>
@@ -10633,7 +11561,7 @@
         <v>126</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(A35,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A35,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7pronowifi</v>
       </c>
       <c r="D35" s="3"/>
@@ -10643,7 +11571,7 @@
         <v>128</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(A36,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A36,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7s</v>
       </c>
       <c r="D36" s="3"/>
@@ -10653,7 +11581,7 @@
         <v>130</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(A37,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A37,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7spro</v>
       </c>
       <c r="D37" s="3"/>
@@ -10663,7 +11591,7 @@
         <v>132</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(A38,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A38,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7x</v>
       </c>
       <c r="D38" s="3"/>
@@ -10673,7 +11601,7 @@
         <v>134</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(A39,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A39,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7xpro</v>
       </c>
       <c r="D39" s="3"/>
@@ -10683,7 +11611,7 @@
         <v>136</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(A40,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A40,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix7xpronowifi</v>
       </c>
       <c r="D40" s="3"/>
@@ -10693,7 +11621,7 @@
         <v>138</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(A41,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A41,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix843mm</v>
       </c>
       <c r="D41" s="3"/>
@@ -10703,7 +11631,7 @@
         <v>140</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(A42,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A42,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix847mm</v>
       </c>
       <c r="D42" s="3"/>
@@ -10713,7 +11641,7 @@
         <v>142</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(A43,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A43,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix8solar47mm</v>
       </c>
       <c r="D43" s="3"/>
@@ -10723,7 +11651,7 @@
         <v>144</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(A44,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A44,modèles!$A$1:$M$140,13,0)</f>
         <v>fenix8solar51mm</v>
       </c>
       <c r="D44" s="3"/>
@@ -10733,7 +11661,7 @@
         <v>146</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(A45,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A45,modèles!$A$1:$M$140,13,0)</f>
         <v>fenixchronos</v>
       </c>
       <c r="D45" s="3"/>
@@ -10743,7 +11671,7 @@
         <v>148</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(A46,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A46,modèles!$A$1:$M$140,13,0)</f>
         <v>fenixe</v>
       </c>
       <c r="D46" s="3"/>
@@ -10753,7 +11681,7 @@
         <v>150</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(A47,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A47,modèles!$A$1:$M$140,13,0)</f>
         <v>fr165</v>
       </c>
       <c r="D47" s="3"/>
@@ -10763,7 +11691,7 @@
         <v>152</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(A48,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A48,modèles!$A$1:$M$140,13,0)</f>
         <v>fr165m</v>
       </c>
       <c r="D48" s="3"/>
@@ -10773,7 +11701,7 @@
         <v>159</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(A49,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A49,modèles!$A$1:$M$140,13,0)</f>
         <v>fr245</v>
       </c>
       <c r="D49" s="3"/>
@@ -10783,7 +11711,7 @@
         <v>162</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(A50,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A50,modèles!$A$1:$M$140,13,0)</f>
         <v>fr245m</v>
       </c>
       <c r="D50" s="3"/>
@@ -10793,7 +11721,7 @@
         <v>164</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(A51,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A51,modèles!$A$1:$M$140,13,0)</f>
         <v>fr255</v>
       </c>
       <c r="D51" s="3"/>
@@ -10803,7 +11731,7 @@
         <v>166</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(A52,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A52,modèles!$A$1:$M$140,13,0)</f>
         <v>fr255m</v>
       </c>
       <c r="D52" s="3"/>
@@ -10813,7 +11741,7 @@
         <v>168</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(A53,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A53,modèles!$A$1:$M$140,13,0)</f>
         <v>fr255s</v>
       </c>
       <c r="D53" s="3"/>
@@ -10823,7 +11751,7 @@
         <v>170</v>
       </c>
       <c r="C54" t="str">
-        <f>VLOOKUP(A54,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A54,modèles!$A$1:$M$140,13,0)</f>
         <v>fr255sm</v>
       </c>
       <c r="D54" s="3"/>
@@ -10833,7 +11761,7 @@
         <v>172</v>
       </c>
       <c r="C55" t="str">
-        <f>VLOOKUP(A55,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A55,modèles!$A$1:$M$140,13,0)</f>
         <v>fr265</v>
       </c>
       <c r="D55" s="3"/>
@@ -10843,7 +11771,7 @@
         <v>174</v>
       </c>
       <c r="C56" t="str">
-        <f>VLOOKUP(A56,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A56,modèles!$A$1:$M$140,13,0)</f>
         <v>fr265s</v>
       </c>
       <c r="D56" s="3"/>
@@ -10853,7 +11781,7 @@
         <v>183</v>
       </c>
       <c r="C57" t="str">
-        <f>VLOOKUP(A57,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A57,modèles!$A$1:$M$140,13,0)</f>
         <v>fr57042mm</v>
       </c>
       <c r="D57" s="3"/>
@@ -10863,7 +11791,7 @@
         <v>185</v>
       </c>
       <c r="C58" t="str">
-        <f>VLOOKUP(A58,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A58,modèles!$A$1:$M$140,13,0)</f>
         <v>fr57047mm</v>
       </c>
       <c r="D58" s="3"/>
@@ -10873,7 +11801,7 @@
         <v>189</v>
       </c>
       <c r="C59" t="str">
-        <f>VLOOKUP(A59,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A59,modèles!$A$1:$M$140,13,0)</f>
         <v>fr645</v>
       </c>
       <c r="D59" s="3"/>
@@ -10883,7 +11811,7 @@
         <v>191</v>
       </c>
       <c r="C60" t="str">
-        <f>VLOOKUP(A60,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A60,modèles!$A$1:$M$140,13,0)</f>
         <v>fr645m</v>
       </c>
       <c r="D60" s="3"/>
@@ -10893,7 +11821,7 @@
         <v>196</v>
       </c>
       <c r="C61" t="str">
-        <f>VLOOKUP(A61,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A61,modèles!$A$1:$M$140,13,0)</f>
         <v>fr745</v>
       </c>
       <c r="D61" s="3"/>
@@ -10903,7 +11831,7 @@
         <v>200</v>
       </c>
       <c r="C62" t="str">
-        <f>VLOOKUP(A62,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A62,modèles!$A$1:$M$140,13,0)</f>
         <v>fr935</v>
       </c>
       <c r="D62" s="3"/>
@@ -10913,7 +11841,7 @@
         <v>202</v>
       </c>
       <c r="C63" t="str">
-        <f>VLOOKUP(A63,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A63,modèles!$A$1:$M$140,13,0)</f>
         <v>fr945</v>
       </c>
       <c r="D63" s="3"/>
@@ -10923,7 +11851,7 @@
         <v>204</v>
       </c>
       <c r="C64" t="str">
-        <f>VLOOKUP(A64,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A64,modèles!$A$1:$M$140,13,0)</f>
         <v>fr945lte</v>
       </c>
       <c r="D64" s="3"/>
@@ -10933,7 +11861,7 @@
         <v>207</v>
       </c>
       <c r="C65" t="str">
-        <f>VLOOKUP(A65,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A65,modèles!$A$1:$M$140,13,0)</f>
         <v>fr955</v>
       </c>
       <c r="D65" s="3"/>
@@ -10943,7 +11871,7 @@
         <v>209</v>
       </c>
       <c r="C66" t="str">
-        <f>VLOOKUP(A66,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A66,modèles!$A$1:$M$140,13,0)</f>
         <v>fr965</v>
       </c>
       <c r="D66" s="3"/>
@@ -10953,7 +11881,7 @@
         <v>211</v>
       </c>
       <c r="C67" t="str">
-        <f>VLOOKUP(A67,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A67,modèles!$A$1:$M$140,13,0)</f>
         <v>fr970</v>
       </c>
       <c r="D67" s="3"/>
@@ -10963,7 +11891,7 @@
         <v>222</v>
       </c>
       <c r="C68" t="str">
-        <f>VLOOKUP(A68,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A68,modèles!$A$1:$M$140,13,0)</f>
         <v>instinct3amoled45mm</v>
       </c>
       <c r="D68" s="3"/>
@@ -10973,7 +11901,7 @@
         <v>224</v>
       </c>
       <c r="C69" t="str">
-        <f>VLOOKUP(A69,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A69,modèles!$A$1:$M$140,13,0)</f>
         <v>instinct3amoled50mm</v>
       </c>
       <c r="D69" s="3"/>
@@ -10983,7 +11911,7 @@
         <v>235</v>
       </c>
       <c r="C70" t="str">
-        <f>VLOOKUP(A70,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A70,modèles!$A$1:$M$140,13,0)</f>
         <v>legacyherocaptainmarvel</v>
       </c>
       <c r="D70" s="3"/>
@@ -10993,7 +11921,7 @@
         <v>238</v>
       </c>
       <c r="C71" t="str">
-        <f>VLOOKUP(A71,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A71,modèles!$A$1:$M$140,13,0)</f>
         <v>legacyherofirstavenger</v>
       </c>
       <c r="D71" s="3"/>
@@ -11003,7 +11931,7 @@
         <v>241</v>
       </c>
       <c r="C72" t="str">
-        <f>VLOOKUP(A72,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A72,modèles!$A$1:$M$140,13,0)</f>
         <v>legacysagadarthvader</v>
       </c>
       <c r="D72" s="3"/>
@@ -11013,7 +11941,7 @@
         <v>243</v>
       </c>
       <c r="C73" t="str">
-        <f>VLOOKUP(A73,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A73,modèles!$A$1:$M$140,13,0)</f>
         <v>legacysagarey</v>
       </c>
       <c r="D73" s="3"/>
@@ -11023,7 +11951,7 @@
         <v>249</v>
       </c>
       <c r="C74" t="str">
-        <f>VLOOKUP(A74,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A74,modèles!$A$1:$M$140,13,0)</f>
         <v>marq2</v>
       </c>
       <c r="D74" s="3"/>
@@ -11033,7 +11961,7 @@
         <v>251</v>
       </c>
       <c r="C75" t="str">
-        <f>VLOOKUP(A75,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A75,modèles!$A$1:$M$140,13,0)</f>
         <v>marq2aviator</v>
       </c>
       <c r="D75" s="3"/>
@@ -11043,7 +11971,7 @@
         <v>253</v>
       </c>
       <c r="C76" t="str">
-        <f>VLOOKUP(A76,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A76,modèles!$A$1:$M$140,13,0)</f>
         <v>marqadventurer</v>
       </c>
       <c r="D76" s="3"/>
@@ -11053,7 +11981,7 @@
         <v>255</v>
       </c>
       <c r="C77" t="str">
-        <f>VLOOKUP(A77,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A77,modèles!$A$1:$M$140,13,0)</f>
         <v>marqathlete</v>
       </c>
       <c r="D77" s="3"/>
@@ -11063,7 +11991,7 @@
         <v>257</v>
       </c>
       <c r="C78" t="str">
-        <f>VLOOKUP(A78,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A78,modèles!$A$1:$M$140,13,0)</f>
         <v>marqaviator</v>
       </c>
       <c r="D78" s="3"/>
@@ -11073,7 +12001,7 @@
         <v>259</v>
       </c>
       <c r="C79" t="str">
-        <f>VLOOKUP(A79,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A79,modèles!$A$1:$M$140,13,0)</f>
         <v>marqcaptain</v>
       </c>
       <c r="D79" s="3"/>
@@ -11083,7 +12011,7 @@
         <v>261</v>
       </c>
       <c r="C80" t="str">
-        <f>VLOOKUP(A80,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A80,modèles!$A$1:$M$140,13,0)</f>
         <v>marqcommander</v>
       </c>
       <c r="D80" s="3"/>
@@ -11093,7 +12021,7 @@
         <v>263</v>
       </c>
       <c r="C81" t="str">
-        <f>VLOOKUP(A81,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A81,modèles!$A$1:$M$140,13,0)</f>
         <v>marqdriver</v>
       </c>
       <c r="D81" s="3"/>
@@ -11103,7 +12031,7 @@
         <v>265</v>
       </c>
       <c r="C82" t="str">
-        <f>VLOOKUP(A82,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A82,modèles!$A$1:$M$140,13,0)</f>
         <v>marqexpedition</v>
       </c>
       <c r="D82" s="3"/>
@@ -11113,7 +12041,7 @@
         <v>267</v>
       </c>
       <c r="C83" t="str">
-        <f>VLOOKUP(A83,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A83,modèles!$A$1:$M$140,13,0)</f>
         <v>marqgolfer</v>
       </c>
       <c r="D83" s="3"/>
@@ -11123,7 +12051,7 @@
         <v>269</v>
       </c>
       <c r="C84" t="str">
-        <f>VLOOKUP(A84,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A84,modèles!$A$1:$M$140,13,0)</f>
         <v>venu</v>
       </c>
       <c r="D84" s="3"/>
@@ -11133,7 +12061,7 @@
         <v>271</v>
       </c>
       <c r="C85" t="str">
-        <f>VLOOKUP(A85,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A85,modèles!$A$1:$M$140,13,0)</f>
         <v>venu2</v>
       </c>
       <c r="D85" s="3"/>
@@ -11143,7 +12071,7 @@
         <v>273</v>
       </c>
       <c r="C86" t="str">
-        <f>VLOOKUP(A86,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A86,modèles!$A$1:$M$140,13,0)</f>
         <v>venu2plus</v>
       </c>
       <c r="D86" s="3"/>
@@ -11153,7 +12081,7 @@
         <v>275</v>
       </c>
       <c r="C87" t="str">
-        <f>VLOOKUP(A87,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A87,modèles!$A$1:$M$140,13,0)</f>
         <v>venu2s</v>
       </c>
       <c r="D87" s="3"/>
@@ -11163,7 +12091,7 @@
         <v>277</v>
       </c>
       <c r="C88" t="str">
-        <f>VLOOKUP(A88,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A88,modèles!$A$1:$M$140,13,0)</f>
         <v>venu3</v>
       </c>
       <c r="D88" s="3"/>
@@ -11173,7 +12101,7 @@
         <v>279</v>
       </c>
       <c r="C89" t="str">
-        <f>VLOOKUP(A89,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A89,modèles!$A$1:$M$140,13,0)</f>
         <v>venu3s</v>
       </c>
       <c r="D89" s="3"/>
@@ -11183,7 +12111,7 @@
         <v>281</v>
       </c>
       <c r="C90" t="str">
-        <f>VLOOKUP(A90,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A90,modèles!$A$1:$M$140,13,0)</f>
         <v>venu441mm</v>
       </c>
       <c r="D90" s="3"/>
@@ -11193,7 +12121,7 @@
         <v>283</v>
       </c>
       <c r="C91" t="str">
-        <f>VLOOKUP(A91,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A91,modèles!$A$1:$M$140,13,0)</f>
         <v>venu445mm</v>
       </c>
       <c r="D91" s="3"/>
@@ -11203,7 +12131,7 @@
         <v>285</v>
       </c>
       <c r="C92" t="str">
-        <f>VLOOKUP(A92,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A92,modèles!$A$1:$M$140,13,0)</f>
         <v>venud</v>
       </c>
       <c r="D92" s="3"/>
@@ -11213,7 +12141,7 @@
         <v>303</v>
       </c>
       <c r="C93" t="str">
-        <f>VLOOKUP(A93,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A93,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive3</v>
       </c>
       <c r="D93" s="3"/>
@@ -11223,7 +12151,7 @@
         <v>307</v>
       </c>
       <c r="C94" t="str">
-        <f>VLOOKUP(A94,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A94,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive3m</v>
       </c>
       <c r="D94" s="3"/>
@@ -11233,7 +12161,7 @@
         <v>309</v>
       </c>
       <c r="C95" t="str">
-        <f>VLOOKUP(A95,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A95,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive3mlte</v>
       </c>
       <c r="D95" s="3"/>
@@ -11243,7 +12171,7 @@
         <v>311</v>
       </c>
       <c r="C96" t="str">
-        <f>VLOOKUP(A96,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A96,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive4</v>
       </c>
       <c r="D96" s="3"/>
@@ -11253,7 +12181,7 @@
         <v>313</v>
       </c>
       <c r="C97" t="str">
-        <f>VLOOKUP(A97,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A97,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive4s</v>
       </c>
       <c r="D97" s="3"/>
@@ -11263,7 +12191,7 @@
         <v>315</v>
       </c>
       <c r="C98" t="str">
-        <f>VLOOKUP(A98,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A98,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive5</v>
       </c>
       <c r="D98" s="3"/>
@@ -11273,7 +12201,7 @@
         <v>317</v>
       </c>
       <c r="C99" t="str">
-        <f>VLOOKUP(A99,Feuil1!$A$1:$M$140,13,0)</f>
+        <f>VLOOKUP(A99,modèles!$A$1:$M$140,13,0)</f>
         <v>vivoactive6</v>
       </c>
       <c r="D99" s="3"/>
@@ -11286,4 +12214,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1744806142000</v>
+      </c>
+      <c r="B2">
+        <f>A2/1000/60/60/24</f>
+        <v>20194.515532407408</v>
+      </c>
+      <c r="C2" s="6">
+        <f>TRUNC((B2)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2-TRUNC(B2,0)</f>
+        <v>0.51553240740759065</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2+1/12</f>
+        <v>0.59886574074092402</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1744698759</v>
+      </c>
+      <c r="I2">
+        <f>H2/60/60/24</f>
+        <v>20193.272673611111</v>
+      </c>
+      <c r="J2" s="6">
+        <f>TRUNC((I2)+DATE(1970,1,1),0)</f>
+        <v>45762</v>
+      </c>
+      <c r="K2" s="7">
+        <f>I2-TRUNC(I2,0)</f>
+        <v>0.2726736111108039</v>
+      </c>
+      <c r="L2" s="7">
+        <f>K2+1/12</f>
+        <v>0.35600694444413722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1744806293000</v>
+      </c>
+      <c r="B3">
+        <f>A3/1000/60/60/24</f>
+        <v>20194.51728009259</v>
+      </c>
+      <c r="C3" s="6">
+        <f>TRUNC((B3)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3-TRUNC(B3,0)</f>
+        <v>0.51728009259022656</v>
+      </c>
+      <c r="E3" s="7">
+        <f>D3+1/12</f>
+        <v>0.60061342592355993</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1744804492</v>
+      </c>
+      <c r="I3">
+        <f>H3/60/60/24</f>
+        <v>20194.496435185185</v>
+      </c>
+      <c r="J3" s="6">
+        <f>TRUNC((I3)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="K3" s="7">
+        <f>I3-TRUNC(I3,0)</f>
+        <v>0.49643518518496421</v>
+      </c>
+      <c r="L3" s="7">
+        <f>K3+1/12</f>
+        <v>0.57976851851829758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1744806293000</v>
+      </c>
+      <c r="B4">
+        <f>A4/1000/60/60/24</f>
+        <v>20194.51728009259</v>
+      </c>
+      <c r="C4" s="6">
+        <f>TRUNC((B4)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D4" s="7">
+        <f>B4-TRUNC(B4,0)</f>
+        <v>0.51728009259022656</v>
+      </c>
+      <c r="E4" s="7">
+        <f>D4+1/12</f>
+        <v>0.60061342592355993</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1744814539</v>
+      </c>
+      <c r="I4">
+        <f>H4/60/60/24</f>
+        <v>20194.612719907407</v>
+      </c>
+      <c r="J4" s="6">
+        <f>TRUNC((I4)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="K4" s="7">
+        <f>I4-TRUNC(I4,0)</f>
+        <v>0.6127199074071541</v>
+      </c>
+      <c r="L4" s="7">
+        <f>K4+1/12</f>
+        <v>0.69605324074048747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1744806442000</v>
+      </c>
+      <c r="B5">
+        <f>A5/1000/60/60/24</f>
+        <v>20194.51900462963</v>
+      </c>
+      <c r="C5" s="6">
+        <f>TRUNC((B5)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D5" s="7">
+        <f>B5-TRUNC(B5,0)</f>
+        <v>0.5190046296302171</v>
+      </c>
+      <c r="E5" s="7">
+        <f>D5+1/12</f>
+        <v>0.60233796296355047</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1744817093</v>
+      </c>
+      <c r="I5">
+        <f>H5/60/60/24</f>
+        <v>20194.64228009259</v>
+      </c>
+      <c r="J5" s="6">
+        <f>TRUNC((I5)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="K5" s="7">
+        <f>I5-TRUNC(I5,0)</f>
+        <v>0.64228009259022656</v>
+      </c>
+      <c r="L5" s="7">
+        <f>K5+1/12</f>
+        <v>0.72561342592355993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1744806442000</v>
+      </c>
+      <c r="B6">
+        <f>A6/1000/60/60/24</f>
+        <v>20194.51900462963</v>
+      </c>
+      <c r="C6" s="6">
+        <f>TRUNC((B6)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6-TRUNC(B6,0)</f>
+        <v>0.5190046296302171</v>
+      </c>
+      <c r="E6" s="7">
+        <f>D6+1/12</f>
+        <v>0.60233796296355047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1744806592000</v>
+      </c>
+      <c r="B7">
+        <f>A7/1000/60/60/24</f>
+        <v>20194.52074074074</v>
+      </c>
+      <c r="C7" s="6">
+        <f>TRUNC((B7)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D7" s="7">
+        <f>B7-TRUNC(B7,0)</f>
+        <v>0.52074074073971133</v>
+      </c>
+      <c r="E7" s="7">
+        <f>D7+1/12</f>
+        <v>0.6040740740730447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1744806592000</v>
+      </c>
+      <c r="B8">
+        <f>A8/1000/60/60/24</f>
+        <v>20194.52074074074</v>
+      </c>
+      <c r="C8" s="6">
+        <f>TRUNC((B8)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D8" s="7">
+        <f>B8-TRUNC(B8,0)</f>
+        <v>0.52074074073971133</v>
+      </c>
+      <c r="E8" s="7">
+        <f>D8+1/12</f>
+        <v>0.6040740740730447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1744806742000</v>
+      </c>
+      <c r="B9">
+        <f>A9/1000/60/60/24</f>
+        <v>20194.522476851853</v>
+      </c>
+      <c r="C9" s="6">
+        <f>TRUNC((B9)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D9" s="7">
+        <f>B9-TRUNC(B9,0)</f>
+        <v>0.52247685185284354</v>
+      </c>
+      <c r="E9" s="7">
+        <f>D9+1/12</f>
+        <v>0.60581018518617691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1744813193000</v>
+      </c>
+      <c r="B10">
+        <f>A10/1000/60/60/24</f>
+        <v>20194.597141203703</v>
+      </c>
+      <c r="C10" s="6">
+        <f>TRUNC((B10)+DATE(1970,1,1),0)</f>
+        <v>45763</v>
+      </c>
+      <c r="D10" s="7">
+        <f>B10-TRUNC(B10,0)</f>
+        <v>0.59714120370335877</v>
+      </c>
+      <c r="E10" s="7">
+        <f>D10+1/12</f>
+        <v>0.68047453703669214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <sortState ref="H2:L5">
+    <sortCondition ref="H2:H5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modèles.xlsx
+++ b/Modèles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="modèles" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="575">
   <si>
     <t>deviceId</t>
   </si>
@@ -1748,6 +1748,18 @@
   </si>
   <si>
     <t>pixel Y</t>
+  </si>
+  <si>
+    <t>AAPS</t>
+  </si>
+  <si>
+    <t>XDRIP</t>
+  </si>
+  <si>
+    <t>millis</t>
+  </si>
+  <si>
+    <t>secondes</t>
   </si>
 </sst>
 </file>
@@ -8981,7 +8993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -9099,67 +9111,67 @@
         <v>345</v>
       </c>
       <c r="I2" s="4">
-        <f>$C2*I$1</f>
+        <f t="shared" ref="I2:P14" si="0">$C2*I$1</f>
         <v>109</v>
       </c>
       <c r="J2" s="4">
-        <f>$C2*J$1</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="K2" s="4">
-        <f>$C2*K$1</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="L2" s="4">
-        <f>$C2*L$1</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="M2" s="4">
-        <f>$C2*M$1</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="N2" s="4">
-        <f>$C2*N$1</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="O2" s="4">
-        <f>$C2*O$1</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="P2" s="4">
-        <f>$C2*P$1</f>
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
       <c r="R2" s="4">
-        <f>$E2*R$1</f>
+        <f t="shared" ref="R2:Y14" si="1">$E2*R$1</f>
         <v>28.34</v>
       </c>
       <c r="S2" s="4">
-        <f>$E2*S$1</f>
+        <f t="shared" si="1"/>
         <v>31.200000000000003</v>
       </c>
       <c r="T2" s="4">
-        <f>$E2*T$1</f>
+        <f t="shared" si="1"/>
         <v>33.800000000000004</v>
       </c>
       <c r="U2" s="4">
-        <f>$E2*U$1</f>
+        <f t="shared" si="1"/>
         <v>36.4</v>
       </c>
       <c r="V2" s="4">
-        <f>$E2*V$1</f>
+        <f t="shared" si="1"/>
         <v>46.800000000000004</v>
       </c>
       <c r="W2" s="4">
-        <f>$E2*W$1</f>
+        <f t="shared" si="1"/>
         <v>50.7</v>
       </c>
       <c r="X2" s="4">
-        <f>$E2*X$1</f>
+        <f t="shared" si="1"/>
         <v>54.08</v>
       </c>
       <c r="Y2" s="4">
-        <f>$E2*Y$1</f>
+        <f t="shared" si="1"/>
         <v>59.02</v>
       </c>
       <c r="AB2" s="12" t="s">
@@ -9174,14 +9186,14 @@
         <v>208</v>
       </c>
       <c r="C3" s="25">
-        <f t="shared" ref="C3:E14" si="0">ROUND(B3/$A$1,2)</f>
+        <f t="shared" ref="C3:E14" si="2">ROUND(B3/$A$1,2)</f>
         <v>0.5</v>
       </c>
       <c r="D3" s="24">
         <v>131</v>
       </c>
       <c r="E3" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -9191,67 +9203,67 @@
         <v>345</v>
       </c>
       <c r="I3" s="4">
-        <f>$C3*I$1</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="J3" s="4">
-        <f>$C3*J$1</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="K3" s="4">
-        <f>$C3*K$1</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="L3" s="4">
-        <f>$C3*L$1</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="M3" s="4">
-        <f>$C3*M$1</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="N3" s="4">
-        <f>$C3*N$1</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="O3" s="4">
-        <f>$C3*O$1</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="P3" s="4">
-        <f>$C3*P$1</f>
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
       <c r="R3" s="4">
-        <f>$E3*R$1</f>
+        <f t="shared" si="1"/>
         <v>67.58</v>
       </c>
       <c r="S3" s="4">
-        <f>$E3*S$1</f>
+        <f t="shared" si="1"/>
         <v>74.400000000000006</v>
       </c>
       <c r="T3" s="4">
-        <f>$E3*T$1</f>
+        <f t="shared" si="1"/>
         <v>80.599999999999994</v>
       </c>
       <c r="U3" s="4">
-        <f>$E3*U$1</f>
+        <f t="shared" si="1"/>
         <v>86.8</v>
       </c>
       <c r="V3" s="4">
-        <f>$E3*V$1</f>
+        <f t="shared" si="1"/>
         <v>111.6</v>
       </c>
       <c r="W3" s="4">
-        <f>$E3*W$1</f>
+        <f t="shared" si="1"/>
         <v>120.9</v>
       </c>
       <c r="X3" s="4">
-        <f>$E3*X$1</f>
+        <f t="shared" si="1"/>
         <v>128.96</v>
       </c>
       <c r="Y3" s="4">
-        <f>$E3*Y$1</f>
+        <f t="shared" si="1"/>
         <v>140.74</v>
       </c>
       <c r="AB3" s="15" t="s">
@@ -9266,14 +9278,14 @@
         <v>50</v>
       </c>
       <c r="C4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="D4" s="24">
         <v>163</v>
       </c>
       <c r="E4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39</v>
       </c>
       <c r="F4" s="21" t="s">
@@ -9283,67 +9295,67 @@
         <v>345</v>
       </c>
       <c r="I4" s="4">
-        <f>$C4*I$1</f>
+        <f t="shared" si="0"/>
         <v>26.16</v>
       </c>
       <c r="J4" s="4">
-        <f>$C4*J$1</f>
+        <f t="shared" si="0"/>
         <v>28.799999999999997</v>
       </c>
       <c r="K4" s="4">
-        <f>$C4*K$1</f>
+        <f t="shared" si="0"/>
         <v>31.2</v>
       </c>
       <c r="L4" s="4">
-        <f>$C4*L$1</f>
+        <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
       <c r="M4" s="4">
-        <f>$C4*M$1</f>
+        <f t="shared" si="0"/>
         <v>43.199999999999996</v>
       </c>
       <c r="N4" s="4">
-        <f>$C4*N$1</f>
+        <f t="shared" si="0"/>
         <v>46.8</v>
       </c>
       <c r="O4" s="4">
-        <f>$C4*O$1</f>
+        <f t="shared" si="0"/>
         <v>49.92</v>
       </c>
       <c r="P4" s="4">
-        <f>$C4*P$1</f>
+        <f t="shared" si="0"/>
         <v>54.48</v>
       </c>
       <c r="R4" s="4">
-        <f>$E4*R$1</f>
+        <f t="shared" si="1"/>
         <v>85.02</v>
       </c>
       <c r="S4" s="4">
-        <f>$E4*S$1</f>
+        <f t="shared" si="1"/>
         <v>93.600000000000009</v>
       </c>
       <c r="T4" s="4">
-        <f>$E4*T$1</f>
+        <f t="shared" si="1"/>
         <v>101.4</v>
       </c>
       <c r="U4" s="4">
-        <f>$E4*U$1</f>
+        <f t="shared" si="1"/>
         <v>109.2</v>
       </c>
       <c r="V4" s="4">
-        <f>$E4*V$1</f>
+        <f t="shared" si="1"/>
         <v>140.4</v>
       </c>
       <c r="W4" s="4">
-        <f>$E4*W$1</f>
+        <f t="shared" si="1"/>
         <v>152.1</v>
       </c>
       <c r="X4" s="4">
-        <f>$E4*X$1</f>
+        <f t="shared" si="1"/>
         <v>162.24</v>
       </c>
       <c r="Y4" s="4">
-        <f>$E4*Y$1</f>
+        <f t="shared" si="1"/>
         <v>177.06</v>
       </c>
     </row>
@@ -9355,14 +9367,14 @@
         <v>312</v>
       </c>
       <c r="C5" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="D5" s="24">
         <v>242</v>
       </c>
       <c r="E5" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -9372,67 +9384,67 @@
         <v>348</v>
       </c>
       <c r="I5" s="4">
-        <f>$C5*I$1</f>
+        <f t="shared" si="0"/>
         <v>163.5</v>
       </c>
       <c r="J5" s="4">
-        <f>$C5*J$1</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="K5" s="4">
-        <f>$C5*K$1</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="L5" s="4">
-        <f>$C5*L$1</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="M5" s="4">
-        <f>$C5*M$1</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="N5" s="4">
-        <f>$C5*N$1</f>
+        <f t="shared" si="0"/>
         <v>292.5</v>
       </c>
       <c r="O5" s="4">
-        <f>$C5*O$1</f>
+        <f t="shared" si="0"/>
         <v>312</v>
       </c>
       <c r="P5" s="4">
-        <f>$C5*P$1</f>
+        <f t="shared" si="0"/>
         <v>340.5</v>
       </c>
       <c r="R5" s="4">
-        <f>$E5*R$1</f>
+        <f t="shared" si="1"/>
         <v>126.44</v>
       </c>
       <c r="S5" s="4">
-        <f>$E5*S$1</f>
+        <f t="shared" si="1"/>
         <v>139.19999999999999</v>
       </c>
       <c r="T5" s="4">
-        <f>$E5*T$1</f>
+        <f t="shared" si="1"/>
         <v>150.79999999999998</v>
       </c>
       <c r="U5" s="4">
-        <f>$E5*U$1</f>
+        <f t="shared" si="1"/>
         <v>162.39999999999998</v>
       </c>
       <c r="V5" s="4">
-        <f>$E5*V$1</f>
+        <f t="shared" si="1"/>
         <v>208.79999999999998</v>
       </c>
       <c r="W5" s="4">
-        <f>$E5*W$1</f>
+        <f t="shared" si="1"/>
         <v>226.2</v>
       </c>
       <c r="X5" s="4">
-        <f>$E5*X$1</f>
+        <f t="shared" si="1"/>
         <v>241.27999999999997</v>
       </c>
       <c r="Y5" s="4">
-        <f>$E5*Y$1</f>
+        <f t="shared" si="1"/>
         <v>263.32</v>
       </c>
     </row>
@@ -9444,14 +9456,14 @@
         <v>100</v>
       </c>
       <c r="C6" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="D6" s="24">
         <v>249</v>
       </c>
       <c r="E6" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -9461,67 +9473,67 @@
         <v>348</v>
       </c>
       <c r="I6" s="4">
-        <f>$C6*I$1</f>
+        <f t="shared" si="0"/>
         <v>52.32</v>
       </c>
       <c r="J6" s="4">
-        <f>$C6*J$1</f>
+        <f t="shared" si="0"/>
         <v>57.599999999999994</v>
       </c>
       <c r="K6" s="4">
-        <f>$C6*K$1</f>
+        <f t="shared" si="0"/>
         <v>62.4</v>
       </c>
       <c r="L6" s="4">
-        <f>$C6*L$1</f>
+        <f t="shared" si="0"/>
         <v>67.2</v>
       </c>
       <c r="M6" s="4">
-        <f>$C6*M$1</f>
+        <f t="shared" si="0"/>
         <v>86.399999999999991</v>
       </c>
       <c r="N6" s="4">
-        <f>$C6*N$1</f>
+        <f t="shared" si="0"/>
         <v>93.6</v>
       </c>
       <c r="O6" s="4">
-        <f>$C6*O$1</f>
+        <f t="shared" si="0"/>
         <v>99.84</v>
       </c>
       <c r="P6" s="4">
-        <f>$C6*P$1</f>
+        <f t="shared" si="0"/>
         <v>108.96</v>
       </c>
       <c r="R6" s="4">
-        <f>$E6*R$1</f>
+        <f t="shared" si="1"/>
         <v>130.79999999999998</v>
       </c>
       <c r="S6" s="4">
-        <f>$E6*S$1</f>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="T6" s="4">
-        <f>$E6*T$1</f>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="U6" s="4">
-        <f>$E6*U$1</f>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="V6" s="4">
-        <f>$E6*V$1</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="W6" s="4">
-        <f>$E6*W$1</f>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="X6" s="4">
-        <f>$E6*X$1</f>
+        <f t="shared" si="1"/>
         <v>249.6</v>
       </c>
       <c r="Y6" s="4">
-        <f>$E6*Y$1</f>
+        <f t="shared" si="1"/>
         <v>272.39999999999998</v>
       </c>
     </row>
@@ -9533,14 +9545,14 @@
         <v>400</v>
       </c>
       <c r="C7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="D7" s="24">
         <v>227</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -9550,67 +9562,67 @@
         <v>348</v>
       </c>
       <c r="I7" s="4">
-        <f>$C7*I$1</f>
+        <f t="shared" si="0"/>
         <v>209.28</v>
       </c>
       <c r="J7" s="4">
-        <f>$C7*J$1</f>
+        <f t="shared" si="0"/>
         <v>230.39999999999998</v>
       </c>
       <c r="K7" s="4">
-        <f>$C7*K$1</f>
+        <f t="shared" si="0"/>
         <v>249.6</v>
       </c>
       <c r="L7" s="4">
-        <f>$C7*L$1</f>
+        <f t="shared" si="0"/>
         <v>268.8</v>
       </c>
       <c r="M7" s="4">
-        <f>$C7*M$1</f>
+        <f t="shared" si="0"/>
         <v>345.59999999999997</v>
       </c>
       <c r="N7" s="4">
-        <f>$C7*N$1</f>
+        <f t="shared" si="0"/>
         <v>374.4</v>
       </c>
       <c r="O7" s="4">
-        <f>$C7*O$1</f>
+        <f t="shared" si="0"/>
         <v>399.36</v>
       </c>
       <c r="P7" s="4">
-        <f>$C7*P$1</f>
+        <f t="shared" si="0"/>
         <v>435.84</v>
       </c>
       <c r="R7" s="4">
-        <f>$E7*R$1</f>
+        <f t="shared" si="1"/>
         <v>119.9</v>
       </c>
       <c r="S7" s="4">
-        <f>$E7*S$1</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="T7" s="4">
-        <f>$E7*T$1</f>
+        <f t="shared" si="1"/>
         <v>143</v>
       </c>
       <c r="U7" s="4">
-        <f>$E7*U$1</f>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="V7" s="4">
-        <f>$E7*V$1</f>
+        <f t="shared" si="1"/>
         <v>198.00000000000003</v>
       </c>
       <c r="W7" s="4">
-        <f>$E7*W$1</f>
+        <f t="shared" si="1"/>
         <v>214.50000000000003</v>
       </c>
       <c r="X7" s="4">
-        <f>$E7*X$1</f>
+        <f t="shared" si="1"/>
         <v>228.8</v>
       </c>
       <c r="Y7" s="4">
-        <f>$E7*Y$1</f>
+        <f t="shared" si="1"/>
         <v>249.70000000000002</v>
       </c>
     </row>
@@ -9622,14 +9634,14 @@
         <v>8</v>
       </c>
       <c r="C8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="D8" s="24">
         <v>203</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.49</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -9639,67 +9651,67 @@
         <v>351</v>
       </c>
       <c r="I8" s="4">
-        <f>$C8*I$1</f>
+        <f t="shared" si="0"/>
         <v>4.3600000000000003</v>
       </c>
       <c r="J8" s="4">
-        <f>$C8*J$1</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="K8" s="4">
-        <f>$C8*K$1</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="L8" s="4">
-        <f>$C8*L$1</f>
+        <f t="shared" si="0"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="M8" s="4">
-        <f>$C8*M$1</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
       <c r="N8" s="4">
-        <f>$C8*N$1</f>
+        <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
       <c r="O8" s="4">
-        <f>$C8*O$1</f>
+        <f t="shared" si="0"/>
         <v>8.32</v>
       </c>
       <c r="P8" s="4">
-        <f>$C8*P$1</f>
+        <f t="shared" si="0"/>
         <v>9.08</v>
       </c>
       <c r="R8" s="4">
-        <f>$E8*R$1</f>
+        <f t="shared" si="1"/>
         <v>106.82</v>
       </c>
       <c r="S8" s="4">
-        <f>$E8*S$1</f>
+        <f t="shared" si="1"/>
         <v>117.6</v>
       </c>
       <c r="T8" s="4">
-        <f>$E8*T$1</f>
+        <f t="shared" si="1"/>
         <v>127.39999999999999</v>
       </c>
       <c r="U8" s="4">
-        <f>$E8*U$1</f>
+        <f t="shared" si="1"/>
         <v>137.19999999999999</v>
       </c>
       <c r="V8" s="4">
-        <f>$E8*V$1</f>
+        <f t="shared" si="1"/>
         <v>176.4</v>
       </c>
       <c r="W8" s="4">
-        <f>$E8*W$1</f>
+        <f t="shared" si="1"/>
         <v>191.1</v>
       </c>
       <c r="X8" s="4">
-        <f>$E8*X$1</f>
+        <f t="shared" si="1"/>
         <v>203.84</v>
       </c>
       <c r="Y8" s="4">
-        <f>$E8*Y$1</f>
+        <f t="shared" si="1"/>
         <v>222.46</v>
       </c>
     </row>
@@ -9711,14 +9723,14 @@
         <v>400</v>
       </c>
       <c r="C9" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="D9" s="24">
         <v>148</v>
       </c>
       <c r="E9" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -9728,67 +9740,67 @@
         <v>348</v>
       </c>
       <c r="I9" s="4">
-        <f>$C9*I$1</f>
+        <f t="shared" si="0"/>
         <v>209.28</v>
       </c>
       <c r="J9" s="4">
-        <f>$C9*J$1</f>
+        <f t="shared" si="0"/>
         <v>230.39999999999998</v>
       </c>
       <c r="K9" s="4">
-        <f>$C9*K$1</f>
+        <f t="shared" si="0"/>
         <v>249.6</v>
       </c>
       <c r="L9" s="4">
-        <f>$C9*L$1</f>
+        <f t="shared" si="0"/>
         <v>268.8</v>
       </c>
       <c r="M9" s="4">
-        <f>$C9*M$1</f>
+        <f t="shared" si="0"/>
         <v>345.59999999999997</v>
       </c>
       <c r="N9" s="4">
-        <f>$C9*N$1</f>
+        <f t="shared" si="0"/>
         <v>374.4</v>
       </c>
       <c r="O9" s="4">
-        <f>$C9*O$1</f>
+        <f t="shared" si="0"/>
         <v>399.36</v>
       </c>
       <c r="P9" s="4">
-        <f>$C9*P$1</f>
+        <f t="shared" si="0"/>
         <v>435.84</v>
       </c>
       <c r="R9" s="4">
-        <f>$E9*R$1</f>
+        <f t="shared" si="1"/>
         <v>78.48</v>
       </c>
       <c r="S9" s="4">
-        <f>$E9*S$1</f>
+        <f t="shared" si="1"/>
         <v>86.399999999999991</v>
       </c>
       <c r="T9" s="4">
-        <f>$E9*T$1</f>
+        <f t="shared" si="1"/>
         <v>93.6</v>
       </c>
       <c r="U9" s="4">
-        <f>$E9*U$1</f>
+        <f t="shared" si="1"/>
         <v>100.8</v>
       </c>
       <c r="V9" s="4">
-        <f>$E9*V$1</f>
+        <f t="shared" si="1"/>
         <v>129.6</v>
       </c>
       <c r="W9" s="4">
-        <f>$E9*W$1</f>
+        <f t="shared" si="1"/>
         <v>140.4</v>
       </c>
       <c r="X9" s="4">
-        <f>$E9*X$1</f>
+        <f t="shared" si="1"/>
         <v>149.76</v>
       </c>
       <c r="Y9" s="4">
-        <f>$E9*Y$1</f>
+        <f t="shared" si="1"/>
         <v>163.44</v>
       </c>
       <c r="AB9" s="9" t="s">
@@ -9813,14 +9825,14 @@
         <v>104</v>
       </c>
       <c r="C10" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="D10" s="24">
         <v>203</v>
       </c>
       <c r="E10" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.49</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -9830,67 +9842,67 @@
         <v>348</v>
       </c>
       <c r="I10" s="4">
-        <f>$C10*I$1</f>
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
       <c r="J10" s="4">
-        <f>$C10*J$1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K10" s="4">
-        <f>$C10*K$1</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="L10" s="4">
-        <f>$C10*L$1</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="M10" s="4">
-        <f>$C10*M$1</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="N10" s="4">
-        <f>$C10*N$1</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="O10" s="4">
-        <f>$C10*O$1</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="P10" s="4">
-        <f>$C10*P$1</f>
+        <f t="shared" si="0"/>
         <v>113.5</v>
       </c>
       <c r="R10" s="4">
-        <f>$E10*R$1</f>
+        <f t="shared" si="1"/>
         <v>106.82</v>
       </c>
       <c r="S10" s="4">
-        <f>$E10*S$1</f>
+        <f t="shared" si="1"/>
         <v>117.6</v>
       </c>
       <c r="T10" s="4">
-        <f>$E10*T$1</f>
+        <f t="shared" si="1"/>
         <v>127.39999999999999</v>
       </c>
       <c r="U10" s="4">
-        <f>$E10*U$1</f>
+        <f t="shared" si="1"/>
         <v>137.19999999999999</v>
       </c>
       <c r="V10" s="4">
-        <f>$E10*V$1</f>
+        <f t="shared" si="1"/>
         <v>176.4</v>
       </c>
       <c r="W10" s="4">
-        <f>$E10*W$1</f>
+        <f t="shared" si="1"/>
         <v>191.1</v>
       </c>
       <c r="X10" s="4">
-        <f>$E10*X$1</f>
+        <f t="shared" si="1"/>
         <v>203.84</v>
       </c>
       <c r="Y10" s="4">
-        <f>$E10*Y$1</f>
+        <f t="shared" si="1"/>
         <v>222.46</v>
       </c>
       <c r="AB10" s="12" t="s">
@@ -9915,14 +9927,14 @@
         <v>73</v>
       </c>
       <c r="C11" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
       <c r="D11" s="24">
         <v>324</v>
       </c>
       <c r="E11" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -9932,67 +9944,67 @@
         <v>351</v>
       </c>
       <c r="I11" s="4">
-        <f>$C11*I$1</f>
+        <f t="shared" si="0"/>
         <v>39.24</v>
       </c>
       <c r="J11" s="4">
-        <f>$C11*J$1</f>
+        <f t="shared" si="0"/>
         <v>43.199999999999996</v>
       </c>
       <c r="K11" s="4">
-        <f>$C11*K$1</f>
+        <f t="shared" si="0"/>
         <v>46.8</v>
       </c>
       <c r="L11" s="4">
-        <f>$C11*L$1</f>
+        <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
       <c r="M11" s="4">
-        <f>$C11*M$1</f>
+        <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
       <c r="N11" s="4">
-        <f>$C11*N$1</f>
+        <f t="shared" si="0"/>
         <v>70.2</v>
       </c>
       <c r="O11" s="4">
-        <f>$C11*O$1</f>
+        <f t="shared" si="0"/>
         <v>74.88</v>
       </c>
       <c r="P11" s="4">
-        <f>$C11*P$1</f>
+        <f t="shared" si="0"/>
         <v>81.72</v>
       </c>
       <c r="R11" s="4">
-        <f>$E11*R$1</f>
+        <f t="shared" si="1"/>
         <v>170.04</v>
       </c>
       <c r="S11" s="4">
-        <f>$E11*S$1</f>
+        <f t="shared" si="1"/>
         <v>187.20000000000002</v>
       </c>
       <c r="T11" s="4">
-        <f>$E11*T$1</f>
+        <f t="shared" si="1"/>
         <v>202.8</v>
       </c>
       <c r="U11" s="4">
-        <f>$E11*U$1</f>
+        <f t="shared" si="1"/>
         <v>218.4</v>
       </c>
       <c r="V11" s="4">
-        <f>$E11*V$1</f>
+        <f t="shared" si="1"/>
         <v>280.8</v>
       </c>
       <c r="W11" s="4">
-        <f>$E11*W$1</f>
+        <f t="shared" si="1"/>
         <v>304.2</v>
       </c>
       <c r="X11" s="4">
-        <f>$E11*X$1</f>
+        <f t="shared" si="1"/>
         <v>324.48</v>
       </c>
       <c r="Y11" s="4">
-        <f>$E11*Y$1</f>
+        <f t="shared" si="1"/>
         <v>354.12</v>
       </c>
       <c r="AB11" s="15" t="s">
@@ -10017,14 +10029,14 @@
         <v>345</v>
       </c>
       <c r="C12" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.83</v>
       </c>
       <c r="D12" s="24">
         <v>324</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -10034,67 +10046,67 @@
         <v>348</v>
       </c>
       <c r="I12" s="4">
-        <f>$C12*I$1</f>
+        <f t="shared" si="0"/>
         <v>180.94</v>
       </c>
       <c r="J12" s="4">
-        <f>$C12*J$1</f>
+        <f t="shared" si="0"/>
         <v>199.2</v>
       </c>
       <c r="K12" s="4">
-        <f>$C12*K$1</f>
+        <f t="shared" si="0"/>
         <v>215.79999999999998</v>
       </c>
       <c r="L12" s="4">
-        <f>$C12*L$1</f>
+        <f t="shared" si="0"/>
         <v>232.39999999999998</v>
       </c>
       <c r="M12" s="4">
-        <f>$C12*M$1</f>
+        <f t="shared" si="0"/>
         <v>298.8</v>
       </c>
       <c r="N12" s="4">
-        <f>$C12*N$1</f>
+        <f t="shared" si="0"/>
         <v>323.7</v>
       </c>
       <c r="O12" s="4">
-        <f>$C12*O$1</f>
+        <f t="shared" si="0"/>
         <v>345.28</v>
       </c>
       <c r="P12" s="4">
-        <f>$C12*P$1</f>
+        <f t="shared" si="0"/>
         <v>376.82</v>
       </c>
       <c r="R12" s="4">
-        <f>$E12*R$1</f>
+        <f t="shared" si="1"/>
         <v>170.04</v>
       </c>
       <c r="S12" s="4">
-        <f>$E12*S$1</f>
+        <f t="shared" si="1"/>
         <v>187.20000000000002</v>
       </c>
       <c r="T12" s="4">
-        <f>$E12*T$1</f>
+        <f t="shared" si="1"/>
         <v>202.8</v>
       </c>
       <c r="U12" s="4">
-        <f>$E12*U$1</f>
+        <f t="shared" si="1"/>
         <v>218.4</v>
       </c>
       <c r="V12" s="4">
-        <f>$E12*V$1</f>
+        <f t="shared" si="1"/>
         <v>280.8</v>
       </c>
       <c r="W12" s="4">
-        <f>$E12*W$1</f>
+        <f t="shared" si="1"/>
         <v>304.2</v>
       </c>
       <c r="X12" s="4">
-        <f>$E12*X$1</f>
+        <f t="shared" si="1"/>
         <v>324.48</v>
       </c>
       <c r="Y12" s="4">
-        <f>$E12*Y$1</f>
+        <f t="shared" si="1"/>
         <v>354.12</v>
       </c>
       <c r="AB12" s="12" t="s">
@@ -10119,14 +10131,14 @@
         <v>208</v>
       </c>
       <c r="C13" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="D13" s="24">
         <v>382</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92</v>
       </c>
       <c r="F13" s="21" t="s">
@@ -10136,67 +10148,67 @@
         <v>345</v>
       </c>
       <c r="I13" s="4">
-        <f>$C13*I$1</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="J13" s="4">
-        <f>$C13*J$1</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="K13" s="4">
-        <f>$C13*K$1</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="L13" s="4">
-        <f>$C13*L$1</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="M13" s="4">
-        <f>$C13*M$1</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="N13" s="4">
-        <f>$C13*N$1</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="O13" s="4">
-        <f>$C13*O$1</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="P13" s="4">
-        <f>$C13*P$1</f>
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
       <c r="R13" s="4">
-        <f>$E13*R$1</f>
+        <f t="shared" si="1"/>
         <v>200.56</v>
       </c>
       <c r="S13" s="4">
-        <f>$E13*S$1</f>
+        <f t="shared" si="1"/>
         <v>220.8</v>
       </c>
       <c r="T13" s="4">
-        <f>$E13*T$1</f>
+        <f t="shared" si="1"/>
         <v>239.20000000000002</v>
       </c>
       <c r="U13" s="4">
-        <f>$E13*U$1</f>
+        <f t="shared" si="1"/>
         <v>257.60000000000002</v>
       </c>
       <c r="V13" s="4">
-        <f>$E13*V$1</f>
+        <f t="shared" si="1"/>
         <v>331.2</v>
       </c>
       <c r="W13" s="4">
-        <f>$E13*W$1</f>
+        <f t="shared" si="1"/>
         <v>358.8</v>
       </c>
       <c r="X13" s="4">
-        <f>$E13*X$1</f>
+        <f t="shared" si="1"/>
         <v>382.72</v>
       </c>
       <c r="Y13" s="4">
-        <f>$E13*Y$1</f>
+        <f t="shared" si="1"/>
         <v>417.68</v>
       </c>
       <c r="AB13" s="15" t="s">
@@ -10221,14 +10233,14 @@
         <v>386</v>
       </c>
       <c r="C14" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
       <c r="D14" s="24">
         <v>274</v>
       </c>
       <c r="E14" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="F14" s="21" t="s">
@@ -10238,67 +10250,67 @@
         <v>351</v>
       </c>
       <c r="I14" s="4">
-        <f>$C14*I$1</f>
+        <f t="shared" si="0"/>
         <v>202.74</v>
       </c>
       <c r="J14" s="4">
-        <f>$C14*J$1</f>
+        <f t="shared" si="0"/>
         <v>223.20000000000002</v>
       </c>
       <c r="K14" s="4">
-        <f>$C14*K$1</f>
+        <f t="shared" si="0"/>
         <v>241.8</v>
       </c>
       <c r="L14" s="4">
-        <f>$C14*L$1</f>
+        <f t="shared" si="0"/>
         <v>260.40000000000003</v>
       </c>
       <c r="M14" s="4">
-        <f>$C14*M$1</f>
+        <f t="shared" si="0"/>
         <v>334.8</v>
       </c>
       <c r="N14" s="4">
-        <f>$C14*N$1</f>
+        <f t="shared" si="0"/>
         <v>362.70000000000005</v>
       </c>
       <c r="O14" s="4">
-        <f>$C14*O$1</f>
+        <f t="shared" si="0"/>
         <v>386.88</v>
       </c>
       <c r="P14" s="4">
-        <f>$C14*P$1</f>
+        <f t="shared" si="0"/>
         <v>422.22</v>
       </c>
       <c r="R14" s="4">
-        <f>$E14*R$1</f>
+        <f t="shared" si="1"/>
         <v>143.88</v>
       </c>
       <c r="S14" s="4">
-        <f>$E14*S$1</f>
+        <f t="shared" si="1"/>
         <v>158.4</v>
       </c>
       <c r="T14" s="4">
-        <f>$E14*T$1</f>
+        <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
       <c r="U14" s="4">
-        <f>$E14*U$1</f>
+        <f t="shared" si="1"/>
         <v>184.8</v>
       </c>
       <c r="V14" s="4">
-        <f>$E14*V$1</f>
+        <f t="shared" si="1"/>
         <v>237.60000000000002</v>
       </c>
       <c r="W14" s="4">
-        <f>$E14*W$1</f>
+        <f t="shared" si="1"/>
         <v>257.40000000000003</v>
       </c>
       <c r="X14" s="4">
-        <f>$E14*X$1</f>
+        <f t="shared" si="1"/>
         <v>274.56</v>
       </c>
       <c r="Y14" s="4">
-        <f>$E14*Y$1</f>
+        <f t="shared" si="1"/>
         <v>299.64</v>
       </c>
       <c r="AB14" s="12" t="s">
@@ -10381,7 +10393,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="str">
-        <f t="shared" ref="A19:A31" si="1">""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
+        <f t="shared" ref="A19:A31" si="3">""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
         <v>"date"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B19" s="22"/>
@@ -10401,7 +10413,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"heure"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B20" s="22"/>
@@ -10421,7 +10433,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"notif"=&gt;(0.12 * largeurEcran),</v>
       </c>
       <c r="B21" s="22"/>
@@ -10441,7 +10453,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"BG"=&gt;(0.75 * largeurEcran),</v>
       </c>
       <c r="B22" s="22"/>
@@ -10461,7 +10473,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"Delta"=&gt;(0.24 * largeurEcran),</v>
       </c>
       <c r="B23" s="22"/>
@@ -10481,7 +10493,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"Elapsed"=&gt;(0.96 * largeurEcran),</v>
       </c>
       <c r="B24" s="22"/>
@@ -10501,7 +10513,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"ProvenanceBG"=&gt;(0.02 * largeurEcran),</v>
       </c>
       <c r="B25" s="22"/>
@@ -10521,7 +10533,7 @@
     </row>
     <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"Secondes"=&gt;(0.96 * largeurEcran),</v>
       </c>
       <c r="B26" s="22"/>
@@ -10541,35 +10553,35 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"NextCall"=&gt;(0.25 * largeurEcran),</v>
       </c>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"Temperature"=&gt;(0.18 * largeurEcran),</v>
       </c>
       <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"Wind"=&gt;(0.83 * largeurEcran),</v>
       </c>
       <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"Batterie"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>"labelMin"=&gt;(0.93 * largeurEcran),</v>
       </c>
       <c r="B31" s="22"/>
@@ -10599,84 +10611,84 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="str">
-        <f t="shared" ref="A36:A47" si="2">""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
+        <f t="shared" ref="A36:A47" si="4">""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
         <v>"heure"=&gt;0.31 * hauteurEcran,</v>
       </c>
       <c r="B36" s="22"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"notif"=&gt;0.39 * hauteurEcran,</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"BG"=&gt;0.58 * hauteurEcran,</v>
       </c>
       <c r="B38" s="22"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"Delta"=&gt;0.6 * hauteurEcran,</v>
       </c>
       <c r="B39" s="22"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"Elapsed"=&gt;0.55 * hauteurEcran,</v>
       </c>
       <c r="B40" s="22"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"ProvenanceBG"=&gt;0.49 * hauteurEcran,</v>
       </c>
       <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"Secondes"=&gt;0.36 * hauteurEcran,</v>
       </c>
       <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"NextCall"=&gt;0.49 * hauteurEcran,</v>
       </c>
       <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"Temperature"=&gt;0.78 * hauteurEcran,</v>
       </c>
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"Wind"=&gt;0.78 * hauteurEcran,</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"Batterie"=&gt;0.92 * hauteurEcran,</v>
       </c>
       <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>"labelMin"=&gt;0.66 * hauteurEcran,</v>
       </c>
       <c r="B47" s="22"/>
@@ -10699,91 +10711,91 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="str">
-        <f t="shared" ref="A51:A63" si="3">""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
+        <f t="shared" ref="A51:A63" si="5">""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
         <v>"date"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"heure"=&gt;Gfx.FONT_NUMBER_HOT,</v>
       </c>
       <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"notif"=&gt;Gfx.FONT_MEDIUM,</v>
       </c>
       <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"BG"=&gt;Gfx.FONT_NUMBER_HOT,</v>
       </c>
       <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"Delta"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"Elapsed"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"ProvenanceBG"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"Secondes"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"NextCall"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"Temperature"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"Wind"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"Batterie"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B62" s="22"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>"labelMin"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B63" s="22"/>
@@ -10813,84 +10825,84 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="str">
-        <f t="shared" ref="A68:A79" si="4">""""&amp;A3&amp;"""=&gt;"&amp;G3&amp;","</f>
+        <f t="shared" ref="A68:A79" si="6">""""&amp;A3&amp;"""=&gt;"&amp;G3&amp;","</f>
         <v>"heure"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B68" s="22"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"notif"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B69" s="22"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"BG"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B70" s="22"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Delta"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Elapsed"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"ProvenanceBG"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Secondes"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B74" s="22"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"NextCall"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Temperature"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Wind"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Batterie"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B78" s="22"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"labelMin"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B79" s="22"/>
@@ -12220,8 +12232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12267,22 +12279,22 @@
         <v>1744806142000</v>
       </c>
       <c r="B2">
-        <f>A2/1000/60/60/24</f>
+        <f t="shared" ref="B2:B12" si="0">A2/1000/60/60/24</f>
         <v>20194.515532407408</v>
       </c>
       <c r="C2" s="6">
-        <f>TRUNC((B2)+DATE(1970,1,1),0)</f>
+        <f t="shared" ref="C2:C12" si="1">TRUNC((B2)+DATE(1970,1,1),0)</f>
         <v>45763</v>
       </c>
       <c r="D2" s="7">
-        <f>B2-TRUNC(B2,0)</f>
+        <f t="shared" ref="D2:D12" si="2">B2-TRUNC(B2,0)</f>
         <v>0.51553240740759065</v>
       </c>
       <c r="E2" s="7">
-        <f>D2+1/12</f>
+        <f t="shared" ref="E2:E12" si="3">D2+1/12</f>
         <v>0.59886574074092402</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <v>1744698759</v>
       </c>
       <c r="I2">
@@ -12307,22 +12319,22 @@
         <v>1744806293000</v>
       </c>
       <c r="B3">
-        <f>A3/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.51728009259</v>
       </c>
       <c r="C3" s="6">
-        <f>TRUNC((B3)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D3" s="7">
-        <f>B3-TRUNC(B3,0)</f>
+        <f t="shared" si="2"/>
         <v>0.51728009259022656</v>
       </c>
       <c r="E3" s="7">
-        <f>D3+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.60061342592355993</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <v>1744804492</v>
       </c>
       <c r="I3">
@@ -12347,22 +12359,22 @@
         <v>1744806293000</v>
       </c>
       <c r="B4">
-        <f>A4/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.51728009259</v>
       </c>
       <c r="C4" s="6">
-        <f>TRUNC((B4)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D4" s="7">
-        <f>B4-TRUNC(B4,0)</f>
+        <f t="shared" si="2"/>
         <v>0.51728009259022656</v>
       </c>
       <c r="E4" s="7">
-        <f>D4+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.60061342592355993</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>1744814539</v>
       </c>
       <c r="I4">
@@ -12387,22 +12399,22 @@
         <v>1744806442000</v>
       </c>
       <c r="B5">
-        <f>A5/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.51900462963</v>
       </c>
       <c r="C5" s="6">
-        <f>TRUNC((B5)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D5" s="7">
-        <f>B5-TRUNC(B5,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5190046296302171</v>
       </c>
       <c r="E5" s="7">
-        <f>D5+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.60233796296355047</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>1744817093</v>
       </c>
       <c r="I5">
@@ -12427,19 +12439,19 @@
         <v>1744806442000</v>
       </c>
       <c r="B6">
-        <f>A6/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.51900462963</v>
       </c>
       <c r="C6" s="6">
-        <f>TRUNC((B6)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D6" s="7">
-        <f>B6-TRUNC(B6,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5190046296302171</v>
       </c>
       <c r="E6" s="7">
-        <f>D6+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.60233796296355047</v>
       </c>
     </row>
@@ -12448,20 +12460,26 @@
         <v>1744806592000</v>
       </c>
       <c r="B7">
-        <f>A7/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.52074074074</v>
       </c>
       <c r="C7" s="6">
-        <f>TRUNC((B7)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D7" s="7">
-        <f>B7-TRUNC(B7,0)</f>
+        <f t="shared" si="2"/>
         <v>0.52074074073971133</v>
       </c>
       <c r="E7" s="7">
-        <f>D7+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.6040740740730447</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1746796363180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -12469,20 +12487,26 @@
         <v>1744806592000</v>
       </c>
       <c r="B8">
-        <f>A8/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.52074074074</v>
       </c>
       <c r="C8" s="6">
-        <f>TRUNC((B8)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D8" s="7">
-        <f>B8-TRUNC(B8,0)</f>
+        <f t="shared" si="2"/>
         <v>0.52074074073971133</v>
       </c>
       <c r="E8" s="7">
-        <f>D8+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.6040740740730447</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1744817093</v>
+      </c>
+      <c r="I8" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -12490,19 +12514,19 @@
         <v>1744806742000</v>
       </c>
       <c r="B9">
-        <f>A9/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.522476851853</v>
       </c>
       <c r="C9" s="6">
-        <f>TRUNC((B9)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D9" s="7">
-        <f>B9-TRUNC(B9,0)</f>
+        <f t="shared" si="2"/>
         <v>0.52247685185284354</v>
       </c>
       <c r="E9" s="7">
-        <f>D9+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.60581018518617691</v>
       </c>
     </row>
@@ -12511,27 +12535,69 @@
         <v>1744813193000</v>
       </c>
       <c r="B10">
-        <f>A10/1000/60/60/24</f>
+        <f t="shared" si="0"/>
         <v>20194.597141203703</v>
       </c>
       <c r="C10" s="6">
-        <f>TRUNC((B10)+DATE(1970,1,1),0)</f>
+        <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D10" s="7">
-        <f>B10-TRUNC(B10,0)</f>
+        <f t="shared" si="2"/>
         <v>0.59714120370335877</v>
       </c>
       <c r="E10" s="7">
-        <f>D10+1/12</f>
+        <f t="shared" si="3"/>
         <v>0.68047453703669214</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1746687349622</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>20216.288768773149</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>45785</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28876877314905869</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.372102106482392</v>
+      </c>
+      <c r="F11" t="s">
+        <v>571</v>
+      </c>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="4">
+        <v>1746686742872</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>20216.281746203702</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>45785</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28174620370191406</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.36507953703524737</v>
+      </c>
+      <c r="F12" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>

--- a/Modèles.xlsx
+++ b/Modèles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="modèles" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="574">
   <si>
     <t>deviceId</t>
   </si>
@@ -1055,9 +1055,6 @@
   </si>
   <si>
     <t>Secondes</t>
-  </si>
-  <si>
-    <t>NextCall</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -2705,25 +2702,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -2732,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2759,7 +2756,7 @@
         <v>65536</v>
       </c>
       <c r="L2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M2" t="str">
         <f>IFERROR(VLOOKUP(A2,manifest!A:A,1,0),"")</f>
@@ -2775,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -2784,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -2805,7 +2802,7 @@
         <v>32768</v>
       </c>
       <c r="L3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M3" t="str">
         <f>IFERROR(VLOOKUP(A3,manifest!A:A,1,0),"")</f>
@@ -2821,7 +2818,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2851,7 +2848,7 @@
         <v>65536</v>
       </c>
       <c r="L4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M4" t="str">
         <f>IFERROR(VLOOKUP(A4,manifest!A:A,1,0),"")</f>
@@ -2867,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2897,7 +2894,7 @@
         <v>65536</v>
       </c>
       <c r="L5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M5" t="str">
         <f>IFERROR(VLOOKUP(A5,manifest!A:A,1,0),"")</f>
@@ -2913,7 +2910,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2943,7 +2940,7 @@
         <v>65536</v>
       </c>
       <c r="L6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(VLOOKUP(A6,manifest!A:A,1,0),"")</f>
@@ -2989,7 +2986,7 @@
         <v>32768</v>
       </c>
       <c r="L7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M7" t="str">
         <f>IFERROR(VLOOKUP(A7,manifest!A:A,1,0),"")</f>
@@ -3005,7 +3002,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -3035,7 +3032,7 @@
         <v>65536</v>
       </c>
       <c r="L8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M8" t="str">
         <f>IFERROR(VLOOKUP(A8,manifest!A:A,1,0),"")</f>
@@ -3051,7 +3048,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -3081,7 +3078,7 @@
         <v>65536</v>
       </c>
       <c r="L9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M9" t="str">
         <f>IFERROR(VLOOKUP(A9,manifest!A:A,1,0),"")</f>
@@ -3097,7 +3094,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -3127,7 +3124,7 @@
         <v>65536</v>
       </c>
       <c r="L10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M10" t="str">
         <f>IFERROR(VLOOKUP(A10,manifest!A:A,1,0),"")</f>
@@ -3143,7 +3140,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -3173,7 +3170,7 @@
         <v>65536</v>
       </c>
       <c r="L11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M11" t="str">
         <f>IFERROR(VLOOKUP(A11,manifest!A:A,1,0),"")</f>
@@ -3189,7 +3186,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -3219,7 +3216,7 @@
         <v>32768</v>
       </c>
       <c r="L12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M12" t="str">
         <f>IFERROR(VLOOKUP(A12,manifest!A:A,1,0),"")</f>
@@ -3235,7 +3232,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3265,7 +3262,7 @@
         <v>32768</v>
       </c>
       <c r="L13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M13" t="str">
         <f>IFERROR(VLOOKUP(A13,manifest!A:A,1,0),"")</f>
@@ -3281,7 +3278,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -3311,7 +3308,7 @@
         <v>32768</v>
       </c>
       <c r="L14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M14" t="str">
         <f>IFERROR(VLOOKUP(A14,manifest!A:A,1,0),"")</f>
@@ -3327,7 +3324,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -3357,7 +3354,7 @@
         <v>32768</v>
       </c>
       <c r="L15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M15" t="str">
         <f>IFERROR(VLOOKUP(A15,manifest!A:A,1,0),"")</f>
@@ -3373,7 +3370,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -3382,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -3403,14 +3400,14 @@
         <v>65536</v>
       </c>
       <c r="L16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M16" t="str">
         <f>IFERROR(VLOOKUP(A16,manifest!A:A,1,0),"")</f>
         <v>d2mach1</v>
       </c>
       <c r="N16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3418,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -3448,7 +3445,7 @@
         <v>32768</v>
       </c>
       <c r="L17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M17" t="str">
         <f>IFERROR(VLOOKUP(A17,manifest!A:A,1,0),"")</f>
@@ -3464,7 +3461,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3494,14 +3491,14 @@
         <v>65536</v>
       </c>
       <c r="L18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M18" t="str">
         <f>IFERROR(VLOOKUP(A18,manifest!A:A,1,0),"")</f>
         <v>descentg2</v>
       </c>
       <c r="N18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3509,7 +3506,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -3518,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
         <v>64</v>
@@ -3539,7 +3536,7 @@
         <v>32768</v>
       </c>
       <c r="L19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M19" t="str">
         <f>IFERROR(VLOOKUP(A19,manifest!A:A,1,0),"")</f>
@@ -3555,7 +3552,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -3585,14 +3582,14 @@
         <v>32768</v>
       </c>
       <c r="L20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M20" t="str">
         <f>IFERROR(VLOOKUP(A20,manifest!A:A,1,0),"")</f>
         <v>descentmk2</v>
       </c>
       <c r="N20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3600,7 +3597,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -3630,14 +3627,14 @@
         <v>32768</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M21" t="str">
         <f>IFERROR(VLOOKUP(A21,manifest!A:A,1,0),"")</f>
         <v>descentmk2s</v>
       </c>
       <c r="N21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3645,7 +3642,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -3675,14 +3672,14 @@
         <v>65536</v>
       </c>
       <c r="L22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M22" t="str">
         <f>IFERROR(VLOOKUP(A22,manifest!A:A,1,0),"")</f>
         <v>descentmk343mm</v>
       </c>
       <c r="N22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3690,7 +3687,7 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3720,14 +3717,14 @@
         <v>65536</v>
       </c>
       <c r="L23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M23" t="str">
         <f>IFERROR(VLOOKUP(A23,manifest!A:A,1,0),"")</f>
         <v>descentmk351mm</v>
       </c>
       <c r="N23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3735,7 +3732,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -3765,14 +3762,14 @@
         <v>32768</v>
       </c>
       <c r="L24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M24" t="str">
         <f>IFERROR(VLOOKUP(A24,manifest!A:A,1,0),"")</f>
         <v>enduro</v>
       </c>
       <c r="N24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3780,7 +3777,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -3789,7 +3786,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F25" t="s">
         <v>80</v>
@@ -3810,14 +3807,14 @@
         <v>65536</v>
       </c>
       <c r="L25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(VLOOKUP(A25,manifest!A:A,1,0),"")</f>
         <v>enduro3</v>
       </c>
       <c r="N25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3825,7 +3822,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" t="s">
         <v>82</v>
@@ -3855,7 +3852,7 @@
         <v>65536</v>
       </c>
       <c r="L26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M26" t="str">
         <f>IFERROR(VLOOKUP(A26,manifest!A:A,1,0),"")</f>
@@ -3871,7 +3868,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -3880,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F27" t="s">
         <v>86</v>
@@ -3901,14 +3898,14 @@
         <v>65536</v>
       </c>
       <c r="L27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M27" t="str">
         <f>IFERROR(VLOOKUP(A27,manifest!A:A,1,0),"")</f>
         <v>epix2</v>
       </c>
       <c r="N27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3916,7 +3913,7 @@
         <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -3925,7 +3922,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
@@ -3946,14 +3943,14 @@
         <v>65536</v>
       </c>
       <c r="L28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M28" t="str">
         <f>IFERROR(VLOOKUP(A28,manifest!A:A,1,0),"")</f>
         <v>epix2pro42mm</v>
       </c>
       <c r="N28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3961,7 +3958,7 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -3970,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F29" t="s">
         <v>90</v>
@@ -3991,14 +3988,14 @@
         <v>65536</v>
       </c>
       <c r="L29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M29" t="str">
         <f>IFERROR(VLOOKUP(A29,manifest!A:A,1,0),"")</f>
         <v>epix2pro47mm</v>
       </c>
       <c r="N29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4006,7 +4003,7 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -4015,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F30" t="s">
         <v>92</v>
@@ -4036,14 +4033,14 @@
         <v>65536</v>
       </c>
       <c r="L30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M30" t="str">
         <f>IFERROR(VLOOKUP(A30,manifest!A:A,1,0),"")</f>
         <v>epix2pro51mm</v>
       </c>
       <c r="N30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4051,7 +4048,7 @@
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -4081,7 +4078,7 @@
         <v>65536</v>
       </c>
       <c r="L31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M31" t="str">
         <f>IFERROR(VLOOKUP(A31,manifest!A:A,1,0),"")</f>
@@ -4097,7 +4094,7 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -4127,7 +4124,7 @@
         <v>65536</v>
       </c>
       <c r="L32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M32" t="str">
         <f>IFERROR(VLOOKUP(A32,manifest!A:A,1,0),"")</f>
@@ -4143,7 +4140,7 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -4173,7 +4170,7 @@
         <v>32768</v>
       </c>
       <c r="L33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M33" t="str">
         <f>IFERROR(VLOOKUP(A33,manifest!A:A,1,0),"")</f>
@@ -4189,7 +4186,7 @@
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -4219,14 +4216,14 @@
         <v>32768</v>
       </c>
       <c r="L34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M34" t="str">
         <f>IFERROR(VLOOKUP(A34,manifest!A:A,1,0),"")</f>
         <v>fenix5plus</v>
       </c>
       <c r="N34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4234,7 +4231,7 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
@@ -4264,7 +4261,7 @@
         <v>32768</v>
       </c>
       <c r="L35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M35" t="str">
         <f>IFERROR(VLOOKUP(A35,manifest!A:A,1,0),"")</f>
@@ -4280,7 +4277,7 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -4310,14 +4307,14 @@
         <v>32768</v>
       </c>
       <c r="L36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M36" t="str">
         <f>IFERROR(VLOOKUP(A36,manifest!A:A,1,0),"")</f>
         <v>fenix5splus</v>
       </c>
       <c r="N36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4325,7 +4322,7 @@
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -4355,7 +4352,7 @@
         <v>32768</v>
       </c>
       <c r="L37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M37" t="str">
         <f>IFERROR(VLOOKUP(A37,manifest!A:A,1,0),"")</f>
@@ -4371,7 +4368,7 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -4401,14 +4398,14 @@
         <v>32768</v>
       </c>
       <c r="L38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M38" t="str">
         <f>IFERROR(VLOOKUP(A38,manifest!A:A,1,0),"")</f>
         <v>fenix5xplus</v>
       </c>
       <c r="N38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4416,7 +4413,7 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
@@ -4446,14 +4443,14 @@
         <v>32768</v>
       </c>
       <c r="L39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M39" t="str">
         <f>IFERROR(VLOOKUP(A39,manifest!A:A,1,0),"")</f>
         <v>fenix6</v>
       </c>
       <c r="N39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4461,7 +4458,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -4491,14 +4488,14 @@
         <v>32768</v>
       </c>
       <c r="L40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M40" t="str">
         <f>IFERROR(VLOOKUP(A40,manifest!A:A,1,0),"")</f>
         <v>fenix6pro</v>
       </c>
       <c r="N40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4506,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -4536,14 +4533,14 @@
         <v>32768</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M41" t="str">
         <f>IFERROR(VLOOKUP(A41,manifest!A:A,1,0),"")</f>
         <v>fenix6s</v>
       </c>
       <c r="N41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4551,7 +4548,7 @@
         <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -4581,14 +4578,14 @@
         <v>32768</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(VLOOKUP(A42,manifest!A:A,1,0),"")</f>
         <v>fenix6spro</v>
       </c>
       <c r="N42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4596,7 +4593,7 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -4626,14 +4623,14 @@
         <v>32768</v>
       </c>
       <c r="L43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M43" t="str">
         <f>IFERROR(VLOOKUP(A43,manifest!A:A,1,0),"")</f>
         <v>fenix6xpro</v>
       </c>
       <c r="N43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4641,7 +4638,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -4650,7 +4647,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F44" t="s">
         <v>123</v>
@@ -4671,14 +4668,14 @@
         <v>65536</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M44" t="str">
         <f>IFERROR(VLOOKUP(A44,manifest!A:A,1,0),"")</f>
         <v>fenix7</v>
       </c>
       <c r="N44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4686,7 +4683,7 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -4695,7 +4692,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F45" t="s">
         <v>125</v>
@@ -4716,14 +4713,14 @@
         <v>65536</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M45" t="str">
         <f>IFERROR(VLOOKUP(A45,manifest!A:A,1,0),"")</f>
         <v>fenix7pro</v>
       </c>
       <c r="N45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4731,7 +4728,7 @@
         <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -4740,7 +4737,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F46" t="s">
         <v>127</v>
@@ -4761,14 +4758,14 @@
         <v>65536</v>
       </c>
       <c r="L46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M46" t="str">
         <f>IFERROR(VLOOKUP(A46,manifest!A:A,1,0),"")</f>
         <v>fenix7pronowifi</v>
       </c>
       <c r="N46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -4776,7 +4773,7 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -4785,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F47" t="s">
         <v>129</v>
@@ -4806,14 +4803,14 @@
         <v>65536</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M47" t="str">
         <f>IFERROR(VLOOKUP(A47,manifest!A:A,1,0),"")</f>
         <v>fenix7s</v>
       </c>
       <c r="N47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4821,7 +4818,7 @@
         <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -4830,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F48" t="s">
         <v>131</v>
@@ -4851,14 +4848,14 @@
         <v>65536</v>
       </c>
       <c r="L48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M48" t="str">
         <f>IFERROR(VLOOKUP(A48,manifest!A:A,1,0),"")</f>
         <v>fenix7spro</v>
       </c>
       <c r="N48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4866,7 +4863,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -4875,7 +4872,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F49" t="s">
         <v>133</v>
@@ -4896,14 +4893,14 @@
         <v>65536</v>
       </c>
       <c r="L49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M49" t="str">
         <f>IFERROR(VLOOKUP(A49,manifest!A:A,1,0),"")</f>
         <v>fenix7x</v>
       </c>
       <c r="N49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4911,7 +4908,7 @@
         <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" t="s">
         <v>66</v>
@@ -4920,7 +4917,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F50" t="s">
         <v>135</v>
@@ -4941,14 +4938,14 @@
         <v>65536</v>
       </c>
       <c r="L50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M50" t="str">
         <f>IFERROR(VLOOKUP(A50,manifest!A:A,1,0),"")</f>
         <v>fenix7xpro</v>
       </c>
       <c r="N50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4956,7 +4953,7 @@
         <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -4965,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
         <v>137</v>
@@ -4986,14 +4983,14 @@
         <v>65536</v>
       </c>
       <c r="L51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M51" t="str">
         <f>IFERROR(VLOOKUP(A51,manifest!A:A,1,0),"")</f>
         <v>fenix7xpronowifi</v>
       </c>
       <c r="N51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -5001,7 +4998,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -5010,7 +5007,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F52" t="s">
         <v>139</v>
@@ -5031,14 +5028,14 @@
         <v>65536</v>
       </c>
       <c r="L52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M52" t="str">
         <f>IFERROR(VLOOKUP(A52,manifest!A:A,1,0),"")</f>
         <v>fenix843mm</v>
       </c>
       <c r="N52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -5046,7 +5043,7 @@
         <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
@@ -5055,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F53" t="s">
         <v>141</v>
@@ -5076,14 +5073,14 @@
         <v>65536</v>
       </c>
       <c r="L53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M53" t="str">
         <f>IFERROR(VLOOKUP(A53,manifest!A:A,1,0),"")</f>
         <v>fenix847mm</v>
       </c>
       <c r="N53" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -5091,7 +5088,7 @@
         <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -5100,7 +5097,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F54" t="s">
         <v>143</v>
@@ -5121,14 +5118,14 @@
         <v>65536</v>
       </c>
       <c r="L54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M54" t="str">
         <f>IFERROR(VLOOKUP(A54,manifest!A:A,1,0),"")</f>
         <v>fenix8solar47mm</v>
       </c>
       <c r="N54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5136,7 +5133,7 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
@@ -5145,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F55" t="s">
         <v>145</v>
@@ -5166,14 +5163,14 @@
         <v>65536</v>
       </c>
       <c r="L55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M55" t="str">
         <f>IFERROR(VLOOKUP(A55,manifest!A:A,1,0),"")</f>
         <v>fenix8solar51mm</v>
       </c>
       <c r="N55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5181,7 +5178,7 @@
         <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
@@ -5211,7 +5208,7 @@
         <v>32768</v>
       </c>
       <c r="L56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M56" t="str">
         <f>IFERROR(VLOOKUP(A56,manifest!A:A,1,0),"")</f>
@@ -5227,7 +5224,7 @@
         <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -5236,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
         <v>149</v>
@@ -5257,14 +5254,14 @@
         <v>65536</v>
       </c>
       <c r="L57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M57" t="str">
         <f>IFERROR(VLOOKUP(A57,manifest!A:A,1,0),"")</f>
         <v>fenixe</v>
       </c>
       <c r="N57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -5272,7 +5269,7 @@
         <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -5281,7 +5278,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
         <v>151</v>
@@ -5302,14 +5299,14 @@
         <v>65536</v>
       </c>
       <c r="L58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M58" t="str">
         <f>IFERROR(VLOOKUP(A58,manifest!A:A,1,0),"")</f>
         <v>fr165</v>
       </c>
       <c r="N58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5317,7 +5314,7 @@
         <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -5326,7 +5323,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F59" t="s">
         <v>153</v>
@@ -5347,14 +5344,14 @@
         <v>65536</v>
       </c>
       <c r="L59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(VLOOKUP(A59,manifest!A:A,1,0),"")</f>
         <v>fr165m</v>
       </c>
       <c r="N59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -5362,7 +5359,7 @@
         <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" t="s">
         <v>155</v>
@@ -5392,7 +5389,7 @@
         <v>65536</v>
       </c>
       <c r="L60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M60" t="str">
         <f>IFERROR(VLOOKUP(A60,manifest!A:A,1,0),"")</f>
@@ -5408,7 +5405,7 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C61" t="s">
         <v>155</v>
@@ -5438,7 +5435,7 @@
         <v>65536</v>
       </c>
       <c r="L61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M61" t="str">
         <f>IFERROR(VLOOKUP(A61,manifest!A:A,1,0),"")</f>
@@ -5454,7 +5451,7 @@
         <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -5484,14 +5481,14 @@
         <v>32768</v>
       </c>
       <c r="L62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M62" t="str">
         <f>IFERROR(VLOOKUP(A62,manifest!A:A,1,0),"")</f>
         <v>fr245</v>
       </c>
       <c r="N62" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -5499,7 +5496,7 @@
         <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -5529,14 +5526,14 @@
         <v>65536</v>
       </c>
       <c r="L63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M63" t="str">
         <f>IFERROR(VLOOKUP(A63,manifest!A:A,1,0),"")</f>
         <v>fr245m</v>
       </c>
       <c r="N63" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -5544,7 +5541,7 @@
         <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -5553,7 +5550,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F64" t="s">
         <v>165</v>
@@ -5574,14 +5571,14 @@
         <v>65536</v>
       </c>
       <c r="L64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M64" t="str">
         <f>IFERROR(VLOOKUP(A64,manifest!A:A,1,0),"")</f>
         <v>fr255</v>
       </c>
       <c r="N64" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5589,7 +5586,7 @@
         <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -5598,7 +5595,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F65" t="s">
         <v>167</v>
@@ -5619,14 +5616,14 @@
         <v>65536</v>
       </c>
       <c r="L65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M65" t="str">
         <f>IFERROR(VLOOKUP(A65,manifest!A:A,1,0),"")</f>
         <v>fr255m</v>
       </c>
       <c r="N65" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -5634,7 +5631,7 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C66" t="s">
         <v>40</v>
@@ -5643,7 +5640,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F66" t="s">
         <v>169</v>
@@ -5664,14 +5661,14 @@
         <v>65536</v>
       </c>
       <c r="L66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(VLOOKUP(A66,manifest!A:A,1,0),"")</f>
         <v>fr255s</v>
       </c>
       <c r="N66" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -5679,7 +5676,7 @@
         <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" t="s">
         <v>40</v>
@@ -5688,7 +5685,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F67" t="s">
         <v>171</v>
@@ -5709,14 +5706,14 @@
         <v>65536</v>
       </c>
       <c r="L67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M67" t="str">
         <f>IFERROR(VLOOKUP(A67,manifest!A:A,1,0),"")</f>
         <v>fr255sm</v>
       </c>
       <c r="N67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -5724,7 +5721,7 @@
         <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
@@ -5733,7 +5730,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F68" t="s">
         <v>173</v>
@@ -5754,14 +5751,14 @@
         <v>65536</v>
       </c>
       <c r="L68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M68" t="str">
         <f>IFERROR(VLOOKUP(A68,manifest!A:A,1,0),"")</f>
         <v>fr265</v>
       </c>
       <c r="N68" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -5769,7 +5766,7 @@
         <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C69" t="s">
         <v>175</v>
@@ -5778,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F69" t="s">
         <v>176</v>
@@ -5799,14 +5796,14 @@
         <v>65536</v>
       </c>
       <c r="L69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M69" t="str">
         <f>IFERROR(VLOOKUP(A69,manifest!A:A,1,0),"")</f>
         <v>fr265s</v>
       </c>
       <c r="N69" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5814,7 +5811,7 @@
         <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C70" t="s">
         <v>178</v>
@@ -5844,7 +5841,7 @@
         <v>65536</v>
       </c>
       <c r="L70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M70" t="str">
         <f>IFERROR(VLOOKUP(A70,manifest!A:A,1,0),"")</f>
@@ -5860,7 +5857,7 @@
         <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C71" t="s">
         <v>178</v>
@@ -5890,7 +5887,7 @@
         <v>32768</v>
       </c>
       <c r="L71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M71" t="str">
         <f>IFERROR(VLOOKUP(A71,manifest!A:A,1,0),"")</f>
@@ -5906,7 +5903,7 @@
         <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -5936,14 +5933,14 @@
         <v>65536</v>
       </c>
       <c r="L72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M72" t="str">
         <f>IFERROR(VLOOKUP(A72,manifest!A:A,1,0),"")</f>
         <v>fr57042mm</v>
       </c>
       <c r="N72" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5951,7 +5948,7 @@
         <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -5981,14 +5978,14 @@
         <v>65536</v>
       </c>
       <c r="L73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M73" t="str">
         <f>IFERROR(VLOOKUP(A73,manifest!A:A,1,0),"")</f>
         <v>fr57047mm</v>
       </c>
       <c r="N73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5996,7 +5993,7 @@
         <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C74" t="s">
         <v>155</v>
@@ -6026,7 +6023,7 @@
         <v>65536</v>
       </c>
       <c r="L74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M74" t="str">
         <f>IFERROR(VLOOKUP(A74,manifest!A:A,1,0),"")</f>
@@ -6042,7 +6039,7 @@
         <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -6072,7 +6069,7 @@
         <v>32768</v>
       </c>
       <c r="L75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M75" t="str">
         <f>IFERROR(VLOOKUP(A75,manifest!A:A,1,0),"")</f>
@@ -6088,7 +6085,7 @@
         <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -6118,14 +6115,14 @@
         <v>65536</v>
       </c>
       <c r="L76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M76" t="str">
         <f>IFERROR(VLOOKUP(A76,manifest!A:A,1,0),"")</f>
         <v>fr645m</v>
       </c>
       <c r="N76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -6133,7 +6130,7 @@
         <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C77" t="s">
         <v>155</v>
@@ -6163,7 +6160,7 @@
         <v>32768</v>
       </c>
       <c r="L77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M77" t="str">
         <f>IFERROR(VLOOKUP(A77,manifest!A:A,1,0),"")</f>
@@ -6179,7 +6176,7 @@
         <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -6209,14 +6206,14 @@
         <v>65536</v>
       </c>
       <c r="L78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(VLOOKUP(A78,manifest!A:A,1,0),"")</f>
         <v>fr745</v>
       </c>
       <c r="N78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -6224,7 +6221,7 @@
         <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -6254,7 +6251,7 @@
         <v>65536</v>
       </c>
       <c r="L79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M79" t="str">
         <f>IFERROR(VLOOKUP(A79,manifest!A:A,1,0),"")</f>
@@ -6270,7 +6267,7 @@
         <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -6300,7 +6297,7 @@
         <v>32768</v>
       </c>
       <c r="L80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M80" t="str">
         <f>IFERROR(VLOOKUP(A80,manifest!A:A,1,0),"")</f>
@@ -6316,7 +6313,7 @@
         <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -6346,14 +6343,14 @@
         <v>65536</v>
       </c>
       <c r="L81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M81" t="str">
         <f>IFERROR(VLOOKUP(A81,manifest!A:A,1,0),"")</f>
         <v>fr945</v>
       </c>
       <c r="N81" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -6361,7 +6358,7 @@
         <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -6391,14 +6388,14 @@
         <v>65536</v>
       </c>
       <c r="L82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M82" t="str">
         <f>IFERROR(VLOOKUP(A82,manifest!A:A,1,0),"")</f>
         <v>fr945lte</v>
       </c>
       <c r="N82" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6406,7 +6403,7 @@
         <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -6415,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F83" t="s">
         <v>208</v>
@@ -6436,14 +6433,14 @@
         <v>65536</v>
       </c>
       <c r="L83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M83" t="str">
         <f>IFERROR(VLOOKUP(A83,manifest!A:A,1,0),"")</f>
         <v>fr955</v>
       </c>
       <c r="N83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -6451,7 +6448,7 @@
         <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
@@ -6460,7 +6457,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F84" t="s">
         <v>210</v>
@@ -6481,14 +6478,14 @@
         <v>65536</v>
       </c>
       <c r="L84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M84" t="str">
         <f>IFERROR(VLOOKUP(A84,manifest!A:A,1,0),"")</f>
         <v>fr965</v>
       </c>
       <c r="N84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -6496,7 +6493,7 @@
         <v>211</v>
       </c>
       <c r="B85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
@@ -6526,14 +6523,14 @@
         <v>65536</v>
       </c>
       <c r="L85" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M85" t="str">
         <f>IFERROR(VLOOKUP(A85,manifest!A:A,1,0),"")</f>
         <v>fr970</v>
       </c>
       <c r="N85" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -6541,7 +6538,7 @@
         <v>213</v>
       </c>
       <c r="B86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C86" t="s">
         <v>178</v>
@@ -6571,7 +6568,7 @@
         <v>65536</v>
       </c>
       <c r="L86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M86" t="str">
         <f>IFERROR(VLOOKUP(A86,manifest!A:A,1,0),"")</f>
@@ -6587,7 +6584,7 @@
         <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C87" t="s">
         <v>58</v>
@@ -6617,7 +6614,7 @@
         <v>32768</v>
       </c>
       <c r="L87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M87" t="str">
         <f>IFERROR(VLOOKUP(A87,manifest!A:A,1,0),"")</f>
@@ -6633,7 +6630,7 @@
         <v>217</v>
       </c>
       <c r="B88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C88" t="s">
         <v>218</v>
@@ -6663,7 +6660,7 @@
         <v>32768</v>
       </c>
       <c r="L88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M88" t="str">
         <f>IFERROR(VLOOKUP(A88,manifest!A:A,1,0),"")</f>
@@ -6679,7 +6676,7 @@
         <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C89" t="s">
         <v>58</v>
@@ -6709,7 +6706,7 @@
         <v>32768</v>
       </c>
       <c r="L89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M89" t="str">
         <f>IFERROR(VLOOKUP(A89,manifest!A:A,1,0),"")</f>
@@ -6725,7 +6722,7 @@
         <v>222</v>
       </c>
       <c r="B90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -6755,14 +6752,14 @@
         <v>65536</v>
       </c>
       <c r="L90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M90" t="str">
         <f>IFERROR(VLOOKUP(A90,manifest!A:A,1,0),"")</f>
         <v>instinct3amoled45mm</v>
       </c>
       <c r="N90" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -6770,7 +6767,7 @@
         <v>224</v>
       </c>
       <c r="B91" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C91" t="s">
         <v>37</v>
@@ -6800,14 +6797,14 @@
         <v>65536</v>
       </c>
       <c r="L91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M91" t="str">
         <f>IFERROR(VLOOKUP(A91,manifest!A:A,1,0),"")</f>
         <v>instinct3amoled50mm</v>
       </c>
       <c r="N91" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -6815,7 +6812,7 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C92" t="s">
         <v>58</v>
@@ -6845,7 +6842,7 @@
         <v>32768</v>
       </c>
       <c r="L92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M92" t="str">
         <f>IFERROR(VLOOKUP(A92,manifest!A:A,1,0),"")</f>
@@ -6858,10 +6855,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C93" t="s">
         <v>58</v>
@@ -6891,7 +6888,7 @@
         <v>32768</v>
       </c>
       <c r="L93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M93" t="str">
         <f>IFERROR(VLOOKUP(A93,manifest!A:A,1,0),"")</f>
@@ -6907,7 +6904,7 @@
         <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
@@ -6937,7 +6934,7 @@
         <v>32768</v>
       </c>
       <c r="L94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M94" t="str">
         <f>IFERROR(VLOOKUP(A94,manifest!A:A,1,0),"")</f>
@@ -6953,7 +6950,7 @@
         <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C95" t="s">
         <v>231</v>
@@ -6983,7 +6980,7 @@
         <v>32768</v>
       </c>
       <c r="L95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M95" t="str">
         <f>IFERROR(VLOOKUP(A95,manifest!A:A,1,0),"")</f>
@@ -6999,7 +6996,7 @@
         <v>233</v>
       </c>
       <c r="B96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C96" t="s">
         <v>58</v>
@@ -7029,7 +7026,7 @@
         <v>32768</v>
       </c>
       <c r="L96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M96" t="str">
         <f>IFERROR(VLOOKUP(A96,manifest!A:A,1,0),"")</f>
@@ -7075,14 +7072,14 @@
         <v>65536</v>
       </c>
       <c r="L97" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M97" t="str">
         <f>IFERROR(VLOOKUP(A97,manifest!A:A,1,0),"")</f>
         <v>legacyherocaptainmarvel</v>
       </c>
       <c r="N97" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -7120,14 +7117,14 @@
         <v>65536</v>
       </c>
       <c r="L98" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M98" t="str">
         <f>IFERROR(VLOOKUP(A98,manifest!A:A,1,0),"")</f>
         <v>legacyherofirstavenger</v>
       </c>
       <c r="N98" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -7135,7 +7132,7 @@
         <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -7165,14 +7162,14 @@
         <v>65536</v>
       </c>
       <c r="L99" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M99" t="str">
         <f>IFERROR(VLOOKUP(A99,manifest!A:A,1,0),"")</f>
         <v>legacysagadarthvader</v>
       </c>
       <c r="N99" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -7180,7 +7177,7 @@
         <v>243</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C100" t="s">
         <v>40</v>
@@ -7210,14 +7207,14 @@
         <v>65536</v>
       </c>
       <c r="L100" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M100" t="str">
         <f>IFERROR(VLOOKUP(A100,manifest!A:A,1,0),"")</f>
         <v>legacysagarey</v>
       </c>
       <c r="N100" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -7225,7 +7222,7 @@
         <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C101" t="s">
         <v>246</v>
@@ -7255,7 +7252,7 @@
         <v>65536</v>
       </c>
       <c r="L101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M101" t="str">
         <f>IFERROR(VLOOKUP(A101,manifest!A:A,1,0),"")</f>
@@ -7271,7 +7268,7 @@
         <v>249</v>
       </c>
       <c r="B102" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -7280,7 +7277,7 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F102" t="s">
         <v>250</v>
@@ -7301,14 +7298,14 @@
         <v>65536</v>
       </c>
       <c r="L102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M102" t="str">
         <f>IFERROR(VLOOKUP(A102,manifest!A:A,1,0),"")</f>
         <v>marq2</v>
       </c>
       <c r="N102" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -7316,7 +7313,7 @@
         <v>251</v>
       </c>
       <c r="B103" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -7325,7 +7322,7 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F103" t="s">
         <v>252</v>
@@ -7346,14 +7343,14 @@
         <v>65536</v>
       </c>
       <c r="L103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M103" t="str">
         <f>IFERROR(VLOOKUP(A103,manifest!A:A,1,0),"")</f>
         <v>marq2aviator</v>
       </c>
       <c r="N103" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -7361,7 +7358,7 @@
         <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -7391,14 +7388,14 @@
         <v>32768</v>
       </c>
       <c r="L104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M104" t="str">
         <f>IFERROR(VLOOKUP(A104,manifest!A:A,1,0),"")</f>
         <v>marqadventurer</v>
       </c>
       <c r="N104" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -7406,7 +7403,7 @@
         <v>255</v>
       </c>
       <c r="B105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -7436,14 +7433,14 @@
         <v>32768</v>
       </c>
       <c r="L105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M105" t="str">
         <f>IFERROR(VLOOKUP(A105,manifest!A:A,1,0),"")</f>
         <v>marqathlete</v>
       </c>
       <c r="N105" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -7451,7 +7448,7 @@
         <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -7481,14 +7478,14 @@
         <v>32768</v>
       </c>
       <c r="L106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M106" t="str">
         <f>IFERROR(VLOOKUP(A106,manifest!A:A,1,0),"")</f>
         <v>marqaviator</v>
       </c>
       <c r="N106" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -7496,7 +7493,7 @@
         <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -7526,14 +7523,14 @@
         <v>32768</v>
       </c>
       <c r="L107" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M107" t="str">
         <f>IFERROR(VLOOKUP(A107,manifest!A:A,1,0),"")</f>
         <v>marqcaptain</v>
       </c>
       <c r="N107" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -7541,7 +7538,7 @@
         <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -7571,14 +7568,14 @@
         <v>32768</v>
       </c>
       <c r="L108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M108" t="str">
         <f>IFERROR(VLOOKUP(A108,manifest!A:A,1,0),"")</f>
         <v>marqcommander</v>
       </c>
       <c r="N108" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -7586,7 +7583,7 @@
         <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -7616,14 +7613,14 @@
         <v>32768</v>
       </c>
       <c r="L109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M109" t="str">
         <f>IFERROR(VLOOKUP(A109,manifest!A:A,1,0),"")</f>
         <v>marqdriver</v>
       </c>
       <c r="N109" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -7631,7 +7628,7 @@
         <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -7661,14 +7658,14 @@
         <v>32768</v>
       </c>
       <c r="L110" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M110" t="str">
         <f>IFERROR(VLOOKUP(A110,manifest!A:A,1,0),"")</f>
         <v>marqexpedition</v>
       </c>
       <c r="N110" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -7676,7 +7673,7 @@
         <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -7706,22 +7703,22 @@
         <v>32768</v>
       </c>
       <c r="L111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M111" t="str">
         <f>IFERROR(VLOOKUP(A111,manifest!A:A,1,0),"")</f>
         <v>marqgolfer</v>
       </c>
       <c r="N111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>477</v>
+      </c>
+      <c r="B112" t="s">
         <v>478</v>
-      </c>
-      <c r="B112" t="s">
-        <v>479</v>
       </c>
       <c r="C112" t="s">
         <v>25</v>
@@ -7730,10 +7727,10 @@
         <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G112">
         <v>131072</v>
@@ -7751,7 +7748,7 @@
         <v>65536</v>
       </c>
       <c r="L112" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M112" t="str">
         <f>IFERROR(VLOOKUP(A112,manifest!A:A,1,0),"")</f>
@@ -7767,7 +7764,7 @@
         <v>269</v>
       </c>
       <c r="B113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -7797,14 +7794,14 @@
         <v>65536</v>
       </c>
       <c r="L113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M113" t="str">
         <f>IFERROR(VLOOKUP(A113,manifest!A:A,1,0),"")</f>
         <v>venu</v>
       </c>
       <c r="N113" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -7812,7 +7809,7 @@
         <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C114" t="s">
         <v>37</v>
@@ -7842,14 +7839,14 @@
         <v>65536</v>
       </c>
       <c r="L114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M114" t="str">
         <f>IFERROR(VLOOKUP(A114,manifest!A:A,1,0),"")</f>
         <v>venu2</v>
       </c>
       <c r="N114" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -7857,7 +7854,7 @@
         <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
@@ -7887,14 +7884,14 @@
         <v>65536</v>
       </c>
       <c r="L115" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M115" t="str">
         <f>IFERROR(VLOOKUP(A115,manifest!A:A,1,0),"")</f>
         <v>venu2plus</v>
       </c>
       <c r="N115" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -7902,7 +7899,7 @@
         <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C116" t="s">
         <v>175</v>
@@ -7932,14 +7929,14 @@
         <v>65536</v>
       </c>
       <c r="L116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M116" t="str">
         <f>IFERROR(VLOOKUP(A116,manifest!A:A,1,0),"")</f>
         <v>venu2s</v>
       </c>
       <c r="N116" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -7947,7 +7944,7 @@
         <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C117" t="s">
         <v>25</v>
@@ -7956,7 +7953,7 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F117" t="s">
         <v>278</v>
@@ -7977,14 +7974,14 @@
         <v>65536</v>
       </c>
       <c r="L117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M117" t="str">
         <f>IFERROR(VLOOKUP(A117,manifest!A:A,1,0),"")</f>
         <v>venu3</v>
       </c>
       <c r="N117" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -7992,7 +7989,7 @@
         <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -8001,7 +7998,7 @@
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F118" t="s">
         <v>280</v>
@@ -8022,14 +8019,14 @@
         <v>65536</v>
       </c>
       <c r="L118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M118" t="str">
         <f>IFERROR(VLOOKUP(A118,manifest!A:A,1,0),"")</f>
         <v>venu3s</v>
       </c>
       <c r="N118" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -8037,7 +8034,7 @@
         <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -8067,14 +8064,14 @@
         <v>65536</v>
       </c>
       <c r="L119" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M119" t="str">
         <f>IFERROR(VLOOKUP(A119,manifest!A:A,1,0),"")</f>
         <v>venu441mm</v>
       </c>
       <c r="N119" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -8082,7 +8079,7 @@
         <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C120" t="s">
         <v>25</v>
@@ -8112,14 +8109,14 @@
         <v>65536</v>
       </c>
       <c r="L120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M120" t="str">
         <f>IFERROR(VLOOKUP(A120,manifest!A:A,1,0),"")</f>
         <v>venu445mm</v>
       </c>
       <c r="N120" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -8127,7 +8124,7 @@
         <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -8157,14 +8154,14 @@
         <v>65536</v>
       </c>
       <c r="L121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M121" t="str">
         <f>IFERROR(VLOOKUP(A121,manifest!A:A,1,0),"")</f>
         <v>venud</v>
       </c>
       <c r="N121" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -8172,7 +8169,7 @@
         <v>288</v>
       </c>
       <c r="B122" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -8181,7 +8178,7 @@
         <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F122" t="s">
         <v>289</v>
@@ -8202,7 +8199,7 @@
         <v>32768</v>
       </c>
       <c r="L122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M122" t="str">
         <f>IFERROR(VLOOKUP(A122,manifest!A:A,1,0),"")</f>
@@ -8218,7 +8215,7 @@
         <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C123" t="s">
         <v>291</v>
@@ -8248,7 +8245,7 @@
         <v>65536</v>
       </c>
       <c r="L123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M123" t="str">
         <f>IFERROR(VLOOKUP(A123,manifest!A:A,1,0),"")</f>
@@ -8264,7 +8261,7 @@
         <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C124" t="s">
         <v>291</v>
@@ -8294,7 +8291,7 @@
         <v>65536</v>
       </c>
       <c r="L124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M124" t="str">
         <f>IFERROR(VLOOKUP(A124,manifest!A:A,1,0),"")</f>
@@ -8310,7 +8307,7 @@
         <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -8319,7 +8316,7 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F125" t="s">
         <v>296</v>
@@ -8340,7 +8337,7 @@
         <v>65536</v>
       </c>
       <c r="L125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M125" t="str">
         <f>IFERROR(VLOOKUP(A125,manifest!A:A,1,0),"")</f>
@@ -8356,7 +8353,7 @@
         <v>297</v>
       </c>
       <c r="B126" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C126" t="s">
         <v>298</v>
@@ -8386,7 +8383,7 @@
         <v>65536</v>
       </c>
       <c r="L126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M126" t="str">
         <f>IFERROR(VLOOKUP(A126,manifest!A:A,1,0),"")</f>
@@ -8402,7 +8399,7 @@
         <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C127" t="s">
         <v>82</v>
@@ -8432,7 +8429,7 @@
         <v>65536</v>
       </c>
       <c r="L127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M127" t="str">
         <f>IFERROR(VLOOKUP(A127,manifest!A:A,1,0),"")</f>
@@ -8448,7 +8445,7 @@
         <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -8478,7 +8475,7 @@
         <v>32768</v>
       </c>
       <c r="L128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M128" t="str">
         <f>IFERROR(VLOOKUP(A128,manifest!A:A,1,0),"")</f>
@@ -8494,7 +8491,7 @@
         <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -8524,7 +8521,7 @@
         <v>32768</v>
       </c>
       <c r="L129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M129" t="str">
         <f>IFERROR(VLOOKUP(A129,manifest!A:A,1,0),"")</f>
@@ -8540,7 +8537,7 @@
         <v>307</v>
       </c>
       <c r="B130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -8570,14 +8567,14 @@
         <v>65536</v>
       </c>
       <c r="L130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M130" t="str">
         <f>IFERROR(VLOOKUP(A130,manifest!A:A,1,0),"")</f>
         <v>vivoactive3m</v>
       </c>
       <c r="N130" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -8585,7 +8582,7 @@
         <v>309</v>
       </c>
       <c r="B131" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
@@ -8615,7 +8612,7 @@
         <v>65536</v>
       </c>
       <c r="L131" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M131" t="str">
         <f>IFERROR(VLOOKUP(A131,manifest!A:A,1,0),"")</f>
@@ -8631,7 +8628,7 @@
         <v>311</v>
       </c>
       <c r="B132" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -8661,14 +8658,14 @@
         <v>65536</v>
       </c>
       <c r="L132" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M132" t="str">
         <f>IFERROR(VLOOKUP(A132,manifest!A:A,1,0),"")</f>
         <v>vivoactive4</v>
       </c>
       <c r="N132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -8676,7 +8673,7 @@
         <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C133" t="s">
         <v>40</v>
@@ -8706,14 +8703,14 @@
         <v>65536</v>
       </c>
       <c r="L133" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M133" t="str">
         <f>IFERROR(VLOOKUP(A133,manifest!A:A,1,0),"")</f>
         <v>vivoactive4s</v>
       </c>
       <c r="N133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -8721,7 +8718,7 @@
         <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -8730,7 +8727,7 @@
         <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F134" t="s">
         <v>316</v>
@@ -8751,14 +8748,14 @@
         <v>65536</v>
       </c>
       <c r="L134" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M134" t="str">
         <f>IFERROR(VLOOKUP(A134,manifest!A:A,1,0),"")</f>
         <v>vivoactive5</v>
       </c>
       <c r="N134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -8766,7 +8763,7 @@
         <v>317</v>
       </c>
       <c r="B135" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -8775,7 +8772,7 @@
         <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F135" t="s">
         <v>318</v>
@@ -8796,14 +8793,14 @@
         <v>65536</v>
       </c>
       <c r="L135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M135" t="str">
         <f>IFERROR(VLOOKUP(A135,manifest!A:A,1,0),"")</f>
         <v>vivoactive6</v>
       </c>
       <c r="N135" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -8811,7 +8808,7 @@
         <v>319</v>
       </c>
       <c r="B136" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C136" t="s">
         <v>320</v>
@@ -8841,7 +8838,7 @@
         <v>32768</v>
       </c>
       <c r="L136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M136" t="str">
         <f>IFERROR(VLOOKUP(A136,manifest!A:A,1,0),"")</f>
@@ -8887,7 +8884,7 @@
         <v>32768</v>
       </c>
       <c r="L137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M137" t="str">
         <f>IFERROR(VLOOKUP(A137,manifest!A:A,1,0),"")</f>
@@ -8903,7 +8900,7 @@
         <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
@@ -8933,7 +8930,7 @@
         <v>32768</v>
       </c>
       <c r="L138" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M138" t="str">
         <f>IFERROR(VLOOKUP(A138,manifest!A:A,1,0),"")</f>
@@ -8945,7 +8942,7 @@
         <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C139" t="s">
         <v>330</v>
@@ -8975,7 +8972,7 @@
         <v>32768</v>
       </c>
       <c r="L139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M139" t="str">
         <f>IFERROR(VLOOKUP(A139,manifest!A:A,1,0),"")</f>
@@ -8991,10 +8988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9016,22 +9013,22 @@
         <v>416</v>
       </c>
       <c r="B1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
         <v>569</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>352</v>
       </c>
-      <c r="D1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E1" t="s">
-        <v>353</v>
-      </c>
       <c r="F1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" t="s">
         <v>360</v>
-      </c>
-      <c r="G1" t="s">
-        <v>361</v>
       </c>
       <c r="I1" s="5">
         <v>218</v>
@@ -9083,7 +9080,7 @@
       </c>
       <c r="Z1" s="5"/>
       <c r="AB1" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -9105,13 +9102,13 @@
         <v>0.13</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>345</v>
-      </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:P14" si="0">$C2*I$1</f>
+        <f t="shared" ref="I2:P13" si="0">$C2*I$1</f>
         <v>109</v>
       </c>
       <c r="J2" s="4">
@@ -9143,7 +9140,7 @@
         <v>227</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" ref="R2:Y14" si="1">$E2*R$1</f>
+        <f t="shared" ref="R2:Y13" si="1">$E2*R$1</f>
         <v>28.34</v>
       </c>
       <c r="S2" s="4">
@@ -9175,7 +9172,7 @@
         <v>59.02</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -9186,7 +9183,7 @@
         <v>208</v>
       </c>
       <c r="C3" s="25">
-        <f t="shared" ref="C3:E14" si="2">ROUND(B3/$A$1,2)</f>
+        <f t="shared" ref="C3:E13" si="2">ROUND(B3/$A$1,2)</f>
         <v>0.5</v>
       </c>
       <c r="D3" s="24">
@@ -9197,10 +9194,10 @@
         <v>0.31</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
@@ -9267,7 +9264,7 @@
         <v>140.74</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -9289,10 +9286,10 @@
         <v>0.39</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
@@ -9378,10 +9375,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
@@ -9467,10 +9464,10 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
@@ -9556,10 +9553,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
@@ -9645,10 +9642,10 @@
         <v>0.49</v>
       </c>
       <c r="F8" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>351</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
@@ -9734,10 +9731,10 @@
         <v>0.36</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
@@ -9804,14 +9801,14 @@
         <v>163.44</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF9" s="10">
         <v>0</v>
@@ -9822,98 +9819,98 @@
         <v>340</v>
       </c>
       <c r="B10" s="24">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C10" s="25">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="D10" s="24">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="E10" s="25">
         <f t="shared" si="2"/>
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>348</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>54.5</v>
+        <v>39.24</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>46.8</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>50.4</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>64.8</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>70.2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>74.88</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="0"/>
-        <v>113.5</v>
+        <v>81.72</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="1"/>
-        <v>106.82</v>
+        <v>170.04</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="1"/>
-        <v>117.6</v>
+        <v>187.20000000000002</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="1"/>
-        <v>127.39999999999999</v>
+        <v>202.8</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="1"/>
-        <v>137.19999999999999</v>
+        <v>218.4</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="1"/>
-        <v>176.4</v>
+        <v>280.8</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="1"/>
-        <v>191.1</v>
+        <v>304.2</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="1"/>
-        <v>203.84</v>
+        <v>324.48</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="1"/>
-        <v>222.46</v>
+        <v>354.12</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AD10" s="14"/>
       <c r="AE10" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF10" s="13">
         <v>1</v>
@@ -9924,11 +9921,11 @@
         <v>341</v>
       </c>
       <c r="B11" s="24">
-        <v>73</v>
+        <v>345</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c r="D11" s="24">
         <v>324</v>
@@ -9938,42 +9935,42 @@
         <v>0.78</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>39.24</v>
+        <v>180.94</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>43.199999999999996</v>
+        <v>199.2</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>46.8</v>
+        <v>215.79999999999998</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>50.4</v>
+        <v>232.39999999999998</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>64.8</v>
+        <v>298.8</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="0"/>
-        <v>70.2</v>
+        <v>323.7</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>74.88</v>
+        <v>345.28</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="0"/>
-        <v>81.72</v>
+        <v>376.82</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="1"/>
@@ -10008,14 +10005,14 @@
         <v>354.12</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AD11" s="17"/>
       <c r="AE11" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF11" s="16">
         <v>2</v>
@@ -10026,98 +10023,98 @@
         <v>342</v>
       </c>
       <c r="B12" s="24">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="C12" s="25">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="24">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="E12" s="25">
         <f t="shared" si="2"/>
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="F12" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>344</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>348</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>180.94</v>
+        <v>109</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
-        <v>199.2</v>
+        <v>120</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>215.79999999999998</v>
+        <v>130</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>232.39999999999998</v>
+        <v>140</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
-        <v>298.8</v>
+        <v>180</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>323.7</v>
+        <v>195</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>345.28</v>
+        <v>208</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="0"/>
-        <v>376.82</v>
+        <v>227</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" si="1"/>
-        <v>170.04</v>
+        <v>200.56</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="1"/>
-        <v>187.20000000000002</v>
+        <v>220.8</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="1"/>
-        <v>202.8</v>
+        <v>239.20000000000002</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="1"/>
-        <v>218.4</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="1"/>
-        <v>280.8</v>
+        <v>331.2</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="1"/>
-        <v>304.2</v>
+        <v>358.8</v>
       </c>
       <c r="X12" s="4">
         <f t="shared" si="1"/>
-        <v>324.48</v>
+        <v>382.72</v>
       </c>
       <c r="Y12" s="4">
         <f t="shared" si="1"/>
-        <v>354.12</v>
+        <v>417.68</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AD12" s="14"/>
       <c r="AE12" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF12" s="13">
         <v>3</v>
@@ -10125,203 +10122,116 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B13" s="24">
-        <v>208</v>
+        <v>386</v>
       </c>
       <c r="C13" s="25">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="D13" s="24">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="E13" s="25">
         <f t="shared" si="2"/>
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>202.74</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>223.20000000000002</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>241.8</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>260.40000000000003</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>334.8</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>362.70000000000005</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>386.88</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>422.22</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" si="1"/>
-        <v>200.56</v>
+        <v>143.88</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="1"/>
-        <v>220.8</v>
+        <v>158.4</v>
       </c>
       <c r="T13" s="4">
         <f t="shared" si="1"/>
-        <v>239.20000000000002</v>
+        <v>171.6</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="1"/>
-        <v>257.60000000000002</v>
+        <v>184.8</v>
       </c>
       <c r="V13" s="4">
         <f t="shared" si="1"/>
-        <v>331.2</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="1"/>
-        <v>358.8</v>
+        <v>257.40000000000003</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" si="1"/>
-        <v>382.72</v>
+        <v>274.56</v>
       </c>
       <c r="Y13" s="4">
         <f t="shared" si="1"/>
-        <v>417.68</v>
+        <v>299.64</v>
       </c>
       <c r="AB13" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD13" s="17"/>
       <c r="AE13" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF13" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="24">
-        <v>386</v>
-      </c>
-      <c r="C14" s="25">
-        <f t="shared" si="2"/>
-        <v>0.93</v>
-      </c>
-      <c r="D14" s="24">
-        <v>274</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="2"/>
-        <v>0.66</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>202.74</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>223.20000000000002</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>241.8</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>260.40000000000003</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>334.8</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>362.70000000000005</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="0"/>
-        <v>386.88</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="0"/>
-        <v>422.22</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="1"/>
-        <v>143.88</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="1"/>
-        <v>158.4</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="1"/>
-        <v>171.6</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="1"/>
-        <v>184.8</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="1"/>
-        <v>237.60000000000002</v>
-      </c>
-      <c r="W14" s="4">
-        <f t="shared" si="1"/>
-        <v>257.40000000000003</v>
-      </c>
-      <c r="X14" s="4">
-        <f t="shared" si="1"/>
-        <v>274.56</v>
-      </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="1"/>
-        <v>299.64</v>
-      </c>
       <c r="AB14" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AD14" s="14"/>
       <c r="AE14" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF14" s="13">
         <v>5</v>
@@ -10329,14 +10239,14 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AB15" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AC15" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AD15" s="17"/>
       <c r="AE15" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF15" s="16">
         <v>6</v>
@@ -10344,48 +10254,53 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AB16" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AD16" s="14"/>
       <c r="AE16" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF16" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="22"/>
       <c r="AB17" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AC17" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AD17" s="17"/>
       <c r="AE17" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF17" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>354</v>
+      <c r="A18" s="22" t="str">
+        <f>""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
+        <v>"date"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B18" s="22"/>
       <c r="AB18" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AD18" s="14"/>
       <c r="AE18" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF18" s="13">
         <v>9</v>
@@ -10393,19 +10308,19 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="str">
-        <f t="shared" ref="A19:A31" si="3">""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
-        <v>"date"=&gt;(0.5 * largeurEcran),</v>
+        <f>""""&amp;A3&amp;"""=&gt;("&amp;C3&amp;" * largeurEcran),"</f>
+        <v>"heure"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B19" s="22"/>
       <c r="AB19" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AD19" s="17"/>
       <c r="AE19" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF19" s="16">
         <v>10</v>
@@ -10413,19 +10328,19 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"heure"=&gt;(0.5 * largeurEcran),</v>
+        <f>""""&amp;A4&amp;"""=&gt;("&amp;C4&amp;" * largeurEcran),"</f>
+        <v>"notif"=&gt;(0.12 * largeurEcran),</v>
       </c>
       <c r="B20" s="22"/>
       <c r="AB20" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AD20" s="14"/>
       <c r="AE20" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF20" s="13">
         <v>11</v>
@@ -10433,19 +10348,19 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"notif"=&gt;(0.12 * largeurEcran),</v>
+        <f>""""&amp;A5&amp;"""=&gt;("&amp;C5&amp;" * largeurEcran),"</f>
+        <v>"BG"=&gt;(0.75 * largeurEcran),</v>
       </c>
       <c r="B21" s="22"/>
       <c r="AB21" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AD21" s="17"/>
       <c r="AE21" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF21" s="16">
         <v>12</v>
@@ -10453,19 +10368,19 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"BG"=&gt;(0.75 * largeurEcran),</v>
+        <f>""""&amp;A6&amp;"""=&gt;("&amp;C6&amp;" * largeurEcran),"</f>
+        <v>"Delta"=&gt;(0.24 * largeurEcran),</v>
       </c>
       <c r="B22" s="22"/>
       <c r="AB22" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD22" s="14"/>
       <c r="AE22" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF22" s="13">
         <v>13</v>
@@ -10473,19 +10388,19 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"Delta"=&gt;(0.24 * largeurEcran),</v>
+        <f>""""&amp;A7&amp;"""=&gt;("&amp;C7&amp;" * largeurEcran),"</f>
+        <v>"Elapsed"=&gt;(0.96 * largeurEcran),</v>
       </c>
       <c r="B23" s="22"/>
       <c r="AB23" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AD23" s="17"/>
       <c r="AE23" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF23" s="16">
         <v>14</v>
@@ -10493,19 +10408,19 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"Elapsed"=&gt;(0.96 * largeurEcran),</v>
+        <f>""""&amp;A8&amp;"""=&gt;("&amp;C8&amp;" * largeurEcran),"</f>
+        <v>"ProvenanceBG"=&gt;(0.02 * largeurEcran),</v>
       </c>
       <c r="B24" s="22"/>
       <c r="AB24" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF24" s="13">
         <v>15</v>
@@ -10513,19 +10428,19 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"ProvenanceBG"=&gt;(0.02 * largeurEcran),</v>
+        <f>""""&amp;A9&amp;"""=&gt;("&amp;C9&amp;" * largeurEcran),"</f>
+        <v>"Secondes"=&gt;(0.96 * largeurEcran),</v>
       </c>
       <c r="B25" s="22"/>
       <c r="AB25" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AD25" s="17"/>
       <c r="AE25" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF25" s="16">
         <v>16</v>
@@ -10533,19 +10448,19 @@
     </row>
     <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"Secondes"=&gt;(0.96 * largeurEcran),</v>
+        <f t="shared" ref="A26:A29" si="3">""""&amp;A10&amp;"""=&gt;("&amp;C10&amp;" * largeurEcran),"</f>
+        <v>"Temperature"=&gt;(0.18 * largeurEcran),</v>
       </c>
       <c r="B26" s="22"/>
       <c r="AB26" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AC26" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AD26" s="20"/>
       <c r="AE26" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF26" s="19">
         <v>17</v>
@@ -10554,375 +10469,352 @@
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>"NextCall"=&gt;(0.25 * largeurEcran),</v>
+        <v>"Wind"=&gt;(0.83 * largeurEcran),</v>
       </c>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>"Temperature"=&gt;(0.18 * largeurEcran),</v>
+        <v>"Batterie"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>"Wind"=&gt;(0.83 * largeurEcran),</v>
+        <v>"labelMin"=&gt;(0.93 * largeurEcran),</v>
       </c>
       <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"Batterie"=&gt;(0.5 * largeurEcran),</v>
+      <c r="A30" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>"labelMin"=&gt;(0.93 * largeurEcran),</v>
-      </c>
+      <c r="A31" s="22"/>
       <c r="B31" s="22"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B32" s="22"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="22" t="str">
+        <f>""""&amp;A2&amp;"""=&gt;("&amp;E2&amp;" * hauteurEcran),"</f>
+        <v>"date"=&gt;(0.13 * hauteurEcran),</v>
+      </c>
       <c r="B33" s="22"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>355</v>
+      <c r="A34" s="22" t="str">
+        <f>""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
+        <v>"heure"=&gt;0.31 * hauteurEcran,</v>
       </c>
       <c r="B34" s="22"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;("&amp;E2&amp;" * hauteurEcran),"</f>
-        <v>"date"=&gt;(0.13 * hauteurEcran),</v>
+        <f>""""&amp;A4&amp;"""=&gt;"&amp;E4&amp;" * hauteurEcran,"</f>
+        <v>"notif"=&gt;0.39 * hauteurEcran,</v>
       </c>
       <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="str">
-        <f t="shared" ref="A36:A47" si="4">""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
-        <v>"heure"=&gt;0.31 * hauteurEcran,</v>
+        <f>""""&amp;A5&amp;"""=&gt;"&amp;E5&amp;" * hauteurEcran,"</f>
+        <v>"BG"=&gt;0.58 * hauteurEcran,</v>
       </c>
       <c r="B36" s="22"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"notif"=&gt;0.39 * hauteurEcran,</v>
+        <f>""""&amp;A6&amp;"""=&gt;"&amp;E6&amp;" * hauteurEcran,"</f>
+        <v>"Delta"=&gt;0.6 * hauteurEcran,</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"BG"=&gt;0.58 * hauteurEcran,</v>
+        <f>""""&amp;A7&amp;"""=&gt;"&amp;E7&amp;" * hauteurEcran,"</f>
+        <v>"Elapsed"=&gt;0.55 * hauteurEcran,</v>
       </c>
       <c r="B38" s="22"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"Delta"=&gt;0.6 * hauteurEcran,</v>
+        <f>""""&amp;A8&amp;"""=&gt;"&amp;E8&amp;" * hauteurEcran,"</f>
+        <v>"ProvenanceBG"=&gt;0.49 * hauteurEcran,</v>
       </c>
       <c r="B39" s="22"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"Elapsed"=&gt;0.55 * hauteurEcran,</v>
+        <f>""""&amp;A9&amp;"""=&gt;"&amp;E9&amp;" * hauteurEcran,"</f>
+        <v>"Secondes"=&gt;0.36 * hauteurEcran,</v>
       </c>
       <c r="B40" s="22"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"ProvenanceBG"=&gt;0.49 * hauteurEcran,</v>
+        <f t="shared" ref="A41:A44" si="4">""""&amp;A10&amp;"""=&gt;"&amp;E10&amp;" * hauteurEcran,"</f>
+        <v>"Temperature"=&gt;0.78 * hauteurEcran,</v>
       </c>
       <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"Secondes"=&gt;0.36 * hauteurEcran,</v>
+        <v>"Wind"=&gt;0.78 * hauteurEcran,</v>
       </c>
       <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"NextCall"=&gt;0.49 * hauteurEcran,</v>
+        <v>"Batterie"=&gt;0.92 * hauteurEcran,</v>
       </c>
       <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>"Temperature"=&gt;0.78 * hauteurEcran,</v>
+        <v>"labelMin"=&gt;0.66 * hauteurEcran,</v>
       </c>
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"Wind"=&gt;0.78 * hauteurEcran,</v>
+      <c r="A45" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"Batterie"=&gt;0.92 * hauteurEcran,</v>
-      </c>
+      <c r="A46" s="22"/>
       <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>"labelMin"=&gt;0.66 * hauteurEcran,</v>
+      <c r="A47" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="B47" s="22"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>356</v>
+      <c r="A48" s="22" t="str">
+        <f>""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
+        <v>"date"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B48" s="22"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="22" t="str">
+        <f>""""&amp;A3&amp;"""=&gt;"&amp;F3&amp;","</f>
+        <v>"heure"=&gt;Gfx.FONT_NUMBER_HOT,</v>
+      </c>
+      <c r="B49" s="23"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="23"/>
+      <c r="A50" s="22" t="str">
+        <f>""""&amp;A4&amp;"""=&gt;"&amp;F4&amp;","</f>
+        <v>"notif"=&gt;Gfx.FONT_MEDIUM,</v>
+      </c>
+      <c r="B50" s="22"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="str">
-        <f t="shared" ref="A51:A63" si="5">""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
-        <v>"date"=&gt;Gfx.FONT_LARGE,</v>
+        <f>""""&amp;A5&amp;"""=&gt;"&amp;F5&amp;","</f>
+        <v>"BG"=&gt;Gfx.FONT_NUMBER_HOT,</v>
       </c>
       <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"heure"=&gt;Gfx.FONT_NUMBER_HOT,</v>
+        <f>""""&amp;A6&amp;"""=&gt;"&amp;F6&amp;","</f>
+        <v>"Delta"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"notif"=&gt;Gfx.FONT_MEDIUM,</v>
+        <f>""""&amp;A7&amp;"""=&gt;"&amp;F7&amp;","</f>
+        <v>"Elapsed"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"BG"=&gt;Gfx.FONT_NUMBER_HOT,</v>
+        <f>""""&amp;A8&amp;"""=&gt;"&amp;F8&amp;","</f>
+        <v>"ProvenanceBG"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"Delta"=&gt;Gfx.FONT_NUMBER_MILD,</v>
+        <f>""""&amp;A9&amp;"""=&gt;"&amp;F9&amp;","</f>
+        <v>"Secondes"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"Elapsed"=&gt;Gfx.FONT_NUMBER_MILD,</v>
+        <f t="shared" ref="A56:A59" si="5">""""&amp;A10&amp;"""=&gt;"&amp;F10&amp;","</f>
+        <v>"Temperature"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="str">
         <f t="shared" si="5"/>
-        <v>"ProvenanceBG"=&gt;Gfx.FONT_XTINY,</v>
+        <v>"Wind"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="str">
         <f t="shared" si="5"/>
-        <v>"Secondes"=&gt;Gfx.FONT_NUMBER_MILD,</v>
+        <v>"Batterie"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="str">
         <f t="shared" si="5"/>
-        <v>"NextCall"=&gt;Gfx.FONT_XTINY,</v>
+        <v>"labelMin"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"Temperature"=&gt;Gfx.FONT_LARGE,</v>
+      <c r="A60" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"Wind"=&gt;Gfx.FONT_LARGE,</v>
-      </c>
+      <c r="A61" s="22"/>
       <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"Batterie"=&gt;Gfx.FONT_LARGE,</v>
+      <c r="A62" s="23" t="s">
+        <v>356</v>
       </c>
       <c r="B62" s="22"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="str">
-        <f t="shared" si="5"/>
-        <v>"labelMin"=&gt;Gfx.FONT_XTINY,</v>
+        <f>""""&amp;A2&amp;"""=&gt;"&amp;G2&amp;","</f>
+        <v>"date"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B63" s="22"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>356</v>
+      <c r="A64" s="22" t="str">
+        <f>""""&amp;A3&amp;"""=&gt;"&amp;G3&amp;","</f>
+        <v>"heure"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B64" s="22"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="22" t="str">
+        <f>""""&amp;A4&amp;"""=&gt;"&amp;G4&amp;","</f>
+        <v>"notif"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+      </c>
+      <c r="B65" s="23"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="B66" s="23"/>
+      <c r="A66" s="22" t="str">
+        <f>""""&amp;A5&amp;"""=&gt;"&amp;G5&amp;","</f>
+        <v>"BG"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      </c>
+      <c r="B66" s="22"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;"&amp;G2&amp;","</f>
-        <v>"date"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+        <f>""""&amp;A6&amp;"""=&gt;"&amp;G6&amp;","</f>
+        <v>"Delta"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B67" s="22"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="str">
-        <f t="shared" ref="A68:A79" si="6">""""&amp;A3&amp;"""=&gt;"&amp;G3&amp;","</f>
-        <v>"heure"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+        <f>""""&amp;A7&amp;"""=&gt;"&amp;G7&amp;","</f>
+        <v>"Elapsed"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B68" s="22"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"notif"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
+        <f>""""&amp;A8&amp;"""=&gt;"&amp;G8&amp;","</f>
+        <v>"ProvenanceBG"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B69" s="22"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"BG"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+        <f>""""&amp;A9&amp;"""=&gt;"&amp;G9&amp;","</f>
+        <v>"Secondes"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B70" s="22"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"Delta"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+        <f t="shared" ref="A71:A74" si="6">""""&amp;A10&amp;"""=&gt;"&amp;G10&amp;","</f>
+        <v>"Temperature"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>"Elapsed"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+        <v>"Wind"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>"ProvenanceBG"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
+        <v>"Batterie"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>"Secondes"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+        <v>"labelMin"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B74" s="22"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"NextCall"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
+      <c r="A75" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"Temperature"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
-      </c>
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"Wind"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
-      </c>
       <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"Batterie"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
-      </c>
       <c r="B78" s="22"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>"labelMin"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
-      </c>
       <c r="B79" s="22"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="B80" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$I$1:$P$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
       <formula1>$AB$1:$AB$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13">
       <formula1>$AG$9:$AG$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>$I$1:$P$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10945,14 +10837,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1" s="10">
         <v>0</v>
@@ -10960,14 +10852,14 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -10975,14 +10867,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>523</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>524</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="16">
         <v>2</v>
@@ -10990,14 +10882,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>525</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
@@ -11005,14 +10897,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>527</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>528</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
@@ -11020,14 +10912,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>529</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -11035,14 +10927,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>531</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>532</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -11050,14 +10942,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>533</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>534</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E8" s="13">
         <v>7</v>
@@ -11065,14 +10957,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>535</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>536</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E9" s="16">
         <v>8</v>
@@ -11080,14 +10972,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" s="13">
         <v>9</v>
@@ -11095,14 +10987,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>540</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>541</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E11" s="16">
         <v>10</v>
@@ -11110,14 +11002,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E12" s="13">
         <v>11</v>
@@ -11125,14 +11017,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>544</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>545</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
@@ -11140,14 +11032,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E14" s="13">
         <v>13</v>
@@ -11155,14 +11047,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>548</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>549</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E15" s="16">
         <v>14</v>
@@ -11170,14 +11062,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>550</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>551</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E16" s="13">
         <v>15</v>
@@ -11185,14 +11077,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>552</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>553</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E17" s="16">
         <v>16</v>
@@ -11200,14 +11092,14 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>554</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>555</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" s="19">
         <v>17</v>
@@ -11231,7 +11123,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1">
         <f>COUNTA(A:A)-1</f>
@@ -12232,7 +12124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10:H12"/>
     </sheetView>
   </sheetViews>
@@ -12244,34 +12136,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1" t="s">
         <v>332</v>
       </c>
       <c r="D1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>513</v>
-      </c>
-      <c r="H1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I1" t="s">
-        <v>514</v>
       </c>
       <c r="J1" t="s">
         <v>332</v>
       </c>
       <c r="K1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12479,7 +12371,7 @@
         <v>1746796363180</v>
       </c>
       <c r="I7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -12506,7 +12398,7 @@
         <v>1744817093</v>
       </c>
       <c r="I8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -12572,7 +12464,7 @@
         <v>0.372102106482392</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -12596,7 +12488,7 @@
         <v>0.36507953703524737</v>
       </c>
       <c r="F12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">

--- a/Modèles.xlsx
+++ b/Modèles.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="modèles" sheetId="1" r:id="rId1"/>
-    <sheet name="écran" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId3"/>
-    <sheet name="manifest" sheetId="3" r:id="rId4"/>
-    <sheet name="calculs" sheetId="4" r:id="rId5"/>
+    <sheet name="BT" sheetId="6" r:id="rId2"/>
+    <sheet name="écran" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId4"/>
+    <sheet name="manifest" sheetId="3" r:id="rId5"/>
+    <sheet name="calculs" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">manifest!$A$1:$A$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">manifest!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modèles!$A$1:$N$139</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="583">
   <si>
     <t>deviceId</t>
   </si>
@@ -1757,6 +1758,33 @@
   </si>
   <si>
     <t>secondes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>ligne</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2*</t>
   </si>
 </sst>
 </file>
@@ -2030,6 +2058,387 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6145" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886576" y="381000"/>
+          <a:ext cx="3448050" cy="3383359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 1" descr="File:Bluetooth.svg - Wikipedia"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2661,12 +3070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O139"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,7 +3134,7 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2762,12 +3172,11 @@
         <f>IFERROR(VLOOKUP(A2,manifest!A:A,1,0),"")</f>
         <v>approachs50</v>
       </c>
-      <c r="N2" t="str">
-        <f>"&lt;iq:product id="""&amp;A2&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="approachs50"/&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +3222,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +3268,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2900,12 +3309,11 @@
         <f>IFERROR(VLOOKUP(A5,manifest!A:A,1,0),"")</f>
         <v>approachs7042mm</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" ref="N5:N6" si="0">"&lt;iq:product id="""&amp;A5&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="approachs7042mm"/&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2946,12 +3354,11 @@
         <f>IFERROR(VLOOKUP(A6,manifest!A:A,1,0),"")</f>
         <v>approachs7047mm</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;iq:product id="approachs7047mm"/&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2997,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3038,12 +3445,11 @@
         <f>IFERROR(VLOOKUP(A8,manifest!A:A,1,0),"")</f>
         <v>d2air</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" ref="N8:N9" si="1">"&lt;iq:product id="""&amp;A8&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="d2air"/&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3084,12 +3490,11 @@
         <f>IFERROR(VLOOKUP(A9,manifest!A:A,1,0),"")</f>
         <v>d2airx10</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;iq:product id="d2airx10"/&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3135,7 +3540,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3181,7 +3586,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3269,8 +3674,8 @@
         <v>d2delta</v>
       </c>
       <c r="N13" t="str">
-        <f>A13&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>d2delta.excludeAnnotations="noMenus"</v>
+        <f>A13&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>d2delta.excludeAnnotations="onlyWithSettingOnWatchface"</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3315,8 +3720,8 @@
         <v>d2deltapx</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" ref="N14:N15" si="2">A14&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>d2deltapx.excludeAnnotations="noMenus"</v>
+        <f t="shared" ref="N14:N15" si="0">A14&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>d2deltapx.excludeAnnotations="onlyWithSettingOnWatchface"</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3361,11 +3766,11 @@
         <v>d2deltas</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
-        <v>d2deltas.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>d2deltas.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3410,7 +3815,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3456,7 +3861,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3501,7 +3906,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3547,7 +3952,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3592,7 +3997,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3637,7 +4042,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3682,7 +4087,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -3727,7 +4132,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -3772,7 +4177,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3817,7 +4222,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -3863,7 +4268,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3908,7 +4313,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -3953,7 +4358,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -3998,7 +4403,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -4043,7 +4448,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -4089,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -4177,11 +4582,11 @@
         <v>fenix5</v>
       </c>
       <c r="N33" t="str">
-        <f>A33&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fenix5.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A33&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>fenix5.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -4268,11 +4673,11 @@
         <v>fenix5s</v>
       </c>
       <c r="N35" t="str">
-        <f>A35&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fenix5s.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A35&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>fenix5s.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -4359,11 +4764,11 @@
         <v>fenix5x</v>
       </c>
       <c r="N37" t="str">
-        <f>A37&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fenix5x.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A37&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>fenix5x.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -4408,7 +4813,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -4453,7 +4858,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -4498,7 +4903,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -4543,7 +4948,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -4588,7 +4993,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -4633,7 +5038,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -4678,7 +5083,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -4723,7 +5128,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -4768,7 +5173,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4813,7 +5218,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -4858,7 +5263,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -4903,7 +5308,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -4948,7 +5353,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -4993,7 +5398,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -5038,7 +5443,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -5083,7 +5488,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -5128,7 +5533,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -5215,11 +5620,11 @@
         <v>fenixchronos</v>
       </c>
       <c r="N56" t="str">
-        <f>A56&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fenixchronos.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A56&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>fenixchronos.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -5264,7 +5669,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -5309,7 +5714,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -5354,7 +5759,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -5400,7 +5805,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -5446,7 +5851,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -5491,7 +5896,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>162</v>
       </c>
@@ -5536,7 +5941,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -5581,7 +5986,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -5626,7 +6031,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>168</v>
       </c>
@@ -5671,7 +6076,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -5716,7 +6121,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>172</v>
       </c>
@@ -5761,7 +6166,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -5806,7 +6211,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>177</v>
       </c>
@@ -5852,7 +6257,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -5898,7 +6303,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -5943,7 +6348,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>185</v>
       </c>
@@ -5988,7 +6393,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -6076,11 +6481,11 @@
         <v>fr645</v>
       </c>
       <c r="N75" t="str">
-        <f>A75&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fr645.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A75&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>fr645.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -6125,7 +6530,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -6171,7 +6576,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -6216,7 +6621,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>198</v>
       </c>
@@ -6304,11 +6709,11 @@
         <v>fr935</v>
       </c>
       <c r="N80" t="str">
-        <f>A80&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>fr935.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A80&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>fr935.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -6353,7 +6758,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -6398,7 +6803,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -6443,7 +6848,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>209</v>
       </c>
@@ -6488,7 +6893,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -6533,7 +6938,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -6579,7 +6984,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -6625,7 +7030,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>217</v>
       </c>
@@ -6671,7 +7076,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>220</v>
       </c>
@@ -6717,7 +7122,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -6762,7 +7167,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>224</v>
       </c>
@@ -6807,7 +7212,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -6853,7 +7258,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>460</v>
       </c>
@@ -6899,7 +7304,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>228</v>
       </c>
@@ -6945,7 +7350,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -6991,7 +7396,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>233</v>
       </c>
@@ -7033,11 +7438,11 @@
         <v/>
       </c>
       <c r="N96" t="str">
-        <f t="shared" ref="N96" si="3">"&lt;iq:product id="""&amp;A96&amp;"""/&gt;"</f>
+        <f t="shared" ref="N96" si="1">"&lt;iq:product id="""&amp;A96&amp;"""/&gt;"</f>
         <v>&lt;iq:product id="instincte45mm"/&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>235</v>
       </c>
@@ -7082,7 +7487,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -7127,7 +7532,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>241</v>
       </c>
@@ -7172,7 +7577,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>243</v>
       </c>
@@ -7217,7 +7622,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>245</v>
       </c>
@@ -7259,11 +7664,11 @@
         <v/>
       </c>
       <c r="N101" t="str">
-        <f t="shared" ref="N101:N112" si="4">"&lt;iq:product id="""&amp;A101&amp;"""/&gt;"</f>
+        <f t="shared" ref="N101:N112" si="2">"&lt;iq:product id="""&amp;A101&amp;"""/&gt;"</f>
         <v>&lt;iq:product id="lily2"/&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>249</v>
       </c>
@@ -7308,7 +7713,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -7353,7 +7758,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -7398,7 +7803,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>255</v>
       </c>
@@ -7443,7 +7848,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -7488,7 +7893,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>259</v>
       </c>
@@ -7533,7 +7938,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>261</v>
       </c>
@@ -7578,7 +7983,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>263</v>
       </c>
@@ -7623,7 +8028,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>265</v>
       </c>
@@ -7668,7 +8073,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>267</v>
       </c>
@@ -7713,7 +8118,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>477</v>
       </c>
@@ -7755,11 +8160,11 @@
         <v/>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>&lt;iq:product id="system8preview"/&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>269</v>
       </c>
@@ -7804,7 +8209,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -7849,7 +8254,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -7894,7 +8299,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>275</v>
       </c>
@@ -7939,7 +8344,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -7984,7 +8389,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>279</v>
       </c>
@@ -8029,7 +8434,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>281</v>
       </c>
@@ -8074,7 +8479,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -8119,7 +8524,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -8164,7 +8569,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>288</v>
       </c>
@@ -8210,7 +8615,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -8256,7 +8661,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -8302,7 +8707,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -8348,7 +8753,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>297</v>
       </c>
@@ -8394,7 +8799,7 @@
         <v>&lt;iq:product id="venux1"/&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -8482,11 +8887,11 @@
         <v>vivoactive3</v>
       </c>
       <c r="N128" t="str">
-        <f>A128&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>vivoactive3.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+        <f>A128&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>vivoactive3.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>305</v>
       </c>
@@ -8528,7 +8933,7 @@
         <v/>
       </c>
       <c r="N129" t="str">
-        <f t="shared" ref="N129" si="5">"&lt;iq:product id="""&amp;A129&amp;"""/&gt;"</f>
+        <f t="shared" ref="N129" si="3">"&lt;iq:product id="""&amp;A129&amp;"""/&gt;"</f>
         <v>&lt;iq:product id="vivoactive3d"/&gt;</v>
       </c>
     </row>
@@ -8573,8 +8978,9 @@
         <f>IFERROR(VLOOKUP(A130,manifest!A:A,1,0),"")</f>
         <v>vivoactive3m</v>
       </c>
-      <c r="N130" t="s">
-        <v>511</v>
+      <c r="N130" t="str">
+        <f t="shared" ref="N130:N131" si="4">A130&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
+        <v>vivoactive3m.excludeAnnotations="onlyWithSettingOnWatchface"</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -8619,11 +9025,11 @@
         <v>vivoactive3mlte</v>
       </c>
       <c r="N131" t="str">
-        <f>A131&amp;".excludeAnnotations=""noMenus"""</f>
-        <v>vivoactive3mlte.excludeAnnotations="noMenus"</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>vivoactive3mlte.excludeAnnotations="onlyWithSettingOnWatchface"</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>311</v>
       </c>
@@ -8668,7 +9074,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>313</v>
       </c>
@@ -8713,7 +9119,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>315</v>
       </c>
@@ -8758,7 +9164,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>317</v>
       </c>
@@ -8803,7 +9209,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>319</v>
       </c>
@@ -8845,11 +9251,11 @@
         <v/>
       </c>
       <c r="N136" t="str">
-        <f t="shared" ref="N136:N137" si="6">"&lt;iq:product id="""&amp;A136&amp;"""/&gt;"</f>
+        <f t="shared" ref="N136:N137" si="5">"&lt;iq:product id="""&amp;A136&amp;"""/&gt;"</f>
         <v>&lt;iq:product id="vivoactive_hr"/&gt;</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>322</v>
       </c>
@@ -8891,11 +9297,11 @@
         <v/>
       </c>
       <c r="N137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>&lt;iq:product id="vivolife"/&gt;</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>326</v>
       </c>
@@ -8937,7 +9343,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>329</v>
       </c>
@@ -8979,8 +9385,66 @@
         <v/>
       </c>
     </row>
+    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>142</v>
+      </c>
+      <c r="E146">
+        <f>D146/D145</f>
+        <v>0.34134615384615385</v>
+      </c>
+    </row>
+    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f>1-E146</f>
+        <v>0.65865384615384615</v>
+      </c>
+    </row>
+    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <f>0.5-0.16</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="J148">
+        <f>0.375-0.625</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <f>0.16*2</f>
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N139"/>
+  <autoFilter ref="A1:N139">
+    <filterColumn colId="12">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="d2delta.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="d2deltapx.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="d2deltas.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="fenix5.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="fenix5s.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="fenix5x.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="fenixchronos.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="fr645.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="fr935.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="vivoactive3.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="vivoactive3m.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="vivoactive3mlte.excludeAnnotations=&quot;noMenus&quot;"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8988,9 +9452,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"centrex+"&amp;B2&amp;"*tailleLogo"</f>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"centrey+"&amp;C2&amp;"*tailleLogo"</f>
+        <v>centrey+0*tailleLogo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E8" si="0">"centrex+"&amp;B3&amp;"*tailleLogo"</f>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F8" si="1">"centrey+"&amp;C3&amp;"*tailleLogo"</f>
+        <v>centrey+-0.5*tailleLogo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>centrey+0.5*tailleLogo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.25</v>
+      </c>
+      <c r="C5">
+        <v>-0.25</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>centrex+-0.25*tailleLogo</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>centrey+-0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>-0.25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>centrex+0.25*tailleLogo</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>centrey+-0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>centrex+-0.25*tailleLogo</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>centrey+0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>centrex+0.25*tailleLogo</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>centrey+0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" t="s">
+        <v>580</v>
+      </c>
+      <c r="G11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(B12,$A$2:$F$8,5,0)</f>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(B12,$A$2:$F$8,6,0)</f>
+        <v>centrey+-0.5*tailleLogo</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(C12,$A$2:$F$8,5,0)</f>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(C12,$A$2:$F$8,6,0)</f>
+        <v>centrey+0.5*tailleLogo</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ref="E13:E16" si="2">VLOOKUP(B13,$A$2:$F$8,5,0)</f>
+        <v>centrex+-0.25*tailleLogo</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ref="F13:F16" si="3">VLOOKUP(B13,$A$2:$F$8,6,0)</f>
+        <v>centrey+-0.25*tailleLogo</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G16" si="4">VLOOKUP(C13,$A$2:$F$8,5,0)</f>
+        <v>centrex+0.25*tailleLogo</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H16" si="5">VLOOKUP(C13,$A$2:$F$8,6,0)</f>
+        <v>centrey+0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>centrex+-0.25*tailleLogo</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>centrey+0.25*tailleLogo</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>centrex+0.25*tailleLogo</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>centrey+-0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>centrey+-0.5*tailleLogo</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>centrex+0.25*tailleLogo</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>centrey+-0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>centrex+0*tailleLogo</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>centrey+0.5*tailleLogo</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>centrex+0.25*tailleLogo</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>centrey+0.25*tailleLogo</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"dc.drawLine("&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12&amp;");"</f>
+        <v>dc.drawLine(centrex+0*tailleLogo,centrey+-0.5*tailleLogo,centrex+0*tailleLogo,centrey+0.5*tailleLogo);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:E25" si="6">"dc.drawLine("&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13&amp;");"</f>
+        <v>dc.drawLine(centrex+-0.25*tailleLogo,centrey+-0.25*tailleLogo,centrex+0.25*tailleLogo,centrey+0.25*tailleLogo);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="6"/>
+        <v>dc.drawLine(centrex+-0.25*tailleLogo,centrey+0.25*tailleLogo,centrex+0.25*tailleLogo,centrey+-0.25*tailleLogo);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="6"/>
+        <v>dc.drawLine(centrex+0*tailleLogo,centrey+-0.5*tailleLogo,centrex+0.25*tailleLogo,centrey+-0.25*tailleLogo);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="6"/>
+        <v>dc.drawLine(centrex+0*tailleLogo,centrey+0.5*tailleLogo,centrex+0.25*tailleLogo,centrey+0.25*tailleLogo);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -10288,7 +11132,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
+        <f t="shared" ref="A18:A25" si="3">""""&amp;A2&amp;"""=&gt;("&amp;C2&amp;" * largeurEcran),"</f>
         <v>"date"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B18" s="22"/>
@@ -10308,7 +11152,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="str">
-        <f>""""&amp;A3&amp;"""=&gt;("&amp;C3&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"heure"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B19" s="22"/>
@@ -10328,7 +11172,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="str">
-        <f>""""&amp;A4&amp;"""=&gt;("&amp;C4&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"notif"=&gt;(0.12 * largeurEcran),</v>
       </c>
       <c r="B20" s="22"/>
@@ -10348,7 +11192,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="str">
-        <f>""""&amp;A5&amp;"""=&gt;("&amp;C5&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"BG"=&gt;(0.75 * largeurEcran),</v>
       </c>
       <c r="B21" s="22"/>
@@ -10368,7 +11212,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="str">
-        <f>""""&amp;A6&amp;"""=&gt;("&amp;C6&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"Delta"=&gt;(0.24 * largeurEcran),</v>
       </c>
       <c r="B22" s="22"/>
@@ -10388,7 +11232,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="str">
-        <f>""""&amp;A7&amp;"""=&gt;("&amp;C7&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"Elapsed"=&gt;(0.96 * largeurEcran),</v>
       </c>
       <c r="B23" s="22"/>
@@ -10408,7 +11252,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="str">
-        <f>""""&amp;A8&amp;"""=&gt;("&amp;C8&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"ProvenanceBG"=&gt;(0.02 * largeurEcran),</v>
       </c>
       <c r="B24" s="22"/>
@@ -10428,7 +11272,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
-        <f>""""&amp;A9&amp;"""=&gt;("&amp;C9&amp;" * largeurEcran),"</f>
+        <f t="shared" si="3"/>
         <v>"Secondes"=&gt;(0.96 * largeurEcran),</v>
       </c>
       <c r="B25" s="22"/>
@@ -10448,7 +11292,7 @@
     </row>
     <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="str">
-        <f t="shared" ref="A26:A29" si="3">""""&amp;A10&amp;"""=&gt;("&amp;C10&amp;" * largeurEcran),"</f>
+        <f t="shared" ref="A26:A29" si="4">""""&amp;A10&amp;"""=&gt;("&amp;C10&amp;" * largeurEcran),"</f>
         <v>"Temperature"=&gt;(0.18 * largeurEcran),</v>
       </c>
       <c r="B26" s="22"/>
@@ -10468,21 +11312,21 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>"Wind"=&gt;(0.83 * largeurEcran),</v>
       </c>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>"Batterie"=&gt;(0.5 * largeurEcran),</v>
       </c>
       <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>"labelMin"=&gt;(0.93 * largeurEcran),</v>
       </c>
       <c r="B29" s="22"/>
@@ -10512,77 +11356,77 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="str">
-        <f>""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
+        <f t="shared" ref="A34:A40" si="5">""""&amp;A3&amp;"""=&gt;"&amp;E3&amp;" * hauteurEcran,"</f>
         <v>"heure"=&gt;0.31 * hauteurEcran,</v>
       </c>
       <c r="B34" s="22"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="str">
-        <f>""""&amp;A4&amp;"""=&gt;"&amp;E4&amp;" * hauteurEcran,"</f>
+        <f t="shared" si="5"/>
         <v>"notif"=&gt;0.39 * hauteurEcran,</v>
       </c>
       <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="str">
-        <f>""""&amp;A5&amp;"""=&gt;"&amp;E5&amp;" * hauteurEcran,"</f>
+        <f t="shared" si="5"/>
         <v>"BG"=&gt;0.58 * hauteurEcran,</v>
       </c>
       <c r="B36" s="22"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="str">
-        <f>""""&amp;A6&amp;"""=&gt;"&amp;E6&amp;" * hauteurEcran,"</f>
+        <f t="shared" si="5"/>
         <v>"Delta"=&gt;0.6 * hauteurEcran,</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="str">
-        <f>""""&amp;A7&amp;"""=&gt;"&amp;E7&amp;" * hauteurEcran,"</f>
+        <f t="shared" si="5"/>
         <v>"Elapsed"=&gt;0.55 * hauteurEcran,</v>
       </c>
       <c r="B38" s="22"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="str">
-        <f>""""&amp;A8&amp;"""=&gt;"&amp;E8&amp;" * hauteurEcran,"</f>
+        <f t="shared" si="5"/>
         <v>"ProvenanceBG"=&gt;0.49 * hauteurEcran,</v>
       </c>
       <c r="B39" s="22"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="str">
-        <f>""""&amp;A9&amp;"""=&gt;"&amp;E9&amp;" * hauteurEcran,"</f>
+        <f t="shared" si="5"/>
         <v>"Secondes"=&gt;0.36 * hauteurEcran,</v>
       </c>
       <c r="B40" s="22"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="str">
-        <f t="shared" ref="A41:A44" si="4">""""&amp;A10&amp;"""=&gt;"&amp;E10&amp;" * hauteurEcran,"</f>
+        <f t="shared" ref="A41:A44" si="6">""""&amp;A10&amp;"""=&gt;"&amp;E10&amp;" * hauteurEcran,"</f>
         <v>"Temperature"=&gt;0.78 * hauteurEcran,</v>
       </c>
       <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Wind"=&gt;0.78 * hauteurEcran,</v>
       </c>
       <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"Batterie"=&gt;0.92 * hauteurEcran,</v>
       </c>
       <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>"labelMin"=&gt;0.66 * hauteurEcran,</v>
       </c>
       <c r="B44" s="22"/>
@@ -10605,84 +11449,84 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
+        <f t="shared" ref="A48:A55" si="7">""""&amp;A2&amp;"""=&gt;"&amp;F2&amp;","</f>
         <v>"date"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B48" s="22"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="str">
-        <f>""""&amp;A3&amp;"""=&gt;"&amp;F3&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"heure"=&gt;Gfx.FONT_NUMBER_HOT,</v>
       </c>
       <c r="B49" s="23"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="str">
-        <f>""""&amp;A4&amp;"""=&gt;"&amp;F4&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"notif"=&gt;Gfx.FONT_MEDIUM,</v>
       </c>
       <c r="B50" s="22"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="str">
-        <f>""""&amp;A5&amp;"""=&gt;"&amp;F5&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"BG"=&gt;Gfx.FONT_NUMBER_HOT,</v>
       </c>
       <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="str">
-        <f>""""&amp;A6&amp;"""=&gt;"&amp;F6&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"Delta"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="str">
-        <f>""""&amp;A7&amp;"""=&gt;"&amp;F7&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"Elapsed"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="str">
-        <f>""""&amp;A8&amp;"""=&gt;"&amp;F8&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"ProvenanceBG"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="str">
-        <f>""""&amp;A9&amp;"""=&gt;"&amp;F9&amp;","</f>
+        <f t="shared" si="7"/>
         <v>"Secondes"=&gt;Gfx.FONT_NUMBER_MILD,</v>
       </c>
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="str">
-        <f t="shared" ref="A56:A59" si="5">""""&amp;A10&amp;"""=&gt;"&amp;F10&amp;","</f>
+        <f t="shared" ref="A56:A59" si="8">""""&amp;A10&amp;"""=&gt;"&amp;F10&amp;","</f>
         <v>"Temperature"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"Wind"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"Batterie"=&gt;Gfx.FONT_LARGE,</v>
       </c>
       <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>"labelMin"=&gt;Gfx.FONT_XTINY,</v>
       </c>
       <c r="B59" s="22"/>
@@ -10705,84 +11549,84 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="str">
-        <f>""""&amp;A2&amp;"""=&gt;"&amp;G2&amp;","</f>
+        <f t="shared" ref="A63:A70" si="9">""""&amp;A2&amp;"""=&gt;"&amp;G2&amp;","</f>
         <v>"date"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B63" s="22"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="str">
-        <f>""""&amp;A3&amp;"""=&gt;"&amp;G3&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"heure"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B64" s="22"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="str">
-        <f>""""&amp;A4&amp;"""=&gt;"&amp;G4&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"notif"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B65" s="23"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="str">
-        <f>""""&amp;A5&amp;"""=&gt;"&amp;G5&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"BG"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B66" s="22"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="str">
-        <f>""""&amp;A6&amp;"""=&gt;"&amp;G6&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"Delta"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B67" s="22"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="str">
-        <f>""""&amp;A7&amp;"""=&gt;"&amp;G7&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"Elapsed"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B68" s="22"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="str">
-        <f>""""&amp;A8&amp;"""=&gt;"&amp;G8&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"ProvenanceBG"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B69" s="22"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="str">
-        <f>""""&amp;A9&amp;"""=&gt;"&amp;G9&amp;","</f>
+        <f t="shared" si="9"/>
         <v>"Secondes"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B70" s="22"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="str">
-        <f t="shared" ref="A71:A74" si="6">""""&amp;A10&amp;"""=&gt;"&amp;G10&amp;","</f>
+        <f t="shared" ref="A71:A74" si="10">""""&amp;A10&amp;"""=&gt;"&amp;G10&amp;","</f>
         <v>"Temperature"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"Wind"=&gt;Gfx.TEXT_JUSTIFY_RIGHT,</v>
       </c>
       <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"Batterie"=&gt;Gfx.TEXT_JUSTIFY_CENTER,</v>
       </c>
       <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>"labelMin"=&gt;Gfx.TEXT_JUSTIFY_LEFT,</v>
       </c>
       <c r="B74" s="22"/>
@@ -10822,7 +11666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -11111,7 +11955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -12120,7 +12964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>

--- a/Modèles.xlsx
+++ b/Modèles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="modèles" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
     <sheet name="manifest" sheetId="3" r:id="rId5"/>
     <sheet name="calculs" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">manifest!$A$1:$A$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modèles!$A$1:$N$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modèles!$A$1:$P$139</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="686">
   <si>
     <t>deviceId</t>
   </si>
@@ -1568,12 +1565,6 @@
     <t>ModeleOK ?</t>
   </si>
   <si>
-    <t>Menus ?</t>
-  </si>
-  <si>
-    <t>OK menus</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
@@ -1785,6 +1776,321 @@
   </si>
   <si>
     <t>y2*</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="approachs50"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="approachs7042mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="approachs7047mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="d2air"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="d2airx10"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="d2delta"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="d2deltapx"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="d2deltas"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="d2mach1"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="descentg2"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="descentmk2"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="descentmk2s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="descentmk343mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="descentmk351mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="enduro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="enduro3"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="epix2"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="epix2pro42mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="epix2pro47mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="epix2pro51mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix5"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix5plus"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix5s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix5splus"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix5x"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix5xplus"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix6"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix6pro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix6s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix6spro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix6xpro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7pro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7pronowifi"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7spro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7x"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7xpro"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix7xpronowifi"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix843mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix847mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix8solar47mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenix8solar51mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenixchronos"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fenixe"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr165"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr165m"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr245"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr245m"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr255"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr255m"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr255s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr255sm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr265"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr265s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr55"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr57042mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr57047mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr645"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr645m"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr745"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr935"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr945"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr945lte"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr955"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr965"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="fr970"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="instinct3amoled45mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="instinct3amoled50mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="legacyherocaptainmarvel"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="legacyherofirstavenger"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="legacysagadarthvader"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="legacysagarey"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marq2"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marq2aviator"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqadventurer"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqathlete"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqaviator"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqcaptain"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqcommander"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqdriver"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqexpedition"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="marqgolfer"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu2"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu2plus"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu2s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu3"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu3s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu441mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venu445mm"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="venud"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive3"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive3m"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive3mlte"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive4"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive4s"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive5"/&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;iq:product id="vivoactive6"/&gt;</t>
+  </si>
+  <si>
+    <t>OK manifest</t>
+  </si>
+  <si>
+    <t>Menus (3.2.0) ?</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>OUI CIQ OK</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>resources</t>
   </si>
 </sst>
 </file>
@@ -2441,372 +2747,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Modèles"/>
-      <sheetName val="has map"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="écran"/>
-      <sheetName val="strings"/>
-      <sheetName val="drawables"/>
-      <sheetName val="TEXTE"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>D2™ Charlie</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>D2™ Delta PX</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>D2™ Delta S</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>D2™ Delta</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>D2™ Mach 1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Descent™ Mk1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Descent™ Mk2 / Descent™ Mk2i</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Descent™ Mk2 S</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Descent™ Mk3 43mm / Mk3i 43mm</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Descent™ Mk3i 51mm</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Edge® 1030 / Bontrager</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Edge® 1030 Plus</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Edge® 1030</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Edge® 1040 / 1040 Solar</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Edge® 1050</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Edge® 520 Plus</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Edge® 530</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Edge® 540 / 540 Solar</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Edge® 820 / Explore</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Edge® 830</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Edge® 840 / 840 Solar</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Edge® Explore 2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Edge® Explore</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Enduro™ 3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>epix™ (Gen 2) / quatix® 7 Sapphire</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>epix™ Pro (Gen 2) 42mm</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>epix™ Pro (Gen 2) 47mm / quatix® 7 Pro</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>epix™ Pro (Gen 2) 51mm / D2™ Mach 1 Pro / tactix® 7 – AMOLED Edition</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Forerunner® 945 LTE</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Forerunner® 945</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Forerunner® 955 / Solar</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Forerunner® 965</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>fēnix® 5 Plus</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>fēnix® 5S Plus</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>fēnix® 5X / tactix® Charlie</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>fēnix® 5X Plus</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>fēnix® 6 Pro / 6 Sapphire / 6 Pro Solar / 6 Pro Dual Power / quatix® 6</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>fēnix® 6S Pro / 6S Sapphire / 6S Pro Solar / 6S Pro Dual Power</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>fēnix® 6X Pro / 6X Sapphire / 6X Pro Solar / tactix® Delta Sapphire / Delta Solar / Delta Solar - Ballistics Edition / quatix® 6X / 6X Solar / 6X Dual Power</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>fēnix® 7 / quatix® 7</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>fēnix® 7 Pro - Solar Edition (no Wi-Fi)</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>fēnix® 7 Pro</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>fēnix® 7S Pro</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>fēnix® 7S</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>fēnix® 7X / tactix® 7 / quatix® 7X Solar / Enduro™ 2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>fēnix® 7X Pro - Solar Edition (no Wi-Fi)</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>fēnix® 7X Pro</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>fēnix® 8 43mm</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>fēnix® 8 47mm / 51mm / tactix® 8 47mm / 51mm</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>fēnix® 8 Solar 47mm</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>fēnix® 8 Solar 51mm / tactix® 8 Solar 51mm</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>fēnix® E</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>GPSMAP® 66s / 66i / 66sr / 66st</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>GPSMAP® 67 / 67i</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>GPSMAP® 86s / 86sc / 86i / 86sci</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>MARQ® (Gen 2) Athlete / Adventurer / Captain / Golfer / Carbon Edition / Commander - Carbon Edition</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>MARQ® (Gen 2) Aviator</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>MARQ® Adventurer</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>MARQ® Athlete</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>MARQ® Aviator</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>MARQ® Captain / MARQ® Captain: American Magic Edition</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>MARQ® Commander</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>MARQ® Driver</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>MARQ® Expedition</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>MARQ® Golfer</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>Montana® 7 Series</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>Oregon® 7 Series</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>Rino® 7 Series</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -3071,12 +3011,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,9 +3027,11 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3124,17 +3066,22 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3165,18 +3112,26 @@
       <c r="K2">
         <v>65536</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="str">
+        <f>IFERROR(VLOOKUP(A2,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M2" t="s">
         <v>366</v>
       </c>
-      <c r="M2" t="str">
-        <f>IFERROR(VLOOKUP(A2,manifest!A:A,1,0),"")</f>
-        <v>approachs50</v>
-      </c>
       <c r="N2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O2" t="str">
+        <f>A2&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>approachs50.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P2" t="str">
+        <f>A2&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>approachs50.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3210,19 +3165,18 @@
       <c r="K3">
         <v>32768</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="str">
+        <f>IFERROR(VLOOKUP(A3,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M3" t="s">
         <v>366</v>
       </c>
-      <c r="M3" t="str">
-        <f>IFERROR(VLOOKUP(A3,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <f>IFERROR(VLOOKUP(B3,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3256,19 +3210,18 @@
       <c r="K4">
         <v>65536</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="str">
+        <f>IFERROR(VLOOKUP(A4,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M4" t="s">
         <v>366</v>
       </c>
-      <c r="M4" t="str">
-        <f>IFERROR(VLOOKUP(A4,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <f>IFERROR(VLOOKUP(B4,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3302,18 +3255,26 @@
       <c r="K5">
         <v>65536</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="str">
+        <f>IFERROR(VLOOKUP(A5,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M5" t="s">
         <v>366</v>
       </c>
-      <c r="M5" t="str">
-        <f>IFERROR(VLOOKUP(A5,manifest!A:A,1,0),"")</f>
-        <v>approachs7042mm</v>
-      </c>
       <c r="N5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5:O6" si="0">A5&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>approachs7042mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P6" si="1">A5&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>approachs7042mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3347,18 +3308,26 @@
       <c r="K6">
         <v>65536</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="str">
+        <f>IFERROR(VLOOKUP(A6,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M6" t="s">
         <v>366</v>
       </c>
-      <c r="M6" t="str">
-        <f>IFERROR(VLOOKUP(A6,manifest!A:A,1,0),"")</f>
-        <v>approachs7047mm</v>
-      </c>
       <c r="N6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>approachs7047mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>approachs7047mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3392,19 +3361,18 @@
       <c r="K7">
         <v>32768</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="str">
+        <f>IFERROR(VLOOKUP(A7,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M7" t="s">
         <v>366</v>
       </c>
-      <c r="M7" t="str">
-        <f>IFERROR(VLOOKUP(A7,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <f>IFERROR(VLOOKUP(B7,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3438,18 +3406,26 @@
       <c r="K8">
         <v>65536</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="str">
+        <f>IFERROR(VLOOKUP(A8,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M8" t="s">
         <v>366</v>
       </c>
-      <c r="M8" t="str">
-        <f>IFERROR(VLOOKUP(A8,manifest!A:A,1,0),"")</f>
-        <v>d2air</v>
-      </c>
       <c r="N8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" ref="O8:O9" si="2">A8&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>d2air.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ref="P8:P9" si="3">A8&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>d2air.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3483,18 +3459,26 @@
       <c r="K9">
         <v>65536</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="str">
+        <f>IFERROR(VLOOKUP(A9,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M9" t="s">
         <v>366</v>
       </c>
-      <c r="M9" t="str">
-        <f>IFERROR(VLOOKUP(A9,manifest!A:A,1,0),"")</f>
-        <v>d2airx10</v>
-      </c>
       <c r="N9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>d2airx10.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v>d2airx10.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3528,19 +3512,18 @@
       <c r="K10">
         <v>65536</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="str">
+        <f>IFERROR(VLOOKUP(A10,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M10" t="s">
         <v>375</v>
       </c>
-      <c r="M10" t="str">
-        <f>IFERROR(VLOOKUP(A10,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <f>IFERROR(VLOOKUP(B10,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3574,19 +3557,18 @@
       <c r="K11">
         <v>65536</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="str">
+        <f>IFERROR(VLOOKUP(A11,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M11" t="s">
         <v>375</v>
       </c>
-      <c r="M11" t="str">
-        <f>IFERROR(VLOOKUP(A11,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <f>IFERROR(VLOOKUP(B11,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3620,19 +3602,18 @@
       <c r="K12">
         <v>32768</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="str">
+        <f>IFERROR(VLOOKUP(A12,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M12" t="s">
         <v>375</v>
       </c>
-      <c r="M12" t="str">
-        <f>IFERROR(VLOOKUP(A12,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <f>IFERROR(VLOOKUP(B12,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3666,19 +3647,18 @@
       <c r="K13">
         <v>32768</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="str">
+        <f>IFERROR(VLOOKUP(A13,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M13" t="s">
         <v>375</v>
       </c>
-      <c r="M13" t="str">
-        <f>IFERROR(VLOOKUP(A13,manifest!A:A,1,0),"")</f>
-        <v>d2delta</v>
-      </c>
-      <c r="N13" t="str">
-        <f>A13&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>d2delta.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3712,19 +3692,18 @@
       <c r="K14">
         <v>32768</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="str">
+        <f>IFERROR(VLOOKUP(A14,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M14" t="s">
         <v>375</v>
       </c>
-      <c r="M14" t="str">
-        <f>IFERROR(VLOOKUP(A14,manifest!A:A,1,0),"")</f>
-        <v>d2deltapx</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" ref="N14:N15" si="0">A14&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>d2deltapx.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3758,19 +3737,18 @@
       <c r="K15">
         <v>32768</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="str">
+        <f>IFERROR(VLOOKUP(A15,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M15" t="s">
         <v>375</v>
       </c>
-      <c r="M15" t="str">
-        <f>IFERROR(VLOOKUP(A15,manifest!A:A,1,0),"")</f>
-        <v>d2deltas</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="0"/>
-        <v>d2deltas.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3804,18 +3782,26 @@
       <c r="K16">
         <v>65536</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="str">
+        <f>IFERROR(VLOOKUP(A16,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M16" t="s">
         <v>366</v>
       </c>
-      <c r="M16" t="str">
-        <f>IFERROR(VLOOKUP(A16,manifest!A:A,1,0),"")</f>
-        <v>d2mach1</v>
-      </c>
       <c r="N16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O16" t="str">
+        <f>A16&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>d2mach1.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P16" t="str">
+        <f>A16&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>d2mach1.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3849,19 +3835,18 @@
       <c r="K17">
         <v>32768</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="str">
+        <f>IFERROR(VLOOKUP(A17,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M17" t="s">
         <v>375</v>
       </c>
-      <c r="M17" t="str">
-        <f>IFERROR(VLOOKUP(A17,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <f>IFERROR(VLOOKUP(B17,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3895,18 +3880,26 @@
       <c r="K18">
         <v>65536</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="str">
+        <f>IFERROR(VLOOKUP(A18,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M18" t="s">
         <v>366</v>
       </c>
-      <c r="M18" t="str">
-        <f>IFERROR(VLOOKUP(A18,manifest!A:A,1,0),"")</f>
-        <v>descentg2</v>
-      </c>
       <c r="N18" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O18" t="str">
+        <f>A18&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>descentg2.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P18" t="str">
+        <f>A18&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>descentg2.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -3940,19 +3933,18 @@
       <c r="K19">
         <v>32768</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" t="str">
+        <f>IFERROR(VLOOKUP(A19,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M19" t="s">
         <v>375</v>
       </c>
-      <c r="M19" t="str">
-        <f>IFERROR(VLOOKUP(A19,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <f>IFERROR(VLOOKUP(B19,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3986,18 +3978,22 @@
       <c r="K20">
         <v>32768</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" t="str">
+        <f>IFERROR(VLOOKUP(A20,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M20" t="s">
         <v>375</v>
       </c>
-      <c r="M20" t="str">
-        <f>IFERROR(VLOOKUP(A20,manifest!A:A,1,0),"")</f>
-        <v>descentmk2</v>
-      </c>
       <c r="N20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O20" t="str">
+        <f>A20&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>descentmk2.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -4031,18 +4027,22 @@
       <c r="K21">
         <v>32768</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" t="str">
+        <f>IFERROR(VLOOKUP(A21,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M21" t="s">
         <v>375</v>
       </c>
-      <c r="M21" t="str">
-        <f>IFERROR(VLOOKUP(A21,manifest!A:A,1,0),"")</f>
-        <v>descentmk2s</v>
-      </c>
       <c r="N21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O21" t="str">
+        <f>A21&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>descentmk2s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -4076,18 +4076,26 @@
       <c r="K22">
         <v>65536</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" t="str">
+        <f>IFERROR(VLOOKUP(A22,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M22" t="s">
         <v>366</v>
       </c>
-      <c r="M22" t="str">
-        <f>IFERROR(VLOOKUP(A22,manifest!A:A,1,0),"")</f>
-        <v>descentmk343mm</v>
-      </c>
       <c r="N22" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" ref="O22:O23" si="4">A22&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>descentmk343mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" ref="P22:P23" si="5">A22&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>descentmk343mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -4121,18 +4129,26 @@
       <c r="K23">
         <v>65536</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" t="str">
+        <f>IFERROR(VLOOKUP(A23,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M23" t="s">
         <v>366</v>
       </c>
-      <c r="M23" t="str">
-        <f>IFERROR(VLOOKUP(A23,manifest!A:A,1,0),"")</f>
-        <v>descentmk351mm</v>
-      </c>
       <c r="N23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="4"/>
+        <v>descentmk351mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>descentmk351mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -4166,18 +4182,22 @@
       <c r="K24">
         <v>32768</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" t="str">
+        <f>IFERROR(VLOOKUP(A24,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M24" t="s">
         <v>375</v>
       </c>
-      <c r="M24" t="str">
-        <f>IFERROR(VLOOKUP(A24,manifest!A:A,1,0),"")</f>
-        <v>enduro</v>
-      </c>
       <c r="N24" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O24" t="str">
+        <f>A24&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>enduro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -4211,18 +4231,26 @@
       <c r="K25">
         <v>65536</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" t="str">
+        <f>IFERROR(VLOOKUP(A25,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M25" t="s">
         <v>366</v>
       </c>
-      <c r="M25" t="str">
-        <f>IFERROR(VLOOKUP(A25,manifest!A:A,1,0),"")</f>
-        <v>enduro3</v>
-      </c>
       <c r="N25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O25" t="str">
+        <f>A25&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>enduro3.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P25" t="str">
+        <f>A25&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>enduro3.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -4256,19 +4284,18 @@
       <c r="K26">
         <v>65536</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" t="str">
+        <f>IFERROR(VLOOKUP(A26,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M26" t="s">
         <v>366</v>
       </c>
-      <c r="M26" t="str">
-        <f>IFERROR(VLOOKUP(A26,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <f>IFERROR(VLOOKUP(B26,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4302,18 +4329,26 @@
       <c r="K27">
         <v>65536</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" t="str">
+        <f>IFERROR(VLOOKUP(A27,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M27" t="s">
         <v>366</v>
       </c>
-      <c r="M27" t="str">
-        <f>IFERROR(VLOOKUP(A27,manifest!A:A,1,0),"")</f>
-        <v>epix2</v>
-      </c>
       <c r="N27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" ref="O27:O30" si="6">A27&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>epix2.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" ref="P27:P30" si="7">A27&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>epix2.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -4347,18 +4382,26 @@
       <c r="K28">
         <v>65536</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" t="str">
+        <f>IFERROR(VLOOKUP(A28,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M28" t="s">
         <v>366</v>
       </c>
-      <c r="M28" t="str">
-        <f>IFERROR(VLOOKUP(A28,manifest!A:A,1,0),"")</f>
-        <v>epix2pro42mm</v>
-      </c>
       <c r="N28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>epix2pro42mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>epix2pro42mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -4392,18 +4435,26 @@
       <c r="K29">
         <v>65536</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" t="str">
+        <f>IFERROR(VLOOKUP(A29,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M29" t="s">
         <v>366</v>
       </c>
-      <c r="M29" t="str">
-        <f>IFERROR(VLOOKUP(A29,manifest!A:A,1,0),"")</f>
-        <v>epix2pro47mm</v>
-      </c>
       <c r="N29" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>epix2pro47mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>epix2pro47mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -4437,18 +4488,26 @@
       <c r="K30">
         <v>65536</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" t="str">
+        <f>IFERROR(VLOOKUP(A30,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M30" t="s">
         <v>366</v>
       </c>
-      <c r="M30" t="str">
-        <f>IFERROR(VLOOKUP(A30,manifest!A:A,1,0),"")</f>
-        <v>epix2pro51mm</v>
-      </c>
       <c r="N30" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>epix2pro51mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>epix2pro51mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -4482,19 +4541,18 @@
       <c r="K31">
         <v>65536</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" t="str">
+        <f>IFERROR(VLOOKUP(A31,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M31" t="s">
         <v>375</v>
       </c>
-      <c r="M31" t="str">
-        <f>IFERROR(VLOOKUP(A31,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <f>IFERROR(VLOOKUP(B31,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -4528,19 +4586,18 @@
       <c r="K32">
         <v>65536</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" t="str">
+        <f>IFERROR(VLOOKUP(A32,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M32" t="s">
         <v>375</v>
       </c>
-      <c r="M32" t="str">
-        <f>IFERROR(VLOOKUP(A32,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <f>IFERROR(VLOOKUP(B32,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -4574,19 +4631,18 @@
       <c r="K33">
         <v>32768</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" t="str">
+        <f>IFERROR(VLOOKUP(A33,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M33" t="s">
         <v>375</v>
       </c>
-      <c r="M33" t="str">
-        <f>IFERROR(VLOOKUP(A33,manifest!A:A,1,0),"")</f>
-        <v>fenix5</v>
-      </c>
-      <c r="N33" t="str">
-        <f>A33&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>fenix5.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -4620,18 +4676,22 @@
       <c r="K34">
         <v>32768</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" t="str">
+        <f>IFERROR(VLOOKUP(A34,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M34" t="s">
         <v>375</v>
       </c>
-      <c r="M34" t="str">
-        <f>IFERROR(VLOOKUP(A34,manifest!A:A,1,0),"")</f>
-        <v>fenix5plus</v>
-      </c>
       <c r="N34" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O34" t="str">
+        <f>A34&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fenix5plus.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -4665,19 +4725,18 @@
       <c r="K35">
         <v>32768</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" t="str">
+        <f>IFERROR(VLOOKUP(A35,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M35" t="s">
         <v>375</v>
       </c>
-      <c r="M35" t="str">
-        <f>IFERROR(VLOOKUP(A35,manifest!A:A,1,0),"")</f>
-        <v>fenix5s</v>
-      </c>
-      <c r="N35" t="str">
-        <f>A35&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>fenix5s.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -4711,18 +4770,22 @@
       <c r="K36">
         <v>32768</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" t="str">
+        <f>IFERROR(VLOOKUP(A36,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M36" t="s">
         <v>375</v>
       </c>
-      <c r="M36" t="str">
-        <f>IFERROR(VLOOKUP(A36,manifest!A:A,1,0),"")</f>
-        <v>fenix5splus</v>
-      </c>
       <c r="N36" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O36" t="str">
+        <f>A36&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fenix5splus.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -4756,19 +4819,18 @@
       <c r="K37">
         <v>32768</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" t="str">
+        <f>IFERROR(VLOOKUP(A37,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M37" t="s">
         <v>375</v>
       </c>
-      <c r="M37" t="str">
-        <f>IFERROR(VLOOKUP(A37,manifest!A:A,1,0),"")</f>
-        <v>fenix5x</v>
-      </c>
-      <c r="N37" t="str">
-        <f>A37&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>fenix5x.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -4802,18 +4864,22 @@
       <c r="K38">
         <v>32768</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" t="str">
+        <f>IFERROR(VLOOKUP(A38,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M38" t="s">
         <v>375</v>
       </c>
-      <c r="M38" t="str">
-        <f>IFERROR(VLOOKUP(A38,manifest!A:A,1,0),"")</f>
-        <v>fenix5xplus</v>
-      </c>
       <c r="N38" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" ref="O38:O43" si="8">A38&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fenix5xplus.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -4847,18 +4913,22 @@
       <c r="K39">
         <v>32768</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" t="str">
+        <f>IFERROR(VLOOKUP(A39,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M39" t="s">
         <v>375</v>
       </c>
-      <c r="M39" t="str">
-        <f>IFERROR(VLOOKUP(A39,manifest!A:A,1,0),"")</f>
-        <v>fenix6</v>
-      </c>
       <c r="N39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>fenix6.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -4892,18 +4962,22 @@
       <c r="K40">
         <v>32768</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" t="str">
+        <f>IFERROR(VLOOKUP(A40,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M40" t="s">
         <v>375</v>
       </c>
-      <c r="M40" t="str">
-        <f>IFERROR(VLOOKUP(A40,manifest!A:A,1,0),"")</f>
-        <v>fenix6pro</v>
-      </c>
       <c r="N40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="8"/>
+        <v>fenix6pro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -4937,18 +5011,22 @@
       <c r="K41">
         <v>32768</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" t="str">
+        <f>IFERROR(VLOOKUP(A41,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M41" t="s">
         <v>375</v>
       </c>
-      <c r="M41" t="str">
-        <f>IFERROR(VLOOKUP(A41,manifest!A:A,1,0),"")</f>
-        <v>fenix6s</v>
-      </c>
       <c r="N41" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="8"/>
+        <v>fenix6s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -4982,18 +5060,22 @@
       <c r="K42">
         <v>32768</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" t="str">
+        <f>IFERROR(VLOOKUP(A42,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M42" t="s">
         <v>375</v>
       </c>
-      <c r="M42" t="str">
-        <f>IFERROR(VLOOKUP(A42,manifest!A:A,1,0),"")</f>
-        <v>fenix6spro</v>
-      </c>
       <c r="N42" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="8"/>
+        <v>fenix6spro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -5027,18 +5109,22 @@
       <c r="K43">
         <v>32768</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" t="str">
+        <f>IFERROR(VLOOKUP(A43,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M43" t="s">
         <v>375</v>
       </c>
-      <c r="M43" t="str">
-        <f>IFERROR(VLOOKUP(A43,manifest!A:A,1,0),"")</f>
-        <v>fenix6xpro</v>
-      </c>
       <c r="N43" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="8"/>
+        <v>fenix6xpro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -5072,18 +5158,26 @@
       <c r="K44">
         <v>65536</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" t="str">
+        <f>IFERROR(VLOOKUP(A44,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M44" t="s">
         <v>366</v>
       </c>
-      <c r="M44" t="str">
-        <f>IFERROR(VLOOKUP(A44,manifest!A:A,1,0),"")</f>
-        <v>fenix7</v>
-      </c>
       <c r="N44" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" ref="O44:O55" si="9">A44&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>fenix7.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" ref="P44:P55" si="10">A44&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>fenix7.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -5117,18 +5211,26 @@
       <c r="K45">
         <v>65536</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" t="str">
+        <f>IFERROR(VLOOKUP(A45,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M45" t="s">
         <v>366</v>
       </c>
-      <c r="M45" t="str">
-        <f>IFERROR(VLOOKUP(A45,manifest!A:A,1,0),"")</f>
-        <v>fenix7pro</v>
-      </c>
       <c r="N45" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7pro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7pro.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -5162,18 +5264,26 @@
       <c r="K46">
         <v>65536</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" t="str">
+        <f>IFERROR(VLOOKUP(A46,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M46" t="s">
         <v>366</v>
       </c>
-      <c r="M46" t="str">
-        <f>IFERROR(VLOOKUP(A46,manifest!A:A,1,0),"")</f>
-        <v>fenix7pronowifi</v>
-      </c>
       <c r="N46" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7pronowifi.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7pronowifi.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -5207,18 +5317,26 @@
       <c r="K47">
         <v>65536</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" t="str">
+        <f>IFERROR(VLOOKUP(A47,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M47" t="s">
         <v>366</v>
       </c>
-      <c r="M47" t="str">
-        <f>IFERROR(VLOOKUP(A47,manifest!A:A,1,0),"")</f>
-        <v>fenix7s</v>
-      </c>
       <c r="N47" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7s.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -5252,18 +5370,26 @@
       <c r="K48">
         <v>65536</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" t="str">
+        <f>IFERROR(VLOOKUP(A48,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M48" t="s">
         <v>366</v>
       </c>
-      <c r="M48" t="str">
-        <f>IFERROR(VLOOKUP(A48,manifest!A:A,1,0),"")</f>
-        <v>fenix7spro</v>
-      </c>
       <c r="N48" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7spro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7spro.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -5297,18 +5423,26 @@
       <c r="K49">
         <v>65536</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" t="str">
+        <f>IFERROR(VLOOKUP(A49,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M49" t="s">
         <v>366</v>
       </c>
-      <c r="M49" t="str">
-        <f>IFERROR(VLOOKUP(A49,manifest!A:A,1,0),"")</f>
-        <v>fenix7x</v>
-      </c>
       <c r="N49" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7x.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7x.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -5342,18 +5476,26 @@
       <c r="K50">
         <v>65536</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" t="str">
+        <f>IFERROR(VLOOKUP(A50,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M50" t="s">
         <v>366</v>
       </c>
-      <c r="M50" t="str">
-        <f>IFERROR(VLOOKUP(A50,manifest!A:A,1,0),"")</f>
-        <v>fenix7xpro</v>
-      </c>
       <c r="N50" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7xpro.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7xpro.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -5387,18 +5529,26 @@
       <c r="K51">
         <v>65536</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" t="str">
+        <f>IFERROR(VLOOKUP(A51,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M51" t="s">
         <v>366</v>
       </c>
-      <c r="M51" t="str">
-        <f>IFERROR(VLOOKUP(A51,manifest!A:A,1,0),"")</f>
-        <v>fenix7xpronowifi</v>
-      </c>
       <c r="N51" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix7xpronowifi.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix7xpronowifi.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -5432,18 +5582,26 @@
       <c r="K52">
         <v>65536</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" t="str">
+        <f>IFERROR(VLOOKUP(A52,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M52" t="s">
         <v>366</v>
       </c>
-      <c r="M52" t="str">
-        <f>IFERROR(VLOOKUP(A52,manifest!A:A,1,0),"")</f>
-        <v>fenix843mm</v>
-      </c>
       <c r="N52" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix843mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix843mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -5477,18 +5635,26 @@
       <c r="K53">
         <v>65536</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" t="str">
+        <f>IFERROR(VLOOKUP(A53,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M53" t="s">
         <v>366</v>
       </c>
-      <c r="M53" t="str">
-        <f>IFERROR(VLOOKUP(A53,manifest!A:A,1,0),"")</f>
-        <v>fenix847mm</v>
-      </c>
       <c r="N53" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix847mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix847mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -5522,18 +5688,26 @@
       <c r="K54">
         <v>65536</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" t="str">
+        <f>IFERROR(VLOOKUP(A54,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M54" t="s">
         <v>366</v>
       </c>
-      <c r="M54" t="str">
-        <f>IFERROR(VLOOKUP(A54,manifest!A:A,1,0),"")</f>
-        <v>fenix8solar47mm</v>
-      </c>
       <c r="N54" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix8solar47mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix8solar47mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -5567,18 +5741,26 @@
       <c r="K55">
         <v>65536</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" t="str">
+        <f>IFERROR(VLOOKUP(A55,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M55" t="s">
         <v>366</v>
       </c>
-      <c r="M55" t="str">
-        <f>IFERROR(VLOOKUP(A55,manifest!A:A,1,0),"")</f>
-        <v>fenix8solar51mm</v>
-      </c>
       <c r="N55" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="9"/>
+        <v>fenix8solar51mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="10"/>
+        <v>fenix8solar51mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -5612,19 +5794,18 @@
       <c r="K56">
         <v>32768</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" t="str">
+        <f>IFERROR(VLOOKUP(A56,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M56" t="s">
         <v>375</v>
       </c>
-      <c r="M56" t="str">
-        <f>IFERROR(VLOOKUP(A56,manifest!A:A,1,0),"")</f>
-        <v>fenixchronos</v>
-      </c>
-      <c r="N56" t="str">
-        <f>A56&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>fenixchronos.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -5658,18 +5839,26 @@
       <c r="K57">
         <v>65536</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" t="str">
+        <f>IFERROR(VLOOKUP(A57,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M57" t="s">
         <v>366</v>
       </c>
-      <c r="M57" t="str">
-        <f>IFERROR(VLOOKUP(A57,manifest!A:A,1,0),"")</f>
-        <v>fenixe</v>
-      </c>
       <c r="N57" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" ref="O57:O59" si="11">A57&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>fenixe.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" ref="P57:P59" si="12">A57&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>fenixe.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -5703,18 +5892,26 @@
       <c r="K58">
         <v>65536</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" t="str">
+        <f>IFERROR(VLOOKUP(A58,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M58" t="s">
         <v>366</v>
       </c>
-      <c r="M58" t="str">
-        <f>IFERROR(VLOOKUP(A58,manifest!A:A,1,0),"")</f>
-        <v>fr165</v>
-      </c>
       <c r="N58" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="11"/>
+        <v>fr165.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="12"/>
+        <v>fr165.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -5748,18 +5945,26 @@
       <c r="K59">
         <v>65536</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" t="str">
+        <f>IFERROR(VLOOKUP(A59,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M59" t="s">
         <v>366</v>
       </c>
-      <c r="M59" t="str">
-        <f>IFERROR(VLOOKUP(A59,manifest!A:A,1,0),"")</f>
-        <v>fr165m</v>
-      </c>
       <c r="N59" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="11"/>
+        <v>fr165m.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="12"/>
+        <v>fr165m.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -5793,19 +5998,18 @@
       <c r="K60">
         <v>65536</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" t="str">
+        <f>IFERROR(VLOOKUP(A60,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M60" t="s">
         <v>375</v>
       </c>
-      <c r="M60" t="str">
-        <f>IFERROR(VLOOKUP(A60,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N60" t="str">
-        <f>IFERROR(VLOOKUP(B60,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -5839,19 +6043,18 @@
       <c r="K61">
         <v>65536</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" t="str">
+        <f>IFERROR(VLOOKUP(A61,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M61" t="s">
         <v>375</v>
       </c>
-      <c r="M61" t="str">
-        <f>IFERROR(VLOOKUP(A61,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N61" t="str">
-        <f>IFERROR(VLOOKUP(B61,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -5885,18 +6088,22 @@
       <c r="K62">
         <v>32768</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" t="str">
+        <f>IFERROR(VLOOKUP(A62,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M62" t="s">
         <v>375</v>
       </c>
-      <c r="M62" t="str">
-        <f>IFERROR(VLOOKUP(A62,manifest!A:A,1,0),"")</f>
-        <v>fr245</v>
-      </c>
       <c r="N62" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" ref="O62:O67" si="13">A62&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fr245.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>162</v>
       </c>
@@ -5930,18 +6137,22 @@
       <c r="K63">
         <v>65536</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" t="str">
+        <f>IFERROR(VLOOKUP(A63,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M63" t="s">
         <v>375</v>
       </c>
-      <c r="M63" t="str">
-        <f>IFERROR(VLOOKUP(A63,manifest!A:A,1,0),"")</f>
-        <v>fr245m</v>
-      </c>
       <c r="N63" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="13"/>
+        <v>fr245m.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -5975,18 +6186,22 @@
       <c r="K64">
         <v>65536</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" t="str">
+        <f>IFERROR(VLOOKUP(A64,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M64" t="s">
         <v>375</v>
       </c>
-      <c r="M64" t="str">
-        <f>IFERROR(VLOOKUP(A64,manifest!A:A,1,0),"")</f>
-        <v>fr255</v>
-      </c>
       <c r="N64" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="13"/>
+        <v>fr255.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -6020,18 +6235,22 @@
       <c r="K65">
         <v>65536</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" t="str">
+        <f>IFERROR(VLOOKUP(A65,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M65" t="s">
         <v>375</v>
       </c>
-      <c r="M65" t="str">
-        <f>IFERROR(VLOOKUP(A65,manifest!A:A,1,0),"")</f>
-        <v>fr255m</v>
-      </c>
       <c r="N65" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="13"/>
+        <v>fr255m.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>168</v>
       </c>
@@ -6065,18 +6284,22 @@
       <c r="K66">
         <v>65536</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" t="str">
+        <f>IFERROR(VLOOKUP(A66,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M66" t="s">
         <v>375</v>
       </c>
-      <c r="M66" t="str">
-        <f>IFERROR(VLOOKUP(A66,manifest!A:A,1,0),"")</f>
-        <v>fr255s</v>
-      </c>
       <c r="N66" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="13"/>
+        <v>fr255s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -6110,18 +6333,22 @@
       <c r="K67">
         <v>65536</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" t="str">
+        <f>IFERROR(VLOOKUP(A67,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M67" t="s">
         <v>375</v>
       </c>
-      <c r="M67" t="str">
-        <f>IFERROR(VLOOKUP(A67,manifest!A:A,1,0),"")</f>
-        <v>fr255sm</v>
-      </c>
       <c r="N67" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="13"/>
+        <v>fr255sm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>172</v>
       </c>
@@ -6155,18 +6382,26 @@
       <c r="K68">
         <v>65536</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" t="str">
+        <f>IFERROR(VLOOKUP(A68,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M68" t="s">
         <v>366</v>
       </c>
-      <c r="M68" t="str">
-        <f>IFERROR(VLOOKUP(A68,manifest!A:A,1,0),"")</f>
-        <v>fr265</v>
-      </c>
       <c r="N68" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" ref="O68:O69" si="14">A68&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>fr265.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" ref="P68:P69" si="15">A68&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>fr265.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -6200,18 +6435,26 @@
       <c r="K69">
         <v>65536</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" t="str">
+        <f>IFERROR(VLOOKUP(A69,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M69" t="s">
         <v>366</v>
       </c>
-      <c r="M69" t="str">
-        <f>IFERROR(VLOOKUP(A69,manifest!A:A,1,0),"")</f>
-        <v>fr265s</v>
-      </c>
       <c r="N69" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="14"/>
+        <v>fr265s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="15"/>
+        <v>fr265s.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>177</v>
       </c>
@@ -6245,19 +6488,18 @@
       <c r="K70">
         <v>65536</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" t="str">
+        <f>IFERROR(VLOOKUP(A70,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M70" t="s">
         <v>375</v>
       </c>
-      <c r="M70" t="str">
-        <f>IFERROR(VLOOKUP(A70,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N70" t="str">
-        <f>IFERROR(VLOOKUP(B70,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -6291,19 +6533,18 @@
       <c r="K71">
         <v>32768</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" t="str">
+        <f>IFERROR(VLOOKUP(A71,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M71" t="s">
         <v>375</v>
       </c>
-      <c r="M71" t="str">
-        <f>IFERROR(VLOOKUP(A71,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N71" t="str">
-        <f>IFERROR(VLOOKUP(B71,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -6337,18 +6578,26 @@
       <c r="K72">
         <v>65536</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" t="str">
+        <f>IFERROR(VLOOKUP(A72,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M72" t="s">
         <v>366</v>
       </c>
-      <c r="M72" t="str">
-        <f>IFERROR(VLOOKUP(A72,manifest!A:A,1,0),"")</f>
-        <v>fr57042mm</v>
-      </c>
       <c r="N72" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" ref="O72:O73" si="16">A72&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>fr57042mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" ref="P72:P73" si="17">A72&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>fr57042mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>185</v>
       </c>
@@ -6382,18 +6631,26 @@
       <c r="K73">
         <v>65536</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" t="str">
+        <f>IFERROR(VLOOKUP(A73,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M73" t="s">
         <v>366</v>
       </c>
-      <c r="M73" t="str">
-        <f>IFERROR(VLOOKUP(A73,manifest!A:A,1,0),"")</f>
-        <v>fr57047mm</v>
-      </c>
       <c r="N73" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="16"/>
+        <v>fr57047mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="17"/>
+        <v>fr57047mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -6427,19 +6684,18 @@
       <c r="K74">
         <v>65536</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" t="str">
+        <f>IFERROR(VLOOKUP(A74,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M74" t="s">
         <v>366</v>
       </c>
-      <c r="M74" t="str">
-        <f>IFERROR(VLOOKUP(A74,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N74" t="str">
-        <f>IFERROR(VLOOKUP(B74,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -6473,19 +6729,18 @@
       <c r="K75">
         <v>32768</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" t="str">
+        <f>IFERROR(VLOOKUP(A75,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M75" t="s">
         <v>375</v>
       </c>
-      <c r="M75" t="str">
-        <f>IFERROR(VLOOKUP(A75,manifest!A:A,1,0),"")</f>
-        <v>fr645</v>
-      </c>
-      <c r="N75" t="str">
-        <f>A75&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>fr645.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -6519,18 +6774,22 @@
       <c r="K76">
         <v>65536</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" t="str">
+        <f>IFERROR(VLOOKUP(A76,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M76" t="s">
         <v>375</v>
       </c>
-      <c r="M76" t="str">
-        <f>IFERROR(VLOOKUP(A76,manifest!A:A,1,0),"")</f>
-        <v>fr645m</v>
-      </c>
       <c r="N76" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O76" t="str">
+        <f>A76&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fr645m.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -6564,19 +6823,18 @@
       <c r="K77">
         <v>32768</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" t="str">
+        <f>IFERROR(VLOOKUP(A77,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M77" t="s">
         <v>375</v>
       </c>
-      <c r="M77" t="str">
-        <f>IFERROR(VLOOKUP(A77,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N77" t="str">
-        <f>IFERROR(VLOOKUP(B77,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -6610,18 +6868,22 @@
       <c r="K78">
         <v>65536</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" t="str">
+        <f>IFERROR(VLOOKUP(A78,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M78" t="s">
         <v>375</v>
       </c>
-      <c r="M78" t="str">
-        <f>IFERROR(VLOOKUP(A78,manifest!A:A,1,0),"")</f>
-        <v>fr745</v>
-      </c>
       <c r="N78" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O78" t="str">
+        <f>A78&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fr745.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>198</v>
       </c>
@@ -6655,19 +6917,18 @@
       <c r="K79">
         <v>65536</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" t="str">
+        <f>IFERROR(VLOOKUP(A79,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M79" t="s">
         <v>375</v>
       </c>
-      <c r="M79" t="str">
-        <f>IFERROR(VLOOKUP(A79,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N79" t="str">
-        <f>IFERROR(VLOOKUP(B79,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>200</v>
       </c>
@@ -6701,19 +6962,18 @@
       <c r="K80">
         <v>32768</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" t="str">
+        <f>IFERROR(VLOOKUP(A80,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M80" t="s">
         <v>375</v>
       </c>
-      <c r="M80" t="str">
-        <f>IFERROR(VLOOKUP(A80,manifest!A:A,1,0),"")</f>
-        <v>fr935</v>
-      </c>
-      <c r="N80" t="str">
-        <f>A80&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>fr935.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -6747,18 +7007,22 @@
       <c r="K81">
         <v>65536</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" t="str">
+        <f>IFERROR(VLOOKUP(A81,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M81" t="s">
         <v>375</v>
       </c>
-      <c r="M81" t="str">
-        <f>IFERROR(VLOOKUP(A81,manifest!A:A,1,0),"")</f>
-        <v>fr945</v>
-      </c>
       <c r="N81" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" ref="O81:O82" si="18">A81&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>fr945.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -6792,18 +7056,22 @@
       <c r="K82">
         <v>65536</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" t="str">
+        <f>IFERROR(VLOOKUP(A82,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M82" t="s">
         <v>375</v>
       </c>
-      <c r="M82" t="str">
-        <f>IFERROR(VLOOKUP(A82,manifest!A:A,1,0),"")</f>
-        <v>fr945lte</v>
-      </c>
       <c r="N82" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="18"/>
+        <v>fr945lte.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -6837,18 +7105,26 @@
       <c r="K83">
         <v>65536</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" t="str">
+        <f>IFERROR(VLOOKUP(A83,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M83" t="s">
         <v>366</v>
       </c>
-      <c r="M83" t="str">
-        <f>IFERROR(VLOOKUP(A83,manifest!A:A,1,0),"")</f>
-        <v>fr955</v>
-      </c>
       <c r="N83" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" ref="O83:O85" si="19">A83&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>fr955.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" ref="P83:P85" si="20">A83&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>fr955.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>209</v>
       </c>
@@ -6882,18 +7158,26 @@
       <c r="K84">
         <v>65536</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" t="str">
+        <f>IFERROR(VLOOKUP(A84,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M84" t="s">
         <v>366</v>
       </c>
-      <c r="M84" t="str">
-        <f>IFERROR(VLOOKUP(A84,manifest!A:A,1,0),"")</f>
-        <v>fr965</v>
-      </c>
       <c r="N84" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="19"/>
+        <v>fr965.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="20"/>
+        <v>fr965.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -6927,18 +7211,26 @@
       <c r="K85">
         <v>65536</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" t="str">
+        <f>IFERROR(VLOOKUP(A85,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M85" t="s">
         <v>366</v>
       </c>
-      <c r="M85" t="str">
-        <f>IFERROR(VLOOKUP(A85,manifest!A:A,1,0),"")</f>
-        <v>fr970</v>
-      </c>
       <c r="N85" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="19"/>
+        <v>fr970.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="20"/>
+        <v>fr970.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -6972,19 +7264,18 @@
       <c r="K86">
         <v>65536</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" t="str">
+        <f>IFERROR(VLOOKUP(A86,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M86" t="s">
         <v>375</v>
       </c>
-      <c r="M86" t="str">
-        <f>IFERROR(VLOOKUP(A86,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N86" t="str">
-        <f>IFERROR(VLOOKUP(B86,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -7018,19 +7309,18 @@
       <c r="K87">
         <v>32768</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" t="str">
+        <f>IFERROR(VLOOKUP(A87,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M87" t="s">
         <v>375</v>
       </c>
-      <c r="M87" t="str">
-        <f>IFERROR(VLOOKUP(A87,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N87" t="str">
-        <f>IFERROR(VLOOKUP(B87,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>217</v>
       </c>
@@ -7064,19 +7354,18 @@
       <c r="K88">
         <v>32768</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" t="str">
+        <f>IFERROR(VLOOKUP(A88,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M88" t="s">
         <v>375</v>
       </c>
-      <c r="M88" t="str">
-        <f>IFERROR(VLOOKUP(A88,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N88" t="str">
-        <f>IFERROR(VLOOKUP(B88,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>220</v>
       </c>
@@ -7110,19 +7399,18 @@
       <c r="K89">
         <v>32768</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" t="str">
+        <f>IFERROR(VLOOKUP(A89,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M89" t="s">
         <v>375</v>
       </c>
-      <c r="M89" t="str">
-        <f>IFERROR(VLOOKUP(A89,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N89" t="str">
-        <f>IFERROR(VLOOKUP(B89,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -7156,18 +7444,22 @@
       <c r="K90">
         <v>65536</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" t="str">
+        <f>IFERROR(VLOOKUP(A90,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M90" t="s">
         <v>375</v>
       </c>
-      <c r="M90" t="str">
-        <f>IFERROR(VLOOKUP(A90,manifest!A:A,1,0),"")</f>
-        <v>instinct3amoled45mm</v>
-      </c>
       <c r="N90" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" ref="O90:O91" si="21">A90&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>instinct3amoled45mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>224</v>
       </c>
@@ -7201,18 +7493,22 @@
       <c r="K91">
         <v>65536</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" t="str">
+        <f>IFERROR(VLOOKUP(A91,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M91" t="s">
         <v>375</v>
       </c>
-      <c r="M91" t="str">
-        <f>IFERROR(VLOOKUP(A91,manifest!A:A,1,0),"")</f>
-        <v>instinct3amoled50mm</v>
-      </c>
       <c r="N91" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="21"/>
+        <v>instinct3amoled50mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -7246,19 +7542,18 @@
       <c r="K92">
         <v>32768</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" t="str">
+        <f>IFERROR(VLOOKUP(A92,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M92" t="s">
         <v>375</v>
       </c>
-      <c r="M92" t="str">
-        <f>IFERROR(VLOOKUP(A92,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N92" t="str">
-        <f>IFERROR(VLOOKUP(B92,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>460</v>
       </c>
@@ -7292,19 +7587,18 @@
       <c r="K93">
         <v>32768</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" t="str">
+        <f>IFERROR(VLOOKUP(A93,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M93" t="s">
         <v>375</v>
       </c>
-      <c r="M93" t="str">
-        <f>IFERROR(VLOOKUP(A93,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N93" t="str">
-        <f>IFERROR(VLOOKUP(B93,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>228</v>
       </c>
@@ -7338,19 +7632,18 @@
       <c r="K94">
         <v>32768</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" t="str">
+        <f>IFERROR(VLOOKUP(A94,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M94" t="s">
         <v>375</v>
       </c>
-      <c r="M94" t="str">
-        <f>IFERROR(VLOOKUP(A94,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N94" t="str">
-        <f>IFERROR(VLOOKUP(B94,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -7384,19 +7677,18 @@
       <c r="K95">
         <v>32768</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" t="str">
+        <f>IFERROR(VLOOKUP(A95,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M95" t="s">
         <v>375</v>
       </c>
-      <c r="M95" t="str">
-        <f>IFERROR(VLOOKUP(A95,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N95" t="str">
-        <f>IFERROR(VLOOKUP(B95,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>233</v>
       </c>
@@ -7430,19 +7722,18 @@
       <c r="K96">
         <v>32768</v>
       </c>
-      <c r="L96" t="s">
+      <c r="L96" t="str">
+        <f>IFERROR(VLOOKUP(A96,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M96" t="s">
         <v>375</v>
       </c>
-      <c r="M96" t="str">
-        <f>IFERROR(VLOOKUP(A96,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N96" t="str">
-        <f t="shared" ref="N96" si="1">"&lt;iq:product id="""&amp;A96&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="instincte45mm"/&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>235</v>
       </c>
@@ -7476,18 +7767,26 @@
       <c r="K97">
         <v>65536</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" t="str">
+        <f>IFERROR(VLOOKUP(A97,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M97" t="s">
         <v>366</v>
       </c>
-      <c r="M97" t="str">
-        <f>IFERROR(VLOOKUP(A97,manifest!A:A,1,0),"")</f>
-        <v>legacyherocaptainmarvel</v>
-      </c>
       <c r="N97" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" ref="O97:O100" si="22">A97&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>legacyherocaptainmarvel.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" ref="P97:P100" si="23">A97&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>legacyherocaptainmarvel.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -7521,18 +7820,26 @@
       <c r="K98">
         <v>65536</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" t="str">
+        <f>IFERROR(VLOOKUP(A98,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M98" t="s">
         <v>366</v>
       </c>
-      <c r="M98" t="str">
-        <f>IFERROR(VLOOKUP(A98,manifest!A:A,1,0),"")</f>
-        <v>legacyherofirstavenger</v>
-      </c>
       <c r="N98" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="22"/>
+        <v>legacyherofirstavenger.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="23"/>
+        <v>legacyherofirstavenger.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>241</v>
       </c>
@@ -7566,18 +7873,26 @@
       <c r="K99">
         <v>65536</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" t="str">
+        <f>IFERROR(VLOOKUP(A99,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M99" t="s">
         <v>366</v>
       </c>
-      <c r="M99" t="str">
-        <f>IFERROR(VLOOKUP(A99,manifest!A:A,1,0),"")</f>
-        <v>legacysagadarthvader</v>
-      </c>
       <c r="N99" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="22"/>
+        <v>legacysagadarthvader.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="23"/>
+        <v>legacysagadarthvader.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>243</v>
       </c>
@@ -7611,18 +7926,26 @@
       <c r="K100">
         <v>65536</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" t="str">
+        <f>IFERROR(VLOOKUP(A100,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M100" t="s">
         <v>366</v>
       </c>
-      <c r="M100" t="str">
-        <f>IFERROR(VLOOKUP(A100,manifest!A:A,1,0),"")</f>
-        <v>legacysagarey</v>
-      </c>
       <c r="N100" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="22"/>
+        <v>legacysagarey.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="23"/>
+        <v>legacysagarey.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>245</v>
       </c>
@@ -7656,19 +7979,18 @@
       <c r="K101">
         <v>65536</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" t="str">
+        <f>IFERROR(VLOOKUP(A101,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M101" t="s">
         <v>375</v>
       </c>
-      <c r="M101" t="str">
-        <f>IFERROR(VLOOKUP(A101,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" ref="N101:N112" si="2">"&lt;iq:product id="""&amp;A101&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="lily2"/&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>249</v>
       </c>
@@ -7702,18 +8024,26 @@
       <c r="K102">
         <v>65536</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" t="str">
+        <f>IFERROR(VLOOKUP(A102,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M102" t="s">
         <v>366</v>
       </c>
-      <c r="M102" t="str">
-        <f>IFERROR(VLOOKUP(A102,manifest!A:A,1,0),"")</f>
-        <v>marq2</v>
-      </c>
       <c r="N102" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" ref="O102:O103" si="24">A102&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>marq2.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" ref="P102:P103" si="25">A102&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>marq2.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -7747,18 +8077,26 @@
       <c r="K103">
         <v>65536</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" t="str">
+        <f>IFERROR(VLOOKUP(A103,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M103" t="s">
         <v>366</v>
       </c>
-      <c r="M103" t="str">
-        <f>IFERROR(VLOOKUP(A103,manifest!A:A,1,0),"")</f>
-        <v>marq2aviator</v>
-      </c>
       <c r="N103" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="24"/>
+        <v>marq2aviator.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="25"/>
+        <v>marq2aviator.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -7792,18 +8130,22 @@
       <c r="K104">
         <v>32768</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" t="str">
+        <f>IFERROR(VLOOKUP(A104,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M104" t="s">
         <v>375</v>
       </c>
-      <c r="M104" t="str">
-        <f>IFERROR(VLOOKUP(A104,manifest!A:A,1,0),"")</f>
-        <v>marqadventurer</v>
-      </c>
       <c r="N104" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" ref="O104:O111" si="26">A104&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus"</f>
+        <v>marqadventurer.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>255</v>
       </c>
@@ -7837,18 +8179,22 @@
       <c r="K105">
         <v>32768</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" t="str">
+        <f>IFERROR(VLOOKUP(A105,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M105" t="s">
         <v>375</v>
       </c>
-      <c r="M105" t="str">
-        <f>IFERROR(VLOOKUP(A105,manifest!A:A,1,0),"")</f>
-        <v>marqathlete</v>
-      </c>
       <c r="N105" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="26"/>
+        <v>marqathlete.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>257</v>
       </c>
@@ -7882,18 +8228,22 @@
       <c r="K106">
         <v>32768</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" t="str">
+        <f>IFERROR(VLOOKUP(A106,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M106" t="s">
         <v>375</v>
       </c>
-      <c r="M106" t="str">
-        <f>IFERROR(VLOOKUP(A106,manifest!A:A,1,0),"")</f>
-        <v>marqaviator</v>
-      </c>
       <c r="N106" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="26"/>
+        <v>marqaviator.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>259</v>
       </c>
@@ -7927,18 +8277,22 @@
       <c r="K107">
         <v>32768</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" t="str">
+        <f>IFERROR(VLOOKUP(A107,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M107" t="s">
         <v>375</v>
       </c>
-      <c r="M107" t="str">
-        <f>IFERROR(VLOOKUP(A107,manifest!A:A,1,0),"")</f>
-        <v>marqcaptain</v>
-      </c>
       <c r="N107" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="26"/>
+        <v>marqcaptain.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>261</v>
       </c>
@@ -7972,18 +8326,22 @@
       <c r="K108">
         <v>32768</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" t="str">
+        <f>IFERROR(VLOOKUP(A108,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M108" t="s">
         <v>375</v>
       </c>
-      <c r="M108" t="str">
-        <f>IFERROR(VLOOKUP(A108,manifest!A:A,1,0),"")</f>
-        <v>marqcommander</v>
-      </c>
       <c r="N108" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="26"/>
+        <v>marqcommander.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>263</v>
       </c>
@@ -8017,18 +8375,22 @@
       <c r="K109">
         <v>32768</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" t="str">
+        <f>IFERROR(VLOOKUP(A109,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M109" t="s">
         <v>375</v>
       </c>
-      <c r="M109" t="str">
-        <f>IFERROR(VLOOKUP(A109,manifest!A:A,1,0),"")</f>
-        <v>marqdriver</v>
-      </c>
       <c r="N109" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="26"/>
+        <v>marqdriver.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>265</v>
       </c>
@@ -8062,18 +8424,22 @@
       <c r="K110">
         <v>32768</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" t="str">
+        <f>IFERROR(VLOOKUP(A110,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M110" t="s">
         <v>375</v>
       </c>
-      <c r="M110" t="str">
-        <f>IFERROR(VLOOKUP(A110,manifest!A:A,1,0),"")</f>
-        <v>marqexpedition</v>
-      </c>
       <c r="N110" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="26"/>
+        <v>marqexpedition.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>267</v>
       </c>
@@ -8107,18 +8473,22 @@
       <c r="K111">
         <v>32768</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" t="str">
+        <f>IFERROR(VLOOKUP(A111,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M111" t="s">
         <v>375</v>
       </c>
-      <c r="M111" t="str">
-        <f>IFERROR(VLOOKUP(A111,manifest!A:A,1,0),"")</f>
-        <v>marqgolfer</v>
-      </c>
       <c r="N111" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="26"/>
+        <v>marqgolfer.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithButtonsMenus</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>477</v>
       </c>
@@ -8152,19 +8522,18 @@
       <c r="K112">
         <v>65536</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" t="str">
+        <f>IFERROR(VLOOKUP(A112,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M112" t="s">
         <v>366</v>
       </c>
-      <c r="M112" t="str">
-        <f>IFERROR(VLOOKUP(A112,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N112" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;iq:product id="system8preview"/&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>269</v>
       </c>
@@ -8198,18 +8567,26 @@
       <c r="K113">
         <v>65536</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" t="str">
+        <f>IFERROR(VLOOKUP(A113,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M113" t="s">
         <v>366</v>
       </c>
-      <c r="M113" t="str">
-        <f>IFERROR(VLOOKUP(A113,manifest!A:A,1,0),"")</f>
-        <v>venu</v>
-      </c>
       <c r="N113" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" ref="O113:O121" si="27">A113&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>venu.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" ref="P113:P121" si="28">A113&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>venu.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>271</v>
       </c>
@@ -8243,18 +8620,26 @@
       <c r="K114">
         <v>65536</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" t="str">
+        <f>IFERROR(VLOOKUP(A114,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M114" t="s">
         <v>366</v>
       </c>
-      <c r="M114" t="str">
-        <f>IFERROR(VLOOKUP(A114,manifest!A:A,1,0),"")</f>
-        <v>venu2</v>
-      </c>
       <c r="N114" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="27"/>
+        <v>venu2.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="28"/>
+        <v>venu2.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -8288,18 +8673,26 @@
       <c r="K115">
         <v>65536</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" t="str">
+        <f>IFERROR(VLOOKUP(A115,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M115" t="s">
         <v>366</v>
       </c>
-      <c r="M115" t="str">
-        <f>IFERROR(VLOOKUP(A115,manifest!A:A,1,0),"")</f>
-        <v>venu2plus</v>
-      </c>
       <c r="N115" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="27"/>
+        <v>venu2plus.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="28"/>
+        <v>venu2plus.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>275</v>
       </c>
@@ -8333,18 +8726,26 @@
       <c r="K116">
         <v>65536</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" t="str">
+        <f>IFERROR(VLOOKUP(A116,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M116" t="s">
         <v>366</v>
       </c>
-      <c r="M116" t="str">
-        <f>IFERROR(VLOOKUP(A116,manifest!A:A,1,0),"")</f>
-        <v>venu2s</v>
-      </c>
       <c r="N116" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="27"/>
+        <v>venu2s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="28"/>
+        <v>venu2s.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -8378,18 +8779,26 @@
       <c r="K117">
         <v>65536</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" t="str">
+        <f>IFERROR(VLOOKUP(A117,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M117" t="s">
         <v>366</v>
       </c>
-      <c r="M117" t="str">
-        <f>IFERROR(VLOOKUP(A117,manifest!A:A,1,0),"")</f>
-        <v>venu3</v>
-      </c>
       <c r="N117" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="27"/>
+        <v>venu3.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" si="28"/>
+        <v>venu3.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>279</v>
       </c>
@@ -8423,18 +8832,26 @@
       <c r="K118">
         <v>65536</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L118" t="str">
+        <f>IFERROR(VLOOKUP(A118,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M118" t="s">
         <v>366</v>
       </c>
-      <c r="M118" t="str">
-        <f>IFERROR(VLOOKUP(A118,manifest!A:A,1,0),"")</f>
-        <v>venu3s</v>
-      </c>
       <c r="N118" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="27"/>
+        <v>venu3s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="28"/>
+        <v>venu3s.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>281</v>
       </c>
@@ -8468,18 +8885,26 @@
       <c r="K119">
         <v>65536</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" t="str">
+        <f>IFERROR(VLOOKUP(A119,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M119" t="s">
         <v>366</v>
       </c>
-      <c r="M119" t="str">
-        <f>IFERROR(VLOOKUP(A119,manifest!A:A,1,0),"")</f>
-        <v>venu441mm</v>
-      </c>
       <c r="N119" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="27"/>
+        <v>venu441mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="28"/>
+        <v>venu441mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -8513,18 +8938,26 @@
       <c r="K120">
         <v>65536</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L120" t="str">
+        <f>IFERROR(VLOOKUP(A120,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M120" t="s">
         <v>366</v>
       </c>
-      <c r="M120" t="str">
-        <f>IFERROR(VLOOKUP(A120,manifest!A:A,1,0),"")</f>
-        <v>venu445mm</v>
-      </c>
       <c r="N120" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="27"/>
+        <v>venu445mm.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="28"/>
+        <v>venu445mm.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -8558,18 +8991,26 @@
       <c r="K121">
         <v>65536</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L121" t="str">
+        <f>IFERROR(VLOOKUP(A121,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M121" t="s">
         <v>366</v>
       </c>
-      <c r="M121" t="str">
-        <f>IFERROR(VLOOKUP(A121,manifest!A:A,1,0),"")</f>
-        <v>venud</v>
-      </c>
       <c r="N121" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="27"/>
+        <v>venud.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="28"/>
+        <v>venud.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>288</v>
       </c>
@@ -8603,19 +9044,18 @@
       <c r="K122">
         <v>32768</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" t="str">
+        <f>IFERROR(VLOOKUP(A122,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M122" t="s">
         <v>366</v>
       </c>
-      <c r="M122" t="str">
-        <f>IFERROR(VLOOKUP(A122,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N122" t="str">
-        <f>IFERROR(VLOOKUP(B122,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -8649,19 +9089,18 @@
       <c r="K123">
         <v>65536</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" t="str">
+        <f>IFERROR(VLOOKUP(A123,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M123" t="s">
         <v>366</v>
       </c>
-      <c r="M123" t="str">
-        <f>IFERROR(VLOOKUP(A123,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N123" t="str">
-        <f>IFERROR(VLOOKUP(B123,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -8695,19 +9134,18 @@
       <c r="K124">
         <v>65536</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" t="str">
+        <f>IFERROR(VLOOKUP(A124,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M124" t="s">
         <v>366</v>
       </c>
-      <c r="M124" t="str">
-        <f>IFERROR(VLOOKUP(A124,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N124" t="str">
-        <f>IFERROR(VLOOKUP(B124,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -8741,19 +9179,18 @@
       <c r="K125">
         <v>65536</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" t="str">
+        <f>IFERROR(VLOOKUP(A125,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M125" t="s">
         <v>366</v>
       </c>
-      <c r="M125" t="str">
-        <f>IFERROR(VLOOKUP(A125,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N125" t="str">
-        <f>IFERROR(VLOOKUP(B125,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>297</v>
       </c>
@@ -8787,19 +9224,18 @@
       <c r="K126">
         <v>65536</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" t="str">
+        <f>IFERROR(VLOOKUP(A126,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M126" t="s">
         <v>366</v>
       </c>
-      <c r="M126" t="str">
-        <f>IFERROR(VLOOKUP(A126,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N126" t="str">
-        <f>"&lt;iq:product id="""&amp;A126&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="venux1"/&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -8833,19 +9269,18 @@
       <c r="K127">
         <v>65536</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" t="str">
+        <f>IFERROR(VLOOKUP(A127,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M127" t="s">
         <v>366</v>
       </c>
-      <c r="M127" t="str">
-        <f>IFERROR(VLOOKUP(A127,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N127" t="str">
-        <f>IFERROR(VLOOKUP(B127,[1]Feuil1!$A$2:$A$69,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>303</v>
       </c>
@@ -8879,19 +9314,18 @@
       <c r="K128">
         <v>32768</v>
       </c>
-      <c r="L128" t="s">
+      <c r="L128" t="str">
+        <f>IFERROR(VLOOKUP(A128,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M128" t="s">
         <v>366</v>
       </c>
-      <c r="M128" t="str">
-        <f>IFERROR(VLOOKUP(A128,manifest!A:A,1,0),"")</f>
-        <v>vivoactive3</v>
-      </c>
-      <c r="N128" t="str">
-        <f>A128&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>vivoactive3.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>305</v>
       </c>
@@ -8925,19 +9359,18 @@
       <c r="K129">
         <v>32768</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L129" t="str">
+        <f>IFERROR(VLOOKUP(A129,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M129" t="s">
         <v>366</v>
       </c>
-      <c r="M129" t="str">
-        <f>IFERROR(VLOOKUP(A129,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N129" t="str">
-        <f t="shared" ref="N129" si="3">"&lt;iq:product id="""&amp;A129&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="vivoactive3d"/&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>307</v>
       </c>
@@ -8971,19 +9404,26 @@
       <c r="K130">
         <v>65536</v>
       </c>
-      <c r="L130" t="s">
+      <c r="L130" t="str">
+        <f>IFERROR(VLOOKUP(A130,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M130" t="s">
         <v>366</v>
       </c>
-      <c r="M130" t="str">
-        <f>IFERROR(VLOOKUP(A130,manifest!A:A,1,0),"")</f>
-        <v>vivoactive3m</v>
-      </c>
-      <c r="N130" t="str">
-        <f t="shared" ref="N130:N131" si="4">A130&amp;".excludeAnnotations=""onlyWithSettingOnWatchface"""</f>
-        <v>vivoactive3m.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>683</v>
+      </c>
+      <c r="O130" t="str">
+        <f>A130&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>vivoactive3m.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P130" t="str">
+        <f>A130&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>vivoactive3m.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>309</v>
       </c>
@@ -9017,19 +9457,18 @@
       <c r="K131">
         <v>65536</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L131" t="str">
+        <f>IFERROR(VLOOKUP(A131,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M131" t="s">
         <v>366</v>
       </c>
-      <c r="M131" t="str">
-        <f>IFERROR(VLOOKUP(A131,manifest!A:A,1,0),"")</f>
-        <v>vivoactive3mlte</v>
-      </c>
-      <c r="N131" t="str">
-        <f t="shared" si="4"/>
-        <v>vivoactive3mlte.excludeAnnotations="onlyWithSettingOnWatchface"</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>311</v>
       </c>
@@ -9063,18 +9502,26 @@
       <c r="K132">
         <v>65536</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" t="str">
+        <f>IFERROR(VLOOKUP(A132,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M132" t="s">
         <v>366</v>
       </c>
-      <c r="M132" t="str">
-        <f>IFERROR(VLOOKUP(A132,manifest!A:A,1,0),"")</f>
-        <v>vivoactive4</v>
-      </c>
       <c r="N132" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O132" t="str">
+        <f t="shared" ref="O132:O135" si="29">A132&amp;".sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus"</f>
+        <v>vivoactive4.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" ref="P132:P135" si="30">A132&amp;".resourcePath =resources;resources_onlyWithTouchMenus"</f>
+        <v>vivoactive4.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>313</v>
       </c>
@@ -9108,18 +9555,26 @@
       <c r="K133">
         <v>65536</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" t="str">
+        <f>IFERROR(VLOOKUP(A133,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M133" t="s">
         <v>366</v>
       </c>
-      <c r="M133" t="str">
-        <f>IFERROR(VLOOKUP(A133,manifest!A:A,1,0),"")</f>
-        <v>vivoactive4s</v>
-      </c>
       <c r="N133" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="29"/>
+        <v>vivoactive4s.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="30"/>
+        <v>vivoactive4s.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>315</v>
       </c>
@@ -9153,18 +9608,26 @@
       <c r="K134">
         <v>65536</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" t="str">
+        <f>IFERROR(VLOOKUP(A134,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M134" t="s">
         <v>366</v>
       </c>
-      <c r="M134" t="str">
-        <f>IFERROR(VLOOKUP(A134,manifest!A:A,1,0),"")</f>
-        <v>vivoactive5</v>
-      </c>
       <c r="N134" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="29"/>
+        <v>vivoactive5.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="30"/>
+        <v>vivoactive5.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>317</v>
       </c>
@@ -9198,18 +9661,26 @@
       <c r="K135">
         <v>65536</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" t="str">
+        <f>IFERROR(VLOOKUP(A135,manifest!A:B,2,0),"NON")</f>
+        <v>OK manifest</v>
+      </c>
+      <c r="M135" t="s">
         <v>366</v>
       </c>
-      <c r="M135" t="str">
-        <f>IFERROR(VLOOKUP(A135,manifest!A:A,1,0),"")</f>
-        <v>vivoactive6</v>
-      </c>
       <c r="N135" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="29"/>
+        <v>vivoactive6.sourcePath = source;source_onlyWithSettingsOnWatch;source_onlyWithTouchMenus</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="30"/>
+        <v>vivoactive6.resourcePath =resources;resources_onlyWithTouchMenus</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>319</v>
       </c>
@@ -9243,19 +9714,18 @@
       <c r="K136">
         <v>32768</v>
       </c>
-      <c r="L136" t="s">
+      <c r="L136" t="str">
+        <f>IFERROR(VLOOKUP(A136,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M136" t="s">
         <v>366</v>
       </c>
-      <c r="M136" t="str">
-        <f>IFERROR(VLOOKUP(A136,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N136" t="str">
-        <f t="shared" ref="N136:N137" si="5">"&lt;iq:product id="""&amp;A136&amp;"""/&gt;"</f>
-        <v>&lt;iq:product id="vivoactive_hr"/&gt;</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>322</v>
       </c>
@@ -9289,19 +9759,18 @@
       <c r="K137">
         <v>32768</v>
       </c>
-      <c r="L137" t="s">
+      <c r="L137" t="str">
+        <f>IFERROR(VLOOKUP(A137,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M137" t="s">
         <v>366</v>
       </c>
-      <c r="M137" t="str">
-        <f>IFERROR(VLOOKUP(A137,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="N137" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;iq:product id="vivolife"/&gt;</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>326</v>
       </c>
@@ -9335,15 +9804,18 @@
       <c r="K138">
         <v>32768</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L138" t="str">
+        <f>IFERROR(VLOOKUP(A138,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M138" t="s">
         <v>366</v>
       </c>
-      <c r="M138" t="str">
-        <f>IFERROR(VLOOKUP(A138,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>329</v>
       </c>
@@ -9377,71 +9849,22 @@
       <c r="K139">
         <v>32768</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" t="str">
+        <f>IFERROR(VLOOKUP(A139,manifest!A:B,2,0),"NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="M139" t="s">
         <v>375</v>
       </c>
-      <c r="M139" t="str">
-        <f>IFERROR(VLOOKUP(A139,manifest!A:A,1,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D145">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D146">
-        <v>142</v>
-      </c>
-      <c r="E146">
-        <f>D146/D145</f>
-        <v>0.34134615384615385</v>
-      </c>
-    </row>
-    <row r="147" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E147">
-        <f>1-E146</f>
-        <v>0.65865384615384615</v>
-      </c>
-    </row>
-    <row r="148" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H148">
-        <f>0.5-0.16</f>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="J148">
-        <f>0.375-0.625</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="149" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H149">
-        <f>0.16*2</f>
-        <v>0.32</v>
+      <c r="N139" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N139">
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="13">
+  <autoFilter ref="A1:P139">
+    <filterColumn colId="11">
       <filters>
-        <filter val="d2delta.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="d2deltapx.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="d2deltas.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="fenix5.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="fenix5s.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="fenix5x.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="fenixchronos.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="fr645.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="fr935.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="vivoactive3.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="vivoactive3m.excludeAnnotations=&quot;noMenus&quot;"/>
-        <filter val="vivoactive3mlte.excludeAnnotations=&quot;noMenus&quot;"/>
+        <filter val="OK manifest"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9454,7 +9877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -9467,19 +9890,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9617,25 +10040,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" t="s">
+        <v>576</v>
+      </c>
+      <c r="E11" t="s">
         <v>577</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>578</v>
       </c>
-      <c r="C11" t="s">
-        <v>578</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>579</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>580</v>
-      </c>
-      <c r="G11" t="s">
-        <v>581</v>
-      </c>
-      <c r="H11" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9775,7 +10198,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9857,13 +10280,13 @@
         <v>416</v>
       </c>
       <c r="B1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C1" t="s">
         <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E1" t="s">
         <v>352</v>
@@ -10648,11 +11071,11 @@
         <v>349</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF9" s="10">
         <v>0</v>
@@ -10747,14 +11170,14 @@
         <v>354.12</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AD10" s="14"/>
       <c r="AE10" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF10" s="13">
         <v>1</v>
@@ -10849,14 +11272,14 @@
         <v>354.12</v>
       </c>
       <c r="AB11" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AD11" s="17"/>
       <c r="AE11" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF11" s="16">
         <v>2</v>
@@ -10954,11 +11377,11 @@
         <v>346</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AD12" s="14"/>
       <c r="AE12" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF12" s="13">
         <v>3</v>
@@ -11056,11 +11479,11 @@
         <v>343</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AD13" s="17"/>
       <c r="AE13" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF13" s="16">
         <v>4</v>
@@ -11071,11 +11494,11 @@
         <v>348</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AD14" s="14"/>
       <c r="AE14" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF14" s="13">
         <v>5</v>
@@ -11083,14 +11506,14 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AB15" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AC15" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AD15" s="17"/>
       <c r="AE15" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF15" s="16">
         <v>6</v>
@@ -11101,11 +11524,11 @@
         <v>345</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AD16" s="14"/>
       <c r="AE16" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF16" s="13">
         <v>7</v>
@@ -11117,14 +11540,14 @@
       </c>
       <c r="B17" s="22"/>
       <c r="AB17" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AC17" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AD17" s="17"/>
       <c r="AE17" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF17" s="16">
         <v>8</v>
@@ -11137,14 +11560,14 @@
       </c>
       <c r="B18" s="22"/>
       <c r="AB18" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AD18" s="14"/>
       <c r="AE18" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF18" s="13">
         <v>9</v>
@@ -11157,14 +11580,14 @@
       </c>
       <c r="B19" s="22"/>
       <c r="AB19" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD19" s="17"/>
       <c r="AE19" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF19" s="16">
         <v>10</v>
@@ -11177,14 +11600,14 @@
       </c>
       <c r="B20" s="22"/>
       <c r="AB20" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AD20" s="14"/>
       <c r="AE20" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF20" s="13">
         <v>11</v>
@@ -11197,14 +11620,14 @@
       </c>
       <c r="B21" s="22"/>
       <c r="AB21" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AD21" s="17"/>
       <c r="AE21" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF21" s="16">
         <v>12</v>
@@ -11217,14 +11640,14 @@
       </c>
       <c r="B22" s="22"/>
       <c r="AB22" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD22" s="14"/>
       <c r="AE22" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF22" s="13">
         <v>13</v>
@@ -11237,14 +11660,14 @@
       </c>
       <c r="B23" s="22"/>
       <c r="AB23" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AD23" s="17"/>
       <c r="AE23" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF23" s="16">
         <v>14</v>
@@ -11257,14 +11680,14 @@
       </c>
       <c r="B24" s="22"/>
       <c r="AB24" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF24" s="13">
         <v>15</v>
@@ -11277,14 +11700,14 @@
       </c>
       <c r="B25" s="22"/>
       <c r="AB25" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AD25" s="17"/>
       <c r="AE25" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF25" s="16">
         <v>16</v>
@@ -11297,14 +11720,14 @@
       </c>
       <c r="B26" s="22"/>
       <c r="AB26" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AC26" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AD26" s="20"/>
       <c r="AE26" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF26" s="19">
         <v>17</v>
@@ -11668,10 +12091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E18"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11679,274 +12102,1030 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>519</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E1" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E3" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E4" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E8" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E9" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>536</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>538</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E10" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E11" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E12" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E14" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E15" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E16" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E17" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E18" s="19">
         <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="M19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="M20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="M22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="M23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="M24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="M25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="M26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="M27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="M28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="M29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="M31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="M32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="M33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="M34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="M35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="M36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="M37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="M38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="M39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="M40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="M41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="M42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="M43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="M44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="M45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="M46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="M47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="M48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="M49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="M50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="M51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="M52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H53" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="M53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="M54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="M55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="M56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="M57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H58" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="M58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H59" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="M59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H60" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="M60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H61" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="M61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="M62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H63" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="M63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="M64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="M65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="M67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H68" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="M68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H69" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="M69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="M70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H71" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="M71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H72" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="M72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H73" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="M73" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H74" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="M74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H75" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="M75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H76" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="M76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H77" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="M77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H78" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="M78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H79" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="M79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H80" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="M80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H81" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="M81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H82" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="M82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H83" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="M83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H84" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="M84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H85" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="M85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H86" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="M86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H87" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="M87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H88" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="M88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H89" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="M89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H90" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="M90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H91" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="M91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H92" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="M92" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H93" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="M93" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H94" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="M94" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H95" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="M95" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H96" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="M96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H97" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="M97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H98" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="M98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H99" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="M99" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -11960,10 +13139,14 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+      <selection activeCell="B3" sqref="B3:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11978,9 +13161,12 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>680</v>
+      </c>
       <c r="C2" t="str">
         <f>VLOOKUP(A2,modèles!$A$1:$M$140,13,0)</f>
-        <v>approachs50</v>
+        <v>Vrai</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -11988,9 +13174,12 @@
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B3" t="s">
+        <v>680</v>
+      </c>
       <c r="C3" t="str">
         <f>VLOOKUP(A3,modèles!$A$1:$M$140,13,0)</f>
-        <v>approachs7042mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -11998,9 +13187,12 @@
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B4" t="s">
+        <v>680</v>
+      </c>
       <c r="C4" t="str">
         <f>VLOOKUP(A4,modèles!$A$1:$M$140,13,0)</f>
-        <v>approachs7047mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -12008,9 +13200,12 @@
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B5" t="s">
+        <v>680</v>
+      </c>
       <c r="C5" t="str">
         <f>VLOOKUP(A5,modèles!$A$1:$M$140,13,0)</f>
-        <v>d2air</v>
+        <v>Vrai</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -12018,9 +13213,12 @@
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B6" t="s">
+        <v>680</v>
+      </c>
       <c r="C6" t="str">
         <f>VLOOKUP(A6,modèles!$A$1:$M$140,13,0)</f>
-        <v>d2airx10</v>
+        <v>Vrai</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -12028,9 +13226,12 @@
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="B7" t="s">
+        <v>680</v>
+      </c>
       <c r="C7" t="str">
         <f>VLOOKUP(A7,modèles!$A$1:$M$140,13,0)</f>
-        <v>d2delta</v>
+        <v>Faux</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -12038,9 +13239,12 @@
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B8" t="s">
+        <v>680</v>
+      </c>
       <c r="C8" t="str">
         <f>VLOOKUP(A8,modèles!$A$1:$M$140,13,0)</f>
-        <v>d2deltapx</v>
+        <v>Faux</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -12048,9 +13252,12 @@
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="B9" t="s">
+        <v>680</v>
+      </c>
       <c r="C9" t="str">
         <f>VLOOKUP(A9,modèles!$A$1:$M$140,13,0)</f>
-        <v>d2deltas</v>
+        <v>Faux</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -12058,9 +13265,12 @@
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B10" t="s">
+        <v>680</v>
+      </c>
       <c r="C10" t="str">
         <f>VLOOKUP(A10,modèles!$A$1:$M$140,13,0)</f>
-        <v>d2mach1</v>
+        <v>Vrai</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -12068,9 +13278,12 @@
       <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B11" t="s">
+        <v>680</v>
+      </c>
       <c r="C11" t="str">
         <f>VLOOKUP(A11,modèles!$A$1:$M$140,13,0)</f>
-        <v>descentg2</v>
+        <v>Vrai</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -12078,9 +13291,12 @@
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="B12" t="s">
+        <v>680</v>
+      </c>
       <c r="C12" t="str">
         <f>VLOOKUP(A12,modèles!$A$1:$M$140,13,0)</f>
-        <v>descentmk2</v>
+        <v>Faux</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -12088,9 +13304,12 @@
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B13" t="s">
+        <v>680</v>
+      </c>
       <c r="C13" t="str">
         <f>VLOOKUP(A13,modèles!$A$1:$M$140,13,0)</f>
-        <v>descentmk2s</v>
+        <v>Faux</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -12098,9 +13317,12 @@
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B14" t="s">
+        <v>680</v>
+      </c>
       <c r="C14" t="str">
         <f>VLOOKUP(A14,modèles!$A$1:$M$140,13,0)</f>
-        <v>descentmk343mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -12108,9 +13330,12 @@
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="B15" t="s">
+        <v>680</v>
+      </c>
       <c r="C15" t="str">
         <f>VLOOKUP(A15,modèles!$A$1:$M$140,13,0)</f>
-        <v>descentmk351mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -12118,9 +13343,12 @@
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
       <c r="C16" t="str">
         <f>VLOOKUP(A16,modèles!$A$1:$M$140,13,0)</f>
-        <v>enduro</v>
+        <v>Faux</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -12128,9 +13356,12 @@
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="B17" t="s">
+        <v>680</v>
+      </c>
       <c r="C17" t="str">
         <f>VLOOKUP(A17,modèles!$A$1:$M$140,13,0)</f>
-        <v>enduro3</v>
+        <v>Vrai</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -12138,9 +13369,12 @@
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="B18" t="s">
+        <v>680</v>
+      </c>
       <c r="C18" t="str">
         <f>VLOOKUP(A18,modèles!$A$1:$M$140,13,0)</f>
-        <v>epix2</v>
+        <v>Vrai</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -12148,9 +13382,12 @@
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="B19" t="s">
+        <v>680</v>
+      </c>
       <c r="C19" t="str">
         <f>VLOOKUP(A19,modèles!$A$1:$M$140,13,0)</f>
-        <v>epix2pro42mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -12158,9 +13395,12 @@
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="B20" t="s">
+        <v>680</v>
+      </c>
       <c r="C20" t="str">
         <f>VLOOKUP(A20,modèles!$A$1:$M$140,13,0)</f>
-        <v>epix2pro47mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -12168,9 +13408,12 @@
       <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="B21" t="s">
+        <v>680</v>
+      </c>
       <c r="C21" t="str">
         <f>VLOOKUP(A21,modèles!$A$1:$M$140,13,0)</f>
-        <v>epix2pro51mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -12178,9 +13421,12 @@
       <c r="A22" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="B22" t="s">
+        <v>680</v>
+      </c>
       <c r="C22" t="str">
         <f>VLOOKUP(A22,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix5</v>
+        <v>Faux</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -12188,9 +13434,12 @@
       <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="B23" t="s">
+        <v>680</v>
+      </c>
       <c r="C23" t="str">
         <f>VLOOKUP(A23,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix5plus</v>
+        <v>Faux</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -12198,9 +13447,12 @@
       <c r="A24" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="B24" t="s">
+        <v>680</v>
+      </c>
       <c r="C24" t="str">
         <f>VLOOKUP(A24,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix5s</v>
+        <v>Faux</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -12208,9 +13460,12 @@
       <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="B25" t="s">
+        <v>680</v>
+      </c>
       <c r="C25" t="str">
         <f>VLOOKUP(A25,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix5splus</v>
+        <v>Faux</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -12218,9 +13473,12 @@
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="B26" t="s">
+        <v>680</v>
+      </c>
       <c r="C26" t="str">
         <f>VLOOKUP(A26,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix5x</v>
+        <v>Faux</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -12228,9 +13486,12 @@
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="B27" t="s">
+        <v>680</v>
+      </c>
       <c r="C27" t="str">
         <f>VLOOKUP(A27,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix5xplus</v>
+        <v>Faux</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -12238,9 +13499,12 @@
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="B28" t="s">
+        <v>680</v>
+      </c>
       <c r="C28" t="str">
         <f>VLOOKUP(A28,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix6</v>
+        <v>Faux</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -12248,9 +13512,12 @@
       <c r="A29" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="B29" t="s">
+        <v>680</v>
+      </c>
       <c r="C29" t="str">
         <f>VLOOKUP(A29,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix6pro</v>
+        <v>Faux</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -12258,9 +13525,12 @@
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="B30" t="s">
+        <v>680</v>
+      </c>
       <c r="C30" t="str">
         <f>VLOOKUP(A30,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix6s</v>
+        <v>Faux</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -12268,9 +13538,12 @@
       <c r="A31" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="B31" t="s">
+        <v>680</v>
+      </c>
       <c r="C31" t="str">
         <f>VLOOKUP(A31,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix6spro</v>
+        <v>Faux</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -12278,9 +13551,12 @@
       <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="B32" t="s">
+        <v>680</v>
+      </c>
       <c r="C32" t="str">
         <f>VLOOKUP(A32,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix6xpro</v>
+        <v>Faux</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -12288,9 +13564,12 @@
       <c r="A33" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="B33" t="s">
+        <v>680</v>
+      </c>
       <c r="C33" t="str">
         <f>VLOOKUP(A33,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7</v>
+        <v>Vrai</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -12298,9 +13577,12 @@
       <c r="A34" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="B34" t="s">
+        <v>680</v>
+      </c>
       <c r="C34" t="str">
         <f>VLOOKUP(A34,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7pro</v>
+        <v>Vrai</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -12308,9 +13590,12 @@
       <c r="A35" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="B35" t="s">
+        <v>680</v>
+      </c>
       <c r="C35" t="str">
         <f>VLOOKUP(A35,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7pronowifi</v>
+        <v>Vrai</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -12318,9 +13603,12 @@
       <c r="A36" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="B36" t="s">
+        <v>680</v>
+      </c>
       <c r="C36" t="str">
         <f>VLOOKUP(A36,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7s</v>
+        <v>Vrai</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -12328,9 +13616,12 @@
       <c r="A37" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="B37" t="s">
+        <v>680</v>
+      </c>
       <c r="C37" t="str">
         <f>VLOOKUP(A37,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7spro</v>
+        <v>Vrai</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -12338,9 +13629,12 @@
       <c r="A38" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="B38" t="s">
+        <v>680</v>
+      </c>
       <c r="C38" t="str">
         <f>VLOOKUP(A38,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7x</v>
+        <v>Vrai</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -12348,9 +13642,12 @@
       <c r="A39" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="B39" t="s">
+        <v>680</v>
+      </c>
       <c r="C39" t="str">
         <f>VLOOKUP(A39,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7xpro</v>
+        <v>Vrai</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -12358,9 +13655,12 @@
       <c r="A40" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="B40" t="s">
+        <v>680</v>
+      </c>
       <c r="C40" t="str">
         <f>VLOOKUP(A40,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix7xpronowifi</v>
+        <v>Vrai</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -12368,9 +13668,12 @@
       <c r="A41" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="B41" t="s">
+        <v>680</v>
+      </c>
       <c r="C41" t="str">
         <f>VLOOKUP(A41,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix843mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -12378,9 +13681,12 @@
       <c r="A42" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="B42" t="s">
+        <v>680</v>
+      </c>
       <c r="C42" t="str">
         <f>VLOOKUP(A42,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix847mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -12388,9 +13694,12 @@
       <c r="A43" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="B43" t="s">
+        <v>680</v>
+      </c>
       <c r="C43" t="str">
         <f>VLOOKUP(A43,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix8solar47mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -12398,9 +13707,12 @@
       <c r="A44" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="B44" t="s">
+        <v>680</v>
+      </c>
       <c r="C44" t="str">
         <f>VLOOKUP(A44,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenix8solar51mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -12408,9 +13720,12 @@
       <c r="A45" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="B45" t="s">
+        <v>680</v>
+      </c>
       <c r="C45" t="str">
         <f>VLOOKUP(A45,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenixchronos</v>
+        <v>Faux</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -12418,9 +13733,12 @@
       <c r="A46" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="B46" t="s">
+        <v>680</v>
+      </c>
       <c r="C46" t="str">
         <f>VLOOKUP(A46,modèles!$A$1:$M$140,13,0)</f>
-        <v>fenixe</v>
+        <v>Vrai</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -12428,9 +13746,12 @@
       <c r="A47" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="B47" t="s">
+        <v>680</v>
+      </c>
       <c r="C47" t="str">
         <f>VLOOKUP(A47,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr165</v>
+        <v>Vrai</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -12438,9 +13759,12 @@
       <c r="A48" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="B48" t="s">
+        <v>680</v>
+      </c>
       <c r="C48" t="str">
         <f>VLOOKUP(A48,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr165m</v>
+        <v>Vrai</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -12448,9 +13772,12 @@
       <c r="A49" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="B49" t="s">
+        <v>680</v>
+      </c>
       <c r="C49" t="str">
         <f>VLOOKUP(A49,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr245</v>
+        <v>Faux</v>
       </c>
       <c r="D49" s="3"/>
     </row>
@@ -12458,9 +13785,12 @@
       <c r="A50" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="B50" t="s">
+        <v>680</v>
+      </c>
       <c r="C50" t="str">
         <f>VLOOKUP(A50,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr245m</v>
+        <v>Faux</v>
       </c>
       <c r="D50" s="3"/>
     </row>
@@ -12468,9 +13798,12 @@
       <c r="A51" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="B51" t="s">
+        <v>680</v>
+      </c>
       <c r="C51" t="str">
         <f>VLOOKUP(A51,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr255</v>
+        <v>Faux</v>
       </c>
       <c r="D51" s="3"/>
     </row>
@@ -12478,9 +13811,12 @@
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
+      <c r="B52" t="s">
+        <v>680</v>
+      </c>
       <c r="C52" t="str">
         <f>VLOOKUP(A52,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr255m</v>
+        <v>Faux</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -12488,9 +13824,12 @@
       <c r="A53" s="3" t="s">
         <v>168</v>
       </c>
+      <c r="B53" t="s">
+        <v>680</v>
+      </c>
       <c r="C53" t="str">
         <f>VLOOKUP(A53,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr255s</v>
+        <v>Faux</v>
       </c>
       <c r="D53" s="3"/>
     </row>
@@ -12498,9 +13837,12 @@
       <c r="A54" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="B54" t="s">
+        <v>680</v>
+      </c>
       <c r="C54" t="str">
         <f>VLOOKUP(A54,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr255sm</v>
+        <v>Faux</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -12508,9 +13850,12 @@
       <c r="A55" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="B55" t="s">
+        <v>680</v>
+      </c>
       <c r="C55" t="str">
         <f>VLOOKUP(A55,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr265</v>
+        <v>Vrai</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -12518,9 +13863,12 @@
       <c r="A56" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="B56" t="s">
+        <v>680</v>
+      </c>
       <c r="C56" t="str">
         <f>VLOOKUP(A56,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr265s</v>
+        <v>Vrai</v>
       </c>
       <c r="D56" s="3"/>
     </row>
@@ -12528,9 +13876,12 @@
       <c r="A57" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="B57" t="s">
+        <v>680</v>
+      </c>
       <c r="C57" t="str">
         <f>VLOOKUP(A57,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr57042mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -12538,9 +13889,12 @@
       <c r="A58" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="B58" t="s">
+        <v>680</v>
+      </c>
       <c r="C58" t="str">
         <f>VLOOKUP(A58,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr57047mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D58" s="3"/>
     </row>
@@ -12548,9 +13902,12 @@
       <c r="A59" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="B59" t="s">
+        <v>680</v>
+      </c>
       <c r="C59" t="str">
         <f>VLOOKUP(A59,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr645</v>
+        <v>Faux</v>
       </c>
       <c r="D59" s="3"/>
     </row>
@@ -12558,9 +13915,12 @@
       <c r="A60" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="B60" t="s">
+        <v>680</v>
+      </c>
       <c r="C60" t="str">
         <f>VLOOKUP(A60,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr645m</v>
+        <v>Faux</v>
       </c>
       <c r="D60" s="3"/>
     </row>
@@ -12568,9 +13928,12 @@
       <c r="A61" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="B61" t="s">
+        <v>680</v>
+      </c>
       <c r="C61" t="str">
         <f>VLOOKUP(A61,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr745</v>
+        <v>Faux</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -12578,9 +13941,12 @@
       <c r="A62" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="B62" t="s">
+        <v>680</v>
+      </c>
       <c r="C62" t="str">
         <f>VLOOKUP(A62,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr935</v>
+        <v>Faux</v>
       </c>
       <c r="D62" s="3"/>
     </row>
@@ -12588,9 +13954,12 @@
       <c r="A63" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="B63" t="s">
+        <v>680</v>
+      </c>
       <c r="C63" t="str">
         <f>VLOOKUP(A63,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr945</v>
+        <v>Faux</v>
       </c>
       <c r="D63" s="3"/>
     </row>
@@ -12598,9 +13967,12 @@
       <c r="A64" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="B64" t="s">
+        <v>680</v>
+      </c>
       <c r="C64" t="str">
         <f>VLOOKUP(A64,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr945lte</v>
+        <v>Faux</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -12608,9 +13980,12 @@
       <c r="A65" s="3" t="s">
         <v>207</v>
       </c>
+      <c r="B65" t="s">
+        <v>680</v>
+      </c>
       <c r="C65" t="str">
         <f>VLOOKUP(A65,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr955</v>
+        <v>Vrai</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -12618,9 +13993,12 @@
       <c r="A66" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="B66" t="s">
+        <v>680</v>
+      </c>
       <c r="C66" t="str">
         <f>VLOOKUP(A66,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr965</v>
+        <v>Vrai</v>
       </c>
       <c r="D66" s="3"/>
     </row>
@@ -12628,9 +14006,12 @@
       <c r="A67" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="B67" t="s">
+        <v>680</v>
+      </c>
       <c r="C67" t="str">
         <f>VLOOKUP(A67,modèles!$A$1:$M$140,13,0)</f>
-        <v>fr970</v>
+        <v>Vrai</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -12638,9 +14019,12 @@
       <c r="A68" s="3" t="s">
         <v>222</v>
       </c>
+      <c r="B68" t="s">
+        <v>680</v>
+      </c>
       <c r="C68" t="str">
         <f>VLOOKUP(A68,modèles!$A$1:$M$140,13,0)</f>
-        <v>instinct3amoled45mm</v>
+        <v>Faux</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -12648,9 +14032,12 @@
       <c r="A69" s="3" t="s">
         <v>224</v>
       </c>
+      <c r="B69" t="s">
+        <v>680</v>
+      </c>
       <c r="C69" t="str">
         <f>VLOOKUP(A69,modèles!$A$1:$M$140,13,0)</f>
-        <v>instinct3amoled50mm</v>
+        <v>Faux</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -12658,9 +14045,12 @@
       <c r="A70" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="B70" t="s">
+        <v>680</v>
+      </c>
       <c r="C70" t="str">
         <f>VLOOKUP(A70,modèles!$A$1:$M$140,13,0)</f>
-        <v>legacyherocaptainmarvel</v>
+        <v>Vrai</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -12668,9 +14058,12 @@
       <c r="A71" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="B71" t="s">
+        <v>680</v>
+      </c>
       <c r="C71" t="str">
         <f>VLOOKUP(A71,modèles!$A$1:$M$140,13,0)</f>
-        <v>legacyherofirstavenger</v>
+        <v>Vrai</v>
       </c>
       <c r="D71" s="3"/>
     </row>
@@ -12678,9 +14071,12 @@
       <c r="A72" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="B72" t="s">
+        <v>680</v>
+      </c>
       <c r="C72" t="str">
         <f>VLOOKUP(A72,modèles!$A$1:$M$140,13,0)</f>
-        <v>legacysagadarthvader</v>
+        <v>Vrai</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -12688,9 +14084,12 @@
       <c r="A73" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="B73" t="s">
+        <v>680</v>
+      </c>
       <c r="C73" t="str">
         <f>VLOOKUP(A73,modèles!$A$1:$M$140,13,0)</f>
-        <v>legacysagarey</v>
+        <v>Vrai</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -12698,9 +14097,12 @@
       <c r="A74" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="B74" t="s">
+        <v>680</v>
+      </c>
       <c r="C74" t="str">
         <f>VLOOKUP(A74,modèles!$A$1:$M$140,13,0)</f>
-        <v>marq2</v>
+        <v>Vrai</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -12708,9 +14110,12 @@
       <c r="A75" s="3" t="s">
         <v>251</v>
       </c>
+      <c r="B75" t="s">
+        <v>680</v>
+      </c>
       <c r="C75" t="str">
         <f>VLOOKUP(A75,modèles!$A$1:$M$140,13,0)</f>
-        <v>marq2aviator</v>
+        <v>Vrai</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -12718,9 +14123,12 @@
       <c r="A76" s="3" t="s">
         <v>253</v>
       </c>
+      <c r="B76" t="s">
+        <v>680</v>
+      </c>
       <c r="C76" t="str">
         <f>VLOOKUP(A76,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqadventurer</v>
+        <v>Faux</v>
       </c>
       <c r="D76" s="3"/>
     </row>
@@ -12728,9 +14136,12 @@
       <c r="A77" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="B77" t="s">
+        <v>680</v>
+      </c>
       <c r="C77" t="str">
         <f>VLOOKUP(A77,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqathlete</v>
+        <v>Faux</v>
       </c>
       <c r="D77" s="3"/>
     </row>
@@ -12738,9 +14149,12 @@
       <c r="A78" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="B78" t="s">
+        <v>680</v>
+      </c>
       <c r="C78" t="str">
         <f>VLOOKUP(A78,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqaviator</v>
+        <v>Faux</v>
       </c>
       <c r="D78" s="3"/>
     </row>
@@ -12748,9 +14162,12 @@
       <c r="A79" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="B79" t="s">
+        <v>680</v>
+      </c>
       <c r="C79" t="str">
         <f>VLOOKUP(A79,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqcaptain</v>
+        <v>Faux</v>
       </c>
       <c r="D79" s="3"/>
     </row>
@@ -12758,9 +14175,12 @@
       <c r="A80" s="3" t="s">
         <v>261</v>
       </c>
+      <c r="B80" t="s">
+        <v>680</v>
+      </c>
       <c r="C80" t="str">
         <f>VLOOKUP(A80,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqcommander</v>
+        <v>Faux</v>
       </c>
       <c r="D80" s="3"/>
     </row>
@@ -12768,9 +14188,12 @@
       <c r="A81" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="B81" t="s">
+        <v>680</v>
+      </c>
       <c r="C81" t="str">
         <f>VLOOKUP(A81,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqdriver</v>
+        <v>Faux</v>
       </c>
       <c r="D81" s="3"/>
     </row>
@@ -12778,9 +14201,12 @@
       <c r="A82" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="B82" t="s">
+        <v>680</v>
+      </c>
       <c r="C82" t="str">
         <f>VLOOKUP(A82,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqexpedition</v>
+        <v>Faux</v>
       </c>
       <c r="D82" s="3"/>
     </row>
@@ -12788,9 +14214,12 @@
       <c r="A83" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="B83" t="s">
+        <v>680</v>
+      </c>
       <c r="C83" t="str">
         <f>VLOOKUP(A83,modèles!$A$1:$M$140,13,0)</f>
-        <v>marqgolfer</v>
+        <v>Faux</v>
       </c>
       <c r="D83" s="3"/>
     </row>
@@ -12798,9 +14227,12 @@
       <c r="A84" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="B84" t="s">
+        <v>680</v>
+      </c>
       <c r="C84" t="str">
         <f>VLOOKUP(A84,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu</v>
+        <v>Vrai</v>
       </c>
       <c r="D84" s="3"/>
     </row>
@@ -12808,9 +14240,12 @@
       <c r="A85" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="B85" t="s">
+        <v>680</v>
+      </c>
       <c r="C85" t="str">
         <f>VLOOKUP(A85,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu2</v>
+        <v>Vrai</v>
       </c>
       <c r="D85" s="3"/>
     </row>
@@ -12818,9 +14253,12 @@
       <c r="A86" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="B86" t="s">
+        <v>680</v>
+      </c>
       <c r="C86" t="str">
         <f>VLOOKUP(A86,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu2plus</v>
+        <v>Vrai</v>
       </c>
       <c r="D86" s="3"/>
     </row>
@@ -12828,9 +14266,12 @@
       <c r="A87" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="B87" t="s">
+        <v>680</v>
+      </c>
       <c r="C87" t="str">
         <f>VLOOKUP(A87,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu2s</v>
+        <v>Vrai</v>
       </c>
       <c r="D87" s="3"/>
     </row>
@@ -12838,9 +14279,12 @@
       <c r="A88" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="B88" t="s">
+        <v>680</v>
+      </c>
       <c r="C88" t="str">
         <f>VLOOKUP(A88,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu3</v>
+        <v>Vrai</v>
       </c>
       <c r="D88" s="3"/>
     </row>
@@ -12848,9 +14292,12 @@
       <c r="A89" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="B89" t="s">
+        <v>680</v>
+      </c>
       <c r="C89" t="str">
         <f>VLOOKUP(A89,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu3s</v>
+        <v>Vrai</v>
       </c>
       <c r="D89" s="3"/>
     </row>
@@ -12858,9 +14305,12 @@
       <c r="A90" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="B90" t="s">
+        <v>680</v>
+      </c>
       <c r="C90" t="str">
         <f>VLOOKUP(A90,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu441mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D90" s="3"/>
     </row>
@@ -12868,9 +14318,12 @@
       <c r="A91" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="B91" t="s">
+        <v>680</v>
+      </c>
       <c r="C91" t="str">
         <f>VLOOKUP(A91,modèles!$A$1:$M$140,13,0)</f>
-        <v>venu445mm</v>
+        <v>Vrai</v>
       </c>
       <c r="D91" s="3"/>
     </row>
@@ -12878,9 +14331,12 @@
       <c r="A92" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="B92" t="s">
+        <v>680</v>
+      </c>
       <c r="C92" t="str">
         <f>VLOOKUP(A92,modèles!$A$1:$M$140,13,0)</f>
-        <v>venud</v>
+        <v>Vrai</v>
       </c>
       <c r="D92" s="3"/>
     </row>
@@ -12888,9 +14344,12 @@
       <c r="A93" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="B93" t="s">
+        <v>680</v>
+      </c>
       <c r="C93" t="str">
         <f>VLOOKUP(A93,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive3</v>
+        <v>Vrai</v>
       </c>
       <c r="D93" s="3"/>
     </row>
@@ -12898,9 +14357,12 @@
       <c r="A94" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="B94" t="s">
+        <v>680</v>
+      </c>
       <c r="C94" t="str">
         <f>VLOOKUP(A94,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive3m</v>
+        <v>Vrai</v>
       </c>
       <c r="D94" s="3"/>
     </row>
@@ -12908,9 +14370,12 @@
       <c r="A95" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="B95" t="s">
+        <v>680</v>
+      </c>
       <c r="C95" t="str">
         <f>VLOOKUP(A95,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive3mlte</v>
+        <v>Vrai</v>
       </c>
       <c r="D95" s="3"/>
     </row>
@@ -12918,9 +14383,12 @@
       <c r="A96" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="B96" t="s">
+        <v>680</v>
+      </c>
       <c r="C96" t="str">
         <f>VLOOKUP(A96,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive4</v>
+        <v>Vrai</v>
       </c>
       <c r="D96" s="3"/>
     </row>
@@ -12928,9 +14396,12 @@
       <c r="A97" s="3" t="s">
         <v>313</v>
       </c>
+      <c r="B97" t="s">
+        <v>680</v>
+      </c>
       <c r="C97" t="str">
         <f>VLOOKUP(A97,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive4s</v>
+        <v>Vrai</v>
       </c>
       <c r="D97" s="3"/>
     </row>
@@ -12938,9 +14409,12 @@
       <c r="A98" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="B98" t="s">
+        <v>680</v>
+      </c>
       <c r="C98" t="str">
         <f>VLOOKUP(A98,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive5</v>
+        <v>Vrai</v>
       </c>
       <c r="D98" s="3"/>
     </row>
@@ -12948,9 +14422,12 @@
       <c r="A99" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="B99" t="s">
+        <v>680</v>
+      </c>
       <c r="C99" t="str">
         <f>VLOOKUP(A99,modèles!$A$1:$M$140,13,0)</f>
-        <v>vivoactive6</v>
+        <v>Vrai</v>
       </c>
       <c r="D99" s="3"/>
     </row>
@@ -12980,34 +14457,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C1" t="s">
         <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J1" t="s">
         <v>332</v>
       </c>
       <c r="K1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -13215,7 +14692,7 @@
         <v>1746796363180</v>
       </c>
       <c r="I7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -13242,7 +14719,7 @@
         <v>1744817093</v>
       </c>
       <c r="I8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -13308,7 +14785,7 @@
         <v>0.372102106482392</v>
       </c>
       <c r="F11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -13332,7 +14809,7 @@
         <v>0.36507953703524737</v>
       </c>
       <c r="F12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
